--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.775048945656135</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03875244728280675</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03875244728280675</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.0620039156524908</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06046316076635782</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01046316076635782</v>
+        <v>0.01828357162598611</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008712761163152538</v>
+        <v>0.01522488245605552</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0007095924362288189</v>
+        <v>0.001698615476400732</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007191449458183055</v>
+        <v>0.0007965277173036839</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001664818196114123</v>
+        <v>0.005022352096132499</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007822374912726427</v>
+        <v>0.0007861814895370352</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004203458625014367</v>
+        <v>0.008791845915017527</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007324194191839295</v>
+        <v>0.0007864338906737007</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008479497037590988</v>
+        <v>0.001698615476400732</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007817443531775665</v>
+        <v>0.0007965277173036839</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001313279675185998</v>
+        <v>0.003750712347315041</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001438289891636611</v>
+        <v>0.001593055434607368</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003385609458855722</v>
+        <v>0.01161901297076931</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001564474982545285</v>
+        <v>0.00157236297907407</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.00968398049917113</v>
+        <v>0.01921577809313224</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001464838838367859</v>
+        <v>0.001572867781347401</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01857914932863935</v>
+        <v>0.003750712347315041</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001563488706355133</v>
+        <v>0.001593055434607368</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002705156519599891</v>
+        <v>0.005507887927061611</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002157434837454916</v>
+        <v>0.002389583151911052</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005116529771485863</v>
+        <v>0.01619887533384717</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002346712473817928</v>
+        <v>0.002358544468611106</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01414681722551783</v>
+        <v>0.02791438871140606</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002197258257551789</v>
+        <v>0.002359301672021102</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02782217180101137</v>
+        <v>0.005507887927061611</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002345233059532699</v>
+        <v>0.002389583151911052</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.007021739529959159</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002904253721050846</v>
+        <v>0.003186110869214736</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007011735117265598</v>
+        <v>0.02047083189530291</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003128949965090571</v>
+        <v>0.003144725958148141</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01819722040710209</v>
+        <v>0.03433026994690103</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002929677676735718</v>
+        <v>0.003145735562694803</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0365317793825734</v>
+        <v>0.007021739529959159</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003126977412710266</v>
+        <v>0.003186110869214736</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002904253721050846</v>
+        <v>0.004996249999999997</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006590064196127836</v>
+        <v>0.008543864470326422</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003595724729091527</v>
+        <v>0.00398263858651842</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008425381479456005</v>
+        <v>0.02299999999999996</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003911187456363214</v>
+        <v>0.00354672067901234</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02214044164697157</v>
+        <v>0.04299999999999998</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003662097095919647</v>
+        <v>0.004131514423076921</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04253118700119185</v>
+        <v>0.008543864470326422</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003908721765887832</v>
+        <v>0.00398263858651842</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007297350673230243</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004314869674909833</v>
+        <v>0.004996249999999997</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
+        <v>0.02737338828325739</v>
+      </c>
+      <c r="K71" s="171" t="n">
+        <v>0.004717088937222212</v>
+      </c>
+      <c r="L71" s="172" t="n">
+        <v>0.0465000154848797</v>
+      </c>
+      <c r="M71" s="170" t="n">
+        <v>0.004718603344042204</v>
+      </c>
+      <c r="N71" s="171" t="n">
         <v>0.009999999999999995</v>
       </c>
-      <c r="K71" s="171" t="n">
+      <c r="O71" s="172" t="n">
         <v>0.004996249999999997</v>
-      </c>
-      <c r="L71" s="172" t="n">
-        <v>0.0248817325481738</v>
-      </c>
-      <c r="M71" s="170" t="n">
-        <v>0.004394516515103577</v>
-      </c>
-      <c r="N71" s="171" t="n">
-        <v>0.04899999999999999</v>
-      </c>
-      <c r="O71" s="172" t="n">
-        <v>0.004753713592233008</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006919863528854348</v>
+        <v>0.01047899518915472</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005034014620728138</v>
+        <v>0.005575694021125788</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01055828867423318</v>
+        <v>0.02983766895600157</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005475662438908499</v>
+        <v>0.005503270426759246</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02899999999999997</v>
+        <v>0.04939190442370317</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005307371794871789</v>
+        <v>0.005505037234715906</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05149730506129385</v>
+        <v>0.01047899518915472</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005472210472242965</v>
+        <v>0.005575694021125788</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.007476063173228603</v>
+        <v>0.01124109679461188</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005753159566546444</v>
+        <v>0.006372221738429471</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01137918760303282</v>
+        <v>0.03228222899194955</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006257899930181141</v>
+        <v>0.006289451916296282</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03030387845968888</v>
+        <v>0.05337804879381919</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005859355353471436</v>
+        <v>0.006291471125389606</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05594814769663242</v>
+        <v>0.01124109679461188</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006253954825420532</v>
+        <v>0.006372221738429471</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.006984410016581462</v>
+        <v>0.01222924964095848</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006472304512364749</v>
+        <v>0.007168749455733155</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01180373814769471</v>
+        <v>0.03433086475348657</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007040137421453784</v>
+        <v>0.007075633405833316</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03169160882822658</v>
+        <v>0.0578112705017888</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006591774772655366</v>
+        <v>0.007077905016063307</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0580233892701848</v>
+        <v>0.01222924964095848</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007035699178598098</v>
+        <v>0.007168749455733155</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009463364469141394</v>
+        <v>0.0128528790983439</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007191449458183055</v>
+        <v>0.00796527717303684</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01264950762337864</v>
+        <v>0.03670737260299797</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007822374912726427</v>
+        <v>0.007861814895370351</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03384673517532649</v>
+        <v>0.06104439145417284</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007324194191839294</v>
+        <v>0.007864338906737007</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06094680505702832</v>
+        <v>0.0128528790983439</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007817443531775664</v>
+        <v>0.00796527717303684</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009931386941136856</v>
+        <v>0.01342141053691753</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00791059440400136</v>
+        <v>0.008761804890340523</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01323406334524442</v>
+        <v>0.03913554890286911</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00860461240399907</v>
+        <v>0.008647996384907387</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03511458653085187</v>
+        <v>0.06333023355753226</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008056613611023224</v>
+        <v>0.008650772797410708</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06384217033224021</v>
+        <v>0.01342141053691753</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008599187884953232</v>
+        <v>0.008761804890340523</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01046316076635782</v>
+        <v>0.01434426932682868</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008712761163152538</v>
+        <v>0.009558332607644207</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01367497262845185</v>
+        <v>0.04113919001548524</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009386849895271712</v>
+        <v>0.009434177874444423</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03664049192466604</v>
+        <v>0.06612161871842787</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008789033030207154</v>
+        <v>0.009437206688084409</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06493326037089781</v>
+        <v>0.01434426932682868</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009380932238130798</v>
+        <v>0.009558332607644207</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01090261973489655</v>
+        <v>0.01463088083822678</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009348884295637972</v>
+        <v>0.01035486032494789</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01408980278816074</v>
+        <v>0.04314209230323171</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01016908738654435</v>
+        <v>0.01022035936398146</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03806978038663233</v>
+        <v>0.06847136884342048</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009521452449391083</v>
+        <v>0.01022364057875811</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06744385044807832</v>
+        <v>0.01463088083822678</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01016267659130836</v>
+        <v>0.01035486032494789</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.009414957230502202</v>
+        <v>0.01549067044126111</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01006802924145628</v>
+        <v>0.01115138804225158</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01459612113953085</v>
+        <v>0.04476805212849388</v>
       </c>
       <c r="K79" t="n">
-        <v>0.010951324877817</v>
+        <v>0.01100654085351849</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03874778094661402</v>
+        <v>0.07163230583907115</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01025387186857501</v>
+        <v>0.01101007446943181</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07039771583885912</v>
+        <v>0.01549067044126111</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01094442094448593</v>
+        <v>0.01115138804225158</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01194053219110659</v>
+        <v>0.01603306350608111</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01078717418727458</v>
+        <v>0.01194791575955526</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01521149499772197</v>
+        <v>0.04730768108444461</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01173356236908964</v>
+        <v>0.01215848773755948</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04011982263447439</v>
+        <v>0.07395725161194078</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01098629128775894</v>
+        <v>0.01179650836010551</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07341863181831737</v>
+        <v>0.01603306350608111</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0117261652976635</v>
+        <v>0.01194791575955526</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01147597777335041</v>
+        <v>0.01656748540283612</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01150631913309289</v>
+        <v>0.01274444347685894</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01595349167789395</v>
+        <v>0.04768830615563804</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01251579986036228</v>
+        <v>0.01257890383259256</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04093123448007682</v>
+        <v>0.07633179054290307</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01171871070694287</v>
+        <v>0.01222348424679421</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07633179054290307</v>
+        <v>0.01656748540283612</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01234215885113202</v>
+        <v>0.01274444347685894</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01201792713387441</v>
+        <v>0.01700336150167552</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01222546407891119</v>
+        <v>0.01354097119416263</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01653967849520653</v>
+        <v>0.0495445530692864</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01329803735163492</v>
+        <v>0.0133650853221296</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04212734551328454</v>
+        <v>0.07886932941832081</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0124511301261268</v>
+        <v>0.01336937614145291</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07998465277853251</v>
+        <v>0.01700336150167552</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01328965400401863</v>
+        <v>0.01354097119416263</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01156301342931931</v>
+        <v>0.01735011717274865</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0129446090247295</v>
+        <v>0.01433749891146631</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01688762276481955</v>
+        <v>0.05141077854891407</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01408027484290757</v>
+        <v>0.01415126681166663</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0437534847639609</v>
+        <v>0.08236923960983683</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01318354954531073</v>
+        <v>0.01415581003212661</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08354051145892222</v>
+        <v>0.01735011717274865</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0140713983571962</v>
+        <v>0.01433749891146631</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01310786981632581</v>
+        <v>0.01828357162598611</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0136637539705478</v>
+        <v>0.01522488245605552</v>
       </c>
       <c r="J84" t="n">
+        <v>0.05278418545554434</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.01493744830120367</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.08409173588535912</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.01494224392280031</v>
+      </c>
+      <c r="N84" t="n">
         <v>0.01828357162598611</v>
       </c>
-      <c r="K84" t="n">
+      <c r="O84" t="n">
         <v>0.01522488245605552</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.04585498126196921</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.01391596896449466</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.08871084454634831</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.01485314271037376</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01364912945153469</v>
+        <v>0.01850901614103616</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01438289891636611</v>
+        <v>0.01593055434607368</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01856000066402845</v>
+        <v>0.05396197665020055</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01564474982545285</v>
+        <v>0.0157236297907407</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04730768108444461</v>
+        <v>0.0869318296586431</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01442985357864202</v>
+        <v>0.01572867781347401</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0931060935511111</v>
+        <v>0.01850901614103616</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01563488706355133</v>
+        <v>0.01593055434607368</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01318342549158662</v>
+        <v>0.0191206086381131</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01510204386218441</v>
+        <v>0.01672708206337736</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01972517717272029</v>
+        <v>0.05584135499390591</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01642698731672549</v>
+        <v>0.01650981128027774</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04964491492587023</v>
+        <v>0.08968453234344459</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01538080780286252</v>
+        <v>0.01651511170414772</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09933669998351097</v>
+        <v>0.0191206086381131</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0164166314167289</v>
+        <v>0.01672708206337736</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01570739109312234</v>
+        <v>0.02004974504067973</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01582118880800272</v>
+        <v>0.01752360978068105</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02078429007768702</v>
+        <v>0.05731952334768375</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01720922480799814</v>
+        <v>0.01729599276981477</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05211987674540286</v>
+        <v>0.09224485535351951</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01611322722204645</v>
+        <v>0.01730154559482142</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1043131053538482</v>
+        <v>0.02004974504067973</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01719837576990646</v>
+        <v>0.01752360978068105</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0162176594127826</v>
+        <v>0.02059427210178519</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01654033375382103</v>
+        <v>0.01832013749798473</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0224934050862356</v>
+        <v>0.05929368457255743</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01799146229927078</v>
+        <v>0.01808217425935181</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05573637907937512</v>
+        <v>0.0958078101026234</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01684564664123038</v>
+        <v>0.01808797948549512</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1086457511724233</v>
+        <v>0.02059427210178519</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01798012012308403</v>
+        <v>0.01832013749798473</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01571086360720809</v>
+        <v>0.02135203657447857</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01725947869963933</v>
+        <v>0.01911666521528841</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0238085879056729</v>
+        <v>0.06136104152955008</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01877369979054342</v>
+        <v>0.01886835574888885</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05911745458793635</v>
+        <v>0.09736840800451202</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01757806606041431</v>
+        <v>0.01887441337616882</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1140450789495367</v>
+        <v>0.02135203657447857</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0187618644762616</v>
+        <v>0.01911666521528841</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01518363683303956</v>
+        <v>0.02202088521180898</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01797862364545764</v>
+        <v>0.0199131929325921</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02558590424330601</v>
+        <v>0.06321879707968511</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01955593728181607</v>
+        <v>0.01965453723842588</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06178613593123602</v>
+        <v>0.1012216604729412</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01831048547959824</v>
+        <v>0.01966084726684252</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1199215301954887</v>
+        <v>0.02202088521180898</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01954360882943916</v>
+        <v>0.0199131929325921</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01563261224691772</v>
+        <v>0.02259866476682554</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01869776859127594</v>
+        <v>0.02070972064989578</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02718141980644172</v>
+        <v>0.06466415408398579</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02033817477308871</v>
+        <v>0.02044071872796292</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06576545576942341</v>
+        <v>0.1028625789216667</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01904290489878217</v>
+        <v>0.02044728115751622</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1242855464205796</v>
+        <v>0.02259866476682554</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02032535318261673</v>
+        <v>0.02070972064989578</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.0180544230054833</v>
+        <v>0.02338322199257738</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01941691353709425</v>
+        <v>0.02150624836719947</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02845120030238708</v>
+        <v>0.06559431540347532</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02112041226436135</v>
+        <v>0.02122690021749995</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06947844676264808</v>
+        <v>0.1050861747644442</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01977532431796609</v>
+        <v>0.02123371504818992</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1301475691351099</v>
+        <v>0.02338322199257738</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02110709753579429</v>
+        <v>0.02150624836719947</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01744570226537703</v>
+        <v>0.02397240364211357</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02013605848291255</v>
+        <v>0.02230277608450315</v>
       </c>
       <c r="J93" t="n">
-        <v>0.030151311438449</v>
+        <v>0.06790648389917714</v>
       </c>
       <c r="K93" t="n">
-        <v>0.021902649755634</v>
+        <v>0.02201308170703698</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07314814157105931</v>
+        <v>0.1078874594150294</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02050774373715002</v>
+        <v>0.02202014893886362</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1337180398493799</v>
+        <v>0.02397240364211357</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02188884188897186</v>
+        <v>0.02230277608450315</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01780308318323962</v>
+        <v>0.02456405646848327</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02085520342873086</v>
+        <v>0.02309930380180683</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0315378189219344</v>
+        <v>0.06949786243211442</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02268488724690664</v>
+        <v>0.02279926319657402</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07589757285480658</v>
+        <v>0.1101614442871781</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02124016315633396</v>
+        <v>0.02280658282953732</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1379074000736899</v>
+        <v>0.02456405646848327</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02267058624214943</v>
+        <v>0.02309930380180683</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01712319891571181</v>
+        <v>0.02545602722473557</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02157434837454916</v>
+        <v>0.02389583151911052</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03276678846015028</v>
+        <v>0.07116565386331047</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02346712473817928</v>
+        <v>0.02358544468611106</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07944977327403926</v>
+        <v>0.114203140794646</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02197258257551788</v>
+        <v>0.02359301672021102</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1411260913183405</v>
+        <v>0.02545602722473557</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02345233059532699</v>
+        <v>0.02389583151911052</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01740268261943432</v>
+        <v>0.02614616266391959</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02229349332036747</v>
+        <v>0.0246923592364142</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03369428576040354</v>
+        <v>0.07190706105378861</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02424936222945192</v>
+        <v>0.02437162617564809</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08292777548890676</v>
+        <v>0.1164075603511889</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02270500199470181</v>
+        <v>0.02437945061088473</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1431845550936319</v>
+        <v>0.02614616266391959</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02423407494850456</v>
+        <v>0.0246923592364142</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01763816745104788</v>
+        <v>0.02663230953908442</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02301263826618578</v>
+        <v>0.02548888695371788</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03467637653000118</v>
+        <v>0.07391928686457214</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02503159972072456</v>
+        <v>0.02515780766518513</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08495461215955838</v>
+        <v>0.1178697143705624</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02343742141388575</v>
+        <v>0.02516588450155842</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1444932329098645</v>
+        <v>0.02663230953908442</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02501581930168213</v>
+        <v>0.02548888695371788</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0198262865671932</v>
+        <v>0.0274123146032792</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02373178321200408</v>
+        <v>0.02628541467102157</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0350691264762501</v>
+        <v>0.07499953415668428</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02581383721199721</v>
+        <v>0.02594398915472216</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08705331594614366</v>
+        <v>0.1202846142665225</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02416984083306967</v>
+        <v>0.02595231839223212</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1466625662773389</v>
+        <v>0.0274123146032792</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02579756365485969</v>
+        <v>0.02628541467102157</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01796367312451102</v>
+        <v>0.02788402460955305</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02445092815782239</v>
+        <v>0.02708194238832525</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03532905621905234</v>
+        <v>0.07654500579114837</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02659607470326985</v>
+        <v>0.0267301706442592</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08894691950881195</v>
+        <v>0.1237472714528249</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0249022602522536</v>
+        <v>0.02673875228290583</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1459862189757381</v>
+        <v>0.02788402460955305</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02657930800803726</v>
+        <v>0.02708194238832525</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01804696027964207</v>
+        <v>0.02884528631095507</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02517007310364069</v>
+        <v>0.02787847010562894</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03527275418572336</v>
+        <v>0.07845290462898769</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0273783121945425</v>
+        <v>0.02751635213379623</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09015845550771259</v>
+        <v>0.1252526973432251</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02563467967143753</v>
+        <v>0.02752518617357953</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1465132083821998</v>
+        <v>0.02884528631095507</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02736105236121482</v>
+        <v>0.02787847010562894</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01807283994667163</v>
+        <v>0.02929394646053435</v>
       </c>
       <c r="G101" t="n">
-        <v>0.025889218049459</v>
+        <v>0.02867499782293262</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0349244727806132</v>
+        <v>0.07942043353122552</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02816054968581514</v>
+        <v>0.02830253362333326</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09051095660299513</v>
+        <v>0.1282959033514791</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02636709909062146</v>
+        <v>0.02831162006425323</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1456721047222077</v>
+        <v>0.02929394646053435</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02814279671439239</v>
+        <v>0.02867499782293262</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01905407701902823</v>
+        <v>0.02992785181134004</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02660836299527731</v>
+        <v>0.02947152554023631</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03489687469421227</v>
+        <v>0.08054479535888517</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02894278717708778</v>
+        <v>0.0290887151128703</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09016600787354845</v>
+        <v>0.1305719008913424</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02709951850980539</v>
+        <v>0.02909805395492693</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1448769586455048</v>
+        <v>0.02992785181134004</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02892454106756996</v>
+        <v>0.02947152554023631</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02000418464815983</v>
+        <v>0.03044484911642123</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02732750794109561</v>
+        <v>0.03026805325753999</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03440262261701094</v>
+        <v>0.0826231929729899</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02972502466836042</v>
+        <v>0.02987489660240734</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09088638493801557</v>
+        <v>0.1321757013765709</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02783193792898932</v>
+        <v>0.02988448784560063</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1437418208018347</v>
+        <v>0.03044484911642123</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02970628542074753</v>
+        <v>0.03026805325753999</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01992597358580852</v>
+        <v>0.03114278512882702</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02804665288691392</v>
+        <v>0.03106458097484367</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03395437923949964</v>
+        <v>0.083052829234563</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03050726215963306</v>
+        <v>0.03066107809194437</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08988875252669465</v>
+        <v>0.1343023162209203</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02856435734817325</v>
+        <v>0.03067092173627433</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1429807418409406</v>
+        <v>0.03114278512882702</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03048802977392509</v>
+        <v>0.03106458097484367</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01782225458371636</v>
+        <v>0.03161950660160658</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02876579783273222</v>
+        <v>0.03186110869214736</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03376480725216872</v>
+        <v>0.0849309070046278</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03128949965090571</v>
+        <v>0.0314472595814814</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08968457639174968</v>
+        <v>0.1366467568381464</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02929677676735718</v>
+        <v>0.03145735562694803</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1422077724125658</v>
+        <v>0.03161950660160658</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03126977412710265</v>
+        <v>0.03186110869214736</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01869583839362542</v>
+        <v>0.03247286028780898</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02948494277855053</v>
+        <v>0.03265763640945104</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03314656934550862</v>
+        <v>0.08585462914420752</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03207173714217835</v>
+        <v>0.03223344107101844</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08948532228534459</v>
+        <v>0.1382040346420049</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03002919618654111</v>
+        <v>0.03224378951762173</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1421369631664536</v>
+        <v>0.03247286028780898</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03205151848028023</v>
+        <v>0.03265763640945104</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0185495357672778</v>
+        <v>0.03280069294048331</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03020408772436883</v>
+        <v>0.03345416412675473</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03281232821000968</v>
+        <v>0.0864211985143255</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03285397463345099</v>
+        <v>0.03301962256055548</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08860245595964328</v>
+        <v>0.1390691610462515</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03076161560572504</v>
+        <v>0.03303022340829544</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1412823647523473</v>
+        <v>0.03280069294048331</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0328332628334578</v>
+        <v>0.03345416412675473</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01738615745641554</v>
+        <v>0.03330085131267872</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03092323267018713</v>
+        <v>0.03425069184405841</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03227474653616236</v>
+        <v>0.08732781797600497</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03363621212472363</v>
+        <v>0.03380580405009252</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08844744316680975</v>
+        <v>0.141537147464642</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03149403502490897</v>
+        <v>0.03381665729896913</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1401580278199903</v>
+        <v>0.03330085131267872</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03361500718663536</v>
+        <v>0.03425069184405841</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01720851421278075</v>
+        <v>0.03367118215744434</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03164237761600544</v>
+        <v>0.03504721956136209</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03184648701445698</v>
+        <v>0.0882716903902693</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03441844961599628</v>
+        <v>0.03459198553962955</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08773174965900793</v>
+        <v>0.1431030053109322</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0322264544440929</v>
+        <v>0.03460309118964283</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1389780030191258</v>
+        <v>0.03367118215744434</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03439675153981293</v>
+        <v>0.03504721956136209</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01701941678811549</v>
+        <v>0.03410953222782925</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03236152256182374</v>
+        <v>0.03584374727866577</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03144021233538399</v>
+        <v>0.08955001861814174</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03520068710726892</v>
+        <v>0.03537816702916658</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08626684118840178</v>
+        <v>0.1448617459988777</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03295887386327683</v>
+        <v>0.03538952508031654</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1365563409994972</v>
+        <v>0.03410953222782925</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03517849589299049</v>
+        <v>0.03584374727866577</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01782167593416183</v>
+        <v>0.03471374827688256</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03308066750764205</v>
+        <v>0.03664027499596946</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03136858518943375</v>
+        <v>0.09006000552064561</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03598292459854156</v>
+        <v>0.03616434851870362</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08616418350715518</v>
+        <v>0.1457083809422344</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03369129328246076</v>
+        <v>0.03617595897099023</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1362070924108477</v>
+        <v>0.03471374827688256</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03596024024616806</v>
+        <v>0.03664027499596946</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01861810240266185</v>
+        <v>0.0350816770576534</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03379981245346036</v>
+        <v>0.03743680271327315</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03084426826709666</v>
+        <v>0.09109885395880418</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0367651620898142</v>
+        <v>0.03695053000824065</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08533524236743215</v>
+        <v>0.1473379215547577</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03442371270164469</v>
+        <v>0.03696239286166394</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1342443079029207</v>
+        <v>0.0350816770576534</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03674198459934562</v>
+        <v>0.03743680271327315</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01741150694535763</v>
+        <v>0.03531116532319087</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03451895739927866</v>
+        <v>0.03823333043057683</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03057992425886313</v>
+        <v>0.09226376679364068</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03754739958108685</v>
+        <v>0.03773671149777769</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0839914835213966</v>
+        <v>0.1482453792502038</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03515613212082862</v>
+        <v>0.03774882675233764</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1334820381254596</v>
+        <v>0.03531116532319087</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03752372895252319</v>
+        <v>0.03823333043057683</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01620470031399124</v>
+        <v>0.03580005982654409</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03523810234509697</v>
+        <v>0.03902985814788051</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03038821585522354</v>
+        <v>0.09285194688617837</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03832963707235949</v>
+        <v>0.03852289298731473</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08284437272121245</v>
+        <v>0.1494257654423283</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03588855154001255</v>
+        <v>0.03853526064301133</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1316343337282074</v>
+        <v>0.03580005982654409</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03830547330570076</v>
+        <v>0.03902985814788051</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01600049326030475</v>
+        <v>0.03604620732076221</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03595724729091528</v>
+        <v>0.03982638586518419</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0301818057466683</v>
+        <v>0.09256059709744077</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03911187456363213</v>
+        <v>0.03930907447685176</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08240537571904369</v>
+        <v>0.1498740915448868</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03662097095919647</v>
+        <v>0.03932169453368504</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1313152453609077</v>
+        <v>0.03604620732076221</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03908721765887833</v>
+        <v>0.03982638586518419</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01580169653604024</v>
+        <v>0.03604745455889426</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03667639223673358</v>
+        <v>0.04062291358248788</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03046773987441639</v>
+        <v>0.0932869202884509</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03989411205490478</v>
+        <v>0.0400952559663888</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08188595826705428</v>
+        <v>0.1499853689716351</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0373533903783804</v>
+        <v>0.04010812842435874</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1302388236733036</v>
+        <v>0.03604745455889426</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03986896201205589</v>
+        <v>0.04062291358248788</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01661112089293979</v>
+        <v>0.03640164829398941</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03739553718255189</v>
+        <v>0.04141944129979156</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03020492475797389</v>
+        <v>0.09362811932023218</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04067634954617742</v>
+        <v>0.04088143745592583</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0806975861174081</v>
+        <v>0.1518546091363289</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03808580979756433</v>
+        <v>0.04089456231503244</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1294191193151386</v>
+        <v>0.03640164829398941</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04065070636523346</v>
+        <v>0.04141944129979156</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01743157708274547</v>
+        <v>0.03650663527909677</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03811468212837019</v>
+        <v>0.04221596901709525</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03028018904181563</v>
+        <v>0.09368139705380787</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04145858703745006</v>
+        <v>0.04166761894546286</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07955172502226915</v>
+        <v>0.1522768234527241</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03881822921674826</v>
+        <v>0.04168099620570614</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1270701829361559</v>
+        <v>0.03650663527909677</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04143245071841102</v>
+        <v>0.04221596901709525</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01526587585719935</v>
+        <v>0.03656714325197222</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0388338270741885</v>
+        <v>0.04301249673439893</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03039069412869629</v>
+        <v>0.09461536216888919</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04224082452872271</v>
+        <v>0.0424538004349999</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07955984073380135</v>
+        <v>0.1526635810858061</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03955064863593219</v>
+        <v>0.04246743009637984</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1271060651860988</v>
+        <v>0.03656714325197222</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04221419507158859</v>
+        <v>0.04301249673439893</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01711682796804352</v>
+        <v>0.0364651403847016</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0395529720200068</v>
+        <v>0.04380902445170261</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03073360142137055</v>
+        <v>0.09431300007043567</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04302306201999535</v>
+        <v>0.04323998192453694</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07873339900416862</v>
+        <v>0.1526602201956413</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04028306805511612</v>
+        <v>0.04325386398705354</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1257408167147105</v>
+        <v>0.0364651403847016</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04299593942476616</v>
+        <v>0.04380902445170261</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01498724416702003</v>
+        <v>0.03654921764541819</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0402721169658251</v>
+        <v>0.0446055521690063</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03080607232259305</v>
+        <v>0.09461186724622112</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04380529951126799</v>
+        <v>0.04402616341407397</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07808386558553498</v>
+        <v>0.1516515534736537</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04101548747430005</v>
+        <v>0.04404029787772724</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1251884881717347</v>
+        <v>0.03654921764541819</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04377768377794372</v>
+        <v>0.0446055521690063</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01487993520587098</v>
+        <v>0.03631803313684714</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04099126191164341</v>
+        <v>0.04540207988630998</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03110526823511843</v>
+        <v>0.09409721375128827</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04458753700254063</v>
+        <v>0.04481234490361101</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07762270623006431</v>
+        <v>0.1516031194391976</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04174790689348398</v>
+        <v>0.04482673176840094</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1239631302069142</v>
+        <v>0.03631803313684714</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04455942813112129</v>
+        <v>0.04540207988630998</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01479771183633844</v>
+        <v>0.03647234030766726</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04171040685746172</v>
+        <v>0.04619860760361366</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03122835056170137</v>
+        <v>0.09457126817866321</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04536977449381328</v>
+        <v>0.04559852639314804</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07706138668992057</v>
+        <v>0.1524188007440805</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04248032631266791</v>
+        <v>0.04561316565907464</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1237787934699928</v>
+        <v>0.03647234030766726</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04534117248429886</v>
+        <v>0.04619860760361366</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01674338481016448</v>
+        <v>0.0361128926065573</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04242955180328003</v>
+        <v>0.04699513532091735</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03147248070509651</v>
+        <v>0.09363417952575354</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04615201198508592</v>
+        <v>0.04638470788268508</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0766113727172677</v>
+        <v>0.1523999111759378</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04321274573185184</v>
+        <v>0.04639959954974834</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1233495286107134</v>
+        <v>0.0361128926065573</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04612291683747642</v>
+        <v>0.04699513532091735</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01671976487909117</v>
+        <v>0.03614044348219596</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04314869674909833</v>
+        <v>0.04779166303822104</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03163482006805851</v>
+        <v>0.0938860967899669</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04693424947635856</v>
+        <v>0.04717088937222211</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07728413006426971</v>
+        <v>0.1514477645224047</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04394516515103577</v>
+        <v>0.04718603344042205</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1239893862788194</v>
+        <v>0.03614044348219596</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04690466119065399</v>
+        <v>0.04779166303822104</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01473103578266113</v>
+        <v>0.03595574638326207</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04386784169491664</v>
+        <v>0.04858819075552472</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03191253005334199</v>
+        <v>0.0944271689687109</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04771648696763121</v>
+        <v>0.04795707086175915</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07699373963776876</v>
+        <v>0.1511636745711163</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0446775845702197</v>
+        <v>0.04797246733109575</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1236681759088156</v>
+        <v>0.03595574638326207</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04768640554383156</v>
+        <v>0.04858819075552472</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01477981713895488</v>
+        <v>0.03585955475843434</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04458698664073494</v>
+        <v>0.0493847184728284</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03220277206370166</v>
+        <v>0.09365754505939311</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04849872445890385</v>
+        <v>0.04874325235129618</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07675516629369875</v>
+        <v>0.1513489551097079</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04541000398940363</v>
+        <v>0.04875890122176945</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1243851399121681</v>
+        <v>0.03585955475843434</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04846814989700912</v>
+        <v>0.0493847184728284</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01486305592030256</v>
+        <v>0.03585262205639156</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04530613158655325</v>
+        <v>0.05018124619013209</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03260270750189212</v>
+        <v>0.09387737405942123</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04928096195017648</v>
+        <v>0.04952943384083321</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07745844419314293</v>
+        <v>0.1503049199258147</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04614242340858756</v>
+        <v>0.04954533511244315</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1256099895828164</v>
+        <v>0.03585262205639156</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04924989425018669</v>
+        <v>0.05018124619013209</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01697754692576386</v>
+        <v>0.03593570172581248</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04602527653237155</v>
+        <v>0.05097777390743577</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03310949777066806</v>
+        <v>0.09328680496620279</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05006319944144913</v>
+        <v>0.05031561533037025</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07829098482911495</v>
+        <v>0.1502328828070721</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04687484282777149</v>
+        <v>0.05033176900311685</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1268895981947197</v>
+        <v>0.03593570172581248</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05003163860336426</v>
+        <v>0.05097777390743577</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01612008495439843</v>
+        <v>0.03550954721537584</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04674442147818986</v>
+        <v>0.05177430162473945</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03322030427278411</v>
+        <v>0.09368598677714543</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05084543693272178</v>
+        <v>0.05110179681990729</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07824019969462825</v>
+        <v>0.150534157541115</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04760726224695542</v>
+        <v>0.05111820289379055</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1278708390218375</v>
+        <v>0.03550954721537584</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05081338295654182</v>
+        <v>0.05177430162473945</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01628746480526595</v>
+        <v>0.03557491197376042</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04746356642400816</v>
+        <v>0.05257082934204314</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03363228841099494</v>
+        <v>0.09357506848965674</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05162767442399442</v>
+        <v>0.05188797830944433</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07939350028269646</v>
+        <v>0.1500100579155789</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04833968166613935</v>
+        <v>0.05190463678446425</v>
       </c>
       <c r="N131" t="n">
-        <v>0.129600585338129</v>
+        <v>0.03557491197376042</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05159512730971939</v>
+        <v>0.05257082934204314</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01647648127742606</v>
+        <v>0.03533254944964498</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04818271136982646</v>
+        <v>0.05336735705934683</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03384261158805521</v>
+        <v>0.0930541991011444</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05240991191526706</v>
+        <v>0.05267415979898136</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07953829808633306</v>
+        <v>0.1493618977180989</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04907210108532328</v>
+        <v>0.05269107067513795</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1312257104175534</v>
+        <v>0.03533254944964498</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05237687166289695</v>
+        <v>0.05336735705934683</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01668392916993844</v>
+        <v>0.03528321309170826</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04890185631564477</v>
+        <v>0.0541638847766505</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03404843520671956</v>
+        <v>0.09312352760901596</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0531921494065397</v>
+        <v>0.0534603412885184</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0808620045985517</v>
+        <v>0.1486909907363103</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0498045205045072</v>
+        <v>0.05347750456581166</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1333930875340703</v>
+        <v>0.03528321309170826</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05315861601607452</v>
+        <v>0.0541638847766505</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01690660328186275</v>
+        <v>0.03492765634862906</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04962100126146308</v>
+        <v>0.05496041249395419</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03464692066974263</v>
+        <v>0.09278320301067902</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05397438689781234</v>
+        <v>0.05424652277805542</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08125203131236586</v>
+        <v>0.1484986507578482</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05053693992369113</v>
+        <v>0.05426393845648535</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1368495899616387</v>
+        <v>0.03492765634862906</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05394036036925208</v>
+        <v>0.05496041249395419</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01614129841225866</v>
+        <v>0.03506663266908606</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05034014620728139</v>
+        <v>0.05575694021125788</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03473522937987909</v>
+        <v>0.09333337430354124</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05475662438908499</v>
+        <v>0.05503270426759246</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08209578972078918</v>
+        <v>0.1485861915703481</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05126935934287506</v>
+        <v>0.05505037234715906</v>
       </c>
       <c r="N135" t="n">
-        <v>0.137742090974218</v>
+        <v>0.03506663266908606</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05472210472242964</v>
+        <v>0.05575694021125788</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01638480936018581</v>
+        <v>0.03470089550175812</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05105929115309969</v>
+        <v>0.05655346792856155</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03491052273988363</v>
+        <v>0.09327419048501021</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05553886188035763</v>
+        <v>0.0558188857571295</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08328069131683513</v>
+        <v>0.1487549269614449</v>
       </c>
       <c r="M136" t="n">
-        <v>0.052001778762059</v>
+        <v>0.05583680623783275</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1414174638457675</v>
+        <v>0.03470089550175812</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05550384907560722</v>
+        <v>0.05655346792856155</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01663393092470389</v>
+        <v>0.03443119829532393</v>
       </c>
       <c r="G137" t="n">
-        <v>0.051778436098918</v>
+        <v>0.05734999564586524</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03536996215251083</v>
+        <v>0.09220580055249356</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05632109937163027</v>
+        <v>0.05660506724666653</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08459414759351733</v>
+        <v>0.1480061707187739</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05273419818124293</v>
+        <v>0.05662324012850645</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1426225818502465</v>
+        <v>0.03443119829532393</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05628559342878479</v>
+        <v>0.05734999564586524</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01788545790487257</v>
+        <v>0.03425829449846225</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0524975810447363</v>
+        <v>0.05814652336316892</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03541070902051541</v>
+        <v>0.09272835350339884</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05710333686290291</v>
+        <v>0.05739124873620357</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08502357004384922</v>
+        <v>0.1468412366299705</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05346661760042685</v>
+        <v>0.05740967401918015</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1446043182616144</v>
+        <v>0.03425829449846225</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05706733778196236</v>
+        <v>0.05814652336316892</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01713618509975148</v>
+        <v>0.03418293755985186</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05321672599055461</v>
+        <v>0.05894305108047262</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03592992474665195</v>
+        <v>0.09224199833513375</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05788557435417555</v>
+        <v>0.0581774302257406</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08695637016084454</v>
+        <v>0.1465614384826698</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05419903701961078</v>
+        <v>0.05819610790985386</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1475095463538302</v>
+        <v>0.03418293755985186</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05784908213513992</v>
+        <v>0.05894305108047262</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01738290730840031</v>
+        <v>0.03410588092817152</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05393587093637291</v>
+        <v>0.05973957879777629</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0358247707336752</v>
+        <v>0.09194688404510587</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0586678118454482</v>
+        <v>0.05896361171527764</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08747995943751666</v>
+        <v>0.1453680900645071</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05493145643879471</v>
+        <v>0.05898254180052756</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1493851394008535</v>
+        <v>0.03410588092817152</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05863082648831749</v>
+        <v>0.05973957879777629</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01962241932987872</v>
+        <v>0.03372787805209998</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05465501588219122</v>
+        <v>0.06053610651507998</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03619240838433972</v>
+        <v>0.09174315963072274</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05945004933672084</v>
+        <v>0.05974979320481468</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08858174936687926</v>
+        <v>0.1458625051631176</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05566387585797864</v>
+        <v>0.05976897569120126</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1503779706766435</v>
+        <v>0.03372787805209998</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05941257084149505</v>
+        <v>0.06053610651507998</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01985151596324636</v>
+        <v>0.03374968238031599</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05537416082800952</v>
+        <v>0.06133263423238366</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03622999910140022</v>
+        <v>0.09213097408939208</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06023228682799349</v>
+        <v>0.06053597469435171</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08914915144194588</v>
+        <v>0.1448459975661364</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05639629527716258</v>
+        <v>0.06055540958187496</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1512349134551595</v>
+        <v>0.03374968238031599</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06019431519467262</v>
+        <v>0.06133263423238366</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01806699200756292</v>
+        <v>0.03337204736149833</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05609330577382783</v>
+        <v>0.06212916194968734</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03656714325197222</v>
+        <v>0.09151047641852145</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06101452431926613</v>
+        <v>0.06132215618388874</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09066957715573001</v>
+        <v>0.1449198810611988</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0571287146963465</v>
+        <v>0.06134184347254865</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1519028410103609</v>
+        <v>0.03337204736149833</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06097605954785018</v>
+        <v>0.06212916194968734</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01926564226188802</v>
+        <v>0.03339572644432576</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05681245071964613</v>
+        <v>0.06292568966699102</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03651011095422489</v>
+        <v>0.09088181561551847</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06179676181053877</v>
+        <v>0.06210833767342577</v>
       </c>
       <c r="L144" t="n">
-        <v>0.09133043800124527</v>
+        <v>0.1441854694359402</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05786113411553043</v>
+        <v>0.06212827736322236</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1526635810858061</v>
+        <v>0.03339572644432576</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06175780390102775</v>
+        <v>0.06292568966699102</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02044426152528137</v>
+        <v>0.033221473077477</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05753159566546444</v>
+        <v>0.06372221738429472</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03658150988688023</v>
+        <v>0.09104514067779071</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06257899930181142</v>
+        <v>0.06289451916296281</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09191914547150518</v>
+        <v>0.1427440764779955</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05859355353471436</v>
+        <v>0.06291471125389606</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1526392541289592</v>
+        <v>0.033221473077477</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06253954825420531</v>
+        <v>0.06372221738429472</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01859964459680261</v>
+        <v>0.03285004070963085</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05825074061128274</v>
+        <v>0.0645187451015984</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03675176509251413</v>
+        <v>0.09050060060274587</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06336123679308406</v>
+        <v>0.06368070065249985</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09282311105952329</v>
+        <v>0.1425970159750003</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05932597295389829</v>
+        <v>0.06370114514456976</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1520727065568679</v>
+        <v>0.03285004070963085</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06332129260738288</v>
+        <v>0.0645187451015984</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01972858627551142</v>
+        <v>0.03278218278946606</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05896988555710105</v>
+        <v>0.06531527281890208</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03652082727819993</v>
+        <v>0.09034834438779152</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0641434742843567</v>
+        <v>0.06446688214203689</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09312974625831316</v>
+        <v>0.1419456017145896</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06005839237308221</v>
+        <v>0.06448757903524345</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1533985640667727</v>
+        <v>0.03278218278946606</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06410303696056045</v>
+        <v>0.06531527281890208</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01882788136046744</v>
+        <v>0.03271865276566138</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05968903050291936</v>
+        <v>0.06611180053620576</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03668864715101101</v>
+        <v>0.09038852103033523</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06492571177562934</v>
+        <v>0.06525306363157392</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09412646256088836</v>
+        <v>0.1410911474843985</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06079081179226615</v>
+        <v>0.06527401292591717</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1531168482536054</v>
+        <v>0.03271865276566138</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06488478131373801</v>
+        <v>0.06611180053620576</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01889432465073036</v>
+        <v>0.03256020408689556</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06040817544873766</v>
+        <v>0.06690832825350945</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03675517541802083</v>
+        <v>0.08992127952778464</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06570794926690197</v>
+        <v>0.06603924512111096</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09461536216888919</v>
+        <v>0.1413349670720626</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06152323121145007</v>
+        <v>0.06606044681659087</v>
       </c>
       <c r="N149" t="n">
-        <v>0.152527580712298</v>
+        <v>0.03256020408689556</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0656665256669156</v>
+        <v>0.06690832825350945</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02092632153271563</v>
+        <v>0.03250759020184739</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06112732039455596</v>
+        <v>0.06770485597081313</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03682036278630268</v>
+        <v>0.09014676887754738</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06649018675817463</v>
+        <v>0.066825426610648</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0945465013376561</v>
+        <v>0.1412783742652168</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06225565063063401</v>
+        <v>0.06684688070726456</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1535307830377823</v>
+        <v>0.03250759020184739</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06644827002009315</v>
+        <v>0.06770485597081313</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02092579482211651</v>
+        <v>0.0323615645591956</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06184646534037427</v>
+        <v>0.06850138368811681</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03678415996293004</v>
+        <v>0.08956513807703106</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06727242424944727</v>
+        <v>0.06761160810018503</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09468461252062574</v>
+        <v>0.1394226828514965</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06298807004981793</v>
+        <v>0.06763331459793827</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1539264768249898</v>
+        <v>0.0323615645591956</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06723001437327072</v>
+        <v>0.06850138368811681</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01892332802269448</v>
+        <v>0.03192288060761896</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06256561028619258</v>
+        <v>0.06929791140542051</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03704651765497624</v>
+        <v>0.08867653612364329</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06805466174071992</v>
+        <v>0.06839778958972205</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09501909120551782</v>
+        <v>0.1397692066185368</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06372048946900187</v>
+        <v>0.06841974848861196</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1539146836688526</v>
+        <v>0.03192288060761896</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06801175872644828</v>
+        <v>0.06929791140542051</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01991890454679688</v>
+        <v>0.03179229179579623</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06328475523201088</v>
+        <v>0.07009443912272419</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0369073865695147</v>
+        <v>0.0884811120147917</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06883689923199256</v>
+        <v>0.0691839710792591</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09564957829845069</v>
+        <v>0.1391192593539731</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06445290888818579</v>
+        <v>0.06920618237928566</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1541954251643024</v>
+        <v>0.03179229179579623</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06879350307962585</v>
+        <v>0.07009443912272419</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02091259177776393</v>
+        <v>0.03167055157240616</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06400390017782918</v>
+        <v>0.07089096684002787</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03726671741361877</v>
+        <v>0.08837901474788384</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0696191367232652</v>
+        <v>0.06997015256879613</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09617571470554281</v>
+        <v>0.1379741548454405</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06518532830736973</v>
+        <v>0.06999261626995937</v>
       </c>
       <c r="N154" t="n">
-        <v>0.154768722906271</v>
+        <v>0.03167055157240616</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06957524743280341</v>
+        <v>0.07089096684002787</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01890445709893588</v>
+        <v>0.0316584133861275</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06472304512364749</v>
+        <v>0.07168749455733155</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03722446089436186</v>
+        <v>0.08787039332032734</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07040137421453785</v>
+        <v>0.07075633405833316</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09649714133291251</v>
+        <v>0.1379352068805742</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06591774772655366</v>
+        <v>0.07077905016063307</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1546345984896901</v>
+        <v>0.0316584133861275</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07035699178598098</v>
+        <v>0.07168749455733155</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02089456789365297</v>
+        <v>0.03145663068563906</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06544219006946581</v>
+        <v>0.07248402227463524</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03718056771881738</v>
+        <v>0.08825539672952987</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07118361170581049</v>
+        <v>0.07154251554787021</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09701349908667828</v>
+        <v>0.1381037292470095</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06665016714573758</v>
+        <v>0.07156548405130676</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1538930735094916</v>
+        <v>0.03145663068563906</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07113873613915855</v>
+        <v>0.07248402227463524</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02088299154525543</v>
+        <v>0.03146595691961954</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06616133501528411</v>
+        <v>0.07328054999193892</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03723498859405869</v>
+        <v>0.08803417397289898</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07196584919708313</v>
+        <v>0.07232869703740724</v>
       </c>
       <c r="L157" t="n">
-        <v>0.09662442887295847</v>
+        <v>0.1373810357323816</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06738258656492152</v>
+        <v>0.07235191794198047</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1549441695606074</v>
+        <v>0.03146595691961954</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07192048049233611</v>
+        <v>0.07328054999193892</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01886979543708349</v>
+        <v>0.03158658131595547</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06688047996110241</v>
+        <v>0.0740770777092426</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03748767422715918</v>
+        <v>0.08710687404784231</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07274808668835576</v>
+        <v>0.07311487852694427</v>
       </c>
       <c r="L158" t="n">
-        <v>0.09702957159787157</v>
+        <v>0.1358684401243258</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06811500598410544</v>
+        <v>0.07313835183265417</v>
       </c>
       <c r="N158" t="n">
-        <v>0.154787908237969</v>
+        <v>0.03158658131595547</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07270222484551368</v>
+        <v>0.0740770777092426</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0188550469524774</v>
+        <v>0.03141313365492324</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06759962490692072</v>
+        <v>0.07487360542654629</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03733857532519225</v>
+        <v>0.08647364595176746</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0735303241796284</v>
+        <v>0.07390106001648131</v>
       </c>
       <c r="L159" t="n">
-        <v>0.09702856816753591</v>
+        <v>0.1354672562104772</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06884742540328938</v>
+        <v>0.07392478572332788</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1551243111365084</v>
+        <v>0.03141313365492324</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07348396919869124</v>
+        <v>0.07487360542654629</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01883881347477741</v>
+        <v>0.03114389151984509</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06831876985273903</v>
+        <v>0.07567013314384997</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03738764259523128</v>
+        <v>0.08673463868208206</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07431256167090106</v>
+        <v>0.07468724150601835</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09752105948806994</v>
+        <v>0.1354787359911019</v>
       </c>
       <c r="M160" t="n">
-        <v>0.0695798448224733</v>
+        <v>0.07471121961400158</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1542533998511574</v>
+        <v>0.03114389151984509</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07426571355186881</v>
+        <v>0.07567013314384997</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01882116238732374</v>
+        <v>0.03137859331395347</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06903791479855732</v>
+        <v>0.07646666086115365</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03743482674434966</v>
+        <v>0.08659000123619373</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07509479916217369</v>
+        <v>0.07547342299555539</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09760668646559209</v>
+        <v>0.1345982659154946</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07031226424165724</v>
+        <v>0.07549765350467527</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1551751959768478</v>
+        <v>0.03137859331395347</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07504745790504638</v>
+        <v>0.07646666086115365</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02080216107345665</v>
+        <v>0.03131697744048087</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06975705974437563</v>
+        <v>0.07726318857845733</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03738007847962077</v>
+        <v>0.08583988261151002</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07587703665344635</v>
+        <v>0.07625960448509241</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09818509000622075</v>
+        <v>0.1352218337795671</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07104468366084116</v>
+        <v>0.07628408739534898</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1557897211085112</v>
+        <v>0.03131697744048087</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07582920225822395</v>
+        <v>0.07726318857845733</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01878187691651634</v>
+        <v>0.03095878230265975</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07047620469019393</v>
+        <v>0.07805971629576103</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03762334850811801</v>
+        <v>0.08508443180543862</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07665927414471899</v>
+        <v>0.07704578597462945</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09825591101607431</v>
+        <v>0.1337487319855692</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07177710308002509</v>
+        <v>0.07707052128602267</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1546969968410796</v>
+        <v>0.03095878230265975</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07661094661140151</v>
+        <v>0.07805971629576103</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01876037729984309</v>
+        <v>0.03090374630372257</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07119534963601223</v>
+        <v>0.07885624401306471</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03746458753691478</v>
+        <v>0.0853237978153871</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07744151163599163</v>
+        <v>0.07783196746416648</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0993187904012712</v>
+        <v>0.1331782529357506</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07250952249920901</v>
+        <v>0.07785695517669637</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1550970447694848</v>
+        <v>0.03090374630372257</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07739269096457908</v>
+        <v>0.07885624401306471</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01873772960677712</v>
+        <v>0.03115160784690178</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07191449458183055</v>
+        <v>0.07965277173036839</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03760374627308442</v>
+        <v>0.08525812963876306</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07822374912726426</v>
+        <v>0.07861814895370352</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09957336906792982</v>
+        <v>0.1328096890323606</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07324194191839295</v>
+        <v>0.07864338906737008</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1553898864886585</v>
+        <v>0.03115160784690178</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07817443531775665</v>
+        <v>0.07965277173036839</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01971400122065867</v>
+        <v>0.03080210533542989</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07263363952764886</v>
+        <v>0.08044929944767208</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0378407754237004</v>
+        <v>0.08488757627297416</v>
       </c>
       <c r="K166" t="n">
-        <v>0.0790059866185369</v>
+        <v>0.07940433044324055</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09911928792216859</v>
+        <v>0.1321423326776491</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07397436133757687</v>
+        <v>0.07942982295804378</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1559755435935326</v>
+        <v>0.03080210533542989</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07895617967093421</v>
+        <v>0.08044929944767208</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01868925952482797</v>
+        <v>0.03085497717253931</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07335278447346716</v>
+        <v>0.08124582716497576</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03787562569583602</v>
+        <v>0.08421228671542796</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07978822410980956</v>
+        <v>0.0801905119327776</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09925618787010596</v>
+        <v>0.1320754762738656</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07470678075676081</v>
+        <v>0.08021625684871748</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1555540376790386</v>
+        <v>0.03085497717253931</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07973792402411178</v>
+        <v>0.08124582716497576</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01866357190262527</v>
+        <v>0.03080996176146254</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07407192941928546</v>
+        <v>0.08204235488227944</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03780824779656472</v>
+        <v>0.08323240996353207</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08057046160108219</v>
+        <v>0.08097669342231463</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1002837098178603</v>
+        <v>0.1315084122232598</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07543920017594474</v>
+        <v>0.08100269073939118</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1550253903401087</v>
+        <v>0.03080996176146254</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08051966837728934</v>
+        <v>0.08204235488227944</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01963700573739081</v>
+        <v>0.03076679750543207</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07479107436510378</v>
+        <v>0.08283888259958312</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03773859243295988</v>
+        <v>0.08304809501469418</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08135269909235483</v>
+        <v>0.08176287491185166</v>
       </c>
       <c r="L169" t="n">
-        <v>0.10020149467155</v>
+        <v>0.1309404329280812</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07617161959512866</v>
+        <v>0.08178912463006488</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1560896231716745</v>
+        <v>0.03076679750543207</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08130141273046691</v>
+        <v>0.08283888259958312</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02060962841246482</v>
+        <v>0.03092522280768031</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07551021931092208</v>
+        <v>0.08363541031688682</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03796661031209489</v>
+        <v>0.08305949086632183</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08213493658362749</v>
+        <v>0.0825490564013887</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09980918333729355</v>
+        <v>0.1309708307905795</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0769040390143126</v>
+        <v>0.08257555852073857</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1560467577686678</v>
+        <v>0.03092522280768031</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08208315708364448</v>
+        <v>0.08363541031688682</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01858150731118755</v>
+        <v>0.03088497607143978</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07622936425674039</v>
+        <v>0.0844319380341905</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03799225214104311</v>
+        <v>0.08266674651582265</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08291717407490012</v>
+        <v>0.08333523789092573</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1009064167212093</v>
+        <v>0.1299988982130044</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07763645843349652</v>
+        <v>0.08336199241141229</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1566968157260204</v>
+        <v>0.03088497607143978</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08286490143682204</v>
+        <v>0.0844319380341905</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01855270981689922</v>
+        <v>0.03064579569994288</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07694850920255869</v>
+        <v>0.08522846575149418</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03791546862687796</v>
+        <v>0.08257001096060426</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08369941156617278</v>
+        <v>0.08412141938046276</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1005928357294156</v>
+        <v>0.1295239275976053</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07836887785268046</v>
+        <v>0.08414842630208598</v>
       </c>
       <c r="N172" t="n">
-        <v>0.155339818638664</v>
+        <v>0.03064579569994288</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08364664578999961</v>
+        <v>0.08522846575149418</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02052330331294009</v>
+        <v>0.03080742009642215</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07766765414837699</v>
+        <v>0.08602499346879787</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03783621047667281</v>
+        <v>0.08216943319807424</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08448164905744542</v>
+        <v>0.08490760086999979</v>
       </c>
       <c r="L173" t="n">
-        <v>0.100468081268031</v>
+        <v>0.1300452113466321</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07910129727186438</v>
+        <v>0.08493486019275968</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1561757881015307</v>
+        <v>0.03080742009642215</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08442839014317717</v>
+        <v>0.08602499346879787</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01849335518265038</v>
+        <v>0.03056958766411001</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0783867990941953</v>
+        <v>0.08682152118610154</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03775442839750108</v>
+        <v>0.08166516222564024</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08526388654871804</v>
+        <v>0.08569378235953684</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1012317942431739</v>
+        <v>0.1289620418623341</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07983371669104831</v>
+        <v>0.08572129408343337</v>
       </c>
       <c r="N174" t="n">
-        <v>0.155604745709552</v>
+        <v>0.03056958766411001</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08521013449635476</v>
+        <v>0.08682152118610154</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01946293280937034</v>
+        <v>0.03043203680623895</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0791059440400136</v>
+        <v>0.08761804890340523</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03797007309643613</v>
+        <v>0.08134975691576993</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08604612403999069</v>
+        <v>0.08647996384907387</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1014836155609625</v>
+        <v>0.1287737115469613</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08056613611023224</v>
+        <v>0.08650772797410708</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1559267130576597</v>
+        <v>0.03043203680623895</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08599187884953231</v>
+        <v>0.08761804890340523</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0184321035764402</v>
+        <v>0.03069450592604141</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0798250889858319</v>
+        <v>0.08841457662070891</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03798309528055134</v>
+        <v>0.07996156680070826</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08682836153126333</v>
+        <v>0.08726614533861091</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1017231861275155</v>
+        <v>0.1272795128027629</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08129855552941617</v>
+        <v>0.08729416186478078</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1559417117407857</v>
+        <v>0.03069450592604141</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08677362320270988</v>
+        <v>0.08841457662070891</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01940093486720022</v>
+        <v>0.03055673342674986</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08054423393165021</v>
+        <v>0.0892111043380126</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03809344565692012</v>
+        <v>0.07939348623529177</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08761059902253598</v>
+        <v>0.08805232682814794</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1016501468489511</v>
+        <v>0.1274787380319889</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08203097494860009</v>
+        <v>0.08808059575545449</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1563497633538619</v>
+        <v>0.03055673342674986</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08755536755588744</v>
+        <v>0.0892111043380126</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0183694940649906</v>
+        <v>0.03061845771159678</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08126337887746853</v>
+        <v>0.09000763205531628</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03800107493261584</v>
+        <v>0.07915350524510889</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08839283651380862</v>
+        <v>0.08883850831768499</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1013641386313878</v>
+        <v>0.1265706796368887</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08276339436778403</v>
+        <v>0.08886702964612819</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1563437301554109</v>
+        <v>0.03061845771159678</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08833711190906501</v>
+        <v>0.09000763205531628</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01833784855315162</v>
+        <v>0.03057941718381464</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08198252382328683</v>
+        <v>0.09080415977261996</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03810593381471192</v>
+        <v>0.07854961385574802</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08917507400508126</v>
+        <v>0.08962468980722202</v>
       </c>
       <c r="L179" t="n">
-        <v>0.101764802380944</v>
+        <v>0.125954630019712</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08349581378696795</v>
+        <v>0.08965346353680188</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1554351154751777</v>
+        <v>0.03057941718381464</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08911885626224259</v>
+        <v>0.09080415977261996</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01930606571502349</v>
+        <v>0.0305393502466359</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08270166876910513</v>
+        <v>0.09160068748992366</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0378079730102817</v>
+        <v>0.07778980209279765</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08995731149635391</v>
+        <v>0.09041087129675904</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1016517790037382</v>
+        <v>0.1252298815827084</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08422823320615189</v>
+        <v>0.09043989742747559</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1562043034229407</v>
+        <v>0.0305393502466359</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08990060061542014</v>
+        <v>0.09160068748992366</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01827421293394645</v>
+        <v>0.03019799530329302</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08342081371492344</v>
+        <v>0.09239721520722732</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03810083689834699</v>
+        <v>0.07728205998184623</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09073954898762655</v>
+        <v>0.09119705278629608</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1022247094058886</v>
+        <v>0.1248957267281275</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08496065262533582</v>
+        <v>0.09122633131814928</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1556599654083877</v>
+        <v>0.03019799530329302</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09068234496859771</v>
+        <v>0.09239721520722732</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01924235759326076</v>
+        <v>0.03035509075701845</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08413995866074175</v>
+        <v>0.09319374292453102</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03807149757010082</v>
+        <v>0.0763343775484821</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09152178647889919</v>
+        <v>0.09198323427583312</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1016832344935138</v>
+        <v>0.124051457858219</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08569307204451974</v>
+        <v>0.092012765208823</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1542107728412067</v>
+        <v>0.03035509075701845</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09146408932177527</v>
+        <v>0.09319374292453102</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02021056707630665</v>
+        <v>0.0304103750110447</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08485910360656006</v>
+        <v>0.0939902706418347</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03782061421903671</v>
+        <v>0.07535474481829382</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09230402397017183</v>
+        <v>0.09276941576537015</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1015269951727322</v>
+        <v>0.1241963673752325</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08642549146370368</v>
+        <v>0.09279919909949669</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1538653971310855</v>
+        <v>0.0304103750110447</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09224583367495284</v>
+        <v>0.0939902706418347</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01817890876642433</v>
+        <v>0.0300635864686042</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08557824855237835</v>
+        <v>0.09478679835913839</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03774931828965353</v>
+        <v>0.07425115181686975</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09308626146144447</v>
+        <v>0.09355559725490718</v>
       </c>
       <c r="L184" t="n">
-        <v>0.102055632349662</v>
+        <v>0.1229297476814174</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0871579108828876</v>
+        <v>0.09358563299017039</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1540325096877124</v>
+        <v>0.0300635864686042</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0930275780281304</v>
+        <v>0.09478679835913839</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01914609806873428</v>
+        <v>0.03031446353292942</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08629739349819665</v>
+        <v>0.09558332607644207</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03785874122645018</v>
+        <v>0.07323158856979842</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09386849895271712</v>
+        <v>0.09434177874444423</v>
       </c>
       <c r="L185" t="n">
-        <v>0.102168786930422</v>
+        <v>0.1231508911790237</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08789033030207154</v>
+        <v>0.0943720668808441</v>
       </c>
       <c r="N185" t="n">
-        <v>0.153020781920775</v>
+        <v>0.03031446353292942</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09380932238130797</v>
+        <v>0.09558332607644207</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.018107974884784</v>
+        <v>0.03006274460725283</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08701653844401495</v>
+        <v>0.09637985379374575</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03755001447392556</v>
+        <v>0.07230404510266819</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09465073644398976</v>
+        <v>0.09512796023398126</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1021566386508548</v>
+        <v>0.1226590902703008</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08862274972125546</v>
+        <v>0.09515850077151779</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1520388852399613</v>
+        <v>0.03006274460725283</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09459106673448554</v>
+        <v>0.09637985379374575</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01906461757880636</v>
+        <v>0.03010816809480693</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08773568338983327</v>
+        <v>0.09717638151104944</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03742426947657859</v>
+        <v>0.07187651144106755</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09543297393526241</v>
+        <v>0.0959141417235183</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1013893573152014</v>
+        <v>0.1211536373574982</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08935516914043939</v>
+        <v>0.09594493466219149</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1515954910549595</v>
+        <v>0.03010816809480693</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09537281108766311</v>
+        <v>0.09717638151104944</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01901644868095833</v>
+        <v>0.03005047239882414</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08845482833565158</v>
+        <v>0.09797290922835311</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03748263767890811</v>
+        <v>0.07065697761058487</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09621521142653505</v>
+        <v>0.09670032321305533</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1021668373940476</v>
+        <v>0.1204338248428657</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09008758855962333</v>
+        <v>0.0967313685528652</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1511992707754573</v>
+        <v>0.03005047239882414</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09615455544084069</v>
+        <v>0.09797290922835311</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01896389072139686</v>
+        <v>0.02988939592253693</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08917397328146988</v>
+        <v>0.0987694369456568</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03702625052541307</v>
+        <v>0.06925343363680872</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09699744891780769</v>
+        <v>0.09748650470259236</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1013913785330602</v>
+        <v>0.121098945128653</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09082000797880725</v>
+        <v>0.0975178024435389</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1496588958111427</v>
+        <v>0.02988939592253693</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09693629979401824</v>
+        <v>0.0987694369456568</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01890736623027892</v>
+        <v>0.02972467706917778</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08989311822728818</v>
+        <v>0.09956596466296048</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03715623946059232</v>
+        <v>0.06897386954532744</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09777968640908034</v>
+        <v>0.09827268619212939</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1008652803779063</v>
+        <v>0.1196482906171095</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09155242739799119</v>
+        <v>0.09830423633421259</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1482830375717037</v>
+        <v>0.02972467706917778</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09771804414719581</v>
+        <v>0.09956596466296048</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01784729773776147</v>
+        <v>0.02985605424197915</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0906122631731065</v>
+        <v>0.1003624923802642</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03667373592894477</v>
+        <v>0.06812627536172952</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09856192390035297</v>
+        <v>0.09905886768166643</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1010908425742527</v>
+        <v>0.119681153710485</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09228484681717512</v>
+        <v>0.0990906702248863</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1473803674668283</v>
+        <v>0.02985605424197915</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09849978850037337</v>
+        <v>0.1003624923802642</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01978410777400151</v>
+        <v>0.02968326584417351</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0913314081189248</v>
+        <v>0.1011590200975679</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03647987137496932</v>
+        <v>0.06721330211073362</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09934416139162562</v>
+        <v>0.09984504917120347</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1004703647677666</v>
+        <v>0.117796826811029</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09301726623635904</v>
+        <v>0.09987710411555999</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1468595569062043</v>
+        <v>0.02968326584417351</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09928153285355094</v>
+        <v>0.1011590200975679</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01871821886915596</v>
+        <v>0.02980605027899336</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09205055306474311</v>
+        <v>0.1019555478148715</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03627577724316486</v>
+        <v>0.06638149775178434</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1001263988828983</v>
+        <v>0.1006312306607405</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1003061466041146</v>
+        <v>0.1180946023209913</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09374968565554298</v>
+        <v>0.1006635380062337</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1456292772995197</v>
+        <v>0.02980605027899336</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1000632772067285</v>
+        <v>0.1019555478148715</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01865005355338183</v>
+        <v>0.02942414594967108</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09276969801056141</v>
+        <v>0.1027520755321752</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03636258497803027</v>
+        <v>0.0658190707849087</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1009086363741709</v>
+        <v>0.1014174121502775</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1004004877289639</v>
+        <v>0.1170737726426212</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09448210507472692</v>
+        <v>0.1014499718969074</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1443982000564626</v>
+        <v>0.02942414594967108</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1008450215599061</v>
+        <v>0.1027520755321752</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01958003435683606</v>
+        <v>0.0296372912594392</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09348884295637971</v>
+        <v>0.1035486032494789</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03584142602406447</v>
+        <v>0.06443107086443567</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1016908738654436</v>
+        <v>0.1022035936398146</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09945568778798142</v>
+        <v>0.1169336301781687</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09521452449391084</v>
+        <v>0.1022364057875811</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1432749965867208</v>
+        <v>0.0296372912594392</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1016267659130836</v>
+        <v>0.1035486032494789</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01750858380967561</v>
+        <v>0.0295452246115302</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09420798790219802</v>
+        <v>0.1043451309667826</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03591343182576633</v>
+        <v>0.06412254764469427</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1024731113567162</v>
+        <v>0.1029897751293516</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09927404642683407</v>
+        <v>0.1157734673298832</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09594694391309477</v>
+        <v>0.1030228396782548</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1425683382999823</v>
+        <v>0.0295452246115302</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1024085102662612</v>
+        <v>0.1043451309667826</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01843612444205747</v>
+        <v>0.0293472814303882</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09492713284801632</v>
+        <v>0.1051416586840863</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03547973382763474</v>
+        <v>0.06279855078001351</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1032553488479888</v>
+        <v>0.1037759566188887</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09805786329118885</v>
+        <v>0.1150925765000143</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09667936333227869</v>
+        <v>0.1038092735689285</v>
       </c>
       <c r="N197" t="n">
-        <v>0.140986896605935</v>
+        <v>0.0293472814303882</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1031902546194388</v>
+        <v>0.1051416586840863</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01736307878413859</v>
+        <v>0.02921183953166068</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09564627779383462</v>
+        <v>0.10593818640139</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03514146347416865</v>
+        <v>0.06166412992472242</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1040375863392615</v>
+        <v>0.1045621381084257</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09770943802671267</v>
+        <v>0.1135902500908116</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09741178275146263</v>
+        <v>0.1045957074596022</v>
       </c>
       <c r="N198" t="n">
-        <v>0.140339342914267</v>
+        <v>0.02921183953166068</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1039719989726163</v>
+        <v>0.10593818640139</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01928986936607594</v>
+        <v>0.0290224745770267</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09636542273965293</v>
+        <v>0.1067347141186937</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03519975220986689</v>
+        <v>0.06052433473314994</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1048198238305341</v>
+        <v>0.1053483195979627</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09753107027907254</v>
+        <v>0.1132657805045249</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09814420217064655</v>
+        <v>0.1053821413502759</v>
       </c>
       <c r="N199" t="n">
-        <v>0.139934348634666</v>
+        <v>0.0290224745770267</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1047537433257939</v>
+        <v>0.1067347141186937</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01721691871802648</v>
+        <v>0.02868390709993389</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09708456768547125</v>
+        <v>0.1075312418359973</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03485573147922837</v>
+        <v>0.06018421485962511</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1056020613218068</v>
+        <v>0.1061345010874997</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09672505969393533</v>
+        <v>0.1130184601434037</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09887662158983049</v>
+        <v>0.1061685752409496</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1386805851768202</v>
+        <v>0.02868390709993389</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1055354876789715</v>
+        <v>0.1075312418359973</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0191446493701472</v>
+        <v>0.02840085763382999</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09780371263128955</v>
+        <v>0.108327769553301</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03471053272675201</v>
+        <v>0.05934881995847691</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1063842988130794</v>
+        <v>0.1069206825770368</v>
       </c>
       <c r="L201" t="n">
-        <v>0.09629370591696804</v>
+        <v>0.1121424120460521</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09960904100901441</v>
+        <v>0.1069550091316233</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1375867239504174</v>
+        <v>0.02840085763382999</v>
       </c>
       <c r="O201" t="n">
-        <v>0.106317232032149</v>
+        <v>0.108327769553301</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01907348385259503</v>
+        <v>0.0280780467121627</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09852285757710785</v>
+        <v>0.1091242972706047</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03436528739693666</v>
+        <v>0.05842319968403437</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1071665363043521</v>
+        <v>0.1077068640665738</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09523930859383758</v>
+        <v>0.1110377292644771</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1003414604281983</v>
+        <v>0.107741443022297</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1366614363651455</v>
+        <v>0.0280780467121627</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1070989763853266</v>
+        <v>0.1091242972706047</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01800384469552696</v>
+        <v>0.02762019486837973</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09924200252292616</v>
+        <v>0.1099208249879084</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03392112693428126</v>
+        <v>0.05681240369062648</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1079487737956247</v>
+        <v>0.1084930455561108</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09516416737021102</v>
+        <v>0.1091813482302836</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1010738798473823</v>
+        <v>0.1085278769129707</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1367133938306928</v>
+        <v>0.02762019486837973</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1078807207385042</v>
+        <v>0.1099208249879084</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01693615442909995</v>
+        <v>0.02743202263592874</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09996114746874446</v>
+        <v>0.1107173527052121</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03397918278328467</v>
+        <v>0.05672148163258217</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1087310112868973</v>
+        <v>0.1092792270456479</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09437058189175518</v>
+        <v>0.1082932527732148</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1018062992665662</v>
+        <v>0.1093143108036444</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1368512677567468</v>
+        <v>0.02743202263592874</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1086624650916817</v>
+        <v>0.1107173527052121</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01687083558347097</v>
+        <v>0.02681825054825747</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1006802924145628</v>
+        <v>0.1115138804225158</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0336405863884458</v>
+        <v>0.05505548316423048</v>
       </c>
       <c r="K205" t="n">
-        <v>0.10951324877817</v>
+        <v>0.1100654085351849</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0937608518041371</v>
+        <v>0.1073934267230137</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1025387186857501</v>
+        <v>0.1101007446943181</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1351837295529957</v>
+        <v>0.02681825054825747</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1094442094448593</v>
+        <v>0.1115138804225158</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.017808310688797</v>
+        <v>0.02638359913881362</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1013994373603811</v>
+        <v>0.1123104081398194</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03340646919426354</v>
+        <v>0.05471945793990046</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1102954862694426</v>
+        <v>0.110851590024722</v>
       </c>
       <c r="L206" t="n">
-        <v>0.09223727675302368</v>
+        <v>0.1052018539094237</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1032711381049341</v>
+        <v>0.1108871785849918</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1358194506291274</v>
+        <v>0.02638359913881362</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1102259537980369</v>
+        <v>0.1123104081398194</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01674900227523497</v>
+        <v>0.02623278894104489</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1021185823061994</v>
+        <v>0.1131069358571231</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03297796264523681</v>
+        <v>0.0533184556139211</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1110777237607153</v>
+        <v>0.111637771514259</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09200215638408188</v>
+        <v>0.1029385181621877</v>
       </c>
       <c r="M207" t="n">
-        <v>0.104003557524118</v>
+        <v>0.1116736124756655</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1357662064944999</v>
+        <v>0.02623278894104489</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1110076981512144</v>
+        <v>0.1131069358571231</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01769333287294186</v>
+        <v>0.02567054048839895</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1028377272520177</v>
+        <v>0.1139034635744268</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03275619818586445</v>
+        <v>0.05265752584062133</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1118599612519879</v>
+        <v>0.112423953003796</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09135779034297872</v>
+        <v>0.1013234033110489</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1047359769433019</v>
+        <v>0.1124600463663392</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1347597062739556</v>
+        <v>0.02567054048839895</v>
       </c>
       <c r="O208" t="n">
-        <v>0.111789442504392</v>
+        <v>0.1139034635744268</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01764172501207465</v>
+        <v>0.02510157431432353</v>
       </c>
       <c r="G209" t="n">
-        <v>0.103556872197836</v>
+        <v>0.1146999912917305</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03254116876984312</v>
+        <v>0.05184171827433021</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1126421987432605</v>
+        <v>0.1132101344933331</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09080647827538108</v>
+        <v>0.1004764931857507</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1054683963624859</v>
+        <v>0.1132464802570129</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1348561985582711</v>
+        <v>0.02510157431432353</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1125711868575696</v>
+        <v>0.1146999912917305</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0175946012227903</v>
+        <v>0.02483061095226634</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1042760171436543</v>
+        <v>0.1154965190090342</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0325256018122482</v>
+        <v>0.05137608256937673</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1134244362345332</v>
+        <v>0.1139963159828701</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08955051982695592</v>
+        <v>0.0992177716160359</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1062008157816698</v>
+        <v>0.1140329141476866</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1345557072171367</v>
+        <v>0.02483061095226634</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1133529312107471</v>
+        <v>0.1154965190090342</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01755238403524578</v>
+        <v>0.02406237093567504</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1049951620894726</v>
+        <v>0.1162930467263378</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03230800042316247</v>
+        <v>0.05136566838008993</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1142066737258058</v>
+        <v>0.1147824974724071</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08879221464337023</v>
+        <v>0.09756722243164778</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1069332352008537</v>
+        <v>0.1148193480383603</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1349582561202426</v>
+        <v>0.02406237093567504</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1141346755639247</v>
+        <v>0.1162930467263378</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01751549597959805</v>
+        <v>0.02360157479799739</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1057143070352909</v>
+        <v>0.1170895744436415</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03188836229314548</v>
+        <v>0.05011552536079869</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1149889112170785</v>
+        <v>0.1155686789619442</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08833386237029092</v>
+        <v>0.09534482946232931</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1076656546200376</v>
+        <v>0.115605781929034</v>
       </c>
       <c r="N212" t="n">
-        <v>0.133963869137279</v>
+        <v>0.02360157479799739</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1149164199171023</v>
+        <v>0.1170895744436415</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01748435958600406</v>
+        <v>0.02335294307268103</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1064334519811092</v>
+        <v>0.1178861021609452</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03166668511275672</v>
+        <v>0.0498307031658321</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1157711487083511</v>
+        <v>0.1163548604514812</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08717776265338495</v>
+        <v>0.09457057653782397</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1083980740392216</v>
+        <v>0.1163922158197077</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1339725701379362</v>
+        <v>0.02335294307268103</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1156981642702798</v>
+        <v>0.1178861021609452</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01845939738462082</v>
+        <v>0.02292119629317373</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1071525969269275</v>
+        <v>0.1186826298782489</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03164296657255565</v>
+        <v>0.04981369844729563</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1165533861996238</v>
+        <v>0.1171410419410182</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08712621513831931</v>
+        <v>0.09196444748787469</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1091304934584055</v>
+        <v>0.1171786497103814</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1337843829919043</v>
+        <v>0.02292119629317373</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1164799086234574</v>
+        <v>0.1186826298782489</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01844103190560525</v>
+        <v>0.02261105499292311</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1078717418727458</v>
+        <v>0.1194791575955526</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03151720436310183</v>
+        <v>0.04921850828886537</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1173356236908964</v>
+        <v>0.1179272234305553</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08638151947076095</v>
+        <v>0.0902464261422245</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1098629128775894</v>
+        <v>0.1179650836010551</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1339993315688734</v>
+        <v>0.02261105499292311</v>
       </c>
       <c r="O215" t="n">
-        <v>0.117261652976635</v>
+        <v>0.1194791575955526</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01842968567911434</v>
+        <v>0.02212723970537694</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1085908868185641</v>
+        <v>0.1202756853128563</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03128939617495471</v>
+        <v>0.04862656516714248</v>
       </c>
       <c r="K216" t="n">
-        <v>0.118117861182169</v>
+        <v>0.1187134049200923</v>
       </c>
       <c r="L216" t="n">
-        <v>0.08524597529637679</v>
+        <v>0.08913649633061682</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1105953322967733</v>
+        <v>0.1187515174917288</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1329174397385338</v>
+        <v>0.02212723970537694</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1180433973298125</v>
+        <v>0.1202756853128563</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01842578123530505</v>
+        <v>0.02187447096398289</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1093100317643824</v>
+        <v>0.12107221303016</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03105953969867385</v>
+        <v>0.04863806441273627</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1189000986734417</v>
+        <v>0.1194995864096294</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0844218822608338</v>
+        <v>0.08775464188279458</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1113277517159573</v>
+        <v>0.1195379513824025</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1329387313705758</v>
+        <v>0.02187447096398289</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1188251416829901</v>
+        <v>0.12107221303016</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01742594202661983</v>
+        <v>0.02155746930218864</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1100291767102007</v>
+        <v>0.1218687407474636</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03072763262481869</v>
+        <v>0.04845320135625611</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1196823361647143</v>
+        <v>0.1202857678991664</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08391079656015088</v>
+        <v>0.08690521347838764</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1120601711351412</v>
+        <v>0.1203243852730762</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1321632303346895</v>
+        <v>0.02155746930218864</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1196068860361677</v>
+        <v>0.1218687407474636</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01642646467872461</v>
+        <v>0.02128095525344195</v>
       </c>
       <c r="G219" t="n">
-        <v>0.110748321656019</v>
+        <v>0.1226652684647673</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03059367264394879</v>
+        <v>0.04807217132831137</v>
       </c>
       <c r="K219" t="n">
-        <v>0.120464573655987</v>
+        <v>0.1210719493887034</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0826937126497696</v>
+        <v>0.0859826288000648</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1127925905543252</v>
+        <v>0.1211108191637499</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1334909605005652</v>
+        <v>0.02128095525344195</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1203886303893452</v>
+        <v>0.1226652684647673</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01742740399525952</v>
+        <v>0.02074964935119047</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1114674666018373</v>
+        <v>0.123461796182071</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0301576574466236</v>
+        <v>0.04719516965951137</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1212468111472596</v>
+        <v>0.1218581308782404</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08216153558942302</v>
+        <v>0.08596382715369183</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1135250099735091</v>
+        <v>0.1218972530544236</v>
       </c>
       <c r="N220" t="n">
-        <v>0.132121945737893</v>
+        <v>0.02074964935119047</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1211703747425228</v>
+        <v>0.123461796182071</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01742881489129815</v>
+        <v>0.02066827212888193</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1121866115476557</v>
+        <v>0.1242583238993747</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03001958472340266</v>
+        <v>0.04692239168046541</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1220290486385323</v>
+        <v>0.1226443123677775</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08171437726688088</v>
+        <v>0.08354940865653432</v>
       </c>
       <c r="M221" t="n">
-        <v>0.114257429392693</v>
+        <v>0.1226836869450973</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1331562099163631</v>
+        <v>0.02066827212888193</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1219521190957004</v>
+        <v>0.1242583238993747</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01743075228191409</v>
+        <v>0.02064154411996402</v>
       </c>
       <c r="G222" t="n">
-        <v>0.112905756493474</v>
+        <v>0.1250548516166784</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02957945216484546</v>
+        <v>0.04605403272178291</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1228112861298049</v>
+        <v>0.1234304938573145</v>
       </c>
       <c r="L222" t="n">
-        <v>0.08115234956991288</v>
+        <v>0.08313997342585783</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1149898488118769</v>
+        <v>0.123470120835771</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1321937769056657</v>
+        <v>0.02064154411996402</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1227338634488779</v>
+        <v>0.1250548516166784</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01643327108218093</v>
+        <v>0.0204668930241345</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1136249014392923</v>
+        <v>0.125851379333982</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02953725746151149</v>
+        <v>0.0458902881140732</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1235935236210775</v>
+        <v>0.1242166753468515</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08027556438628874</v>
+        <v>0.08243612157892805</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1157222682310609</v>
+        <v>0.1242565547264447</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1319346705754912</v>
+        <v>0.0204668930241345</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1235156078020555</v>
+        <v>0.125851379333982</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01843642620717228</v>
+        <v>0.02050149279048986</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1143440463851106</v>
+        <v>0.1266479070512857</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02919299830396027</v>
+        <v>0.04603135318794555</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1243757611123502</v>
+        <v>0.1250028568363886</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07898413360377821</v>
+        <v>0.08053845323301073</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1164546876502448</v>
+        <v>0.1250429886171184</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1312789147955296</v>
+        <v>0.02050149279048986</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1242973521552331</v>
+        <v>0.1266479070512857</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01844027257196171</v>
+        <v>0.02023756960140354</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1150631913309289</v>
+        <v>0.1274444347685894</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0289466723827513</v>
+        <v>0.04527742327400944</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1251579986036228</v>
+        <v>0.1257890383259256</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07847816911015087</v>
+        <v>0.08084756850537134</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1171871070694287</v>
+        <v>0.1258294225077921</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1319265334354712</v>
+        <v>0.02023756960140354</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1250790965084106</v>
+        <v>0.1274444347685894</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01744486509162282</v>
+        <v>0.02027513043324022</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1157823362767472</v>
+        <v>0.1282409624858931</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02859827738844407</v>
+        <v>0.04502869370287402</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1259402360948955</v>
+        <v>0.1265752198154627</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07715778279317656</v>
+        <v>0.07876406751327558</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1179195264886126</v>
+        <v>0.1266158563984658</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1310775503650061</v>
+        <v>0.02027513043324022</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1258608408615882</v>
+        <v>0.1282409624858931</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01645025868122922</v>
+        <v>0.02011418226236464</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1165014812225655</v>
+        <v>0.1290374902031968</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02864781101159811</v>
+        <v>0.04448535980514881</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1267224735861681</v>
+        <v>0.1273614013049997</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07662308654062491</v>
+        <v>0.07848855037398922</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1186519459077966</v>
+        <v>0.1274022902891395</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1307319894538247</v>
+        <v>0.02011418226236464</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1266425852147658</v>
+        <v>0.1290374902031968</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01845650825585449</v>
+        <v>0.02035473206514145</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1172206261683838</v>
+        <v>0.1298340179205005</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02829527094277287</v>
+        <v>0.04424761691144308</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1275047110774408</v>
+        <v>0.1281475827945368</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07597419224026569</v>
+        <v>0.07752161720477774</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1193843653269805</v>
+        <v>0.1281887241798132</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1317898745716171</v>
+        <v>0.02035473206514145</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1274243295679433</v>
+        <v>0.1298340179205005</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01846366873057221</v>
+        <v>0.02029678681793538</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1179397711142021</v>
+        <v>0.1306305456378042</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02794065487252791</v>
+        <v>0.04431566035236617</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1282869485687134</v>
+        <v>0.1289337642840738</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07551121177986855</v>
+        <v>0.07606386812290683</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1201167847461644</v>
+        <v>0.1289751580704869</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1315512295880734</v>
+        <v>0.02029678681793538</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1282060739211209</v>
+        <v>0.1306305456378042</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.016471795020456</v>
+        <v>0.02004035349711111</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1186589160600204</v>
+        <v>0.1314270733551078</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02768396049142269</v>
+        <v>0.04398968545852744</v>
       </c>
       <c r="K230" t="n">
-        <v>0.129069186059986</v>
+        <v>0.1297199457736108</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07373425704720321</v>
+        <v>0.07491590324564207</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1208492041653484</v>
+        <v>0.1297615919611606</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1309160783728839</v>
+        <v>0.02004035349711111</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1289878182742984</v>
+        <v>0.1314270733551078</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01648094204057942</v>
+        <v>0.01988543907903338</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1193780610058387</v>
+        <v>0.1322236010724115</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02762518549001675</v>
+        <v>0.04326988756053626</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1298514235512587</v>
+        <v>0.1305061272631478</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0737434399300394</v>
+        <v>0.07517832269024921</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1215816235845323</v>
+        <v>0.1305480258518343</v>
       </c>
       <c r="N231" t="n">
-        <v>0.131484444795739</v>
+        <v>0.01988543907903338</v>
       </c>
       <c r="O231" t="n">
-        <v>0.129769562627476</v>
+        <v>0.1322236010724115</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01749116470601609</v>
+        <v>0.02003205054006683</v>
       </c>
       <c r="G232" t="n">
-        <v>0.120097205951657</v>
+        <v>0.1330201287897152</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02736432755886956</v>
+        <v>0.04335646198900189</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1306336610425313</v>
+        <v>0.1312923087526849</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07193887231614679</v>
+        <v>0.07355172657399373</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1223140430037162</v>
+        <v>0.131334459742508</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1308563527263285</v>
+        <v>0.02003205054006683</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1305513069806536</v>
+        <v>0.1330201287897152</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01650251793183959</v>
+        <v>0.01998019485657623</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1208163508974753</v>
+        <v>0.1338166565070189</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02710138438854064</v>
+        <v>0.0429496040745338</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1314158985338039</v>
+        <v>0.1320784902422219</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07112066609329518</v>
+        <v>0.07273671501414153</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1230464624229001</v>
+        <v>0.1321208936331817</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1305318260343428</v>
+        <v>0.01998019485657623</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1313330513338312</v>
+        <v>0.1338166565070189</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01651505663312353</v>
+        <v>0.01982987900492625</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1215354958432936</v>
+        <v>0.1346131842243226</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02653635366958948</v>
+        <v>0.0427495091477412</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1321981360250766</v>
+        <v>0.1328646717317589</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07088893314925412</v>
+        <v>0.07143388812795803</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1237788818420841</v>
+        <v>0.1329073275238554</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1312108885894723</v>
+        <v>0.01982987900492625</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1321147956870087</v>
+        <v>0.1346131842243226</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01752883572494147</v>
+        <v>0.01968110996148158</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1222546407891119</v>
+        <v>0.1354097119416263</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02656923309257558</v>
+        <v>0.04215637253923354</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1329803735163493</v>
+        <v>0.133650853221296</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06914378537179344</v>
+        <v>0.07034384603270888</v>
       </c>
       <c r="M235" t="n">
-        <v>0.124511301261268</v>
+        <v>0.1336937614145291</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1296935642614069</v>
+        <v>0.01968110996148158</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1328965400401863</v>
+        <v>0.1354097119416263</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01754391012236704</v>
+        <v>0.01973389470260691</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1229737857349302</v>
+        <v>0.1362062396589299</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02610002034805846</v>
+        <v>0.04197038957962007</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1337626110076219</v>
+        <v>0.134437034710833</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0685853346486828</v>
+        <v>0.07076718884565986</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1252437206804519</v>
+        <v>0.1344801953052028</v>
       </c>
       <c r="N236" t="n">
-        <v>0.130079876919837</v>
+        <v>0.01973389470260691</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1336782843933639</v>
+        <v>0.1362062396589299</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01856033474047381</v>
+        <v>0.01958824020466697</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1236929306807485</v>
+        <v>0.1370027673762336</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02572871312659761</v>
+        <v>0.04179175559951026</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1345448484988945</v>
+        <v>0.1352232162003701</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06731369286769198</v>
+        <v>0.06880451668407644</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1259761400996359</v>
+        <v>0.1352666291958765</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1296698504344527</v>
+        <v>0.01958824020466697</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1344600287465414</v>
+        <v>0.1370027673762336</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01757816449433536</v>
+        <v>0.01974415344402645</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1244120756265669</v>
+        <v>0.1377992950935373</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02565530911875254</v>
+        <v>0.0411206659295133</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1353270859901672</v>
+        <v>0.1360093976899071</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06692897191659053</v>
+        <v>0.06855642966522441</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1267085595188198</v>
+        <v>0.1360530630865502</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1305635086749443</v>
+        <v>0.01974415344402645</v>
       </c>
       <c r="O238" t="n">
-        <v>0.135241773099719</v>
+        <v>0.1377992950935373</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01759745429902533</v>
+        <v>0.01960164139705005</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1251312205723852</v>
+        <v>0.138595822810841</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02527980601508274</v>
+        <v>0.04145731590023868</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1361093234814398</v>
+        <v>0.1367955791794441</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06523128368314829</v>
+        <v>0.06672352790636932</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1274409789380037</v>
+        <v>0.1368394969772239</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1295608755110019</v>
+        <v>0.01960164139705005</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1360235174528966</v>
+        <v>0.138595822810841</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01761825906961727</v>
+        <v>0.01946071104010248</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1258503655182034</v>
+        <v>0.1393923505281447</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02490220150614773</v>
+        <v>0.04120190084229564</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1368915609727125</v>
+        <v>0.1375817606689812</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06512074005513496</v>
+        <v>0.06700641152477677</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1281733983571877</v>
+        <v>0.1376259308678977</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1292619748123158</v>
+        <v>0.01946071104010248</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1368052618060741</v>
+        <v>0.1393923505281447</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01864063372118479</v>
+        <v>0.0196213693495484</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1265695104640218</v>
+        <v>0.1401888782454484</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02482249328250699</v>
+        <v>0.04025461608629355</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1376737984639851</v>
+        <v>0.1383679421585182</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06349745292032022</v>
+        <v>0.06640568063771263</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1289058177763716</v>
+        <v>0.1384123647585713</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1298668304485762</v>
+        <v>0.0196213693495484</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1375870061592517</v>
+        <v>0.1401888782454484</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01866463316880147</v>
+        <v>0.01948362330175257</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1272886554098401</v>
+        <v>0.1409854059627521</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02464067903472003</v>
+        <v>0.04041565696284175</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1384560359552578</v>
+        <v>0.1391541236480552</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06296153416647376</v>
+        <v>0.06502193536244216</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1296382371955555</v>
+        <v>0.139198798649245</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1296754662894732</v>
+        <v>0.01948362330175257</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1383687505124293</v>
+        <v>0.1409854059627521</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01869031232754093</v>
+        <v>0.01954747987307967</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1280078003556584</v>
+        <v>0.1417819336800557</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02415675645334638</v>
+        <v>0.03968521880254963</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1392382734465304</v>
+        <v>0.1399403051375923</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06111309568136528</v>
+        <v>0.06425577581623132</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1303706566147395</v>
+        <v>0.1399852325399187</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1302879062046972</v>
+        <v>0.01954747987307967</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1391504948656068</v>
+        <v>0.1417819336800557</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01871772611247673</v>
+        <v>0.01941294603989435</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1287269453014767</v>
+        <v>0.1425784613973594</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0238707232289455</v>
+        <v>0.04016349693602653</v>
       </c>
       <c r="K244" t="n">
-        <v>0.140020510937803</v>
+        <v>0.1407264866271293</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06055224935276454</v>
+        <v>0.0641078021163457</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1311030760339234</v>
+        <v>0.1407716664305924</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1295041740639382</v>
+        <v>0.01941294603989435</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1399322392187844</v>
+        <v>0.1425784613973594</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01674692943868249</v>
+        <v>0.01938002877856139</v>
       </c>
       <c r="G245" t="n">
-        <v>0.129446090247295</v>
+        <v>0.1433749891146631</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02368257705207692</v>
+        <v>0.03965068669388172</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1408027484290757</v>
+        <v>0.1415126681166663</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05987910706844121</v>
+        <v>0.06217861438005085</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1318354954531073</v>
+        <v>0.1415581003212661</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1287242937368865</v>
+        <v>0.01938002877856139</v>
       </c>
       <c r="O245" t="n">
-        <v>0.140713983571962</v>
+        <v>0.1433749891146631</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01877797722123178</v>
+        <v>0.01924873506544546</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1301652351931133</v>
+        <v>0.1441715168319668</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02349231561330013</v>
+        <v>0.03914698340672462</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1415849859203483</v>
+        <v>0.1422988496062034</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05849378071616504</v>
+        <v>0.06206881272461234</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1325679148722912</v>
+        <v>0.1423445342119398</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1291482890932322</v>
+        <v>0.01924873506544546</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1414957279251395</v>
+        <v>0.1441715168319668</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01881092437519821</v>
+        <v>0.01931907187691123</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1308843801389316</v>
+        <v>0.1449680445492705</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02319993660317463</v>
+        <v>0.03925258240516452</v>
       </c>
       <c r="K247" t="n">
-        <v>0.142367223411621</v>
+        <v>0.1430850310957404</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05769638218370562</v>
+        <v>0.06197899726729605</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1333003342914752</v>
+        <v>0.1431309681026135</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1289761840026658</v>
+        <v>0.01931907187691123</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1422774722783171</v>
+        <v>0.1449680445492705</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01884582581565537</v>
+        <v>0.01949104618932343</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1316035250847499</v>
+        <v>0.1457645722665742</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02290543771225993</v>
+        <v>0.0389676790198108</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1431494609028936</v>
+        <v>0.1438712125852774</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0556870233588328</v>
+        <v>0.06100976812536735</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1340327537106591</v>
+        <v>0.1439174019932873</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1298080023348772</v>
+        <v>0.01949104618932343</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1430592166314947</v>
+        <v>0.1457645722665742</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01888273645767684</v>
+        <v>0.01926466497904676</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1323226700305682</v>
+        <v>0.1465610999838778</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02240881663111551</v>
+        <v>0.03939246858127279</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1439316983941663</v>
+        <v>0.1446573940748145</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05526581612931622</v>
+        <v>0.05976172541609204</v>
       </c>
       <c r="M249" t="n">
-        <v>0.134765173129843</v>
+        <v>0.1447038358839609</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1299437679595568</v>
+        <v>0.01926466497904676</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1438409609846722</v>
+        <v>0.1465610999838778</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01692171121633623</v>
+        <v>0.01913993522244592</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1330418149763865</v>
+        <v>0.1473576277011815</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02221007105030094</v>
+        <v>0.03892714642015982</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1447139358854389</v>
+        <v>0.1454435755643515</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05383287238292564</v>
+        <v>0.05903546925673581</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1354975925490269</v>
+        <v>0.1454902697746346</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1293835047463946</v>
+        <v>0.01913993522244592</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1446227053378498</v>
+        <v>0.1473576277011815</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01796280500670713</v>
+        <v>0.01931686389588561</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1337609599222048</v>
+        <v>0.1481541554184852</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02180919866037564</v>
+        <v>0.03877190786708129</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1454961733767115</v>
+        <v>0.1462297570538885</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05288830400743069</v>
+        <v>0.05853159976456418</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1362300119682109</v>
+        <v>0.1462767036653083</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1294272365650809</v>
+        <v>0.01931686389588561</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1454044496910274</v>
+        <v>0.1481541554184852</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01700607274386312</v>
+        <v>0.01939545797573052</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1344801048680231</v>
+        <v>0.1489506831357889</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02170619715189914</v>
+        <v>0.03862694825264645</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1462784108679842</v>
+        <v>0.1470159385434256</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05163222289060107</v>
+        <v>0.05865071705684277</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1369624313873948</v>
+        <v>0.147063137555982</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1283749872853061</v>
+        <v>0.01939545797573052</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1461861940442049</v>
+        <v>0.1489506831357889</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0170515693428778</v>
+        <v>0.01937572443834534</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1351992498138414</v>
+        <v>0.1497472108530926</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02130106421543097</v>
+        <v>0.03789246290746476</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1470606483592568</v>
+        <v>0.1478021200329626</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05026474092020655</v>
+        <v>0.05849342125083729</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1376948508065788</v>
+        <v>0.1478495714466558</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1289267807767601</v>
+        <v>0.01937572443834534</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1469679383973825</v>
+        <v>0.1497472108530926</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01809934971882477</v>
+        <v>0.01905767026009482</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1359183947596597</v>
+        <v>0.1505437385703963</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02099379754153059</v>
+        <v>0.03836864716214547</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1478428858505295</v>
+        <v>0.1485883015224997</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04918596998401689</v>
+        <v>0.05676031246381347</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1384272702257626</v>
+        <v>0.1486360053373294</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1295826409091334</v>
+        <v>0.01905767026009482</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1477496827505601</v>
+        <v>0.1505437385703963</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01914946878677762</v>
+        <v>0.01914130241734359</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1366375397054781</v>
+        <v>0.1513402662876999</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02058439482075754</v>
+        <v>0.03825569634729795</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1486251233418021</v>
+        <v>0.1493744830120367</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04779602196980165</v>
+        <v>0.05675199081303672</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1391596896449466</v>
+        <v>0.1494224392280032</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1288425915521158</v>
+        <v>0.01914130241734359</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1485314271037376</v>
+        <v>0.1513402662876999</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01820198146180994</v>
+        <v>0.01932662788645644</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1373566846512964</v>
+        <v>0.1521367940050036</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02027285374367128</v>
+        <v>0.03845380579353155</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1494073608330748</v>
+        <v>0.1501606645015737</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04699500876533061</v>
+        <v>0.05696905641577282</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1398921090641305</v>
+        <v>0.1502088731186768</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1290066565753979</v>
+        <v>0.01932662788645644</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1493131714569152</v>
+        <v>0.1521367940050036</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01725694265899531</v>
+        <v>0.01901365364379799</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1380758295971146</v>
+        <v>0.1529333217223073</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02015917200083138</v>
+        <v>0.03826317083145567</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1501895983243474</v>
+        <v>0.1509468459911108</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04548304225837346</v>
+        <v>0.05631210938928749</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1406245284833145</v>
+        <v>0.1509953070093505</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1295748598486698</v>
+        <v>0.01901365364379799</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1500949158100928</v>
+        <v>0.1529333217223073</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01731440729340734</v>
+        <v>0.01930238666573296</v>
       </c>
       <c r="G258" t="n">
-        <v>0.138794974542933</v>
+        <v>0.153729849439611</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01984334728279728</v>
+        <v>0.0374839867916795</v>
       </c>
       <c r="K258" t="n">
-        <v>0.15097183581562</v>
+        <v>0.1517330274806478</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04446023433669996</v>
+        <v>0.05478174985084616</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1413569479024984</v>
+        <v>0.1517817409000242</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1291472252416217</v>
+        <v>0.01930238666573296</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1508766601632703</v>
+        <v>0.153729849439611</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01837443028011963</v>
+        <v>0.01899283392862609</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1395141194887513</v>
+        <v>0.1545263771569147</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01932537728012849</v>
+        <v>0.03821644900481255</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1517540733068927</v>
+        <v>0.1525192089701848</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04292669688807979</v>
+        <v>0.05527857791771468</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1420893673216823</v>
+        <v>0.152568174790698</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1289237766239438</v>
+        <v>0.01899283392862609</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1516584045164479</v>
+        <v>0.1545263771569147</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01943706653420576</v>
+        <v>0.01918500240884204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1402332644345696</v>
+        <v>0.1553229048742184</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01920525968338455</v>
+        <v>0.03786075280146406</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1525363107981653</v>
+        <v>0.1533053904597219</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04238254180028264</v>
+        <v>0.05440319370715851</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1428217867408662</v>
+        <v>0.1533546086813717</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1280045378653261</v>
+        <v>0.01918500240884204</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1524401488696255</v>
+        <v>0.1553229048742184</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01750237097073931</v>
+        <v>0.01917889908274552</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1409524093803879</v>
+        <v>0.1561194325915221</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01858299218312491</v>
+        <v>0.03811709351224343</v>
       </c>
       <c r="K261" t="n">
-        <v>0.153318548289438</v>
+        <v>0.1540915719492589</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04042788096107819</v>
+        <v>0.05425619733644349</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1435542061600502</v>
+        <v>0.1541410425720453</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1287895328354591</v>
+        <v>0.01917889908274552</v>
       </c>
       <c r="O261" t="n">
-        <v>0.153221893222803</v>
+        <v>0.1561194325915221</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0175703985047939</v>
+        <v>0.01917453092670122</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1416715543262062</v>
+        <v>0.1569159603088257</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01825857246990913</v>
+        <v>0.03808566646775999</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1541007857807106</v>
+        <v>0.154877753438796</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03986282625823623</v>
+        <v>0.05433818892283498</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1442866255792341</v>
+        <v>0.1549274764627191</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1294787854040329</v>
+        <v>0.01917453092670122</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1540036375759806</v>
+        <v>0.1569159603088257</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01964120405144311</v>
+        <v>0.01927190491707388</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1423906992720245</v>
+        <v>0.1577124880261294</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01813199823429665</v>
+        <v>0.03736666699862304</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1548830232719833</v>
+        <v>0.155663934928333</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03858748957952646</v>
+        <v>0.05304976858359889</v>
       </c>
       <c r="M263" t="n">
-        <v>0.145019044998418</v>
+        <v>0.1557139103533927</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1292723194407377</v>
+        <v>0.01927190491707388</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1547853819291582</v>
+        <v>0.1577124880261294</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01971484252576053</v>
+        <v>0.01907102803022814</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1431098442178428</v>
+        <v>0.1585090157434331</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01760326716684701</v>
+        <v>0.03736029043544201</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1556652607632559</v>
+        <v>0.15645011641787</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03690198281271848</v>
+        <v>0.0534915364360008</v>
       </c>
       <c r="M264" t="n">
-        <v>0.145751464417602</v>
+        <v>0.1565003442440664</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1281701588152636</v>
+        <v>0.01907102803022814</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1555671262823357</v>
+        <v>0.1585090157434331</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.775048945656135</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03875244728280675</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03875244728280675</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.0620039156524908</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08125146836968405</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01828357162598611</v>
+        <v>0.03125146836968406</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01522488245605552</v>
+        <v>0.01634251240350283</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001698615476400732</v>
+        <v>0.001477808016667949</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007965277173036839</v>
+        <v>0.0006697476000353822</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005022352096132499</v>
+        <v>0.001842896641937604</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007861814895370352</v>
+        <v>0.0007965277173036839</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008791845915017527</v>
+        <v>0.004625289644401398</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007864338906737007</v>
+        <v>0.0007877252880464078</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001698615476400732</v>
+        <v>0.01274843181721774</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007965277173036839</v>
+        <v>0.0007842566690586224</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003750712347315041</v>
+        <v>0.002936704961114367</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001593055434607368</v>
+        <v>0.001339495200070764</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01161901297076931</v>
+        <v>0.003535075345997611</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00157236297907407</v>
+        <v>0.001593055434607368</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01921577809313224</v>
+        <v>0.01032325460942549</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001572867781347401</v>
+        <v>0.001575450576092816</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003750712347315041</v>
+        <v>0.02425891573310912</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001593055434607368</v>
+        <v>0.001568513338117245</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005507887927061611</v>
+        <v>0.004377103392423108</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002389583151911052</v>
+        <v>0.002009242800106146</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01619887533384717</v>
+        <v>0.005435225476092903</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002358544468611106</v>
+        <v>0.002389583151911052</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02791438871140606</v>
+        <v>0.01488057250888442</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002359301672021102</v>
+        <v>0.002363175864139224</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005507887927061611</v>
+        <v>0.03547752124284137</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002389583151911052</v>
+        <v>0.002352770007175867</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007021739529959159</v>
+        <v>0.005799415869678047</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003186110869214736</v>
+        <v>0.002678990400141529</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02047083189530291</v>
+        <v>0.007002036396136314</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003144725958148141</v>
+        <v>0.003186110869214736</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03433026994690103</v>
+        <v>0.01799999999999999</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003145735562694803</v>
+        <v>0.00288245192307692</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.007021739529959159</v>
+        <v>0.04715031784158202</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003186110869214736</v>
+        <v>0.00313702667623449</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004996249999999997</v>
+        <v>0.01161701488420339</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008543864470326422</v>
+        <v>0.007204054951963031</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00398263858651842</v>
+        <v>0.003348738000176911</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02299999999999996</v>
+        <v>0.008794197470040739</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00354672067901234</v>
+        <v>0.00398263858651842</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04299999999999998</v>
+        <v>0.02187801800112021</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004131514423076921</v>
+        <v>0.003938626440232039</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.008543864470326422</v>
+        <v>0.0555233750244985</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00398263858651842</v>
+        <v>0.003921283345293112</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.008591433198361927</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004996249999999997</v>
+        <v>0.004018485600212293</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02737338828325739</v>
+        <v>0.009970398061719031</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004717088937222212</v>
+        <v>0.004779166303822103</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0465000154848797</v>
+        <v>0.0249958523797443</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004718603344042204</v>
+        <v>0.004726351728278447</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.06314276228675819</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004996249999999997</v>
+        <v>0.004705540014351734</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01047899518915472</v>
+        <v>0.009961963167958603</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005575694021125788</v>
+        <v>0.004688233200247675</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02983766895600157</v>
+        <v>0.011</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005503270426759246</v>
+        <v>0.005495874999999997</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04939190442370317</v>
+        <v>0.0273185909449086</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005505037234715906</v>
+        <v>0.005514077016324855</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01047899518915472</v>
+        <v>0.06805454912352843</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005575694021125788</v>
+        <v>0.005489796683410358</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01124109679461188</v>
+        <v>0.01131605741983692</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006372221738429471</v>
+        <v>0.005357980800283058</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03228222899194955</v>
+        <v>0.01194165167158873</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006289451916296282</v>
+        <v>0.006372221738429471</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05337804879381919</v>
+        <v>0.03066087136204079</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006291471125389606</v>
+        <v>0.006301802304371262</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01124109679461188</v>
+        <v>0.07300000000000001</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006372221738429471</v>
+        <v>0.006631386363636364</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01222924964095848</v>
+        <v>0.01265412851308072</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007168749455733155</v>
+        <v>0.006027728400318439</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03433086475348657</v>
+        <v>0.01260951120530353</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007075633405833316</v>
+        <v>0.007168749455733155</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0578112705017888</v>
+        <v>0.03243733129656864</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007077905016063307</v>
+        <v>0.007089527592417671</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01222924964095848</v>
+        <v>0.07347436640815913</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007168749455733155</v>
+        <v>0.007058310021527602</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0128528790983439</v>
+        <v>0.01397658900677391</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00796527717303684</v>
+        <v>0.006697476000353821</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03670737260299797</v>
+        <v>0.01340492241131708</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007861814895370351</v>
+        <v>0.00796527717303684</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06104439145417284</v>
+        <v>0.03556260841392</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007864338906737007</v>
+        <v>0.007877252880464078</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0128528790983439</v>
+        <v>0.07323811459985358</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00796527717303684</v>
+        <v>0.007842566690586224</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01342141053691753</v>
+        <v>0.0152838514600003</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008761804890340523</v>
+        <v>0.007367223600389204</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03913554890286911</v>
+        <v>0.01373889427201358</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008647996384907387</v>
+        <v>0.008761804890340523</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06333023355753226</v>
+        <v>0.03735134037952248</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008650772797410708</v>
+        <v>0.008664978168510487</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01342141053691753</v>
+        <v>0.07331355784158011</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008761804890340523</v>
+        <v>0.008626823359644847</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01434426932682868</v>
+        <v>0.01657632843184379</v>
       </c>
       <c r="G77" t="n">
+        <v>0.008036971200424585</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01462243576977726</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009558332607644207</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.04113919001548524</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009434177874444423</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.06612161871842787</v>
+        <v>0.03971816485880394</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009437206688084409</v>
+        <v>0.009452703456556895</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01434426932682868</v>
+        <v>0.07449575489450999</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009558332607644207</v>
+        <v>0.009411080028703469</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01463088083822678</v>
+        <v>0.01785443248138823</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008706718800459968</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01496655588699231</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01035486032494789</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.04314209230323171</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01022035936398146</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.06847136884342048</v>
+        <v>0.04117771951719215</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01022364057875811</v>
+        <v>0.0102404287446033</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01463088083822678</v>
+        <v>0.07507976451981468</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01035486032494789</v>
+        <v>0.01019533669776209</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01549067044126111</v>
+        <v>0.01911857616771747</v>
       </c>
       <c r="G79" t="n">
+        <v>0.00937646640049535</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01558226360604298</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01115138804225158</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.04476805212849388</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01100654085351849</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.07163230583907115</v>
+        <v>0.0429446420201148</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01101007446943181</v>
+        <v>0.01102815403264971</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01549067044126111</v>
+        <v>0.07566064547866547</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01115138804225158</v>
+        <v>0.01097959336682072</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01603306350608111</v>
+        <v>0.0203691720499154</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01004621400053073</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01588056790931346</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01194791575955526</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.04730768108444461</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01215848773755948</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.07395725161194078</v>
+        <v>0.04553357003299968</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01179650836010551</v>
+        <v>0.01181587932069612</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01603306350608111</v>
+        <v>0.07633179054290307</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01194791575955526</v>
+        <v>0.01155674874242362</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01656748540283612</v>
+        <v>0.02160663268706585</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01071596160056612</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01637247777918795</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01274444347685894</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04768830615563804</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01257890383259256</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.07633179054290307</v>
+        <v>0.04730768108444461</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01222348424679421</v>
+        <v>0.01262612188131177</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01656748540283612</v>
+        <v>0.07601279879686801</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01274444347685894</v>
+        <v>0.01254810670493796</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01700336150167552</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01161701488420339</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01686900219805069</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01354097119416263</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.0495445530692864</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.0133650853221296</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.07886932941832081</v>
+        <v>0.048461820888832</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01336937614145291</v>
+        <v>0.01339132989678893</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01700336150167552</v>
+        <v>0.07838636834024587</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01354097119416263</v>
+        <v>0.01333236337399658</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01735011717274865</v>
+        <v>0.02406242247150406</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01205545680063688</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01738115014828585</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01433749891146631</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.05141077854891407</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01415126681166663</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.08236923960983683</v>
+        <v>0.05047381472073126</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01415581003212661</v>
+        <v>0.01417905518483534</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01735011717274865</v>
+        <v>0.07954086770683277</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01433749891146631</v>
+        <v>0.0141166200430552</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>0.02534223990337741</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01272520440067226</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.01828357162598611</v>
       </c>
-      <c r="G84" t="n">
+      <c r="K84" t="n">
         <v>0.01522488245605552</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.05278418545554434</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01493744830120367</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.08409173588535912</v>
+        <v>0.05189230600142977</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01494224392280031</v>
+        <v>0.01496678047288175</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01828357162598611</v>
+        <v>0.08016527788920613</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01522488245605552</v>
+        <v>0.01490087671211382</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01850901614103616</v>
+        <v>0.02663116226272704</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01339495200070764</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0186890779466415</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01593055434607368</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.05396197665020055</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.0157236297907407</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.0869318296586431</v>
+        <v>0.05351445327058224</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01572867781347401</v>
+        <v>0.01575450576092816</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01850901614103616</v>
+        <v>0.08144857987994303</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01593055434607368</v>
+        <v>0.01568513338117245</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0191206086381131</v>
+        <v>0.02788342748088279</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01406469960074302</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01928058976302513</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01672708206337736</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.05584135499390591</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01650981128027774</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.08968453234344459</v>
+        <v>0.05533741506784329</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01651511170414772</v>
+        <v>0.01654223104897456</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0191206086381131</v>
+        <v>0.0840797546716211</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01672708206337736</v>
+        <v>0.01646939005023107</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02004974504067973</v>
+        <v>0.02905327348917446</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01473444720077841</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01989210758894445</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01752360978068105</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.05731952334768375</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01729599276981477</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.09224485535351951</v>
+        <v>0.05665834993286772</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01730154559482142</v>
+        <v>0.01732995633702097</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02004974504067973</v>
+        <v>0.08504778325681744</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01752360978068105</v>
+        <v>0.01725364671928969</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02059427210178519</v>
+        <v>0.03009493821893191</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01540419480081379</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02042136475392435</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01832013749798473</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05929368457255743</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01808217425935181</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.0958078101026234</v>
+        <v>0.05907441640531028</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01808797948549512</v>
+        <v>0.01811768162506738</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02059427210178519</v>
+        <v>0.08744164662810944</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01832013749798473</v>
+        <v>0.01803790338834832</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02135203657447857</v>
+        <v>0.03125146836968406</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01634251240350283</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.0209660945874897</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01911666521528841</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06136104152955008</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01886835574888885</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.09736840800451202</v>
+        <v>0.06028277302482568</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01887441337616882</v>
+        <v>0.01890540691311379</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02135203657447857</v>
+        <v>0.08945032577807438</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01911666521528841</v>
+        <v>0.01882216005740694</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02202088521180898</v>
+        <v>0.03165069922384036</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01674369000088455</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0216240304191654</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.0199131929325921</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.06321879707968511</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01965453723842588</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1012216604729412</v>
+        <v>0.0626805783310686</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01966084726684252</v>
+        <v>0.01969313220116019</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02202088521180898</v>
+        <v>0.09186280169928945</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0199131929325921</v>
+        <v>0.01960641672646556</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02259866476682554</v>
+        <v>0.03229803239225731</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01741343760091994</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02239290557847627</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02070972064989578</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.06466415408398579</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02044071872796292</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1028625789216667</v>
+        <v>0.06386499086369385</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02044728115751622</v>
+        <v>0.0204808574892066</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02259866476682554</v>
+        <v>0.09446805538433217</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02070972064989578</v>
+        <v>0.02039067339552418</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02338322199257738</v>
+        <v>0.03292159760004729</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01808318520095532</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02307045339494726</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02150624836719947</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.06559431540347532</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02122690021749995</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1050861747644442</v>
+        <v>0.06553316916235608</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02123371504818992</v>
+        <v>0.02126858277725301</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02338322199257738</v>
+        <v>0.09635506782577974</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02150624836719947</v>
+        <v>0.02117493006458281</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02397240364211357</v>
+        <v>0.03352162869443284</v>
       </c>
       <c r="G93" t="n">
+        <v>0.0187529328009907</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02385440719810322</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02230277608450315</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.06790648389917714</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02201308170703698</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1078874594150294</v>
+        <v>0.06698227176671001</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02202014893886362</v>
+        <v>0.02205630806529942</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02397240364211357</v>
+        <v>0.09971282001620951</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02230277608450315</v>
+        <v>0.02195918673364143</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02456405646848327</v>
+        <v>0.03409835952263657</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01942268040102608</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02454250031746902</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02309930380180683</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.06949786243211442</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02279926319657402</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1101614442871781</v>
+        <v>0.06850945721641044</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02280658282953732</v>
+        <v>0.02284403335334583</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02456405646848327</v>
+        <v>0.1013302929481986</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02309930380180683</v>
+        <v>0.02274344340270005</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02545602722473557</v>
+        <v>0.03465202393188104</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02009242800106147</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02533246608256955</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02389583151911052</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.07116565386331047</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02358544468611106</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.114203140794646</v>
+        <v>0.070511884051112</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02359301672021102</v>
+        <v>0.02363175864139223</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02545602722473557</v>
+        <v>0.1046964676143247</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02389583151911052</v>
+        <v>0.02352770007175867</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02614616266391959</v>
+        <v>0.03518285576938888</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02076217560109685</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02582203782292966</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.0246923592364142</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.07190706105378861</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02437162617564809</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1164075603511889</v>
+        <v>0.07238671081046952</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02437945061088473</v>
+        <v>0.02441948392943864</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02614616266391959</v>
+        <v>0.1062003250071647</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0246923592364142</v>
+        <v>0.0243119567408173</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02663230953908442</v>
+        <v>0.03569108888238263</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02143192320113223</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02650894886807427</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02548888695371788</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.07391928686457214</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02515780766518513</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1178697143705624</v>
+        <v>0.0735310960341376</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02516588450155842</v>
+        <v>0.02520720921748505</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02663230953908442</v>
+        <v>0.1088308461192962</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02548888695371788</v>
+        <v>0.02509621340987592</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0274123146032792</v>
+        <v>0.03617695711808485</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02210167080116761</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02719093254752825</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02628541467102157</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.07499953415668428</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02594398915472216</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1202846142665225</v>
+        <v>0.07464219826177107</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02595231839223212</v>
+        <v>0.02599493450553146</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0274123146032792</v>
+        <v>0.1126770119432963</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02628541467102157</v>
+        <v>0.02588047007893454</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02788402460955305</v>
+        <v>0.0366406943237182</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02277141840120299</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02786572219081647</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02708194238832525</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.07654500579114837</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.0267301706442592</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1237472714528249</v>
+        <v>0.07621717603302464</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02673875228290583</v>
+        <v>0.02678265979357787</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02788402460955305</v>
+        <v>0.1153278034717425</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02708194238832525</v>
+        <v>0.02666472674799316</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02884528631095507</v>
+        <v>0.03708253434650519</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02344116600123838</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02863105112746381</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02787847010562894</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.07845290462898769</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02751635213379623</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1252526973432251</v>
+        <v>0.07775318788755295</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02752518617357953</v>
+        <v>0.02757038508162427</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02884528631095507</v>
+        <v>0.1166722016972119</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02787847010562894</v>
+        <v>0.02744898341705179</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02929394646053435</v>
+        <v>0.03750271103366844</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02411091360127376</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02938465268699515</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02867499782293262</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.07942043353122552</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02830253362333326</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1282959033514791</v>
+        <v>0.07914739236501081</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02831162006425323</v>
+        <v>0.02835811036967069</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02929394646053435</v>
+        <v>0.1197991876122821</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02867499782293262</v>
+        <v>0.02823324008611041</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02992785181134004</v>
+        <v>0.03790145823243051</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02478066120130914</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03002426019893537</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02947152554023631</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.08054479535888517</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.0290887151128703</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1305719008913424</v>
+        <v>0.08119694800505295</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02909805395492693</v>
+        <v>0.02914583565771709</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02992785181134004</v>
+        <v>0.1230977422095302</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02947152554023631</v>
+        <v>0.02901749675516903</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03044484911642123</v>
+        <v>0.03827900979001402</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02545040880134452</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03054760699280931</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03026805325753999</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.0826231929729899</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02987489660240734</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1321757013765709</v>
+        <v>0.08239901334733407</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02988448784560063</v>
+        <v>0.0299335609457635</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03044484911642123</v>
+        <v>0.1257568464815334</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03026805325753999</v>
+        <v>0.02980175342422765</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03114278512882702</v>
+        <v>0.03863559955364149</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02612015640137991</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03115242639814193</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03106458097484367</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.083052829234563</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03066107809194437</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1343023162209203</v>
+        <v>0.08355074693150885</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03067092173627433</v>
+        <v>0.0307212862338099</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03114278512882702</v>
+        <v>0.1281654814208692</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03106458097484367</v>
+        <v>0.03058601009328627</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03161950660160658</v>
+        <v>0.03897146137053557</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02678990400141528</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.03153645174445806</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03186110869214736</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.0849309070046278</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.0314472595814814</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1366467568381464</v>
+        <v>0.0847493072972321</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03145735562694803</v>
+        <v>0.03150901152185631</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03161950660160658</v>
+        <v>0.1308126280201149</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03186110869214736</v>
+        <v>0.0313702667623449</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03247286028780898</v>
+        <v>0.03928682908791881</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02745965160145067</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03209741636128258</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03265763640945104</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.08585462914420752</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03223344107101844</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1382040346420049</v>
+        <v>0.08569185298415843</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03224378951762173</v>
+        <v>0.03229673680990272</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03247286028780898</v>
+        <v>0.1330872672718478</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03265763640945104</v>
+        <v>0.03215452343140352</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03280069294048331</v>
+        <v>0.03958193655301378</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02812939920148605</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03293305357814036</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03345416412675473</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.0864211985143255</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03301962256055548</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1390691610462515</v>
+        <v>0.08697554253194273</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03303022340829544</v>
+        <v>0.03308446209794913</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03280069294048331</v>
+        <v>0.134078380168645</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03345416412675473</v>
+        <v>0.03293878010046215</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03330085131267872</v>
+        <v>0.03985701761304309</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02879914680152143</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03334109672455628</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03425069184405841</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.08732781797600497</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03380580405009252</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.141537147464642</v>
+        <v>0.08779753448023955</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03381665729896913</v>
+        <v>0.03387218738599553</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03330085131267872</v>
+        <v>0.1371749477030841</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03425069184405841</v>
+        <v>0.03372303676952076</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03367118215744434</v>
+        <v>0.04011230611522929</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02946889440155681</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.03361927913005525</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03504721956136209</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.0882716903902693</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03459198553962955</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1431030053109322</v>
+        <v>0.08885498736870376</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03460309118964283</v>
+        <v>0.03465991267404195</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03367118215744434</v>
+        <v>0.1391659508677424</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03504721956136209</v>
+        <v>0.03450729343857939</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03410953222782925</v>
+        <v>0.040348035906795</v>
       </c>
       <c r="G110" t="n">
+        <v>0.0301386420015922</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.0341653341241621</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03584374727866577</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.08955001861814174</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03537816702916658</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1448617459988777</v>
+        <v>0.09004505973699001</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03538952508031654</v>
+        <v>0.03544763796208835</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03410953222782925</v>
+        <v>0.1416403706551969</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03584374727866577</v>
+        <v>0.03529155010763801</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03471374827688256</v>
+        <v>0.04056444083496277</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03080838960162758</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.03447699503640178</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03664027499596946</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.09006000552064561</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03616434851870362</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1457083809422344</v>
+        <v>0.09016491012475297</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03617595897099023</v>
+        <v>0.03623536325013476</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03471374827688256</v>
+        <v>0.1425871880580251</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03664027499596946</v>
+        <v>0.03607580677669663</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0350816770576534</v>
+        <v>0.04076626070054746</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03147813720166296</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0348519951962991</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03743680271327315</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.09109885395880418</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03695053000824065</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1473379215547577</v>
+        <v>0.09091169707164751</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03696239286166394</v>
+        <v>0.03702308853818117</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0350816770576534</v>
+        <v>0.1451953840688044</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03743680271327315</v>
+        <v>0.03686006344575526</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03531116532319087</v>
+        <v>0.04096558137864404</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03214788480169834</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03548806793337897</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03823333043057683</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.09226376679364068</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03773671149777769</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1482453792502038</v>
+        <v>0.09218257911732827</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03774882675233764</v>
+        <v>0.03781081382622758</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03531116532319087</v>
+        <v>0.146153939680112</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03823333043057683</v>
+        <v>0.03764432011481388</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03580005982654409</v>
+        <v>0.04116298037148581</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03281763240173372</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03558294657716624</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03902985814788051</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.09285194688617837</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03852289298731473</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1494257654423283</v>
+        <v>0.09287471480144996</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03853526064301133</v>
+        <v>0.03859853911427398</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03580005982654409</v>
+        <v>0.1480518358845253</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03902985814788051</v>
+        <v>0.0384285767838725</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03604620732076221</v>
+        <v>0.04135838050356331</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03348738000176911</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03573436445718586</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03982638586518419</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.09256059709744077</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03930907447685176</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1498740915448868</v>
+        <v>0.0927852626636673</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03932169453368504</v>
+        <v>0.03938626440232039</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03604620732076221</v>
+        <v>0.1484780536746214</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03982638586518419</v>
+        <v>0.03921283345293112</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03604745455889426</v>
+        <v>0.04155170459936709</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03415712760180449</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03624005490296263</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04062291358248788</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.0932869202884509</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.0400952559663888</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1499853689716351</v>
+        <v>0.09371138124363509</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04010812842435874</v>
+        <v>0.0401739896903668</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03604745455889426</v>
+        <v>0.1496215740429777</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04062291358248788</v>
+        <v>0.03999709012198974</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03640164829398941</v>
+        <v>0.04174287548338767</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03482687520183987</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03619775124402144</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04141944129979156</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.09362811932023218</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04088143745592583</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1518546091363289</v>
+        <v>0.09365022908100792</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04089456231503244</v>
+        <v>0.04096171497841321</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03640164829398941</v>
+        <v>0.1502713779821717</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04141944129979156</v>
+        <v>0.04078134679104837</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03650663527909677</v>
+        <v>0.04193181598011559</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03549662280187525</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.03630518680988722</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04221596901709525</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.09368139705380787</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04166761894546286</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1522768234527241</v>
+        <v>0.09379896471544064</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04168099620570614</v>
+        <v>0.04174944026645961</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03650663527909677</v>
+        <v>0.1515164464847804</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04221596901709525</v>
+        <v>0.04156560346010699</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04211844891404137</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.03616637040191064</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.03656714325197222</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04301249673439893</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.09461536216888919</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.0424538004349999</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.1526635810858061</v>
-      </c>
       <c r="M119" t="n">
-        <v>0.04246743009637984</v>
+        <v>0.04253716555450602</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03656714325197222</v>
+        <v>0.1524457605433813</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04301249673439893</v>
+        <v>0.04234986012916561</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0364651403847016</v>
+        <v>0.04230269710965556</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03683611800194602</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03646582672526311</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04380902445170261</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.09431300007043567</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04323998192453694</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1526602201956413</v>
+        <v>0.09441473353410459</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04325386398705354</v>
+        <v>0.04332489084255243</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0364651403847016</v>
+        <v>0.1526635810858061</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04380902445170261</v>
+        <v>0.04313411679822423</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03654921764541819</v>
+        <v>0.04248448339144869</v>
       </c>
       <c r="G121" t="n">
+        <v>0.0375058656019814</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03625532874981317</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.0446055521690063</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.09461186724622112</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04402616341407397</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1516515534736537</v>
+        <v>0.09460354126701509</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04404029787772724</v>
+        <v>0.04411261613059884</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03654921764541819</v>
+        <v>0.1522562064179412</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0446055521690063</v>
+        <v>0.04391837346728286</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03631803313684714</v>
+        <v>0.0426637305839113</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03817561320201678</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03633468609967357</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04540207988630998</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.09409721375128827</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04481234490361101</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1516031194391976</v>
+        <v>0.09376248173244831</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04482673176840094</v>
+        <v>0.04490034141864524</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03631803313684714</v>
+        <v>0.1511160022337544</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04540207988630998</v>
+        <v>0.04470263013634148</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03647234030766726</v>
+        <v>0.04284036151153395</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03884536080205216</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.0363043092795738</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04619860760361366</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.09457126817866321</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04559852639314804</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1524188007440805</v>
+        <v>0.09379300889788761</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04561316565907464</v>
+        <v>0.04568806670669166</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03647234030766726</v>
+        <v>0.152541853472588</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04619860760361366</v>
+        <v>0.0454868868054001</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0361128926065573</v>
+        <v>0.04301429899880713</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03951510840208755</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.03626460879424334</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04699513532091735</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.09363417952575354</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04638470788268508</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1523999111759378</v>
+        <v>0.09349614125666386</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04639959954974834</v>
+        <v>0.04647579199473806</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0361128926065573</v>
+        <v>0.1521349339837388</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04699513532091735</v>
+        <v>0.04627114347445873</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03614044348219596</v>
+        <v>0.04318546587022138</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04018485600212293</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03641599514841169</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04779166303822104</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.0938860967899669</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04717088937222211</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1514477645224047</v>
+        <v>0.09397289730210798</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04718603344042205</v>
+        <v>0.04726351728278447</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03614044348219596</v>
+        <v>0.1511964176165035</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04779166303822104</v>
+        <v>0.04705540014351735</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03595574638326207</v>
+        <v>0.04335378495026725</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04085460360215831</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03635887884680833</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04858819075552472</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.0944271689687109</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04795707086175915</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1511636745711163</v>
+        <v>0.09362429552755078</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04797246733109575</v>
+        <v>0.04805124257083088</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03595574638326207</v>
+        <v>0.1517274782201787</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04858819075552472</v>
+        <v>0.04783965681257597</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03585955475843434</v>
+        <v>0.04351917906343528</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04152435120219369</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03599367039416275</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.0493847184728284</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.09365754505939311</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04874325235129618</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1513489551097079</v>
+        <v>0.09395135442632319</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04875890122176945</v>
+        <v>0.04883896785887729</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03585955475843434</v>
+        <v>0.1513292896440613</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0493847184728284</v>
+        <v>0.04862391348163459</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03585262205639156</v>
+        <v>0.043681571034216</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04219409880222907</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03592078029520442</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05018124619013209</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.09387737405942123</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04952943384083321</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1503049199258147</v>
+        <v>0.09285509249175605</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04954533511244315</v>
+        <v>0.04962669314692369</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03585262205639156</v>
+        <v>0.1508030257374479</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05018124619013209</v>
+        <v>0.04940817015069322</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03593570172581248</v>
+        <v>0.04384088368709995</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04286384640226446</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03584061905466283</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05097777390743577</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.09328680496620279</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05031561533037025</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1502328828070721</v>
+        <v>0.09263652821718024</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05033176900311685</v>
+        <v>0.0504144184349701</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03593570172581248</v>
+        <v>0.1507498603496353</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05097777390743577</v>
+        <v>0.05019242681975183</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03550954721537584</v>
+        <v>0.04399703984657765</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04353359400229984</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03585359717726751</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05177430162473945</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.09368598677714543</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05110179681990729</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.150534157541115</v>
+        <v>0.0930966800959267</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05111820289379055</v>
+        <v>0.05120214372301651</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03550954721537584</v>
+        <v>0.1500709673299202</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05177430162473945</v>
+        <v>0.05097668348881046</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03557491197376042</v>
+        <v>0.04414996233713966</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04420334160233522</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03586012516774789</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05257082934204314</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.09357506848965674</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05188797830944433</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1500100579155789</v>
+        <v>0.09293656662132621</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05190463678446425</v>
+        <v>0.05198986901106292</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03557491197376042</v>
+        <v>0.1505675205275993</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05257082934204314</v>
+        <v>0.05176094015786908</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03533254944964498</v>
+        <v>0.04429957398327648</v>
       </c>
       <c r="G132" t="n">
+        <v>0.0448730892023706</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.03556061353083348</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05336735705934683</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.0930541991011444</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05267415979898136</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1493618977180989</v>
+        <v>0.09275720628670972</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05269107067513795</v>
+        <v>0.05277759429910932</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03533254944964498</v>
+        <v>0.1499406937919693</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05336735705934683</v>
+        <v>0.0525451968269277</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03528321309170826</v>
+        <v>0.04444579760947866</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04554283680240599</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03545547277125377</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.0541638847766505</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.09312352760901596</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.0534603412885184</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1486909907363103</v>
+        <v>0.09245961758540805</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05347750456581166</v>
+        <v>0.05356531958715573</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03528321309170826</v>
+        <v>0.149591660972327</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0541638847766505</v>
+        <v>0.05332945349598633</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03492765634862906</v>
+        <v>0.04458855604023674</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04621258440244137</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03554511339373824</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05496041249395419</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.09278320301067902</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05424652277805542</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1484986507578482</v>
+        <v>0.09204481901075212</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05426393845648535</v>
+        <v>0.05435304487520214</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03492765634862906</v>
+        <v>0.148621595917969</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05496041249395419</v>
+        <v>0.05411371016504495</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03506663266908606</v>
+        <v>0.04472777210004127</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04688233200247675</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03532994590301637</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05575694021125788</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.09333337430354124</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05503270426759246</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1485861915703481</v>
+        <v>0.09121382905607278</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05505037234715906</v>
+        <v>0.05514077016324855</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03506663266908606</v>
+        <v>0.1484316724781921</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05575694021125788</v>
+        <v>0.05489796683410357</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03470089550175812</v>
+        <v>0.04486336861338276</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04755207960251213</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.03531038080381768</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05655346792856155</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.09327419048501021</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.0558188857571295</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1487549269614449</v>
+        <v>0.09056766621470089</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05583680623783275</v>
+        <v>0.05592849545129495</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03470089550175812</v>
+        <v>0.1481230645022931</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05655346792856155</v>
+        <v>0.0556822235031622</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03443119829532393</v>
+        <v>0.04499526840475176</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04822182720254752</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.03498682860087163</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05734999564586524</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.09220580055249356</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05660506724666653</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1480061707187739</v>
+        <v>0.0905073489799674</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05662324012850645</v>
+        <v>0.05671622073934137</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03443119829532393</v>
+        <v>0.1481969458395686</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05734999564586524</v>
+        <v>0.05646648017222081</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03425829449846225</v>
+        <v>0.04512339429863878</v>
       </c>
       <c r="G138" t="n">
+        <v>0.0488915748025829</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0348596997989077</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05814652336316892</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.09272835350339884</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05739124873620357</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1468412366299705</v>
+        <v>0.09053389584520311</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05740967401918015</v>
+        <v>0.05750394602738777</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03425829449846225</v>
+        <v>0.1480544903393153</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05814652336316892</v>
+        <v>0.05725073684127944</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03418293755985186</v>
+        <v>0.04524766911953438</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04956132240261828</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03492940490265539</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05894305108047262</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.09224199833513375</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.0581774302257406</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1465614384826698</v>
+        <v>0.08954832530373891</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05819610790985386</v>
+        <v>0.05829167131543418</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03418293755985186</v>
+        <v>0.1465968718508301</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05894305108047262</v>
+        <v>0.05803499351033806</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03410588092817152</v>
+        <v>0.0453680156919291</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05023107000265366</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.03479635441684419</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05973957879777629</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.09194688404510587</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05896361171527764</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1453680900645071</v>
+        <v>0.08985165584890573</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05898254180052756</v>
+        <v>0.05907939660348058</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03410588092817152</v>
+        <v>0.1458252642234095</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05973957879777629</v>
+        <v>0.05881925017939669</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03372787805209998</v>
+        <v>0.04548435684031347</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05090081760268905</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03446095884620358</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06053610651507998</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.09174315963072274</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05974979320481468</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1458625051631176</v>
+        <v>0.08924490597403437</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05976897569120126</v>
+        <v>0.059867121891527</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03372787805209998</v>
+        <v>0.1463408413063504</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06053610651507998</v>
+        <v>0.0596035068484553</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03374968238031599</v>
+        <v>0.045596615389178</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05157056520272443</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03452362869546305</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06133263423238366</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.09213097408939208</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06053597469435171</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1448459975661364</v>
+        <v>0.08912909417245576</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06055540958187496</v>
+        <v>0.0606548471795734</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03374968238031599</v>
+        <v>0.1455447769489495</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06133263423238366</v>
+        <v>0.06038776351751393</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03337204736149833</v>
+        <v>0.04570471416301326</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05224031280275981</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03428477446935209</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06212916194968734</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.09151047641852145</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06132215618388874</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1449198810611988</v>
+        <v>0.08790523893750077</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06134184347254865</v>
+        <v>0.0614425724676198</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03337204736149833</v>
+        <v>0.1451382450005034</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06212916194968734</v>
+        <v>0.06117202018657255</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03339572644432576</v>
+        <v>0.04580857598630975</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05291006040279519</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03424480667260017</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06292568966699102</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.09088181561551847</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06210833767342577</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1441854694359402</v>
+        <v>0.08797435876250023</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06212827736322236</v>
+        <v>0.06223029775566621</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03339572644432576</v>
+        <v>0.144522419310309</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06292568966699102</v>
+        <v>0.06195627685563117</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.033221473077477</v>
+        <v>0.04590812368355803</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05357980800283057</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03420413580993681</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06372221738429472</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.09104514067779071</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06289451916296281</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1427440764779955</v>
+        <v>0.08703747214078508</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06291471125389606</v>
+        <v>0.06301802304371262</v>
       </c>
       <c r="N145" t="n">
-        <v>0.033221473077477</v>
+        <v>0.1440984737276628</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06372221738429472</v>
+        <v>0.06274053352468979</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03285004070963085</v>
+        <v>0.04600328007924864</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05424955560286595</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03386317238609145</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.0645187451015984</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.09050060060274587</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06368070065249985</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1425970159750003</v>
+        <v>0.08699559756568614</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06370114514456976</v>
+        <v>0.06380574833175903</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03285004070963085</v>
+        <v>0.1437675821018616</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0645187451015984</v>
+        <v>0.06352479019374842</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03278218278946606</v>
+        <v>0.04609396799787211</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05491930320290134</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03362232690579363</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06531527281890208</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.09034834438779152</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06446688214203689</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1419456017145896</v>
+        <v>0.08624975353053435</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06448757903524345</v>
+        <v>0.06459347361980544</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03278218278946606</v>
+        <v>0.1430309182822023</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06531527281890208</v>
+        <v>0.06430904686280704</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03271865276566138</v>
+        <v>0.04618011026391895</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05558905080293672</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.03358200987377279</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06611180053620576</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.09038852103033523</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06525306363157392</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1410911474843985</v>
+        <v>0.08580095852866054</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06527401292591717</v>
+        <v>0.06538119890785184</v>
       </c>
       <c r="N148" t="n">
-        <v>0.03271865276566138</v>
+        <v>0.1424896561179814</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06611180053620576</v>
+        <v>0.06509330353186567</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03256020408689556</v>
+        <v>0.04626162970187971</v>
       </c>
       <c r="G149" t="n">
+        <v>0.0562587984029721</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03344263179475844</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06690832825350945</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.08992127952778464</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06603924512111096</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1413349670720626</v>
+        <v>0.08595023105339561</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06606044681659087</v>
+        <v>0.06616892419589826</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03256020408689556</v>
+        <v>0.1424449694584957</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06690832825350945</v>
+        <v>0.06587756020092429</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03250759020184739</v>
+        <v>0.04633844913624496</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05692854600300748</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03350460317348007</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06770485597081313</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.09014676887754738</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.066825426610648</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1412783742652168</v>
+        <v>0.08499858959807041</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06684688070726456</v>
+        <v>0.06695664948394467</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03250759020184739</v>
+        <v>0.1418980321530419</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06770485597081313</v>
+        <v>0.0666618168699829</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0323615645591956</v>
+        <v>0.04641049139150518</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05759829360304286</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03336833451466717</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06850138368811681</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.08956513807703106</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06761160810018503</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1394226828514965</v>
+        <v>0.08484705265601583</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06763331459793827</v>
+        <v>0.06774437477199106</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0323615645591956</v>
+        <v>0.1411500180509168</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06850138368811681</v>
+        <v>0.06744607353904153</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03192288060761896</v>
+        <v>0.04647767929215093</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05826804120307825</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0329342363230492</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06929791140542051</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.08867653612364329</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06839778958972205</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1397692066185368</v>
+        <v>0.08469663872056274</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06841974848861196</v>
+        <v>0.06853210006003747</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03192288060761896</v>
+        <v>0.1404021010014171</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06929791140542051</v>
+        <v>0.06823033020810015</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03179229179579623</v>
+        <v>0.04653993566267278</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05893778880311363</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03280271910335568</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07009443912272419</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.0884811120147917</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.0691839710792591</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1391192593539731</v>
+        <v>0.08394836628504199</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06920618237928566</v>
+        <v>0.0693198253480839</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03179229179579623</v>
+        <v>0.1388554548538395</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07009443912272419</v>
+        <v>0.06901458687715878</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03167055157240616</v>
+        <v>0.04659718332756119</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05960753640314901</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03267419336031606</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07089096684002787</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.08837901474788384</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06997015256879613</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1379741548454405</v>
+        <v>0.0833032538427845</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06999261626995937</v>
+        <v>0.07010755063613029</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03167055157240616</v>
+        <v>0.1389112534574807</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07089096684002787</v>
+        <v>0.06979884354621739</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0316584133861275</v>
+        <v>0.04664934511130674</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06027728400318439</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03264906959865985</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07168749455733155</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.08787039332032734</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07075633405833316</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1379352068805742</v>
+        <v>0.08246231988712116</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07077905016063307</v>
+        <v>0.0708952759241767</v>
       </c>
       <c r="N155" t="n">
-        <v>0.0316584133861275</v>
+        <v>0.1390706706616375</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07168749455733155</v>
+        <v>0.07058310021527603</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03145663068563906</v>
+        <v>0.04669634383839995</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06094703160321977</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03262775832311654</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07248402227463524</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.08825539672952987</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07154251554787021</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1381037292470095</v>
+        <v>0.08282658291138284</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07156548405130676</v>
+        <v>0.07168300121222311</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03145663068563906</v>
+        <v>0.1380348803156065</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07248402227463524</v>
+        <v>0.07136735688433464</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03146595691961954</v>
+        <v>0.04673810233333139</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06161677920325516</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03251067003841562</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07328054999193892</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.08803417397289898</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07232869703740724</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1373810357323816</v>
+        <v>0.08219706140890037</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07235191794198047</v>
+        <v>0.07247072650026952</v>
       </c>
       <c r="N157" t="n">
-        <v>0.03146595691961954</v>
+        <v>0.1370050562686844</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07328054999193892</v>
+        <v>0.07215161355339327</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03158658131595547</v>
+        <v>0.04677454342059156</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06228652680329054</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03219706322431116</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.0740770777092426</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.08710687404784231</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07311487852694427</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1358684401243258</v>
+        <v>0.08116364495338182</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07313835183265417</v>
+        <v>0.07325845178831593</v>
       </c>
       <c r="N158" t="n">
-        <v>0.03158658131595547</v>
+        <v>0.1373735930886945</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0740770777092426</v>
+        <v>0.07293587022245189</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03141313365492324</v>
+        <v>0.04680558992467102</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06295627440332592</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03208501490164262</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07487360542654629</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.08647364595176746</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07390106001648131</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1354672562104772</v>
+        <v>0.08070815366595052</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07392478572332788</v>
+        <v>0.07404617707636234</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03141313365492324</v>
+        <v>0.1365259748874883</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07487360542654629</v>
+        <v>0.07372012689151052</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03114389151984509</v>
+        <v>0.04683116467006027</v>
       </c>
       <c r="G160" t="n">
+        <v>0.0636260220033613</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03217429862554705</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07567013314384997</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.08673463868208206</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07468724150601835</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1354787359911019</v>
+        <v>0.08083141655457296</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07471121961400158</v>
+        <v>0.07483390236440873</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03114389151984509</v>
+        <v>0.1352621262860076</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07567013314384997</v>
+        <v>0.07450438356056913</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03137859331395347</v>
+        <v>0.04685119048124987</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06429576960339668</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03216472056793346</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07646666086115365</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.08659000123619373</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07547342299555539</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1345982659154946</v>
+        <v>0.07983460614282331</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07549765350467527</v>
+        <v>0.07562162765245516</v>
       </c>
       <c r="N161" t="n">
-        <v>0.03137859331395347</v>
+        <v>0.1349822315864977</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07646666086115365</v>
+        <v>0.07528864022962775</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03131697744048087</v>
+        <v>0.04686559018273035</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06496551720343206</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03175608690071074</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07726318857845733</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.08583988261151002</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07625960448509241</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1352218337795671</v>
+        <v>0.07931889495427585</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07628408739534898</v>
+        <v>0.07640935294050155</v>
       </c>
       <c r="N162" t="n">
-        <v>0.03131697744048087</v>
+        <v>0.134986475091203</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07726318857845733</v>
+        <v>0.07607289689868639</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03095878230265975</v>
+        <v>0.04687428659899225</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06563526480346744</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03164820379578789</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07805971629576103</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.08508443180543862</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07704578597462945</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1337487319855692</v>
+        <v>0.07878545551250482</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07707052128602267</v>
+        <v>0.07719707822854796</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03095878230265975</v>
+        <v>0.1342750411023686</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07805971629576103</v>
+        <v>0.076857153567745</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03090374630372257</v>
+        <v>0.04687720255452609</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06630501240350284</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.03164087742507377</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07885624401306471</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.0853237978153871</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07783196746416648</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1331782529357506</v>
+        <v>0.07833546034108438</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07785695517669637</v>
+        <v>0.07798480351659438</v>
       </c>
       <c r="N164" t="n">
-        <v>0.03090374630372257</v>
+        <v>0.1332481139222392</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07885624401306471</v>
+        <v>0.07764141023680363</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03115160784690178</v>
+        <v>0.04687720255452609</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06630501240350284</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.0314339139604774</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07965277173036839</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.08525812963876306</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07861814895370352</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1328096890323606</v>
+        <v>0.07757008196358878</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07864338906737008</v>
+        <v>0.07877252880464078</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03115160784690178</v>
+        <v>0.1328058778530598</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07965277173036839</v>
+        <v>0.07842566690586224</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03080210533542989</v>
+        <v>0.04607401717233867</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06630474387503882</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.03162711957390767</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08044929944767208</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.08488757627297416</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07940433044324055</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1321423326776491</v>
+        <v>0.07769049290359223</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07942982295804378</v>
+        <v>0.07956025409268719</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03080210533542989</v>
+        <v>0.132648517197075</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08044929944767208</v>
+        <v>0.07920992357492088</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03085497717253931</v>
+        <v>0.04527988234371003</v>
       </c>
       <c r="G167" t="n">
+        <v>0.0663044753465748</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.03132030043727353</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08124582716497576</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.08421228671542796</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.0801905119327776</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1320754762738656</v>
+        <v>0.07659786568466898</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08021625684871748</v>
+        <v>0.0803479793807336</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03085497717253931</v>
+        <v>0.1319762162565298</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08124582716497576</v>
+        <v>0.07999418024397949</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03080996176146254</v>
+        <v>0.04449523589551468</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06630420681811078</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.03111326272248396</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08204235488227944</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.08323240996353207</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08097669342231463</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1315084122232598</v>
+        <v>0.07589337283039321</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08100269073939118</v>
+        <v>0.08113570466878001</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03080996176146254</v>
+        <v>0.1304891593336689</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08204235488227944</v>
+        <v>0.08077843691303811</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03076679750543207</v>
+        <v>0.04372051565472928</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06630393828964676</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.03100581260144787</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08283888259958312</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.08304809501469418</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08176287491185166</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1309404329280812</v>
+        <v>0.07547818686433919</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08178912463006488</v>
+        <v>0.08192342995682642</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03076679750543207</v>
+        <v>0.1307875307307375</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08283888259958312</v>
+        <v>0.08156269358209674</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03092522280768031</v>
+        <v>0.04295615944822791</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06630366976118275</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0308977562460742</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08363541031688682</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.08305949086632183</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.0825490564013887</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1309708307905795</v>
+        <v>0.07545348031008106</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08257555852073857</v>
+        <v>0.08271115524487282</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03092522280768031</v>
+        <v>0.1285715147499801</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08363541031688682</v>
+        <v>0.08234695025115536</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03088497607143978</v>
+        <v>0.04220260510291898</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06630340123271873</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.03078889982827189</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.0844319380341905</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.08266674651582265</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08333523789092573</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1299988982130044</v>
+        <v>0.07482042569119313</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08336199241141229</v>
+        <v>0.08349888053291922</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03088497607143978</v>
+        <v>0.1293412956936416</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0844319380341905</v>
+        <v>0.08313120692021397</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03064579569994288</v>
+        <v>0.04146029044567878</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06630313270425471</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0306790495199499</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08522846575149418</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.08257001096060426</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08412141938046276</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1295239275976053</v>
+        <v>0.07378019553124954</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08414842630208598</v>
+        <v>0.08428660582096564</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03064579569994288</v>
+        <v>0.1278970578639668</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08522846575149418</v>
+        <v>0.0839154635892726</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03080742009642215</v>
+        <v>0.04072965330348039</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06630286417579069</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.03066801149301715</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08602499346879787</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.08216943319807424</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08490760086999979</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1300452113466321</v>
+        <v>0.07303396235382456</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08493486019275968</v>
+        <v>0.08507433110901204</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03080742009642215</v>
+        <v>0.1277389855632007</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08602499346879787</v>
+        <v>0.08469972025833122</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03056958766411001</v>
+        <v>0.04001113150319965</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06630259564732668</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03045559191938259</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08682152118610154</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.08166516222564024</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08569378235953684</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1289620418623341</v>
+        <v>0.07218289868249242</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08572129408343337</v>
+        <v>0.08586205639705845</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03056958766411001</v>
+        <v>0.1261672630935881</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08682152118610154</v>
+        <v>0.08548397692738985</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03043203680623895</v>
+        <v>0.03930516287174492</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06630232711886266</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.03034159697095518</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08761804890340523</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.08134975691576993</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08647996384907387</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1287737115469613</v>
+        <v>0.07212817704082733</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08650772797410708</v>
+        <v>0.08664978168510486</v>
       </c>
       <c r="N175" t="n">
-        <v>0.03043203680623895</v>
+        <v>0.1257820747573737</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08761804890340523</v>
+        <v>0.08626823359644846</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03069450592604141</v>
+        <v>0.03861218523599478</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06630205859039864</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.03022583281964382</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08841457662070891</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.07996156680070826</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08726614533861091</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1272795128027629</v>
+        <v>0.07137096995240341</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08729416186478078</v>
+        <v>0.08743750697315127</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03069450592604141</v>
+        <v>0.1246836048568025</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08841457662070891</v>
+        <v>0.0870524902655071</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03055673342674986</v>
+        <v>0.03793263642291794</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06630179006193462</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.03020810563735749</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.0892111043380126</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.07939348623529177</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08805232682814794</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1274787380319889</v>
+        <v>0.07001244994079503</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08808059575545449</v>
+        <v>0.08822523226119768</v>
       </c>
       <c r="N177" t="n">
-        <v>0.03055673342674986</v>
+        <v>0.1243720376941193</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0892111043380126</v>
+        <v>0.08783674693456572</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03061845771159678</v>
+        <v>0.03726695425939234</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06630152153347062</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03018822159600512</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09000763205531628</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.07915350524510889</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08883850831768499</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1265706796368887</v>
+        <v>0.06975378952957637</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08886702964612819</v>
+        <v>0.08901295754924408</v>
       </c>
       <c r="N178" t="n">
-        <v>0.03061845771159678</v>
+        <v>0.1232475575715689</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09000763205531628</v>
+        <v>0.08862100360362433</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03057941718381464</v>
+        <v>0.03661557657232641</v>
       </c>
       <c r="G179" t="n">
+        <v>0.0663012530050066</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.03006598686749563</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09080415977261996</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.07854961385574802</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08962468980722202</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.125954630019712</v>
+        <v>0.0692961612423216</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08965346353680188</v>
+        <v>0.08980068283729048</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03057941718381464</v>
+        <v>0.1225103487913962</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09080415977261996</v>
+        <v>0.08940526027268296</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0305393502466359</v>
+        <v>0.03597894118860116</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06630098447654258</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02984120762373801</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09160068748992366</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.07778980209279765</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09041087129675904</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1252298815827084</v>
+        <v>0.06854073760260493</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09043989742747559</v>
+        <v>0.0905884081253369</v>
       </c>
       <c r="N180" t="n">
-        <v>0.0305393502466359</v>
+        <v>0.1208605956558459</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09160068748992366</v>
+        <v>0.09018951694174158</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03019799530329302</v>
+        <v>0.03535748593518041</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06630071594807856</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02961369003664117</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09239721520722732</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.07728205998184623</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09119705278629608</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1248957267281275</v>
+        <v>0.06808869113400065</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09122633131814928</v>
+        <v>0.09137613341338331</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03019799530329302</v>
+        <v>0.120498482467163</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09239721520722732</v>
+        <v>0.09097377361080021</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03035509075701845</v>
+        <v>0.03475164863894455</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06630044741961454</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02978324027811405</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09319374292453102</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.0763343775484821</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09198323427583312</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.124051457858219</v>
+        <v>0.06694119436008297</v>
       </c>
       <c r="M182" t="n">
-        <v>0.092012765208823</v>
+        <v>0.09216385870142971</v>
       </c>
       <c r="N182" t="n">
-        <v>0.03035509075701845</v>
+        <v>0.1204241935275923</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09319374292453102</v>
+        <v>0.09175803027985882</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0304103750110447</v>
+        <v>0.03416186712680196</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06630017889115053</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.0293496645200656</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.0939902706418347</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.07535474481829382</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09276941576537015</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1241963673752325</v>
+        <v>0.06619941980442609</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09279919909949669</v>
+        <v>0.09295158398947612</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0304103750110447</v>
+        <v>0.1189379131393786</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0939902706418347</v>
+        <v>0.09254228694891746</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0300635864686042</v>
+        <v>0.03358857922563644</v>
       </c>
       <c r="G184" t="n">
+        <v>0.0662999103626865</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02941276893440474</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09478679835913839</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.07425115181686975</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09355559725490718</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1229297476814174</v>
+        <v>0.06576453999060422</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09358563299017039</v>
+        <v>0.09373930927752254</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0300635864686042</v>
+        <v>0.1174398256047668</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09478679835913839</v>
+        <v>0.09332654361797607</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03031446353292942</v>
+        <v>0.03303222276240637</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06629964183422249</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02927235969304044</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09558332607644207</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.07323158856979842</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09434177874444423</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1231508911790237</v>
+        <v>0.06523772744219156</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0943720668808441</v>
+        <v>0.09452703456556893</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03031446353292942</v>
+        <v>0.1174301152260017</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09558332607644207</v>
+        <v>0.0941108002870347</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03006274460725283</v>
+        <v>0.03249323556399476</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06629937330575847</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02912824296788163</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09637985379374575</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.07230404510266819</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09512796023398126</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1226590902703008</v>
+        <v>0.06452015468276237</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09515850077151779</v>
+        <v>0.09531475985361534</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03006274460725283</v>
+        <v>0.1163089663053281</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09637985379374575</v>
+        <v>0.09489505695609331</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03010816809480693</v>
+        <v>0.03197205545731006</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06629910477729446</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02898022493083727</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09717638151104944</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.07187651144106755</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.0959141417235183</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1211536373574982</v>
+        <v>0.06441299423589089</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09594493466219149</v>
+        <v>0.09610248514166175</v>
       </c>
       <c r="N187" t="n">
-        <v>0.03010816809480693</v>
+        <v>0.1148765631449908</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09717638151104944</v>
+        <v>0.09567931362515195</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03005047239882414</v>
+        <v>0.03146912026923918</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06629883624883043</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02862811175381626</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09797290922835311</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.07065697761058487</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09670032321305533</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1204338248428657</v>
+        <v>0.06341741862515127</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0967313685528652</v>
+        <v>0.09689021042970816</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03005047239882414</v>
+        <v>0.1139330900472349</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09797290922835311</v>
+        <v>0.09646357029421056</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02988939592253693</v>
+        <v>0.03098486782673428</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06629856772036642</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02847170960872758</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.0987694369456568</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.06925343363680872</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09748650470259236</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.121098945128653</v>
+        <v>0.06333460037411781</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0975178024435389</v>
+        <v>0.09767793571775457</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02988939592253693</v>
+        <v>0.112478731314305</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0987694369456568</v>
+        <v>0.09724782696326918</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02972467706917778</v>
+        <v>0.03051794816347234</v>
       </c>
       <c r="G190" t="n">
+        <v>0.0662982991919024</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02851082466748013</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09956596466296048</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.06897386954532744</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09827268619212939</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1196482906171095</v>
+        <v>0.06216571200636464</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09830423633421259</v>
+        <v>0.09846566100580097</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02972467706917778</v>
+        <v>0.112213671248446</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09956596466296048</v>
+        <v>0.09803208363232781</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02985605424197915</v>
+        <v>0.03005807234710583</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06629803066343838</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02844526310198292</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1003624923802642</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.06812627536172952</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09905886768166643</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.119681153710485</v>
+        <v>0.06171192604546602</v>
       </c>
       <c r="M191" t="n">
-        <v>0.0990906702248863</v>
+        <v>0.09925338629384738</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02985605424197915</v>
+        <v>0.1117380941519027</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1003624923802642</v>
+        <v>0.09881634030138643</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02968326584417351</v>
+        <v>0.02960389041131401</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06629776213497436</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02827483108414483</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1011590200975679</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.06721330211073362</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09984504917120347</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.117796826811029</v>
+        <v>0.06127441501499623</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09987710411555999</v>
+        <v>0.1000411115818938</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02968326584417351</v>
+        <v>0.1109521843269202</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1011590200975679</v>
+        <v>0.09960059697044504</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02980605027899336</v>
+        <v>0.02915584018304482</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06629749360651034</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.0279893359486599</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1019555478148715</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.06638149775178434</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1006312306607405</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1180946023209913</v>
+        <v>0.06024288872284453</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1006635380062337</v>
+        <v>0.1008288368699402</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02980605027899336</v>
+        <v>0.1090114342288413</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1019555478148715</v>
+        <v>0.1003848536395037</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02942414594967108</v>
+        <v>0.02871435948918683</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06629722507804633</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02767744496318464</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1027520755321752</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.0658190707849087</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1014174121502775</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1170737726426212</v>
+        <v>0.06020376414336256</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1014499718969074</v>
+        <v>0.1016165621579866</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02942414594967108</v>
+        <v>0.1082632571058585</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1027520755321752</v>
+        <v>0.1011691103085623</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0296372912594392</v>
+        <v>0.02827988615664839</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06629695654958231</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02764084902428347</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1035486032494789</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.06443107086443567</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1022035936398146</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1169336301781687</v>
+        <v>0.05935789520162846</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1022364057875811</v>
+        <v>0.102404287446033</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0296372912594392</v>
+        <v>0.1068148780460261</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1035486032494789</v>
+        <v>0.1019533669776209</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0295452246115302</v>
+        <v>0.02785285801231948</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06629668802111829</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02708127354174683</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1043451309667826</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.06412254764469427</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1029897751293516</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1157734673298832</v>
+        <v>0.05870618717512632</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1030228396782548</v>
+        <v>0.1031920127340794</v>
       </c>
       <c r="N196" t="n">
-        <v>0.0295452246115302</v>
+        <v>0.1058737421162733</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1043451309667826</v>
+        <v>0.1027376236466795</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0293472814303882</v>
+        <v>0.02743371288314572</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06629641949265427</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02700044392536526</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1051416586840863</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.06279855078001351</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1037759566188887</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.1150925765000143</v>
+        <v>0.05844954534134003</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1038092735689285</v>
+        <v>0.1039797380221258</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0293472814303882</v>
+        <v>0.1042472943835293</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1051416586840863</v>
+        <v>0.1035218803157382</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02921183953166068</v>
+        <v>0.02702288859601674</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06629615096419027</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02670008558492924</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.10593818640139</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.06166412992472242</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1045621381084257</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1135902500908116</v>
+        <v>0.05808887497775378</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1045957074596022</v>
+        <v>0.1047674633101722</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02921183953166068</v>
+        <v>0.1023429799147232</v>
       </c>
       <c r="O198" t="n">
-        <v>0.10593818640139</v>
+        <v>0.1043061369847968</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0290224745770267</v>
+        <v>0.02662082297784094</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06629588243572625</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02628192393022932</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1067347141186937</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.06052433473314994</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1053483195979627</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1132657805045249</v>
+        <v>0.05702508136185147</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1053821413502759</v>
+        <v>0.1055551885982186</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0290224745770267</v>
+        <v>0.1016682437767843</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1067347141186937</v>
+        <v>0.1050903936538554</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02868390709993389</v>
+        <v>0.02622795385550985</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06629561390726223</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02604768437105598</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1075312418359973</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.06018421485962511</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1061345010874997</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1130184601434037</v>
+        <v>0.05685906977111721</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1061685752409496</v>
+        <v>0.106342913886265</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02868390709993389</v>
+        <v>0.09943053103664146</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1075312418359973</v>
+        <v>0.105874650322914</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02840085763382999</v>
+        <v>0.02584471905596607</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06629534537879821</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02549909231719973</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.108327769553301</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.05934881995847691</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1069206825770368</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1121424120460521</v>
+        <v>0.05589174548303497</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1069550091316233</v>
+        <v>0.1071306391743115</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02840085763382999</v>
+        <v>0.09773728676122406</v>
       </c>
       <c r="O201" t="n">
-        <v>0.108327769553301</v>
+        <v>0.1066589069919727</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0280780467121627</v>
+        <v>0.02547155640610069</v>
       </c>
       <c r="G202" t="n">
+        <v>0.0662950768503342</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02523787317845104</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1091242972706047</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.05842319968403437</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1077068640665738</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1110377292644771</v>
+        <v>0.05572401377508884</v>
       </c>
       <c r="M202" t="n">
-        <v>0.107741443022297</v>
+        <v>0.1079183644623579</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0280780467121627</v>
+        <v>0.09619595601746123</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1091242972706047</v>
+        <v>0.1074431636610313</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02762019486837973</v>
+        <v>0.02510890373282213</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06629480832187018</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.02476575236460048</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1099208249879084</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.05681240369062648</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1084930455561108</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.1091813482302836</v>
+        <v>0.05465677992476278</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1085278769129707</v>
+        <v>0.1087060897504043</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02762019486837973</v>
+        <v>0.09341398387228211</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1099208249879084</v>
+        <v>0.1082274203300899</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02743202263592874</v>
+        <v>0.02475719886302374</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06629453979340616</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02458445528543851</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1107173527052121</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.05672148163258217</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1092792270456479</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.1082932527732148</v>
+        <v>0.05479094920954095</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1093143108036444</v>
+        <v>0.1094938150384507</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02743202263592874</v>
+        <v>0.09269881539261587</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1107173527052121</v>
+        <v>0.1090116769991485</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02681825054825747</v>
+        <v>0.02441687962364451</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06629427126494214</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02429570735075563</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1115138804225158</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.05505548316423048</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1100654085351849</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.1073934267230137</v>
+        <v>0.05432742690690726</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1101007446943181</v>
+        <v>0.1102815403264971</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02681825054825747</v>
+        <v>0.09045789564539164</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1115138804225158</v>
+        <v>0.1097959336682071</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02638359913881362</v>
+        <v>0.02408838384157732</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06629400273647812</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02360123397034239</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1123104081398194</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.05471945793990046</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.110851590024722</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.1052018539094237</v>
+        <v>0.05326711829434577</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1108871785849918</v>
+        <v>0.1110692656145435</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02638359913881362</v>
+        <v>0.08789866969753857</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1123104081398194</v>
+        <v>0.1105801903372658</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02623278894104489</v>
+        <v>0.02377214934373057</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06629373420801411</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02340276055398927</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1131069358571231</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.0533184556139211</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.111637771514259</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.1029385181621877</v>
+        <v>0.05311092864934047</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1116736124756655</v>
+        <v>0.1118569909025899</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02623278894104489</v>
+        <v>0.08752858261598589</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1131069358571231</v>
+        <v>0.1113644470063244</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02567054048839895</v>
+        <v>0.02346861395699974</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06629346567955008</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02300201251148676</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1139034635744268</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.05265752584062133</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.112423953003796</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.1013234033110489</v>
+        <v>0.05205976324937553</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1124600463663392</v>
+        <v>0.1126447161906363</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02567054048839895</v>
+        <v>0.08455507946766272</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1139034635744268</v>
+        <v>0.112148703675383</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02510157431432353</v>
+        <v>0.02317821550831966</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06629319715108607</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02240071525262539</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1146999912917305</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.05184171827433021</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1132101344933331</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.1004764931857507</v>
+        <v>0.05181452737193482</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1132464802570129</v>
+        <v>0.1134324414786827</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02510157431432353</v>
+        <v>0.08228560531949819</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1146999912917305</v>
+        <v>0.1129329603444416</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02483061095226634</v>
+        <v>0.02290139182458523</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06629292862262205</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02210059418719565</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1154965190090342</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.05137608256937673</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1139963159828701</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.0992177716160359</v>
+        <v>0.05097612629450243</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1140329141476866</v>
+        <v>0.1142201667667291</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02483061095226634</v>
+        <v>0.08092760523842135</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1154965190090342</v>
+        <v>0.1137172170135003</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02406237093567504</v>
+        <v>0.02263858073270487</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06629266009415805</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02180337472498806</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1162930467263378</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.05136566838008993</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1147824974724071</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.09756722243164778</v>
+        <v>0.05034546529456244</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1148193480383603</v>
+        <v>0.1150078920547755</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02406237093567504</v>
+        <v>0.0800885242913616</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1162930467263378</v>
+        <v>0.1145014736825589</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02360157479799739</v>
+        <v>0.02239022005957649</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06629239156569401</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.0213107822757931</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1170895744436415</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.05011552536079869</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1155686789619442</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.09534482946232931</v>
+        <v>0.05052344964959884</v>
       </c>
       <c r="M212" t="n">
-        <v>0.115605781929034</v>
+        <v>0.115795617342822</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02360157479799739</v>
+        <v>0.07807580754524795</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1170895744436415</v>
+        <v>0.1152857303516175</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02335294307268103</v>
+        <v>0.02215674763213012</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06629212303723001</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.02092454224940131</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1178861021609452</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.0498307031658321</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1163548604514812</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.09457057653782397</v>
+        <v>0.05011098463709562</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1163922158197077</v>
+        <v>0.1165833426308684</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02335294307268103</v>
+        <v>0.07609690006700959</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1178861021609452</v>
+        <v>0.1160699870206761</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02292119629317373</v>
+        <v>0.02193860127726304</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06629185450876598</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02044638005560319</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1186826298782489</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.04981369844729563</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1171410419410182</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.09196444748787469</v>
+        <v>0.04950897553453687</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1171786497103814</v>
+        <v>0.1173710679189148</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02292119629317373</v>
+        <v>0.07465924692357573</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1186826298782489</v>
+        <v>0.1168542436897347</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02261105499292311</v>
+        <v>0.02193860127726304</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06629185450876598</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02017802110418923</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1194791575955526</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.04921850828886537</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1179272234305553</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.0902464261422245</v>
+        <v>0.04841832761940662</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1179650836010551</v>
+        <v>0.1181587932069612</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02261105499292311</v>
+        <v>0.07177029318187539</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1194791575955526</v>
+        <v>0.1176385003587934</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02212723970537694</v>
+        <v>0.0213828291782625</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06620176636001321</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02002119080494993</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1202756853128563</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.04862656516714248</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1187134049200923</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.08913649633061682</v>
+        <v>0.04863994616918885</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1187515174917288</v>
+        <v>0.1189465184950076</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02212723970537694</v>
+        <v>0.07003748390883785</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1202756853128563</v>
+        <v>0.118422757027852</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02187447096398289</v>
+        <v>0.02083340330107566</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06611167821126041</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.0194776145676758</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.12107221303016</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.04863806441273627</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1194995864096294</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.08775464188279458</v>
+        <v>0.04787473646136761</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1195379513824025</v>
+        <v>0.119734243783054</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02187447096398289</v>
+        <v>0.06976826417139226</v>
       </c>
       <c r="O217" t="n">
-        <v>0.12107221303016</v>
+        <v>0.1192070136969106</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02155746930218864</v>
+        <v>0.02029065207981985</v>
       </c>
       <c r="G218" t="n">
+        <v>0.06602159006250763</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01934901780215738</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1218687407474636</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.04845320135625611</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1202857678991664</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.08690521347838764</v>
+        <v>0.04722360377342694</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1203243852730762</v>
+        <v>0.1205219690711004</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02155746930218864</v>
+        <v>0.0677700790364677</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1218687407474636</v>
+        <v>0.1199912703659692</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02128095525344195</v>
+        <v>0.01975490394861222</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06593150191375485</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01893712591818511</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1226652684647673</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.04807217132831137</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1210719493887034</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.0859826288000648</v>
+        <v>0.04688745338285086</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1211108191637499</v>
+        <v>0.1213096943591468</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02128095525344195</v>
+        <v>0.06595037357099337</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1226652684647673</v>
+        <v>0.1207755270350279</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02074964935119047</v>
+        <v>0.0192264873415699</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06584141376500205</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01864366432554955</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.123461796182071</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.04719516965951137</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1218581308782404</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.08596382715369183</v>
+        <v>0.04666719056712346</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1218972530544236</v>
+        <v>0.1220974196471932</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02074964935119047</v>
+        <v>0.06441659284189849</v>
       </c>
       <c r="O220" t="n">
-        <v>0.123461796182071</v>
+        <v>0.1215597837040865</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02066827212888193</v>
+        <v>0.01870573069281021</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06575132561624927</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.0183703584340412</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1242583238993747</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.04692239168046541</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1226443123677775</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.08354940865653432</v>
+        <v>0.04646372060372869</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1226836869450973</v>
+        <v>0.1228851449352396</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02066827212888193</v>
+        <v>0.06317618191611213</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1242583238993747</v>
+        <v>0.1223440403731451</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02064154411996402</v>
+        <v>0.01819296243645031</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06566123746749648</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.01821893365345055</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1250548516166784</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.04605403272178291</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1234304938573145</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.08313997342585783</v>
+        <v>0.04517794877015061</v>
       </c>
       <c r="M222" t="n">
-        <v>0.123470120835771</v>
+        <v>0.123672870223286</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02064154411996402</v>
+        <v>0.06223658586056346</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1250548516166784</v>
+        <v>0.1231282970422037</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0204668930241345</v>
+        <v>0.01768851100660732</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06557114931874369</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.0179911153935681</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.125851379333982</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.0458902881140732</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1242166753468515</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.08243612157892805</v>
+        <v>0.04501078034387329</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1242565547264447</v>
+        <v>0.1244605955113324</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0204668930241345</v>
+        <v>0.06160524974218162</v>
       </c>
       <c r="O223" t="n">
-        <v>0.125851379333982</v>
+        <v>0.1239125537112623</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02050149279048986</v>
+        <v>0.01719270483739859</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06548106116999092</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01768862906418436</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1266479070512857</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.04603135318794555</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1250028568363886</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.08053845323301073</v>
+        <v>0.04466312060238065</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1250429886171184</v>
+        <v>0.1252483207993788</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02050149279048986</v>
+        <v>0.06078961862789589</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1266479070512857</v>
+        <v>0.124696810380321</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02023756960140354</v>
+        <v>0.01670587236294124</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06539097302123813</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01731320007508987</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1274444347685894</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.04527742327400944</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1257890383259256</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.08084756850537134</v>
+        <v>0.04443587482315681</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1258294225077921</v>
+        <v>0.1260360460874252</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02023756960140354</v>
+        <v>0.05979713758463528</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1274444347685894</v>
+        <v>0.1254810670493796</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02027513043324022</v>
+        <v>0.01622834201735241</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06530088487248534</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01716655383607509</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1282409624858931</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.04502869370287402</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1265752198154627</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.07876406751327558</v>
+        <v>0.04472994828368582</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1266158563984658</v>
+        <v>0.1268237713754717</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02027513043324022</v>
+        <v>0.05923525167932903</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1282409624858931</v>
+        <v>0.1262653237184382</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02011418226236464</v>
+        <v>0.01576044223474943</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06521079672373256</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.01735041575693054</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1290374902031968</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.04448535980514881</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1273614013049997</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.07848855037398922</v>
+        <v>0.04354624626145162</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1274022902891395</v>
+        <v>0.1276114966635181</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02011418226236464</v>
+        <v>0.05901140597890625</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1290374902031968</v>
+        <v>0.1270495803874968</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02035473206514145</v>
+        <v>0.01530250144924939</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06512070857497976</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01716651124744671</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1298340179205005</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.04424761691144308</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1281475827945368</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.07752161720477774</v>
+        <v>0.04358567403393834</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1281887241798132</v>
+        <v>0.1283992219515645</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02035473206514145</v>
+        <v>0.05823304555029624</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1298340179205005</v>
+        <v>0.1278338370565555</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02029678681793538</v>
+        <v>0.01485484809496961</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06503062042622698</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01721656571741416</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1306305456378042</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.04431566035236617</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1289337642840738</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.07606386812290683</v>
+        <v>0.04314913687862998</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1289751580704869</v>
+        <v>0.1291869472396109</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02029678681793538</v>
+        <v>0.05730761546042784</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1306305456378042</v>
+        <v>0.1286180937256141</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02004035349711111</v>
+        <v>0.01441781060602721</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06494053227747421</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01720207339240362</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1314270733551078</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.04398968545852744</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1297199457736108</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.07491590324564207</v>
+        <v>0.04343738556918175</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1297615919611606</v>
+        <v>0.1299746725276573</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02004035349711111</v>
+        <v>0.05734163492354627</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1314270733551078</v>
+        <v>0.1294023503946727</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01988543907903338</v>
+        <v>0.01399171741653937</v>
       </c>
       <c r="G231" t="n">
+        <v>0.0648504441287214</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01720215863490113</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1322236010724115</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.04326988756053626</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1305061272631478</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.07517832269024921</v>
+        <v>0.04283625982402839</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1305480258518343</v>
+        <v>0.1307623978157037</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01988543907903338</v>
+        <v>0.05854165956742369</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1322236010724115</v>
+        <v>0.1301866070637313</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02003205054006683</v>
+        <v>0.01357689696062338</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06476035597996863</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01690265836896492</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1330201287897152</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.04335646198900189</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1312923087526849</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.07355172657399373</v>
+        <v>0.04323628676236738</v>
       </c>
       <c r="M232" t="n">
-        <v>0.131334459742508</v>
+        <v>0.1315501231037501</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02003205054006683</v>
+        <v>0.05854180536807796</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1330201287897152</v>
+        <v>0.13097086373279</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01998019485657623</v>
+        <v>0.0131736776723964</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06467026783121584</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01720394554504336</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1338166565070189</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.0429496040745338</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1320784902422219</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.07273671501414153</v>
+        <v>0.04263776493444033</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1321208936331817</v>
+        <v>0.1323378483917965</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01998019485657623</v>
+        <v>0.05824218194910219</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1338166565070189</v>
+        <v>0.1317551204018486</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01982987900492625</v>
+        <v>0.01278238798597556</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06458017968246305</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01720639311358488</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1346131842243226</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.0427495091477412</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1328646717317589</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.07143388812795803</v>
+        <v>0.04284099289048882</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1329073275238554</v>
+        <v>0.1331255736798429</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01982987900492625</v>
+        <v>0.05834289893408956</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1346131842243226</v>
+        <v>0.1325393770709072</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01968110996148158</v>
+        <v>0.01240335633547819</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06449009153371027</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01711037402503783</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1354097119416263</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.04215637253923354</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.133650853221296</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.07034384603270888</v>
+        <v>0.04204626918075435</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1336937614145291</v>
+        <v>0.1339132989678893</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01968110996148158</v>
+        <v>0.05784406594663305</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1354097119416263</v>
+        <v>0.1333236337399658</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01973389470260691</v>
+        <v>0.01203691115502143</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06440000338495748</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01711626122985066</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1362062396589299</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.04197038957962007</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.134437034710833</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.07076718884565986</v>
+        <v>0.04225389235547858</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1344801953052028</v>
+        <v>0.1347010242559357</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01973389470260691</v>
+        <v>0.0574457926103259</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1362062396589299</v>
+        <v>0.1341078904090244</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01958824020466697</v>
+        <v>0.01168338087872244</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06430991523620469</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.0170244276784717</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1370027673762336</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.04179175559951026</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1352232162003701</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.06880451668407644</v>
+        <v>0.04176416096490304</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1352666291958765</v>
+        <v>0.1354887495439821</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01958824020466697</v>
+        <v>0.05784818854876095</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1370027673762336</v>
+        <v>0.1348921470780831</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01974415344402645</v>
+        <v>0.0113430939406985</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06421982708745191</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01693524632134942</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1377992950935373</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.0411206659295133</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1360093976899071</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.06855642966522441</v>
+        <v>0.04147737355926923</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1360530630865502</v>
+        <v>0.1362764748320285</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01974415344402645</v>
+        <v>0.05845136338553147</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1377992950935373</v>
+        <v>0.1356764037471417</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01960164139705005</v>
+        <v>0.01101637877506677</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06412973893869912</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01704909010893213</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.138595822810841</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.04145731590023868</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1367955791794441</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.06672352790636932</v>
+        <v>0.04159382868881878</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1368394969772239</v>
+        <v>0.1370642001200749</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01960164139705005</v>
+        <v>0.05805542674423042</v>
       </c>
       <c r="O239" t="n">
-        <v>0.138595822810841</v>
+        <v>0.1364606604162003</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01946071104010248</v>
+        <v>0.01070222270996586</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06403965078994633</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01706633199166829</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1393923505281447</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.04120190084229564</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1375817606689812</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.06700641152477677</v>
+        <v>0.04161382490379326</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1376259308678977</v>
+        <v>0.1378519254081214</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01946071104010248</v>
+        <v>0.05826048824845093</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1393923505281447</v>
+        <v>0.1372449170852589</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0196213693495484</v>
+        <v>0.01039290754364158</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06394956264119356</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01728734492000626</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1401888782454484</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.04025461608629355</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1383679421585182</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.06640568063771263</v>
+        <v>0.04093766075443414</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1384123647585713</v>
+        <v>0.1386396506961678</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0196213693495484</v>
+        <v>0.05806665752178614</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1401888782454484</v>
+        <v>0.1380291737543176</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01948362330175257</v>
+        <v>0.0100874206042325</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06385947449244077</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01721250184439445</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1409854059627521</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.04041565696284175</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1391541236480552</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.06502193536244216</v>
+        <v>0.04096563479098311</v>
       </c>
       <c r="M242" t="n">
-        <v>0.139198798649245</v>
+        <v>0.1394273759842142</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01948362330175257</v>
+        <v>0.05757404418782908</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1409854059627521</v>
+        <v>0.1388134304233762</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01954747987307967</v>
+        <v>0.009786090325855819</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06376938634368798</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01724217571528124</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1417819336800557</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.03968521880254963</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1399403051375923</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.06425577581623132</v>
+        <v>0.04049804556368172</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1399852325399187</v>
+        <v>0.1402151012722606</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01954747987307967</v>
+        <v>0.0576827578701728</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1417819336800557</v>
+        <v>0.1395976870924348</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01941294603989435</v>
+        <v>0.009489245142628791</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06367929819493519</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01717673948311503</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1425784613973594</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.04016349693602653</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1407264866271293</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.0641078021163457</v>
+        <v>0.04073519162277145</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1407716664305924</v>
+        <v>0.141002826560307</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01941294603989435</v>
+        <v>0.05789290819241039</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1425784613973594</v>
+        <v>0.1403819437614934</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01938002877856139</v>
+        <v>0.009197213488668587</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06358921004618241</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01711656609834422</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1433749891146631</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.03965068669388172</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1415126681166663</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.06217861438005085</v>
+        <v>0.04037737151849394</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1415581003212661</v>
+        <v>0.1417905518483534</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01938002877856139</v>
+        <v>0.05750460477813502</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1433749891146631</v>
+        <v>0.1411662004305521</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01924873506544546</v>
+        <v>0.008910323798092368</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06349912189742962</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01746202851141719</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1441715168319668</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.03914698340672462</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1422988496062034</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.06206881272461234</v>
+        <v>0.04062488380109067</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1423445342119398</v>
+        <v>0.1425782771363998</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01924873506544546</v>
+        <v>0.05741795725093962</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1441715168319668</v>
+        <v>0.1419504570996107</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01931907187691123</v>
+        <v>0.008628904505017417</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06340903374867683</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01751349967278235</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1449680445492705</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.03925258240516452</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1430850310957404</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.06197899726729605</v>
+        <v>0.03977802702080327</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1431309681026135</v>
+        <v>0.1433660024244462</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01931907187691123</v>
+        <v>0.05813307523441746</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1449680445492705</v>
+        <v>0.1427347137686693</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01949104618932343</v>
+        <v>0.0083532840435609</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06331894559992406</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01737135253288806</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1457645722665742</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.0389676790198108</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1438712125852774</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.06100976812536735</v>
+        <v>0.03993709972787335</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1439174019932873</v>
+        <v>0.1441537277124926</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01949104618932343</v>
+        <v>0.05725006835216145</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1457645722665742</v>
+        <v>0.1435189704377279</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01926466497904676</v>
+        <v>0.008083790847839986</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06322885745117127</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01753596004218276</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1465610999838778</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.03939246858127279</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1446573940748145</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.05976172541609204</v>
+        <v>0.04040240047254237</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1447038358839609</v>
+        <v>0.144941453000539</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01926466497904676</v>
+        <v>0.05736904622776473</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1465610999838778</v>
+        <v>0.1443032271067865</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01913993522244592</v>
+        <v>0.007820753351971931</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06313876930241848</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01760769515111482</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1473576277011815</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.03892714642015982</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1454435755643515</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.05903546925673581</v>
+        <v>0.03977422780505199</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1454902697746346</v>
+        <v>0.1457291782885854</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01913993522244592</v>
+        <v>0.0573901184848204</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1473576277011815</v>
+        <v>0.1450874837758452</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01931686389588561</v>
+        <v>0.007564499990073886</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06304868115366569</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01758693081013263</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1481541554184852</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.03877190786708129</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1462297570538885</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.05853159976456418</v>
+        <v>0.03975288027564366</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1462767036653083</v>
+        <v>0.1465169035766319</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01931686389588561</v>
+        <v>0.05751339474692152</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1481541554184852</v>
+        <v>0.1458717404449038</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01939545797573052</v>
+        <v>0.00731535919626311</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06295859300491291</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.0176740399696846</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1489506831357889</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.03862694825264645</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1470159385434256</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.05865071705684277</v>
+        <v>0.03953865643455906</v>
       </c>
       <c r="M252" t="n">
-        <v>0.147063137555982</v>
+        <v>0.1473046288646783</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01939545797573052</v>
+        <v>0.05753898463766116</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1489506831357889</v>
+        <v>0.1466559971139624</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01937572443834534</v>
+        <v>0.007073659404656776</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06286850485616012</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01796939558021911</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1497472108530926</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.03789246290746476</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1478021200329626</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.05849342125083729</v>
+        <v>0.03903185483203966</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1478495714466558</v>
+        <v>0.1480923541527247</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01937572443834534</v>
+        <v>0.05736699778063248</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1497472108530926</v>
+        <v>0.147440253783021</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01905767026009482</v>
+        <v>0.006839729049372051</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06277841670740733</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01797337059218455</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1505437385703963</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.03836864716214547</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1485883015224997</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.05676031246381347</v>
+        <v>0.0393327740183271</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1486360053373294</v>
+        <v>0.1488800794407711</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01905767026009482</v>
+        <v>0.05799754379942845</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1505437385703963</v>
+        <v>0.1482245104520797</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01914130241734359</v>
+        <v>0.006613896564526212</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06268832855865454</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01788633795602934</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1513402662876999</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.03825569634729795</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1493744830120367</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.05675199081303672</v>
+        <v>0.03974171254366296</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1494224392280032</v>
+        <v>0.1496678047288175</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01914130241734359</v>
+        <v>0.0578307323176423</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1513402662876999</v>
+        <v>0.1490087671211383</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01932662788645644</v>
+        <v>0.006396490384236418</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06259824040990176</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01800867062220185</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1521367940050036</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.03845380579353155</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1501606645015737</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.05696905641577282</v>
+        <v>0.03885896895828872</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1502088731186768</v>
+        <v>0.1504555300168639</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01932662788645644</v>
+        <v>0.05896667295886687</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1521367940050036</v>
+        <v>0.1497930237901969</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01901365364379799</v>
+        <v>0.006187838942619844</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06250815226114897</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01814074154115047</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1529333217223073</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.03826317083145567</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1509468459911108</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.05631210938928749</v>
+        <v>0.03908484181244595</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1509953070093505</v>
+        <v>0.1512432553049103</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01901365364379799</v>
+        <v>0.05860547534669547</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1529333217223073</v>
+        <v>0.1505772804592555</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01930238666573296</v>
+        <v>0.005988270673793754</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06241806411239619</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01848292366332359</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.153729849439611</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.0374839867916795</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1517330274806478</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.05478174985084616</v>
+        <v>0.03881962965637625</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1517817409000242</v>
+        <v>0.1520309805929567</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01930238666573296</v>
+        <v>0.05854724910472109</v>
       </c>
       <c r="O258" t="n">
-        <v>0.153729849439611</v>
+        <v>0.1513615371283141</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01899283392862609</v>
+        <v>0.005798114011875313</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06232797596364341</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01863558993916964</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1545263771569147</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.03821644900481255</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1525192089701848</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.05527857791771468</v>
+        <v>0.03896363104032122</v>
       </c>
       <c r="M259" t="n">
-        <v>0.152568174790698</v>
+        <v>0.1528187058810031</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01899283392862609</v>
+        <v>0.0579921038565368</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1545263771569147</v>
+        <v>0.1521457937973728</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01918500240884204</v>
+        <v>0.005617697390981717</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06223788781489061</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01879911331913699</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1553229048742184</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.03786075280146406</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1533053904597219</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.05440319370715851</v>
+        <v>0.03921714451452235</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1533546086813717</v>
+        <v>0.1536064311690495</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01918500240884204</v>
+        <v>0.05774014922573573</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1553229048742184</v>
+        <v>0.1529300504664314</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01917889908274552</v>
+        <v>0.005447349245230194</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06214779966613784</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01887386675367402</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1561194325915221</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.03811709351224343</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1540915719492589</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.05425619733644349</v>
+        <v>0.03938046862922132</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1541410425720453</v>
+        <v>0.1543941564570959</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01917889908274552</v>
+        <v>0.05769149483591091</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1561194325915221</v>
+        <v>0.15371430713549</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01917453092670122</v>
+        <v>0.005287398008737933</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06205771151738505</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01926022319322915</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1569159603088257</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.03808566646775999</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.154877753438796</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.05433818892283498</v>
+        <v>0.03845390193465953</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1549274764627191</v>
+        <v>0.1551818817451423</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01917453092670122</v>
+        <v>0.0581462503106554</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1569159603088257</v>
+        <v>0.1544985638045486</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01927190491707388</v>
+        <v>0.005138172115622126</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06196762336863226</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01945855558825074</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1577124880261294</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.03736666699862304</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.155663934928333</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.05304976858359889</v>
+        <v>0.03913774298107864</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1557139103533927</v>
+        <v>0.1559696070331888</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01927190491707388</v>
+        <v>0.05850452527356237</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1577124880261294</v>
+        <v>0.1552828204736073</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01907102803022814</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06187753521987947</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01966923688918723</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1585090157434331</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.03736029043544201</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.15645011641787</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.0534915364360008</v>
+        <v>0.03843229031872022</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1565003442440664</v>
+        <v>0.1567573323212351</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01907102803022814</v>
+        <v>0.05906642934822481</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1585090157434331</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1560670771426658</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06186437732514263</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005599030407870596</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06186464585360665</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006194610741222101</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06186491438207066</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006786699630646154</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06186518291053469</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007375255706657154</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0618654514389987</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.007960237599846889</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06186571996746271</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008541603940781267</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06186598849592673</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009119313360051333</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06186625702439075</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009693324488172707</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06186652555285477</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01026359595573656</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06186679408131878</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01083008639330881</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06186706260978279</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01139275443147983</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06186733113824682</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01195155870076655</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06186759966671083</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.0125064578317595</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06186786819517485</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01305741045502461</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06186813672363887</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01360437520115153</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06186840525210289</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01414731070065858</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06186867378056691</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01468617558413562</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06186894230903092</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01522092848214855</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06186921083749494</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01575152802528633</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06186947936595896</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01627793284406869</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06186974789442298</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01680010156908479</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06187001642288699</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01731799283090054</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.061870284951351</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01783156526010413</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06187055347981503</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01834077748721679</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06187082200827904</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.018845757068016</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06187109053674306</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01934747618420224</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06187135906520708</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01984606239155218</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0618716275936711</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02034147432058835</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06187189612213512</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02083367060189848</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06187216465059913</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02132260986604848</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06187243317906314</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02180825074362536</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06187270170752717</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02229055186515281</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06187297023599118</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02276947186121792</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0618732387644552</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02324496936238667</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06187350729291921</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02371700299924545</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06187377582138324</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02418553140231913</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06187404434984725</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02465051320219423</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06187431287831126</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0251119070294367</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06187458140677529</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02556967151463232</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06187484993523931</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02602376528830719</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06187511846370333</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02647414698104724</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06187538699216734</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02692077522341842</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06187565552063135</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02736360864600585</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06187592404909538</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.0278026058793369</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06187619257755939</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02823772555399689</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06187646110602341</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.02866892630055175</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06187672963448742</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02909616674958592</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06187699816295145</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.02951940553162814</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06187726669141546</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.02993860127726303</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06187753521987947</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.02993860127726305</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06186437732514263</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0303657728696559</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06195500253082345</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03078877747576714</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06204562773650427</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0312074883622507</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.0621362529421851</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0316217787957603</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06222687814786591</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03203152204294987</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06231750335354673</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03243659137047322</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06240812855922755</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03283686004498416</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06249875376490838</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.0332322013331365</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06258937897058919</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03362248850158412</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06268000417627002</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03400759481698074</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06277062938195083</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03438739354598035</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06286125458763166</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03476175795523669</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06295187979331247</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03513056131140361</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06304250499899329</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03549367688113492</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06313313020467412</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03585097793108449</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06322375541035494</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03620233772790604</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06331438061603575</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03654762953825354</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06340500582171657</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03688672662878079</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0634956310273974</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.03721950226614155</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06358625623307822</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03754582971698973</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06367688143875905</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0378655822479791</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06376750664443986</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03817863312576347</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06385813185012068</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.03848485561699678</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0639487570558015</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.03878412298833276</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06403938226148231</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.03907682600092214</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06413000746716314</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.03936594288839993</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06422063267284396</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.03965186441191678</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06431125787852479</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.0399344638381265</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06440188308420559</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04021361443368299</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06449250828988642</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04048918946524006</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06458313349556724</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04076106219945152</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06467375870124807</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.0410291059029712</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06476438390692889</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04129319384245295</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.0648550091126097</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04155319928455057</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06494563431829052</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04180899549591793</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06503625952397134</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04206045574320883</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06512688472965217</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04230745329307712</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06521750993533298</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0425498614121766</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06530813514101382</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04278755336716113</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06539876034669463</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04302040242468453</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06548938555237545</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0432482818514006</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06558001075805626</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04347106491396322</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06567063596373708</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.0436886248790262</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06576126116941791</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04390083501324337</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06585188637509873</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04410756858326855</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06594251158077956</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04430869885575556</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06603313678646036</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04450409909735829</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06612376199214119</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04469364257473053</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06621438719782201</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04487720255452609</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06630501240350284</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.03925146836968407</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06630501240350284</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04509592280243919</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06813689952868761</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04529808568498298</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06996878665387236</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04548434289831114</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07180067377905713</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.04565534613857735</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0736325609042419</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04581174710193529</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07546444802942667</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04595419748453861</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07729633515461143</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.046083348982541</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.0791282222797962</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04619985329209612</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08096010940498095</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04630436210935766</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08279199653016574</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04639752713047929</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08462388365535051</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04648000005161469</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08645577078053526</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04655243256891751</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08828765790572003</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04661547637854143</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0901195450309048</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04666978317664013</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09195143215608957</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04671600465936728</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09378331928127434</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04675479252287657</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.0956152064064591</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04678679846332167</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09744709353164387</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04681267417685623</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09927898065682864</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04683307135963393</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1011108677820134</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04684864170780844</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1029427549071982</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.04686003691753347</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1047746420323829</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.04686790868496265</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1066065291575677</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.04687290870624967</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1084384162827525</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.04687568867754822</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1102703034079372</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.04687690029501194</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.112102190533122</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.04687719525479452</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1139340776583068</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04686701367955911</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1157659647834915</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.04680539591403591</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1175978519086763</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04669136776170455</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.119429739033861</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.0465288380333193</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1212616261590458</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04632171553963436</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1230935132842306</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04607390909140396</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1249254004094154</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04578932749938235</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1267572875346001</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04547187957432377</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1285891746597849</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04512547412698243</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1304210617849697</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04475401996811256</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1322529489101544</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04436142590846839</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1340848360353392</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04395160075880416</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1359167231605239</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04352845332987409</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1377486102857087</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04309589243243243</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1395804974108935</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04265782687723339</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1414123845360783</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.0422181654750312</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1432442716612631</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04178081703658012</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1450761587864478</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04134969037263433</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1469080459116326</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04092869429394811</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1487399330368173</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04052173761127566</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04013272913537125</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1524037072871869</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03976557767698905</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1542355944123716</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03942419204688333</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1560674815375564</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03911248105580831</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1578993686627412</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.0388234886794329</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1597312557879259</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03854132276717546</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1615631429131107</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03826522830975256</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1633950300382955</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03799465327920173</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1652269171634802</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03772904564756053</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.167058804288665</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03746785338686646</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1688906914138498</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03721052446915713</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1707225785390345</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03695650686647004</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1725544656642193</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03670524855084275</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1743863527894041</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0364561974943128</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1762182399145888</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03620880166891772</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1780501270397736</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03596250904669508</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1798820141649584</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03571676759968238</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1817139012901431</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03547102529991721</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1835457884153279</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.0352247301194371</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1853776755405127</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03497733003027958</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1872095626656974</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.0347282730044822</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1890414497908822</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03447700701408252</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.190873336916067</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03422298003111807</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1927052240412517</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03396564002762639</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1945371111664365</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03370443497564504</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1963689982916212</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03343881284721151</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.198200885416806</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03316822161436341</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2000327725419908</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03289210924913828</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2018646596671756</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.0326099237235736</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2036965467923604</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03232116562877325</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2055284339175451</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03202768632911154</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2073603210427299</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03173067652238403</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2091922081679146</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03143019169502922</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2110240952930994</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03112628733348561</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2128559824182842</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03081901892419175</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2146878695434689</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03050844195358609</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2165197566686537</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0301946119081072</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2183516437938385</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02987758427419358</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2201835309190233</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02955741453828373</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.222015418044208</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02923415818681618</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2238473051693928</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02890787070622943</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2256791922945775</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02857860758296201</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2275110794197623</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02824642430345243</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2293429665449471</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0279113763541392</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2311748536701318</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02757351922146081</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2330067407953166</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.0272329083918558</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2348386279205013</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.0268895993517627</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2366705150456862</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02654364758761999</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2385024021708709</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02619510858586619</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2403342892960557</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02584403783293984</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2421661764212404</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02549049081527941</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2439980635464252</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02513452301932347</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.24582995067161</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02477618993151048</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2476618377967947</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08125146836968405</v>
+        <v>0.06046316076635782</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03125146836968406</v>
+        <v>0.01046316076635782</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01634251240350283</v>
+        <v>0.008712761163152538</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001477808016667949</v>
+        <v>0.001701316232353138</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006697476000353822</v>
+        <v>0.001626004872765844</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001842896641937604</v>
+        <v>0.003496675738029996</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007965277173036839</v>
+        <v>0.001638712417172113</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004625289644401398</v>
+        <v>0.009843338127885431</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007877252880464078</v>
+        <v>0.001643624614025947</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01274843181721774</v>
+        <v>0.01791549722246316</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007842566690586224</v>
+        <v>0.001638712417172113</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002936704961114367</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001339495200070764</v>
+        <v>0.002904253721050846</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003535075345997611</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001593055434607368</v>
+        <v>0.003747187499999996</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01032325460942549</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001575450576092816</v>
+        <v>0.004073029891304345</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02425891573310912</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001568513338117245</v>
+        <v>0.003747187499999997</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004377103392423108</v>
+        <v>0.005843360516543564</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002009242800106146</v>
+        <v>0.004878014618297532</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005435225476092903</v>
+        <v>0.009274224557016701</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002389583151911052</v>
+        <v>0.004916137251516339</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01488057250888442</v>
+        <v>0.02586501918931686</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002363175864139224</v>
+        <v>0.004930873842077843</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03547752124284137</v>
+        <v>0.04394039424912521</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002352770007175867</v>
+        <v>0.004916137251516339</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005799415869678047</v>
+        <v>0.008106153398238135</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002678990400141529</v>
+        <v>0.006504019491063377</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007002036396136314</v>
+        <v>0.01193360817339571</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003186110869214736</v>
+        <v>0.006554849668688452</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01799999999999999</v>
+        <v>0.0310154510883201</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.00288245192307692</v>
+        <v>0.006574498456103789</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04715031784158202</v>
+        <v>0.05410401658296832</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00313702667623449</v>
+        <v>0.006554849668688452</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01161701488420339</v>
+        <v>0.002904253721050846</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007204054951963031</v>
+        <v>0.01046316076635782</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003348738000176911</v>
+        <v>0.008712761163152538</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008794197470040739</v>
+        <v>0.01448513154094315</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00398263858651842</v>
+        <v>0.008193562085860565</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02187801800112021</v>
+        <v>0.03687990210504891</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003938626440232039</v>
+        <v>0.008218123070129736</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0555233750244985</v>
+        <v>0.06185912381506647</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003921283345293112</v>
+        <v>0.008193562085860565</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008591433198361927</v>
+        <v>0.01104315415843494</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004018485600212293</v>
+        <v>0.009756029236595064</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009970398061719031</v>
+        <v>0.0164386435155956</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004779166303822103</v>
+        <v>0.009832274503032678</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0249958523797443</v>
+        <v>0.04107549513064843</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004726351728278447</v>
+        <v>0.009861747684155686</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06314276228675819</v>
+        <v>0.07037237292469389</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004705540014351734</v>
+        <v>0.009832274503032678</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009961963167958603</v>
+        <v>0.0119228358837602</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004688233200247675</v>
+        <v>0.01138203410936091</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.011</v>
+        <v>0.01828357162598611</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005495874999999997</v>
+        <v>0.01124156249999999</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.0273185909449086</v>
+        <v>0.04730768108444461</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005514077016324855</v>
+        <v>0.01221908967391304</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06805454912352843</v>
+        <v>0.07633179054290307</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005489796683410358</v>
+        <v>0.01124156249999999</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01131605741983692</v>
+        <v>0.01076961084549066</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005357980800283058</v>
+        <v>0.01300803898212675</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01194165167158873</v>
+        <v>0.01998347027520653</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006372221738429471</v>
+        <v>0.0131096993373769</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03066087136204079</v>
+        <v>0.04856727550349488</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006301802304371262</v>
+        <v>0.01314899691220758</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07300000000000001</v>
+        <v>0.08247027123402029</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006631386363636364</v>
+        <v>0.0131096993373769</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01265412851308072</v>
+        <v>0.01357969858053829</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006027728400318439</v>
+        <v>0.0146340438548926</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01260951120530353</v>
+        <v>0.02160376145459722</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007168749455733155</v>
+        <v>0.01474841175454902</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03243733129656864</v>
+        <v>0.0523562896264293</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007089527592417671</v>
+        <v>0.01479262152623353</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07347436640815913</v>
+        <v>0.08840310420293712</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007058310021527602</v>
+        <v>0.01474841175454902</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01397658900677391</v>
+        <v>0.01234931862581509</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006697476000353821</v>
+        <v>0.01626004872765844</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01340492241131708</v>
+        <v>0.02276223575133909</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00796527717303684</v>
+        <v>0.01638712417172113</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03556260841392</v>
+        <v>0.05678337373933195</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007877252880464078</v>
+        <v>0.01643624614025947</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07323811459985358</v>
+        <v>0.09407067817929854</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007842566690586224</v>
+        <v>0.01638712417172113</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0152838514600003</v>
+        <v>0.01407469051823304</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007367223600389204</v>
+        <v>0.01788605360042429</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01373889427201358</v>
+        <v>0.02415212418420047</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008761804890340523</v>
+        <v>0.01802583658889324</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03735134037952248</v>
+        <v>0.0597180850472302</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008664978168510487</v>
+        <v>0.01807987075428542</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07331355784158011</v>
+        <v>0.1000302667404663</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008626823359644847</v>
+        <v>0.01802583658889324</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01657632843184379</v>
+        <v>0.01575203379470413</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008036971200424585</v>
+        <v>0.01951205847319013</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01462243576977726</v>
+        <v>0.02556665777194971</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009558332607644207</v>
+        <v>0.01966454900606536</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03971816485880394</v>
+        <v>0.06362998075515158</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009452703456556895</v>
+        <v>0.01972349536831137</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07449575489450999</v>
+        <v>0.1067391434638021</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009411080028703469</v>
+        <v>0.01966454900606536</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01785443248138823</v>
+        <v>0.01637756799214034</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008706718800459968</v>
+        <v>0.02113806334595597</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01496655588699231</v>
+        <v>0.02699906753335514</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01035486032494789</v>
+        <v>0.02130326142323747</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04117771951719215</v>
+        <v>0.0671886180681234</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0102404287446033</v>
+        <v>0.02136711998233732</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07507976451981468</v>
+        <v>0.1108545819266673</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01019533669776209</v>
+        <v>0.02130326142323747</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01911857616771747</v>
+        <v>0.01494751264745366</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00937646640049535</v>
+        <v>0.02276406821872182</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01558226360604298</v>
+        <v>0.02814258448718512</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01115138804225158</v>
+        <v>0.02294197384040958</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0429446420201148</v>
+        <v>0.07016355419117315</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01102815403264971</v>
+        <v>0.02301074459636326</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07566064547866547</v>
+        <v>0.1159338557064238</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01097959336682072</v>
+        <v>0.02294197384040958</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0203691720499154</v>
+        <v>0.01745808729755609</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01004621400053073</v>
+        <v>0.02439007309148766</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01588056790931346</v>
+        <v>0.02909043965220799</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01194791575955526</v>
+        <v>0.02458068625758169</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04553357003299968</v>
+        <v>0.07362434632932829</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01181587932069612</v>
+        <v>0.02465436921038921</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07633179054290307</v>
+        <v>0.121134238380433</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01155674874242362</v>
+        <v>0.02458068625758169</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02160663268706585</v>
+        <v>0.0159055114793596</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01071596160056612</v>
+        <v>0.02601607796425351</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01637247777918795</v>
+        <v>0.02983586404719213</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01274444347685894</v>
+        <v>0.02621939867475381</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04730768108444461</v>
+        <v>0.07614055168761621</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01262612188131177</v>
+        <v>0.02629799382441516</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07601279879686801</v>
+        <v>0.1251130035260568</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01254810670493796</v>
+        <v>0.02621939867475381</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.01728600472977616</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01161701488420339</v>
+        <v>0.02764208283701935</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01686900219805069</v>
+        <v>0.03067208869090583</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01354097119416263</v>
+        <v>0.02785811109192592</v>
       </c>
       <c r="L82" t="n">
-        <v>0.048461820888832</v>
+        <v>0.07868172747106439</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01339132989678893</v>
+        <v>0.02794161843844111</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07838636834024587</v>
+        <v>0.1277274247206566</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01333236337399658</v>
+        <v>0.02785811109192592</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02406242247150406</v>
+        <v>0.01659578658571779</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01205545680063688</v>
+        <v>0.0292680877097852</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01738115014828585</v>
+        <v>0.03139234460211746</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01433749891146631</v>
+        <v>0.02949682350909803</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05047381472073126</v>
+        <v>0.08001743088470026</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01417905518483534</v>
+        <v>0.02958524305246706</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07954086770683277</v>
+        <v>0.1307347755415942</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0141166200430552</v>
+        <v>0.02949682350909803</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02534223990337741</v>
+        <v>0.01684874567788174</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01272520440067226</v>
+        <v>0.03089409258255104</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01828357162598611</v>
+        <v>0.03198986279959536</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01522488245605552</v>
+        <v>0.03113553592627015</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05189230600142977</v>
+        <v>0.08201721913355117</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01496678047288175</v>
+        <v>0.031228867666493</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08016527788920613</v>
+        <v>0.1337923295662312</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01490087671211382</v>
+        <v>0.03113553592627015</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02663116226272704</v>
+        <v>0.01909211590869263</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01339495200070764</v>
+        <v>0.03252009745531689</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0186890779466415</v>
+        <v>0.03266371904170234</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01593055434607368</v>
+        <v>0.03277424834344226</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05351445327058224</v>
+        <v>0.08365064942264469</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01575450576092816</v>
+        <v>0.03287249228051894</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08144857987994303</v>
+        <v>0.1360847262262065</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01568513338117245</v>
+        <v>0.03277424834344226</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02788342748088279</v>
+        <v>0.01832729039750694</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01406469960074302</v>
+        <v>0.03414610232808273</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01928058976302513</v>
+        <v>0.03299723458992551</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01672708206337736</v>
+        <v>0.03441296076061438</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05533741506784329</v>
+        <v>0.08470126589998278</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01654223104897456</v>
+        <v>0.0345161168945449</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0840797546716211</v>
+        <v>0.1378946033498333</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01646939005023107</v>
+        <v>0.03441296076061438</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02905327348917446</v>
+        <v>0.01755266500315728</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01473444720077841</v>
+        <v>0.03577210720084858</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01989210758894445</v>
+        <v>0.03361731749630169</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01752360978068105</v>
+        <v>0.03605167317778649</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05665834993286772</v>
+        <v>0.08641093765077268</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01732995633702097</v>
+        <v>0.03615974150857084</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08504778325681744</v>
+        <v>0.1398484007520097</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01725364671928969</v>
+        <v>0.03605167317778649</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03009493821893191</v>
+        <v>0.01976663558447619</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01540419480081379</v>
+        <v>0.03739811207361442</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02042136475392435</v>
+        <v>0.03402109841147367</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01832013749798473</v>
+        <v>0.0376903855949586</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05907441640531028</v>
+        <v>0.08668213846741607</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01811768162506738</v>
+        <v>0.03780336612259679</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08744164662810944</v>
+        <v>0.1413341392320299</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01803790338834832</v>
+        <v>0.0376903855949586</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03125146836968406</v>
+        <v>0.01896759800029623</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01634251240350283</v>
+        <v>0.03902411694638026</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0209660945874897</v>
+        <v>0.03430570798608429</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01911666521528841</v>
+        <v>0.03932909801213071</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06028277302482568</v>
+        <v>0.08840737710962851</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01890540691311379</v>
+        <v>0.03944699073662274</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08945032577807438</v>
+        <v>0.143639839589188</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01882216005740694</v>
+        <v>0.03932909801213071</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03165069922384036</v>
+        <v>0.01815394810944999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01674369000088455</v>
+        <v>0.0406501218191461</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0216240304191654</v>
+        <v>0.03466827687077632</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0199131929325921</v>
+        <v>0.04096781042930282</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0626805783310686</v>
+        <v>0.08877916233712552</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01969313220116019</v>
+        <v>0.04109061535064868</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09186280169928945</v>
+        <v>0.1445535226227783</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01960641672646556</v>
+        <v>0.04096781042930282</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03229803239225731</v>
+        <v>0.02032408177077001</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01741343760091994</v>
+        <v>0.04227612669191195</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02239290557847627</v>
+        <v>0.03510593571619262</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02070972064989578</v>
+        <v>0.04260652284647494</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06386499086369385</v>
+        <v>0.09039000290962268</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0204808574892066</v>
+        <v>0.04273423996467463</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09446805538433217</v>
+        <v>0.1455632091320947</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02039067339552418</v>
+        <v>0.04260652284647494</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03292159760004729</v>
+        <v>0.02047639484308886</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01808318520095532</v>
+        <v>0.04390213156467779</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02307045339494726</v>
+        <v>0.03541581517297596</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02150624836719947</v>
+        <v>0.04424523526364705</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06553316916235608</v>
+        <v>0.09113240758683558</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02126858277725301</v>
+        <v>0.04437786457870058</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09635506782577974</v>
+        <v>0.1477569199164317</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02117493006458281</v>
+        <v>0.04424523526364705</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03352162869443284</v>
+        <v>0.01960928318523913</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0187529328009907</v>
+        <v>0.04552813643744363</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02385440719810322</v>
+        <v>0.03549504589176918</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02230277608450315</v>
+        <v>0.04588394768081917</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06698227176671001</v>
+        <v>0.09129888512847978</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02205630806529942</v>
+        <v>0.04602148919272653</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09971282001620951</v>
+        <v>0.1482226757750831</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02195918673364143</v>
+        <v>0.04588394768081917</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03409835952263657</v>
+        <v>0.01872114265605336</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01942268040102608</v>
+        <v>0.04715414131020948</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02454250031746902</v>
+        <v>0.03564075852321505</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02309930380180683</v>
+        <v>0.04752266009799128</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06850945721641044</v>
+        <v>0.09248194429427081</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02284403335334583</v>
+        <v>0.04766511380675248</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1013302929481986</v>
+        <v>0.1493484975073433</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02274344340270005</v>
+        <v>0.04752266009799128</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03465202393188104</v>
+        <v>0.01981036911436413</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02009242800106147</v>
+        <v>0.04878014618297533</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02533246608256955</v>
+        <v>0.0361500837179564</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02389583151911052</v>
+        <v>0.04916137251516339</v>
       </c>
       <c r="L95" t="n">
-        <v>0.070511884051112</v>
+        <v>0.0930740938439242</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02363175864139223</v>
+        <v>0.04930873842077842</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1046964676143247</v>
+        <v>0.1506224059125063</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02352770007175867</v>
+        <v>0.04916137251516339</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03518285576938888</v>
+        <v>0.01987535841900401</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02076217560109685</v>
+        <v>0.05040615105574117</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02582203782292966</v>
+        <v>0.03612015212663604</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0246923592364142</v>
+        <v>0.0508000849323355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07238671081046952</v>
+        <v>0.09306784253715561</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02441948392943864</v>
+        <v>0.05095236303480437</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1062003250071647</v>
+        <v>0.1515324217898664</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0243119567408173</v>
+        <v>0.0508000849323355</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03569108888238263</v>
+        <v>0.02092632153271563</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02143192320113223</v>
+        <v>0.05203215592850702</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02650894886807427</v>
+        <v>0.03634809439989679</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02548888695371788</v>
+        <v>0.05243879734950761</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0735310960341376</v>
+        <v>0.0933556991336805</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02520720921748505</v>
+        <v>0.05259598764883031</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1088308461192962</v>
+        <v>0.1515665659387175</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02509621340987592</v>
+        <v>0.05243879734950761</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03617695711808485</v>
+        <v>0.01992626656442531</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02210167080116761</v>
+        <v>0.05365816080127286</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02719093254752825</v>
+        <v>0.03656714325197222</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02628541467102157</v>
+        <v>0.05407750976667972</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07464219826177107</v>
+        <v>0.09373017239321452</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02599493450553146</v>
+        <v>0.05423961226285626</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1126770119432963</v>
+        <v>0.1526635810858061</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02588047007893454</v>
+        <v>0.05407750976667972</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0366406943237182</v>
+        <v>0.01891811445030631</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02277141840120299</v>
+        <v>0.0552841656740387</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02786572219081647</v>
+        <v>0.03636612314273283</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02708194238832525</v>
+        <v>0.05571622218385184</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07621717603302464</v>
+        <v>0.09461536216888919</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02678265979357787</v>
+        <v>0.05588323687688222</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1153278034717425</v>
+        <v>0.15135932224807</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02666472674799316</v>
+        <v>0.05571622218385184</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03708253434650519</v>
+        <v>0.02089671348138851</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02344116600123838</v>
+        <v>0.05691017054680454</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02863105112746381</v>
+        <v>0.03635922085625866</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02787847010562894</v>
+        <v>0.05735493460102395</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07775318788755295</v>
+        <v>0.09441228278938377</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02757038508162427</v>
+        <v>0.05752686149090815</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1166722016972119</v>
+        <v>0.1522305060027438</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02744898341705179</v>
+        <v>0.05735493460102395</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03750271103366844</v>
+        <v>0.01986290908632801</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02411091360127376</v>
+        <v>0.0585361754195704</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02938465268699515</v>
+        <v>0.03632786501100797</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02867499782293262</v>
+        <v>0.05899364701819607</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07914739236501081</v>
+        <v>0.09436086522290296</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02835811036967069</v>
+        <v>0.05917048610493411</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1197991876122821</v>
+        <v>0.152099598986274</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02823324008611041</v>
+        <v>0.05899364701819607</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03790145823243051</v>
+        <v>0.02081754669378089</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02478066120130914</v>
+        <v>0.06016218029233623</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03002426019893537</v>
+        <v>0.03647408407879302</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02947152554023631</v>
+        <v>0.06063235943536818</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08119694800505295</v>
+        <v>0.09394915235261647</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02914583565771709</v>
+        <v>0.06081411071896006</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1230977422095302</v>
+        <v>0.1515750698331626</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02901749675516903</v>
+        <v>0.06063235943536818</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03827900979001402</v>
+        <v>0.01976147173240329</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02545040880134452</v>
+        <v>0.06178818516510208</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03054760699280931</v>
+        <v>0.03609939028947247</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03026805325753999</v>
+        <v>0.06227107185254029</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08239901334733407</v>
+        <v>0.09368109227818949</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0299335609457635</v>
+        <v>0.06245773533298599</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1257568464815334</v>
+        <v>0.1510632319276425</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02980175342422765</v>
+        <v>0.06227107185254029</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03863559955364149</v>
+        <v>0.0186955296308513</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02612015640137991</v>
+        <v>0.06341419003786793</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03115242639814193</v>
+        <v>0.036005295872905</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03106458097484367</v>
+        <v>0.0639097842697124</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08355074693150885</v>
+        <v>0.0935606330992873</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0307212862338099</v>
+        <v>0.06410135994701195</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1281654814208692</v>
+        <v>0.150870398653947</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03058601009328627</v>
+        <v>0.0639097842697124</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03897146137053557</v>
+        <v>0.01862056581778103</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02678990400141528</v>
+        <v>0.06504019491063377</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03153645174445806</v>
+        <v>0.03609331305894929</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03186110869214736</v>
+        <v>0.06554849668688452</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0847493072972321</v>
+        <v>0.09339172291557526</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03150901152185631</v>
+        <v>0.06574498456103789</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1308126280201149</v>
+        <v>0.1505028833963086</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0313702667623449</v>
+        <v>0.06554849668688452</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03928682908791881</v>
+        <v>0.02053742572184857</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02745965160145067</v>
+        <v>0.0666661997833996</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03209741636128258</v>
+        <v>0.03586495407746405</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03265763640945104</v>
+        <v>0.06718720910405664</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08569185298415843</v>
+        <v>0.09327830982671864</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03229673680990272</v>
+        <v>0.06738860917506384</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1330872672718478</v>
+        <v>0.1495669995389607</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03215452343140352</v>
+        <v>0.06718720910405664</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03958193655301378</v>
+        <v>0.02044695477171002</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02812939920148605</v>
+        <v>0.06829220465616546</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03293305357814036</v>
+        <v>0.03592173115830799</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03345416412675473</v>
+        <v>0.06882592152122875</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08697554253194273</v>
+        <v>0.09312434193238273</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03308446209794913</v>
+        <v>0.06903223378908979</v>
       </c>
       <c r="N107" t="n">
-        <v>0.134078380168645</v>
+        <v>0.1494690604661361</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03293878010046215</v>
+        <v>0.06882592152122875</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03985701761304309</v>
+        <v>0.02034999839602151</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02879914680152143</v>
+        <v>0.0699182095289313</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03334109672455628</v>
+        <v>0.03556515653133974</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03425069184405841</v>
+        <v>0.07046463393840086</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08779753448023955</v>
+        <v>0.09253376733223281</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03387218738599553</v>
+        <v>0.07067585840311573</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1371749477030841</v>
+        <v>0.1480153795620676</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03372303676952076</v>
+        <v>0.07046463393840086</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04011230611522929</v>
+        <v>0.01924740202343912</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02946889440155681</v>
+        <v>0.07154421440169716</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03361927913005525</v>
+        <v>0.03529674242641802</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03504721956136209</v>
+        <v>0.07210334635557297</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08885498736870376</v>
+        <v>0.09211053412593417</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03465991267404195</v>
+        <v>0.07231948301714168</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1391659508677424</v>
+        <v>0.1476122702109885</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03450729343857939</v>
+        <v>0.07210334635557297</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.040348035906795</v>
+        <v>0.02014001108261897</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0301386420015922</v>
+        <v>0.07317021927446299</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0341653341241621</v>
+        <v>0.03521800107340151</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03584374727866577</v>
+        <v>0.07374205877274508</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09004505973699001</v>
+        <v>0.09125859041315212</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03544763796208835</v>
+        <v>0.07396310763116763</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1416403706551969</v>
+        <v>0.1478660457971317</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03529155010763801</v>
+        <v>0.07374205877274508</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04056444083496277</v>
+        <v>0.01802867100221715</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03080838960162758</v>
+        <v>0.07479622414722883</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03447699503640178</v>
+        <v>0.0349304447021489</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03664027499596946</v>
+        <v>0.07538077118991719</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09016491012475297</v>
+        <v>0.0913818842935519</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03623536325013476</v>
+        <v>0.07560673224519358</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1425871880580251</v>
+        <v>0.1469830197047301</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03607580677669663</v>
+        <v>0.07538077118991719</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04076626070054746</v>
+        <v>0.01791422721088978</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03147813720166296</v>
+        <v>0.07642222901999468</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0348519951962991</v>
+        <v>0.03493558554251887</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03743680271327315</v>
+        <v>0.07701948360708931</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09091169707164751</v>
+        <v>0.09058436386679891</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03702308853818117</v>
+        <v>0.07725035685921952</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1451953840688044</v>
+        <v>0.1462695053180166</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03686006344575526</v>
+        <v>0.07701948360708931</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04096558137864404</v>
+        <v>0.01979752513729295</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03214788480169834</v>
+        <v>0.07804823389276051</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03548806793337897</v>
+        <v>0.03453493582437012</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03823333043057683</v>
+        <v>0.07865819602426143</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09218257911732827</v>
+        <v>0.08966997723255832</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03781081382622758</v>
+        <v>0.07889398147324549</v>
       </c>
       <c r="N113" t="n">
-        <v>0.146153939680112</v>
+        <v>0.1452318160212244</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03764432011481388</v>
+        <v>0.07865819602426143</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04116298037148581</v>
+        <v>0.01867941021008276</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03281763240173372</v>
+        <v>0.07967423876552637</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03558294657716624</v>
+        <v>0.03453000777756132</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03902985814788051</v>
+        <v>0.08029690844143353</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09287471480144996</v>
+        <v>0.08904267249049549</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03859853911427398</v>
+        <v>0.08053760608727142</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1480518358845253</v>
+        <v>0.1432762651985862</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0384285767838725</v>
+        <v>0.08029690844143353</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04135838050356331</v>
+        <v>0.01956072785791534</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03348738000176911</v>
+        <v>0.08130024363829221</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03573436445718586</v>
+        <v>0.03422231363195116</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03982638586518419</v>
+        <v>0.08193562085860565</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0927852626636673</v>
+        <v>0.0889063977402757</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03938626440232039</v>
+        <v>0.08218123070129736</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1484780536746214</v>
+        <v>0.1423091662343352</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03921283345293112</v>
+        <v>0.08193562085860565</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04155170459936709</v>
+        <v>0.01944232350944677</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03415712760180449</v>
+        <v>0.08292624851105805</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03624005490296263</v>
+        <v>0.03391336561739834</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04062291358248788</v>
+        <v>0.08357433327577776</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09371138124363509</v>
+        <v>0.08816510108156422</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0401739896903668</v>
+        <v>0.08382485531532331</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1496215740429777</v>
+        <v>0.1419368325127043</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03999709012198974</v>
+        <v>0.08357433327577776</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04174287548338767</v>
+        <v>0.01932504259333316</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03482687520183987</v>
+        <v>0.0845522533838239</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03619775124402144</v>
+        <v>0.03370467596376155</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04141944129979156</v>
+        <v>0.08521304569294988</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09365022908100792</v>
+        <v>0.08732273061402637</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04096171497841321</v>
+        <v>0.08546847992934926</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1502713779821717</v>
+        <v>0.1408655774179265</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04078134679104837</v>
+        <v>0.08521304569294988</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04193181598011559</v>
+        <v>0.01720397335284696</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03549662280187525</v>
+        <v>0.08617825825658974</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03630518680988722</v>
+        <v>0.03379775690089944</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04221596901709525</v>
+        <v>0.08685175811012198</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09379896471544064</v>
+        <v>0.08758323443732743</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04174944026645961</v>
+        <v>0.08711210454337522</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1515164464847804</v>
+        <v>0.1402017143342347</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04156560346010699</v>
+        <v>0.08685175811012198</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04211844891404137</v>
+        <v>0.01806602602399951</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03616637040191064</v>
+        <v>0.08780426312935559</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03656714325197222</v>
+        <v>0.03338735640952398</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04301249673439893</v>
+        <v>0.0884904705272941</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09461536216888919</v>
+        <v>0.08674926713751513</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04253716555450602</v>
+        <v>0.08875572915740115</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1524457605433813</v>
+        <v>0.1395233166903648</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04234986012916561</v>
+        <v>0.0884904705272941</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04230269710965556</v>
+        <v>0.01691317142412933</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03683611800194602</v>
+        <v>0.08943026800212144</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03646582672526311</v>
+        <v>0.0330481718555526</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04380902445170261</v>
+        <v>0.09012918294446622</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09441473353410459</v>
+        <v>0.08626293886539896</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04332489084255243</v>
+        <v>0.0903993537714271</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1526635810858061</v>
+        <v>0.1380247489242675</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04313411679822423</v>
+        <v>0.09012918294446622</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04248448339144869</v>
+        <v>0.01774816406085655</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0375058656019814</v>
+        <v>0.09105627287488727</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03625532874981317</v>
+        <v>0.03308191623666147</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0446055521690063</v>
+        <v>0.09176789536163833</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09460354126701509</v>
+        <v>0.08550060928969325</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04411261613059884</v>
+        <v>0.09204297838545306</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1522562064179412</v>
+        <v>0.1380131626025236</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04391837346728286</v>
+        <v>0.09176789536163833</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0426637305839113</v>
+        <v>0.01757375844180122</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03817561320201678</v>
+        <v>0.09268227774765313</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03633468609967357</v>
+        <v>0.03259351657849492</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04540207988630998</v>
+        <v>0.09340660777881045</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09376248173244831</v>
+        <v>0.08477514179104453</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04490034141864524</v>
+        <v>0.09368660299947899</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1511160022337544</v>
+        <v>0.1360091274856363</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04470263013634148</v>
+        <v>0.09340660777881045</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04284036151153395</v>
+        <v>0.01639270907458345</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03884536080205216</v>
+        <v>0.09430828262041896</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0363043092795738</v>
+        <v>0.03218789990669736</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04619860760361366</v>
+        <v>0.09504532019598255</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09379300889788761</v>
+        <v>0.08369939975009935</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04568806670669166</v>
+        <v>0.09533022761350496</v>
       </c>
       <c r="N123" t="n">
-        <v>0.152541853472588</v>
+        <v>0.1348332133341082</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0454868868054001</v>
+        <v>0.09504532019598255</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04301429899880713</v>
+        <v>0.01820777046682334</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03951510840208755</v>
+        <v>0.09593428749318482</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03626460879424334</v>
+        <v>0.03196999324691302</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04699513532091735</v>
+        <v>0.09668403261315466</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09349614125666386</v>
+        <v>0.08338624654750415</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04647579199473806</v>
+        <v>0.0969738522275309</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1521349339837388</v>
+        <v>0.1328059899084423</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04627114347445873</v>
+        <v>0.09668403261315466</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04318546587022138</v>
+        <v>0.01702169712614096</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04018485600212293</v>
+        <v>0.09756029236595065</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03641599514841169</v>
+        <v>0.03164472362478631</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04779166303822104</v>
+        <v>0.09832274503032677</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09397289730210798</v>
+        <v>0.08274854556390551</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04726351728278447</v>
+        <v>0.09861747684155683</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1511964176165035</v>
+        <v>0.1315480269691412</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04705540014351735</v>
+        <v>0.09832274503032677</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04335378495026725</v>
+        <v>0.01583724356015641</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04085460360215831</v>
+        <v>0.0991862972387165</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03635887884680833</v>
+        <v>0.03121701806596155</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04858819075552472</v>
+        <v>0.09996145744749889</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09362429552755078</v>
+        <v>0.08109916017994984</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04805124257083088</v>
+        <v>0.1002611014555828</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1517274782201787</v>
+        <v>0.1307798942767079</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04783965681257597</v>
+        <v>0.09996145744749889</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04351917906343528</v>
+        <v>0.01565716427648979</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04152435120219369</v>
+        <v>0.1008123021114823</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03599367039416275</v>
+        <v>0.03089180359608308</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0493847184728284</v>
+        <v>0.101600169864671</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09395135442632319</v>
+        <v>0.0804509537762837</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04883896785887729</v>
+        <v>0.1019047260696087</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1513292896440613</v>
+        <v>0.1289221615916452</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04862391348163459</v>
+        <v>0.101600169864671</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.043681571034216</v>
+        <v>0.01648421378276118</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04219409880222907</v>
+        <v>0.1024383069842482</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03592078029520442</v>
+        <v>0.0308740072407952</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05018124619013209</v>
+        <v>0.1032388822818431</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09285509249175605</v>
+        <v>0.07961678973355354</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04962669314692369</v>
+        <v>0.1035483506836347</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1508030257374479</v>
+        <v>0.128395398674456</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04940817015069322</v>
+        <v>0.1032388822818431</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04384088368709995</v>
+        <v>0.01731575388000028</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04286384640226446</v>
+        <v>0.104064311857014</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03584061905466283</v>
+        <v>0.03036855602574229</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05097777390743577</v>
+        <v>0.1048775946990152</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09263652821718024</v>
+        <v>0.0788095314324059</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0504144184349701</v>
+        <v>0.1051919752976606</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1507498603496353</v>
+        <v>0.1268201752856432</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05019242681975183</v>
+        <v>0.1048775946990152</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04399703984657765</v>
+        <v>0.01513254519869607</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04353359400229984</v>
+        <v>0.1056903167297799</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03585359717726751</v>
+        <v>0.03017238338827972</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05177430162473945</v>
+        <v>0.1065163071161873</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0930966800959267</v>
+        <v>0.07784061269229067</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05120214372301651</v>
+        <v>0.1068355999116866</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1500709673299202</v>
+        <v>0.1249836888819035</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05097668348881046</v>
+        <v>0.1065163071161873</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04414996233713966</v>
+        <v>0.01593601908824106</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04420334160233522</v>
+        <v>0.1073163216025457</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03586012516774789</v>
+        <v>0.02985091595802092</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05257082934204314</v>
+        <v>0.1081550195333594</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09293656662132621</v>
+        <v>0.07733630757863028</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05198986901106292</v>
+        <v>0.1084792245257125</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1505675205275993</v>
+        <v>0.1246415996525756</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05176094015786908</v>
+        <v>0.1081550195333594</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04429957398327648</v>
+        <v>0.01473011862710037</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0448730892023706</v>
+        <v>0.1089423264753116</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03556061353083348</v>
+        <v>0.02930553630093108</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05336735705934683</v>
+        <v>0.1097937319505316</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09275720628670972</v>
+        <v>0.07626244014759356</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05277759429910932</v>
+        <v>0.1101228491397385</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1499406937919693</v>
+        <v>0.1230996796501789</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0525451968269277</v>
+        <v>0.1097937319505316</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04444579760947866</v>
+        <v>0.01651878689373906</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04554283680240599</v>
+        <v>0.1105683313480774</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03545547277125377</v>
+        <v>0.02894329745566342</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0541638847766505</v>
+        <v>0.1114324443677037</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09245961758540805</v>
+        <v>0.07523742433234434</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05356531958715573</v>
+        <v>0.1117664737537644</v>
       </c>
       <c r="N133" t="n">
-        <v>0.149591660972327</v>
+        <v>0.1206873744928991</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05332945349598633</v>
+        <v>0.1114324443677037</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04458855604023674</v>
+        <v>0.01530596696662227</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04621258440244137</v>
+        <v>0.1121943362208433</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03554511339373824</v>
+        <v>0.02857125246087119</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05496041249395419</v>
+        <v>0.1130711567848758</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09204481901075212</v>
+        <v>0.07457967406604649</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05435304487520214</v>
+        <v>0.1134100983677904</v>
       </c>
       <c r="N134" t="n">
-        <v>0.148621595917969</v>
+        <v>0.1197341297989218</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05411371016504495</v>
+        <v>0.1130711567848758</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04472777210004127</v>
+        <v>0.01609560192421506</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04688233200247675</v>
+        <v>0.1138203410936091</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03532994590301637</v>
+        <v>0.02829645435520764</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05575694021125788</v>
+        <v>0.1147098692020479</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09121382905607278</v>
+        <v>0.07320760328186371</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05514077016324855</v>
+        <v>0.1150537229818163</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1484316724781921</v>
+        <v>0.118069391186433</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05489796683410357</v>
+        <v>0.1147098692020479</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04486336861338276</v>
+        <v>0.01589163484498254</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04755207960251213</v>
+        <v>0.1154463459663749</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03531038080381768</v>
+        <v>0.02792595617732602</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05655346792856155</v>
+        <v>0.11634858161922</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09056766621470089</v>
+        <v>0.07223962591295988</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05592849545129495</v>
+        <v>0.1166973475958423</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1481230645022931</v>
+        <v>0.1160226042736182</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0556822235031622</v>
+        <v>0.11634858161922</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04499526840475176</v>
+        <v>0.01569800880738982</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04822182720254752</v>
+        <v>0.1170723508391408</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03498682860087163</v>
+        <v>0.02746681096587959</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05734999564586524</v>
+        <v>0.1179872940363921</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0905073489799674</v>
+        <v>0.0717941558924988</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05671622073934137</v>
+        <v>0.1183409722098682</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1481969458395686</v>
+        <v>0.1156232146786633</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05646648017222081</v>
+        <v>0.1179872940363921</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04512339429863878</v>
+        <v>0.01351866688990197</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0488915748025829</v>
+        <v>0.1186983557119066</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0348596997989077</v>
+        <v>0.02722607175952156</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05814652336316892</v>
+        <v>0.1196260064535642</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09053389584520311</v>
+        <v>0.07088960715364426</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05750394602738777</v>
+        <v>0.1199845968238942</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1480544903393153</v>
+        <v>0.114200668019754</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05725073684127944</v>
+        <v>0.1196260064535642</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04524766911953438</v>
+        <v>0.01435755217098413</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04956132240261828</v>
+        <v>0.1203243605846725</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03492940490265539</v>
+        <v>0.02691079159690521</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05894305108047262</v>
+        <v>0.1212647188707364</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08954832530373891</v>
+        <v>0.0696443936295601</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05829167131543418</v>
+        <v>0.1216282214379201</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1465968718508301</v>
+        <v>0.1116844099150761</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05803499351033806</v>
+        <v>0.1212647188707364</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0453680156919291</v>
+        <v>0.01321860772910134</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05023107000265366</v>
+        <v>0.1219503654574383</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03479635441684419</v>
+        <v>0.02662802351668377</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05973957879777629</v>
+        <v>0.1229034312879085</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08985165584890573</v>
+        <v>0.06957692925341008</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05907939660348058</v>
+        <v>0.123271846051946</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1458252642234095</v>
+        <v>0.1113038859828153</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05881925017939669</v>
+        <v>0.1229034312879085</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04548435684031347</v>
+        <v>0.01410577664271873</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05090081760268905</v>
+        <v>0.1235763703302042</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03446095884620358</v>
+        <v>0.0264848205575105</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06053610651507998</v>
+        <v>0.1245421437050806</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08924490597403437</v>
+        <v>0.06890562795835803</v>
       </c>
       <c r="M141" t="n">
-        <v>0.059867121891527</v>
+        <v>0.124915470665972</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1463408413063504</v>
+        <v>0.1095885418411573</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0596035068484553</v>
+        <v>0.1245421437050806</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.045596615389178</v>
+        <v>0.01302300199030139</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05157056520272443</v>
+        <v>0.12520237520297</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03452362869546305</v>
+        <v>0.02608823575803865</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06133263423238366</v>
+        <v>0.1261808561222527</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08912909417245576</v>
+        <v>0.06804890367756769</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0606548471795734</v>
+        <v>0.126559095279998</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1455447769489495</v>
+        <v>0.109467823108288</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06038776351751393</v>
+        <v>0.1261808561222527</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04570471416301326</v>
+        <v>0.01297422685031442</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05224031280275981</v>
+        <v>0.1268283800757359</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03428477446935209</v>
+        <v>0.02604532215692143</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06212916194968734</v>
+        <v>0.1278195685394248</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08790523893750077</v>
+        <v>0.06782517034420296</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0614425724676198</v>
+        <v>0.1282027198940239</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1451382450005034</v>
+        <v>0.108971175402393</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06117202018657255</v>
+        <v>0.1278195685394248</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04580857598630975</v>
+        <v>0.01496247485380232</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05291006040279519</v>
+        <v>0.1284543849485017</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03424480667260017</v>
+        <v>0.02606313279281214</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06292568966699102</v>
+        <v>0.1294582809565969</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08797435876250023</v>
+        <v>0.06715284189142764</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06223029775566621</v>
+        <v>0.1298463445080499</v>
       </c>
       <c r="N144" t="n">
-        <v>0.144522419310309</v>
+        <v>0.1090280443416583</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06195627685563117</v>
+        <v>0.1294582809565969</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04590812368355803</v>
+        <v>0.01396673774304974</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05357980800283057</v>
+        <v>0.1300803898212675</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03420413580993681</v>
+        <v>0.02594596931044922</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06372221738429472</v>
+        <v>0.131096993373769</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08703747214078508</v>
+        <v>0.0675503322524055</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06301802304371262</v>
+        <v>0.1314899691220758</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1440984737276628</v>
+        <v>0.1090563887938521</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06274053352468979</v>
+        <v>0.131096993373769</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04600328007924864</v>
+        <v>0.01397662136635118</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05424955560286595</v>
+        <v>0.1317063946940334</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03386317238609145</v>
+        <v>0.02585422522354798</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0645187451015984</v>
+        <v>0.1327357057909412</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08699559756568614</v>
+        <v>0.06746197710148136</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06380574833175903</v>
+        <v>0.1331335937361017</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1437675821018616</v>
+        <v>0.1081908562733077</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06352479019374842</v>
+        <v>0.1327357057909412</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04609396799787211</v>
+        <v>0.01499183598773738</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05491930320290134</v>
+        <v>0.1333323995667992</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03362232690579363</v>
+        <v>0.02587241704598189</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06531527281890208</v>
+        <v>0.1343744182081133</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08624975353053435</v>
+        <v>0.06690025942555805</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06459347361980544</v>
+        <v>0.1347772183501277</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1430309182822023</v>
+        <v>0.1077668050216172</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06430904686280704</v>
+        <v>0.1343744182081133</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04618011026391895</v>
+        <v>0.01301209187123906</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05558905080293672</v>
+        <v>0.1349584044395651</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03358200987377279</v>
+        <v>0.02620002652303995</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06611180053620576</v>
+        <v>0.1360131306252854</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08580095852866054</v>
+        <v>0.06776352881365369</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06538119890785184</v>
+        <v>0.1364208429641536</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1424896561179814</v>
+        <v>0.1086820713854822</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06509330353186567</v>
+        <v>0.1360131306252854</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04626162970187971</v>
+        <v>0.01303709928088693</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0562587984029721</v>
+        <v>0.1365844093123309</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03344263179475844</v>
+        <v>0.02603653540001108</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06690832825350945</v>
+        <v>0.1376518430424575</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08595023105339561</v>
+        <v>0.06775043221666707</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06616892419589826</v>
+        <v>0.1380644675781796</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1424449694584957</v>
+        <v>0.1084344917116048</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06587756020092429</v>
+        <v>0.1376518430424575</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04633844913624496</v>
+        <v>0.01306656848071173</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05692854600300748</v>
+        <v>0.1382104141850967</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03350460317348007</v>
+        <v>0.02628142542218426</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06770485597081313</v>
+        <v>0.1392905554596296</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08499858959807041</v>
+        <v>0.06785961658549686</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06695664948394467</v>
+        <v>0.1397080921922055</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1418980321530419</v>
+        <v>0.1090219023466866</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0666618168699829</v>
+        <v>0.1392905554596296</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04641049139150518</v>
+        <v>0.01310020973474416</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05759829360304286</v>
+        <v>0.1398364190578626</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03336833451466717</v>
+        <v>0.02603417833484845</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06850138368811681</v>
+        <v>0.1409292678768017</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08484705265601583</v>
+        <v>0.06768972887104183</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06774437477199106</v>
+        <v>0.1413517168062315</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1411500180509168</v>
+        <v>0.1086421396374294</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06744607353904153</v>
+        <v>0.1409292678768017</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04647767929215093</v>
+        <v>0.01313773330701496</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05826804120307825</v>
+        <v>0.1414624239306284</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0329342363230492</v>
+        <v>0.02609427588329258</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06929791140542051</v>
+        <v>0.1425679802939738</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08469663872056274</v>
+        <v>0.06793941602420073</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06853210006003747</v>
+        <v>0.1429953414202574</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1404021010014171</v>
+        <v>0.1090930399305351</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06823033020810015</v>
+        <v>0.1425679802939738</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04653993566267278</v>
+        <v>0.01417884946155486</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05893778880311363</v>
+        <v>0.1430884288033943</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03280271910335568</v>
+        <v>0.02636119981280559</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07009443912272419</v>
+        <v>0.1442066927111459</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08394836628504199</v>
+        <v>0.06800732499587223</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0693198253480839</v>
+        <v>0.1446389660342834</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1388554548538395</v>
+        <v>0.1097724395727055</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06901458687715878</v>
+        <v>0.1442066927111459</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04659718332756119</v>
+        <v>0.01422326846239456</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05960753640314901</v>
+        <v>0.1447144336761601</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03267419336031606</v>
+        <v>0.02623443186867651</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07089096684002787</v>
+        <v>0.1458454051283181</v>
       </c>
       <c r="L154" t="n">
-        <v>0.0833032538427845</v>
+        <v>0.06849210273695513</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07010755063613029</v>
+        <v>0.1462825906483093</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1389112534574807</v>
+        <v>0.1104781749106423</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06979884354621739</v>
+        <v>0.1458454051283181</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04664934511130674</v>
+        <v>0.01327070057356478</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06027728400318439</v>
+        <v>0.146340438548926</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03264906959865985</v>
+        <v>0.02641345379619423</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07168749455733155</v>
+        <v>0.1474841175454902</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08246231988712116</v>
+        <v>0.06829239619834809</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0708952759241767</v>
+        <v>0.1479262152623353</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1390706706616375</v>
+        <v>0.1104080822910475</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07058310021527603</v>
+        <v>0.1474841175454902</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04669634383839995</v>
+        <v>0.01332133411619983</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06094703160321977</v>
+        <v>0.1479664434216918</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03262775832311654</v>
+        <v>0.02669774734064774</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07248402227463524</v>
+        <v>0.1491228299626623</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08282658291138284</v>
+        <v>0.06900685233094991</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07168300121222311</v>
+        <v>0.1495698398763612</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1380348803156065</v>
+        <v>0.1110599980606228</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07136735688433464</v>
+        <v>0.1491228299626623</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04673810233333139</v>
+        <v>0.01540495228496716</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06161677920325516</v>
+        <v>0.1495924482944577</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03251067003841562</v>
+        <v>0.02679081453704275</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07328054999193892</v>
+        <v>0.1507615423798344</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08219706140890037</v>
+        <v>0.06883411808565931</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07247072650026952</v>
+        <v>0.1512134644903872</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1370050562686844</v>
+        <v>0.1118485428092616</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07215161355339327</v>
+        <v>0.1507615423798344</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04677454342059156</v>
+        <v>0.01353313319015102</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06228652680329054</v>
+        <v>0.1512184531672235</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03219706322431116</v>
+        <v>0.02695229702470231</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0740770777092426</v>
+        <v>0.1524002547970065</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08116364495338182</v>
+        <v>0.068781380783625</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07325845178831593</v>
+        <v>0.1528570891044131</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1373735930886945</v>
+        <v>0.1115227134623772</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07293587022245189</v>
+        <v>0.1524002547970065</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04680558992467102</v>
+        <v>0.01569713040214163</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06295627440332592</v>
+        <v>0.1528444580399894</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03208501490164262</v>
+        <v>0.02689020769880493</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07487360542654629</v>
+        <v>0.1540389672141786</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08070815366595052</v>
+        <v>0.07014045939895275</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07404617707636234</v>
+        <v>0.154500713718439</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1365259748874883</v>
+        <v>0.1128159629277997</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07372012689151052</v>
+        <v>0.1540389672141786</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04683116467006027</v>
+        <v>0.01388819749132918</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0636260220033613</v>
+        <v>0.1544704629127552</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03217429862554705</v>
+        <v>0.02738890170047656</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07567013314384997</v>
+        <v>0.1556776796313507</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08083141655457296</v>
+        <v>0.0700705731765322</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07483390236440873</v>
+        <v>0.156144338332465</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1352621262860076</v>
+        <v>0.1135629757346199</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07450438356056913</v>
+        <v>0.1556776796313507</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04685119048124987</v>
+        <v>0.01509758802810389</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06429576960339668</v>
+        <v>0.156096467785521</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03216472056793346</v>
+        <v>0.02763273417084308</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07646666086115365</v>
+        <v>0.1573163920485229</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07983460614282331</v>
+        <v>0.07113087682969654</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07562162765245516</v>
+        <v>0.157787962946491</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1349822315864977</v>
+        <v>0.115598436411929</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07528864022962775</v>
+        <v>0.1573163920485229</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04686559018273035</v>
+        <v>0.01531655558285595</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06496551720343206</v>
+        <v>0.1577224726582869</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03175608690071074</v>
+        <v>0.02810606025103046</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07726318857845733</v>
+        <v>0.158955104465695</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07931889495427585</v>
+        <v>0.0724805250717788</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07640935294050155</v>
+        <v>0.1594315875605169</v>
       </c>
       <c r="N162" t="n">
-        <v>0.134986475091203</v>
+        <v>0.1172570294888179</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07607289689868639</v>
+        <v>0.158955104465695</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04687428659899225</v>
+        <v>0.01453635372597555</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06563526480346744</v>
+        <v>0.1593484775310527</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03164820379578789</v>
+        <v>0.02839323508216463</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07805971629576103</v>
+        <v>0.1605938168828671</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07878545551250482</v>
+        <v>0.07317867261611222</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07719707822854796</v>
+        <v>0.1610752121745428</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1342750411023686</v>
+        <v>0.118773439494378</v>
       </c>
       <c r="O163" t="n">
-        <v>0.076857153567745</v>
+        <v>0.1605938168828671</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04687720255452609</v>
+        <v>0.0157482360278529</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06630501240350284</v>
+        <v>0.1609744824038186</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03164087742507377</v>
+        <v>0.02897861380537152</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07885624401306471</v>
+        <v>0.1622325293000392</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07833546034108438</v>
+        <v>0.07468447417602989</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07798480351659438</v>
+        <v>0.1627188367885688</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1332481139222392</v>
+        <v>0.1195823509577</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07764141023680363</v>
+        <v>0.1622325293000392</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04687720255452609</v>
+        <v>0.01694345605887821</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06630501240350284</v>
+        <v>0.1626004872765844</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0314339139604774</v>
+        <v>0.02924655156177704</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07965277173036839</v>
+        <v>0.1638712417172113</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07757008196358878</v>
+        <v>0.07535708446486503</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07877252880464078</v>
+        <v>0.1643624614025947</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1328058778530598</v>
+        <v>0.1211184484078752</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07842566690586224</v>
+        <v>0.1638712417172113</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04607401717233867</v>
+        <v>0.01611333120453958</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06630474387503882</v>
+        <v>0.1642264921493503</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03162711957390767</v>
+        <v>0.02968140349250717</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08044929944767208</v>
+        <v>0.1655099541343834</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07769049290359223</v>
+        <v>0.07585565819595072</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07956025409268719</v>
+        <v>0.1660060860166207</v>
       </c>
       <c r="N166" t="n">
-        <v>0.132648517197075</v>
+        <v>0.1228164163739945</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07920992357492088</v>
+        <v>0.1655099541343834</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04527988234371003</v>
+        <v>0.01626747981872583</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0663044753465748</v>
+        <v>0.1658524970221161</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03132030043727353</v>
+        <v>0.02967003670975571</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08124582716497576</v>
+        <v>0.1671486665515555</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07659786568466898</v>
+        <v>0.07723936405000767</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0803479793807336</v>
+        <v>0.1676497106306466</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1319762162565298</v>
+        <v>0.1246214265729552</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07999418024397949</v>
+        <v>0.1671486665515555</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04449523589551468</v>
+        <v>0.01541782229880869</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06630420681811078</v>
+        <v>0.1674785018948819</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03111326272248396</v>
+        <v>0.03003981194652995</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08204235488227944</v>
+        <v>0.1687873789687276</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07589337283039321</v>
+        <v>0.07724470365260369</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08113570466878001</v>
+        <v>0.1692933352446726</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1304891593336689</v>
+        <v>0.1257477068910658</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08077843691303811</v>
+        <v>0.1687873789687276</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04372051565472928</v>
+        <v>0.01656463610786025</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06630393828964676</v>
+        <v>0.1691045067676478</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03100581260144787</v>
+        <v>0.03030295487878468</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08283888259958312</v>
+        <v>0.1704260913858998</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07547818686433919</v>
+        <v>0.0781324077577408</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08192342995682642</v>
+        <v>0.1709369598586985</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1307875307307375</v>
+        <v>0.1270462981071915</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08156269358209674</v>
+        <v>0.1704260913858998</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04295615944822791</v>
+        <v>0.01770819870895259</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06630366976118275</v>
+        <v>0.1707305116404136</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0308977562460742</v>
+        <v>0.030459961808531</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08363541031688682</v>
+        <v>0.1720648038030718</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07545348031008106</v>
+        <v>0.07920377210084739</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08271115524487282</v>
+        <v>0.1725805844727245</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1285715147499801</v>
+        <v>0.1276192722246548</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08234695025115536</v>
+        <v>0.1720648038030718</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04220260510291898</v>
+        <v>0.01584878756515778</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06630340123271873</v>
+        <v>0.1723565165131795</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03078889982827189</v>
+        <v>0.03091132903778002</v>
       </c>
       <c r="K171" t="n">
-        <v>0.0844319380341905</v>
+        <v>0.173703516220244</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07482042569119313</v>
+        <v>0.07926009241735218</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08349888053291922</v>
+        <v>0.1742242090867504</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1293412956936416</v>
+        <v>0.1288687012467785</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08313120692021397</v>
+        <v>0.173703516220244</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04146029044567878</v>
+        <v>0.01698668013954793</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06630313270425471</v>
+        <v>0.1739825213859453</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0306790495199499</v>
+        <v>0.03105755286854286</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08522846575149418</v>
+        <v>0.1753422286374161</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07378019553124954</v>
+        <v>0.08000266444268356</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08428660582096564</v>
+        <v>0.1758678337007764</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1278970578639668</v>
+        <v>0.1297966571768852</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0839154635892726</v>
+        <v>0.1753422286374161</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04072965330348039</v>
+        <v>0.0171221538951951</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06630286417579069</v>
+        <v>0.1756085262587112</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03066801149301715</v>
+        <v>0.03139912960283071</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08602499346879787</v>
+        <v>0.1769809410545882</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07303396235382456</v>
+        <v>0.08063278391227019</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08507433110901204</v>
+        <v>0.1775114583148023</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1277389855632007</v>
+        <v>0.1309052120182975</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08469972025833122</v>
+        <v>0.1769809410545882</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04001113150319965</v>
+        <v>0.01725548629517139</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06630259564732668</v>
+        <v>0.177234531131477</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03045559191938259</v>
+        <v>0.03143655554265465</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08682152118610154</v>
+        <v>0.1786196534717603</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07218289868249242</v>
+        <v>0.08145174656154061</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08586205639705845</v>
+        <v>0.1791550829288283</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1261672630935881</v>
+        <v>0.1318964377743382</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08548397692738985</v>
+        <v>0.1786196534717603</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03930516287174492</v>
+        <v>0.01838695480254888</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06630232711886266</v>
+        <v>0.1788605360042429</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03034159697095518</v>
+        <v>0.03177032699002579</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08761804890340523</v>
+        <v>0.1802583658889324</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07212817704082733</v>
+        <v>0.08186084812592329</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08664978168510486</v>
+        <v>0.1807987075428542</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1257820747573737</v>
+        <v>0.1320724064483298</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08626823359644846</v>
+        <v>0.1802583658889324</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03861218523599478</v>
+        <v>0.01851683688039964</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06630205859039864</v>
+        <v>0.1804865408770087</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03022583281964382</v>
+        <v>0.03200094024695528</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08841457662070891</v>
+        <v>0.1818970783061045</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07137096995240341</v>
+        <v>0.08296138434084685</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08743750697315127</v>
+        <v>0.1824423321568802</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1246836048568025</v>
+        <v>0.1334351900435953</v>
       </c>
       <c r="O176" t="n">
-        <v>0.0870524902655071</v>
+        <v>0.1818970783061045</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03793263642291794</v>
+        <v>0.01864540999179578</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06630179006193462</v>
+        <v>0.1821125457497745</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03020810563735749</v>
+        <v>0.03212889161545425</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0892111043380126</v>
+        <v>0.1835357907232767</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07001244994079503</v>
+        <v>0.08315465094173982</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08822523226119768</v>
+        <v>0.1840859567709061</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1243720376941193</v>
+        <v>0.134786860563457</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08783674693456572</v>
+        <v>0.1835357907232767</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03726695425939234</v>
+        <v>0.01877588916789033</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06630152153347062</v>
+        <v>0.1837385506225404</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03018822159600512</v>
+        <v>0.03265470461442774</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09000763205531628</v>
+        <v>0.1851745031404488</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06975378952957637</v>
+        <v>0.08344194366403071</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08901295754924408</v>
+        <v>0.1857295813849321</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1232475575715689</v>
+        <v>0.1352296036386125</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08862100360362433</v>
+        <v>0.1851745031404488</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03661557657232641</v>
+        <v>0.01691394936691427</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0663012530050066</v>
+        <v>0.1853645554953063</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03006598686749563</v>
+        <v>0.03278925610000932</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09080415977261996</v>
+        <v>0.1868132155576209</v>
       </c>
       <c r="L179" t="n">
-        <v>0.0692961612423216</v>
+        <v>0.08484070877308514</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08980068283729048</v>
+        <v>0.187373205998958</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1225103487913962</v>
+        <v>0.1372088288816441</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08940526027268296</v>
+        <v>0.1868132155576209</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03597894118860116</v>
+        <v>0.01905532358007967</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06630098447654258</v>
+        <v>0.1869905603680721</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02984120762373801</v>
+        <v>0.03293530900184427</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09160068748992366</v>
+        <v>0.188451927974793</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06854073760260493</v>
+        <v>0.08487379113441923</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0905884081253369</v>
+        <v>0.1890168306129839</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1208605956558459</v>
+        <v>0.1383360712033053</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09018951694174158</v>
+        <v>0.188451927974793</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03535748593518041</v>
+        <v>0.0191952454811776</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06630071594807856</v>
+        <v>0.1886165652408379</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02961369003664117</v>
+        <v>0.03328433772672329</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09239721520722732</v>
+        <v>0.1900906403919651</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06808869113400065</v>
+        <v>0.08582020737922186</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09137613341338331</v>
+        <v>0.1906604552270099</v>
       </c>
       <c r="N181" t="n">
-        <v>0.120498482467163</v>
+        <v>0.1383757372409637</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09097377361080021</v>
+        <v>0.1900906403919651</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03475164863894455</v>
+        <v>0.01732894874399916</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06630044741961454</v>
+        <v>0.1902425701136038</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02978324027811405</v>
+        <v>0.03352781668143716</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09319374292453102</v>
+        <v>0.1917293528091372</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06694119436008297</v>
+        <v>0.08685769905815574</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09216385870142971</v>
+        <v>0.1923040798410358</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1204241935275923</v>
+        <v>0.1398922336319867</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09175803027985882</v>
+        <v>0.1917293528091372</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03416186712680196</v>
+        <v>0.0184516670423354</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06630017889115053</v>
+        <v>0.1918685749863696</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0293496645200656</v>
+        <v>0.03355722027277666</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0939902706418347</v>
+        <v>0.1933680652263093</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06619941980442609</v>
+        <v>0.08746400772188365</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09295158398947612</v>
+        <v>0.1939477044550618</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1189379131393786</v>
+        <v>0.1412499670137416</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09254228694891746</v>
+        <v>0.1933680652263093</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03358857922563644</v>
+        <v>0.0195586340499774</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0662999103626865</v>
+        <v>0.1934945798591355</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02941276893440474</v>
+        <v>0.03386402290753247</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09478679835913839</v>
+        <v>0.1950067776434815</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06576453999060422</v>
+        <v>0.08801687492106838</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09373930927752254</v>
+        <v>0.1955913290690877</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1174398256047668</v>
+        <v>0.141213344023596</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09332654361797607</v>
+        <v>0.1950067776434815</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03303222276240637</v>
+        <v>0.01864508344071625</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06629964183422249</v>
+        <v>0.1951205847319013</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02927235969304044</v>
+        <v>0.03403969899249544</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09558332607644207</v>
+        <v>0.1966454900606535</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06523772744219156</v>
+        <v>0.08789404220637265</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09452703456556893</v>
+        <v>0.1972349536831137</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1174301152260017</v>
+        <v>0.1414467712989174</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0941108002870347</v>
+        <v>0.1966454900606535</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03249323556399476</v>
+        <v>0.01870664978044193</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06629937330575847</v>
+        <v>0.1967465896046671</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02912824296788163</v>
+        <v>0.03427572293445628</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09637985379374575</v>
+        <v>0.1982842024778257</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06452015468276237</v>
+        <v>0.08857325112845932</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09531475985361534</v>
+        <v>0.1988785782971396</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1163089663053281</v>
+        <v>0.1431146554770731</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09489505695609331</v>
+        <v>0.1982842024778257</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03197205545731006</v>
+        <v>0.01875783210685717</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06629910477729446</v>
+        <v>0.198372594477433</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02898022493083727</v>
+        <v>0.0341717072125861</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09717638151104944</v>
+        <v>0.1999229148949978</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06441299423589089</v>
+        <v>0.08863945912064455</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09610248514166175</v>
+        <v>0.2005222029111656</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1148765631449908</v>
+        <v>0.1430153787035571</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09567931362515195</v>
+        <v>0.1999229148949978</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03146912026923918</v>
+        <v>0.01880790511623555</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06629883624883043</v>
+        <v>0.1999985993501988</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02862811175381626</v>
+        <v>0.03436106145368505</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09797290922835311</v>
+        <v>0.2015616273121699</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06341741862515127</v>
+        <v>0.0884725188143381</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09689021042970816</v>
+        <v>0.2021658275251915</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1139330900472349</v>
+        <v>0.1436884222945584</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09646357029421056</v>
+        <v>0.2015616273121699</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03098486782673428</v>
+        <v>0.01785685126785165</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06629856772036642</v>
+        <v>0.2016246042229647</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02847170960872758</v>
+        <v>0.03454843419018973</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0987694369456568</v>
+        <v>0.203200339729342</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06333460037411781</v>
+        <v>0.08910043930191897</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09767793571775457</v>
+        <v>0.2038094521392175</v>
       </c>
       <c r="N189" t="n">
-        <v>0.112478731314305</v>
+        <v>0.1441531933337439</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09724782696326918</v>
+        <v>0.203200339729342</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03051794816347234</v>
+        <v>0.01990465302098005</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0662982991919024</v>
+        <v>0.2032506090957305</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02851082466748013</v>
+        <v>0.03443379404676347</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09956596466296048</v>
+        <v>0.2048390521465141</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06216571200636464</v>
+        <v>0.08962313866928159</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09846566100580097</v>
+        <v>0.2054530767532434</v>
       </c>
       <c r="N190" t="n">
-        <v>0.112213671248446</v>
+        <v>0.1439095608327231</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09803208363232781</v>
+        <v>0.2048390521465141</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03005807234710583</v>
+        <v>0.01895129283489533</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06629803066343838</v>
+        <v>0.2048766139684964</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02844526310198292</v>
+        <v>0.03461710964806958</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1003624923802642</v>
+        <v>0.2064777645636862</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06171192604546602</v>
+        <v>0.09004053500232048</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09925338629384738</v>
+        <v>0.2070967013672694</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1117380941519027</v>
+        <v>0.1439573938031048</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09881634030138643</v>
+        <v>0.2064777645636862</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02960389041131401</v>
+        <v>0.0199967531688721</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06629776213497436</v>
+        <v>0.2065026188412622</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02827483108414483</v>
+        <v>0.03469834961877141</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1011590200975679</v>
+        <v>0.2081164769808584</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06127441501499623</v>
+        <v>0.0897525463869302</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1000411115818938</v>
+        <v>0.2087403259812953</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1109521843269202</v>
+        <v>0.1441965612564983</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09960059697044504</v>
+        <v>0.2081164769808584</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02915584018304482</v>
+        <v>0.02004101648218492</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06629749360651034</v>
+        <v>0.2081286237140281</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0279893359486599</v>
+        <v>0.03487748258353231</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1019555478148715</v>
+        <v>0.2097551893980305</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06024288872284453</v>
+        <v>0.08985909090900518</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1008288368699402</v>
+        <v>0.2103839505953213</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1090114342288413</v>
+        <v>0.1446269322045128</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1003848536395037</v>
+        <v>0.2097551893980305</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02871435948918683</v>
+        <v>0.01808406523410839</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06629722507804633</v>
+        <v>0.2097546285867939</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02767744496318464</v>
+        <v>0.03475447716701556</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1027520755321752</v>
+        <v>0.2113939018152026</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06020376414336256</v>
+        <v>0.09026008665443985</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1016165621579866</v>
+        <v>0.2120275752093472</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1082632571058585</v>
+        <v>0.1450483756587572</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1011691103085623</v>
+        <v>0.2113939018152026</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02827988615664839</v>
+        <v>0.02012588188391708</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06629695654958231</v>
+        <v>0.2113806334595597</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02764084902428347</v>
+        <v>0.03482930199388454</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1035486032494789</v>
+        <v>0.2130326142323747</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05935789520162846</v>
+        <v>0.09065545170912881</v>
       </c>
       <c r="M195" t="n">
-        <v>0.102404287446033</v>
+        <v>0.2136711998233732</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1068148780460261</v>
+        <v>0.1465607606308408</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1019533669776209</v>
+        <v>0.2130326142323747</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02785285801231948</v>
+        <v>0.01916644889088561</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06629668802111829</v>
+        <v>0.2130066383323256</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02708127354174683</v>
+        <v>0.03510192568880255</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1043451309667826</v>
+        <v>0.2146713266495468</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05870618717512632</v>
+        <v>0.09034510415896652</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1031920127340794</v>
+        <v>0.2153148244373991</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1058737421162733</v>
+        <v>0.1457639561323726</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1027376236466795</v>
+        <v>0.2146713266495468</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02743371288314572</v>
+        <v>0.01820574871428853</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06629641949265427</v>
+        <v>0.2146326432050914</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02700044392536526</v>
+        <v>0.03517231687643296</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1051416586840863</v>
+        <v>0.2163100390667189</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05844954534134003</v>
+        <v>0.09082896208984745</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1039797380221258</v>
+        <v>0.216958449051425</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1042472943835293</v>
+        <v>0.147157831174962</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1035218803157382</v>
+        <v>0.2163100390667189</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02702288859601674</v>
+        <v>0.01924376381340046</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06629615096419027</v>
+        <v>0.2162586480778573</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02670008558492924</v>
+        <v>0.03524044418143907</v>
       </c>
       <c r="K198" t="n">
-        <v>0.10593818640139</v>
+        <v>0.217948751483891</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05808887497775378</v>
+        <v>0.09070694358766612</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1047674633101722</v>
+        <v>0.218602073665451</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1023429799147232</v>
+        <v>0.1475422547702176</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1043061369847968</v>
+        <v>0.217948751483891</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02662082297784094</v>
+        <v>0.02028047664749595</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06629588243572625</v>
+        <v>0.2178846529506231</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02628192393022932</v>
+        <v>0.03540627622848422</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1067347141186937</v>
+        <v>0.2195874639010632</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05702508136185147</v>
+        <v>0.09117896673831699</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1055551885982186</v>
+        <v>0.220245698279477</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1016682437767843</v>
+        <v>0.147117095929749</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1050903936538554</v>
+        <v>0.2195874639010632</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02622795385550985</v>
+        <v>0.01831586967584961</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06629561390726223</v>
+        <v>0.219510657823389</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02604768437105598</v>
+        <v>0.03546978164223176</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1075312418359973</v>
+        <v>0.2212261763182353</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05685906977111721</v>
+        <v>0.09114494962769457</v>
       </c>
       <c r="M200" t="n">
-        <v>0.106342913886265</v>
+        <v>0.2218893228935029</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09943053103664146</v>
+        <v>0.1474822236651652</v>
       </c>
       <c r="O200" t="n">
-        <v>0.105874650322914</v>
+        <v>0.2212261763182353</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02584471905596607</v>
+        <v>0.01934992535773602</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06629534537879821</v>
+        <v>0.2211366626961548</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02549909231719973</v>
+        <v>0.03533092904734499</v>
       </c>
       <c r="K201" t="n">
-        <v>0.108327769553301</v>
+        <v>0.2228648887354074</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05589174548303497</v>
+        <v>0.09110481034169335</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1071306391743115</v>
+        <v>0.2235329475075289</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09773728676122406</v>
+        <v>0.1479375069880752</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1066589069919727</v>
+        <v>0.2228648887354074</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02547155640610069</v>
+        <v>0.02038262615242975</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0662950768503342</v>
+        <v>0.2227626675689207</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02523787317845104</v>
+        <v>0.03528968706848727</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1091242972706047</v>
+        <v>0.2245036011525795</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05572401377508884</v>
+        <v>0.09135846696620781</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1079183644623579</v>
+        <v>0.2251765721215548</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09619595601746123</v>
+        <v>0.1471828149100882</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1074431636610313</v>
+        <v>0.2245036011525795</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02510890373282213</v>
+        <v>0.02041395451920542</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06629480832187018</v>
+        <v>0.2243886724416865</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02476575236460048</v>
+        <v>0.0355460243303219</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1099208249879084</v>
+        <v>0.2261423135697516</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05465677992476278</v>
+        <v>0.09140583758713244</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1087060897504043</v>
+        <v>0.2268201967355807</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09341398387228211</v>
+        <v>0.1482180164428134</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1082274203300899</v>
+        <v>0.2261423135697516</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02475719886302374</v>
+        <v>0.01944389291733759</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06629453979340616</v>
+        <v>0.2260146773144524</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02458445528543851</v>
+        <v>0.03559990945751225</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1107173527052121</v>
+        <v>0.2277810259869237</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05479094920954095</v>
+        <v>0.09144684029036179</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1094938150384507</v>
+        <v>0.2284638213496067</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09269881539261587</v>
+        <v>0.1489429805978599</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1090116769991485</v>
+        <v>0.2277810259869237</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02441687962364451</v>
+        <v>0.02047242380610086</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06629427126494214</v>
+        <v>0.2276406821872182</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02429570735075563</v>
+        <v>0.03545131107472163</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1115138804225158</v>
+        <v>0.2294197384040958</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05432742690690726</v>
+        <v>0.09228139316179029</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1102815403264971</v>
+        <v>0.2301074459636326</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09045789564539164</v>
+        <v>0.1489575763868367</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1097959336682071</v>
+        <v>0.2294197384040958</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02408838384157732</v>
+        <v>0.0204995296447698</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06629400273647812</v>
+        <v>0.229266687059984</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02360123397034239</v>
+        <v>0.03570019780661338</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1123104081398194</v>
+        <v>0.2310584508212679</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05326711829434577</v>
+        <v>0.09250941428731246</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1110692656145435</v>
+        <v>0.2317510705776586</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08789866969753857</v>
+        <v>0.148061672821353</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1105801903372658</v>
+        <v>0.2310584508212679</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02377214934373057</v>
+        <v>0.02052519289261902</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06629373420801411</v>
+        <v>0.2308926919327499</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02340276055398927</v>
+        <v>0.03554653827785083</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1131069358571231</v>
+        <v>0.2326971632384401</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05311092864934047</v>
+        <v>0.09263082175282275</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1118569909025899</v>
+        <v>0.2333946951916845</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08752858261598589</v>
+        <v>0.149155138913018</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1113644470063244</v>
+        <v>0.2326971632384401</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02346861395699974</v>
+        <v>0.01854939600892308</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06629346567955008</v>
+        <v>0.2325186968055157</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02300201251148676</v>
+        <v>0.03569030111309728</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1139034635744268</v>
+        <v>0.2343358756556121</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05205976324937553</v>
+        <v>0.0927455336442157</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1126447161906363</v>
+        <v>0.2350383198057105</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08455507946766272</v>
+        <v>0.1488378436734407</v>
       </c>
       <c r="O208" t="n">
-        <v>0.112148703675383</v>
+        <v>0.2343358756556121</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02317821550831966</v>
+        <v>0.01957212145295657</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06629319715108607</v>
+        <v>0.2341447016782816</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02240071525262539</v>
+        <v>0.03583145493701612</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1146999912917305</v>
+        <v>0.2359745880727843</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05181452737193482</v>
+        <v>0.0927534680473858</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1134324414786827</v>
+        <v>0.2366819444197364</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08228560531949819</v>
+        <v>0.1500096561142303</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1129329603444416</v>
+        <v>0.2359745880727843</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02290139182458523</v>
+        <v>0.0205933516839941</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06629292862262205</v>
+        <v>0.2357707065510474</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02210059418719565</v>
+        <v>0.03586996837427066</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1154965190090342</v>
+        <v>0.2376133004899564</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05097612629450243</v>
+        <v>0.0922545430482275</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1142201667667291</v>
+        <v>0.2383255690337624</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08092760523842135</v>
+        <v>0.1489704452469959</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1137172170135003</v>
+        <v>0.2376133004899564</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02263858073270487</v>
+        <v>0.01861306916131023</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06629266009415805</v>
+        <v>0.2373967114238132</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02180337472498806</v>
+        <v>0.03580581004952421</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1162930467263378</v>
+        <v>0.2392520129071285</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05034546529456244</v>
+        <v>0.09284867673263533</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1150078920547755</v>
+        <v>0.2399691936477883</v>
       </c>
       <c r="N211" t="n">
-        <v>0.0800885242913616</v>
+        <v>0.1497200800833467</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1145014736825589</v>
+        <v>0.2392520129071285</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02239022005957649</v>
+        <v>0.01963125634417957</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06629239156569401</v>
+        <v>0.2390227162965791</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0213107822757931</v>
+        <v>0.03593894858744014</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1170895744436415</v>
+        <v>0.2408907253243006</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05052344964959884</v>
+        <v>0.09293578718650378</v>
       </c>
       <c r="M212" t="n">
-        <v>0.115795617342822</v>
+        <v>0.2416128182618143</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07807580754524795</v>
+        <v>0.1502584296348917</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1152857303516175</v>
+        <v>0.2408907253243006</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02215674763213012</v>
+        <v>0.02064789569187668</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06629212303723001</v>
+        <v>0.2406487211693449</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02092454224940131</v>
+        <v>0.03596935261268175</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1178861021609452</v>
+        <v>0.2425294377414727</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05011098463709562</v>
+        <v>0.09301579249572731</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1165833426308684</v>
+        <v>0.2432564428758402</v>
       </c>
       <c r="N213" t="n">
-        <v>0.07609690006700959</v>
+        <v>0.14958536291324</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1160699870206761</v>
+        <v>0.2425294377414727</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02193860127726304</v>
+        <v>0.01866296966367616</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06629185450876598</v>
+        <v>0.2422747260421108</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02044638005560319</v>
+        <v>0.03579699074991238</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1186826298782489</v>
+        <v>0.2441681501586448</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04950897553453687</v>
+        <v>0.09268861074620044</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1173710679189148</v>
+        <v>0.2449000674898661</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07465924692357573</v>
+        <v>0.1494007489300009</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1168542436897347</v>
+        <v>0.2441681501586448</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02193860127726304</v>
+        <v>0.0206764607188526</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06629185450876598</v>
+        <v>0.2439007309148767</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02017802110418923</v>
+        <v>0.03612183162379537</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1194791575955526</v>
+        <v>0.245806862575817</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04841832761940662</v>
+        <v>0.09295416002381765</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1181587932069612</v>
+        <v>0.2465436921038921</v>
       </c>
       <c r="N215" t="n">
-        <v>0.07177029318187539</v>
+        <v>0.1496044566967835</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1176385003587934</v>
+        <v>0.245806862575817</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0213828291782625</v>
+        <v>0.02068835131668056</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06620176636001321</v>
+        <v>0.2455267357876425</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02002119080494993</v>
+        <v>0.03584384385899404</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1202756853128563</v>
+        <v>0.2474455749929891</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04863994616918885</v>
+        <v>0.09291235841447348</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1189465184950076</v>
+        <v>0.248187316717918</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07003748390883785</v>
+        <v>0.1503963552251967</v>
       </c>
       <c r="O216" t="n">
-        <v>0.118422757027852</v>
+        <v>0.2474455749929891</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02083340330107566</v>
+        <v>0.02069862391643467</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06611167821126041</v>
+        <v>0.2471527406604083</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0194776145676758</v>
+        <v>0.03586299608017174</v>
       </c>
       <c r="K217" t="n">
-        <v>0.12107221303016</v>
+        <v>0.2490842874101612</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04787473646136761</v>
+        <v>0.09286312400406233</v>
       </c>
       <c r="M217" t="n">
-        <v>0.119734243783054</v>
+        <v>0.249830941331944</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06976826417139226</v>
+        <v>0.1499763135268498</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1192070136969106</v>
+        <v>0.2490842874101612</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02029065207981985</v>
+        <v>0.02070726097738949</v>
       </c>
       <c r="G218" t="n">
-        <v>0.06602159006250763</v>
+        <v>0.2487787455331741</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01934901780215738</v>
+        <v>0.03597925691199179</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1218687407474636</v>
+        <v>0.2507229998273333</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04722360377342694</v>
+        <v>0.09310637487847875</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1205219690711004</v>
+        <v>0.25147456594597</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0677700790364677</v>
+        <v>0.150444200613352</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1199912703659692</v>
+        <v>0.2507229998273333</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01975490394861222</v>
+        <v>0.0197142449588196</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06593150191375485</v>
+        <v>0.25040475040594</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01893712591818511</v>
+        <v>0.03609259497911751</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1226652684647673</v>
+        <v>0.2523617122445054</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04688745338285086</v>
+        <v>0.09354202912361728</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1213096943591468</v>
+        <v>0.2531181905599959</v>
       </c>
       <c r="N219" t="n">
-        <v>0.06595037357099337</v>
+        <v>0.1496998854963121</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1207755270350279</v>
+        <v>0.2523617122445054</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0192264873415699</v>
+        <v>0.0207195583199996</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06584141376500205</v>
+        <v>0.2520307552787059</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01864366432554955</v>
+        <v>0.03600297890621225</v>
       </c>
       <c r="K220" t="n">
-        <v>0.123461796182071</v>
+        <v>0.2540004246616775</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04666719056712346</v>
+        <v>0.09327000482537223</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1220974196471932</v>
+        <v>0.2547618151740219</v>
       </c>
       <c r="N220" t="n">
-        <v>0.06441659284189849</v>
+        <v>0.1502432371873396</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1215597837040865</v>
+        <v>0.2540004246616775</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01870573069281021</v>
+        <v>0.02072318352020407</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06575132561624927</v>
+        <v>0.2536567601514717</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0183703584340412</v>
+        <v>0.03601037731793935</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1242583238993747</v>
+        <v>0.2556391370788496</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04646372060372869</v>
+        <v>0.0927902200696383</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1228851449352396</v>
+        <v>0.2564054397880478</v>
       </c>
       <c r="N221" t="n">
-        <v>0.06317618191611213</v>
+        <v>0.1500741246980435</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1223440403731451</v>
+        <v>0.2556391370788496</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01819296243645031</v>
+        <v>0.02072510301870759</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06566123746749648</v>
+        <v>0.2552827650242375</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01821893365345055</v>
+        <v>0.03601475883896213</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1250548516166784</v>
+        <v>0.2572778494960217</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04517794877015061</v>
+        <v>0.09300259294230995</v>
       </c>
       <c r="M222" t="n">
-        <v>0.123672870223286</v>
+        <v>0.2580490644020738</v>
       </c>
       <c r="N222" t="n">
-        <v>0.06223658586056346</v>
+        <v>0.150592417040033</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1231282970422037</v>
+        <v>0.2572778494960217</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01768851100660732</v>
+        <v>0.01872138648564341</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06557114931874369</v>
+        <v>0.2569087698970034</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0179911153935681</v>
+        <v>0.03621589086782953</v>
       </c>
       <c r="K223" t="n">
-        <v>0.125851379333982</v>
+        <v>0.2589165619131938</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04501078034387329</v>
+        <v>0.09310704152928156</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1244605955113324</v>
+        <v>0.2596926890160997</v>
       </c>
       <c r="N223" t="n">
-        <v>0.06160524974218162</v>
+        <v>0.1509971431292327</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1239125537112623</v>
+        <v>0.2589165619131938</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01719270483739859</v>
+        <v>0.01967512722286487</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06548106116999092</v>
+        <v>0.2585347747697692</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01768862906418436</v>
+        <v>0.03596279794545172</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1266479070512857</v>
+        <v>0.260555274330366</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04466312060238065</v>
+        <v>0.09349798557076952</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1252483207993788</v>
+        <v>0.2613363136301256</v>
       </c>
       <c r="N224" t="n">
-        <v>0.06078961862789589</v>
+        <v>0.1501754863373785</v>
       </c>
       <c r="O224" t="n">
-        <v>0.124696810380321</v>
+        <v>0.260555274330366</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01670587236294124</v>
+        <v>0.02058157655206747</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06539097302123813</v>
+        <v>0.2601607796425351</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01731320007508987</v>
+        <v>0.03592273627568665</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1274444347685894</v>
+        <v>0.2621939867475381</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04443587482315681</v>
+        <v>0.09305990344219334</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1260360460874252</v>
+        <v>0.2629799382441516</v>
       </c>
       <c r="N225" t="n">
-        <v>0.05979713758463528</v>
+        <v>0.1490907451140388</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1254810670493796</v>
+        <v>0.2621939867475381</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01622834201735241</v>
+        <v>0.01944620267832335</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06530088487248534</v>
+        <v>0.2617867845153009</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01716655383607509</v>
+        <v>0.03560548691211445</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1282409624858931</v>
+        <v>0.2638326991647102</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04472994828368582</v>
+        <v>0.09231792707052533</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1268237713754717</v>
+        <v>0.2646235628581775</v>
       </c>
       <c r="N226" t="n">
-        <v>0.05923525167932903</v>
+        <v>0.1480837542232545</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1262653237184382</v>
+        <v>0.2638326991647102</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01576044223474943</v>
+        <v>0.02027447380670468</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06521079672373256</v>
+        <v>0.2634127893880668</v>
       </c>
       <c r="J227" t="n">
-        <v>0.01735041575693054</v>
+        <v>0.03542083090831531</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1290374902031968</v>
+        <v>0.2654714115818823</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04354624626145162</v>
+        <v>0.09119759263609167</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1276114966635181</v>
+        <v>0.2662671874722035</v>
       </c>
       <c r="N227" t="n">
-        <v>0.05901140597890625</v>
+        <v>0.1472953484290663</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1270495803874968</v>
+        <v>0.2654714115818823</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01530250144924939</v>
+        <v>0.01907185814228365</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06512070857497976</v>
+        <v>0.2650387942608326</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01716651124744671</v>
+        <v>0.03497854931786935</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1298340179205005</v>
+        <v>0.2671101239990544</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04358567403393834</v>
+        <v>0.09052443631921839</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1283992219515645</v>
+        <v>0.2679108120862295</v>
       </c>
       <c r="N228" t="n">
-        <v>0.05823304555029624</v>
+        <v>0.145466362495515</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1278338370565555</v>
+        <v>0.2671101239990544</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01485484809496961</v>
+        <v>0.01784382389013241</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06503062042622698</v>
+        <v>0.2666647991335984</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01721656571741416</v>
+        <v>0.03448842319435677</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1306305456378042</v>
+        <v>0.2687488364162265</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04314913687862998</v>
+        <v>0.08952399430023181</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1291869472396109</v>
+        <v>0.2695544367002554</v>
       </c>
       <c r="N229" t="n">
-        <v>0.05730761546042784</v>
+        <v>0.1442376311866413</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1286180937256141</v>
+        <v>0.2687488364162265</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01441781060602721</v>
+        <v>0.01859583925532314</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06494053227747421</v>
+        <v>0.2682908040063643</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01720207339240362</v>
+        <v>0.03416023359135767</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1314270733551078</v>
+        <v>0.2703875488333987</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04343738556918175</v>
+        <v>0.08892180275945799</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1299746725276573</v>
+        <v>0.2711980613142813</v>
       </c>
       <c r="N230" t="n">
-        <v>0.05734163492354627</v>
+        <v>0.1419499892664861</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1294023503946727</v>
+        <v>0.2703875488333987</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01399171741653937</v>
+        <v>0.01933337244292799</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0648504441287214</v>
+        <v>0.2699168088791301</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01720215863490113</v>
+        <v>0.03380376156245228</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1322236010724115</v>
+        <v>0.2720262612505707</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04283625982402839</v>
+        <v>0.08754339787722307</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1307623978157037</v>
+        <v>0.2728416859283073</v>
       </c>
       <c r="N231" t="n">
-        <v>0.05854165956742369</v>
+        <v>0.1415442714990899</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1301866070637313</v>
+        <v>0.2720262612505707</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01357689696062338</v>
+        <v>0.01706189165801914</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06476035597996863</v>
+        <v>0.271542813751896</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01690265836896492</v>
+        <v>0.0333287881612207</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1330201287897152</v>
+        <v>0.2736649736677428</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04323628676236738</v>
+        <v>0.08661431583385323</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1315501231037501</v>
+        <v>0.2744853105423332</v>
       </c>
       <c r="N232" t="n">
-        <v>0.05854180536807796</v>
+        <v>0.1393613126484938</v>
       </c>
       <c r="O232" t="n">
-        <v>0.13097086373279</v>
+        <v>0.2736649736677428</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0131736776723964</v>
+        <v>0.01778686510566875</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06467026783121584</v>
+        <v>0.2731688186246619</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01720394554504336</v>
+        <v>0.03294509444124312</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1338166565070189</v>
+        <v>0.275303686084915</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04263776493444033</v>
+        <v>0.08536009280967466</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1323378483917965</v>
+        <v>0.2761289351563592</v>
       </c>
       <c r="N233" t="n">
-        <v>0.05824218194910219</v>
+        <v>0.1374419474787382</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1317551204018486</v>
+        <v>0.275303686084915</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01278238798597556</v>
+        <v>0.01651376099094899</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06458017968246305</v>
+        <v>0.2747948234974277</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01720639311358488</v>
+        <v>0.03246246145609968</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1346131842243226</v>
+        <v>0.2769423985020871</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04284099289048882</v>
+        <v>0.08390626498501341</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1331255736798429</v>
+        <v>0.2777725597703851</v>
       </c>
       <c r="N234" t="n">
-        <v>0.05834289893408956</v>
+        <v>0.1344270107538642</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1325393770709072</v>
+        <v>0.2769423985020871</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01240335633547819</v>
+        <v>0.01624804751893204</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06449009153371027</v>
+        <v>0.2764208283701935</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01711037402503783</v>
+        <v>0.03179067025937055</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1354097119416263</v>
+        <v>0.2785811109192592</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04204626918075435</v>
+        <v>0.08287836854019576</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1339132989678893</v>
+        <v>0.279416184384411</v>
       </c>
       <c r="N235" t="n">
-        <v>0.05784406594663305</v>
+        <v>0.1328573372379123</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1333236337399658</v>
+        <v>0.2785811109192592</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01203691115502143</v>
+        <v>0.01699519289469004</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06440000338495748</v>
+        <v>0.2780468332429594</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01711626122985066</v>
+        <v>0.03153950190463589</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1362062396589299</v>
+        <v>0.2802198233364313</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04225389235547858</v>
+        <v>0.08120193965554773</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1347010242559357</v>
+        <v>0.281059808998437</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0574457926103259</v>
+        <v>0.1304737616949235</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1341078904090244</v>
+        <v>0.2802198233364313</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01168338087872244</v>
+        <v>0.01676066532329519</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06430991523620469</v>
+        <v>0.2796728381157252</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0170244276784717</v>
+        <v>0.03081873744547585</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1370027673762336</v>
+        <v>0.2818585357536034</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04176416096490304</v>
+        <v>0.07970251451139559</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1354887495439821</v>
+        <v>0.2827034336124629</v>
       </c>
       <c r="N237" t="n">
-        <v>0.05784818854876095</v>
+        <v>0.1298171188889383</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1348921470780831</v>
+        <v>0.2818585357536034</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0113430939406985</v>
+        <v>0.01754366777920413</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06421982708745191</v>
+        <v>0.2812988429884911</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01693524632134942</v>
+        <v>0.03043288995363438</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1377992950935373</v>
+        <v>0.2834972481707755</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04147737355926923</v>
+        <v>0.07879621976443857</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1362764748320285</v>
+        <v>0.2843470582264889</v>
       </c>
       <c r="N238" t="n">
-        <v>0.05845136338553147</v>
+        <v>0.1274062503709466</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1356764037471417</v>
+        <v>0.2834972481707755</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01101637877506677</v>
+        <v>0.01632723565798888</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06412973893869912</v>
+        <v>0.2829248478612569</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01704909010893213</v>
+        <v>0.0300520208133276</v>
       </c>
       <c r="K239" t="n">
-        <v>0.138595822810841</v>
+        <v>0.2851359605879477</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04159382868881878</v>
+        <v>0.07790807427586693</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1370642001200749</v>
+        <v>0.2859906828405149</v>
       </c>
       <c r="N239" t="n">
-        <v>0.05805542674423042</v>
+        <v>0.1259161658930958</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1364606604162003</v>
+        <v>0.2851359605879477</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01070222270996586</v>
+        <v>0.01510998338244977</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06403965078994633</v>
+        <v>0.2845508527340228</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01706633199166829</v>
+        <v>0.02976970052003002</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1393923505281447</v>
+        <v>0.2867746730051198</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04161382490379326</v>
+        <v>0.07761615598880178</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1378519254081214</v>
+        <v>0.2876343074545408</v>
       </c>
       <c r="N240" t="n">
-        <v>0.05826048824845093</v>
+        <v>0.1245200230198503</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1372449170852589</v>
+        <v>0.2867746730051198</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01039290754364158</v>
+        <v>0.01489189799820624</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06394956264119356</v>
+        <v>0.2861768576067886</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01728734492000626</v>
+        <v>0.02928590590206302</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1401888782454484</v>
+        <v>0.2884133854222919</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04093766075443414</v>
+        <v>0.07652040440708494</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1386396506961678</v>
+        <v>0.2892779320685667</v>
       </c>
       <c r="N241" t="n">
-        <v>0.05806665752178614</v>
+        <v>0.1234177250121397</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1380291737543176</v>
+        <v>0.2884133854222919</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0100874206042325</v>
+        <v>0.01467296655087768</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06385947449244077</v>
+        <v>0.2878028624795544</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01721250184439445</v>
+        <v>0.02900061378774793</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1409854059627521</v>
+        <v>0.290052097839464</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04096563479098311</v>
+        <v>0.07552075903455818</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1394273759842142</v>
+        <v>0.2909215566825927</v>
       </c>
       <c r="N242" t="n">
-        <v>0.05757404418782908</v>
+        <v>0.1208091751308939</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1388134304233762</v>
+        <v>0.290052097839464</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.009786090325855819</v>
+        <v>0.0144531760860835</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06376938634368798</v>
+        <v>0.2894288673523203</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01724217571528124</v>
+        <v>0.02881380100540612</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1417819336800557</v>
+        <v>0.2916908102566361</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04049804556368172</v>
+        <v>0.07411715937506341</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1402151012722606</v>
+        <v>0.2925651812966186</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0576827578701728</v>
+        <v>0.1198942766370422</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1395976870924348</v>
+        <v>0.2916908102566361</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009489245142628791</v>
+        <v>0.0162325136494431</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06367929819493519</v>
+        <v>0.2910548722250861</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01717673948311503</v>
+        <v>0.02812544438335893</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1425784613973594</v>
+        <v>0.2933295226738082</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04073519162277145</v>
+        <v>0.07270954493244242</v>
       </c>
       <c r="M244" t="n">
-        <v>0.141002826560307</v>
+        <v>0.2942088059106446</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05789290819241039</v>
+        <v>0.1175729327915146</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1403819437614934</v>
+        <v>0.2933295226738082</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009197213488668587</v>
+        <v>0.01601096628657587</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06358921004618241</v>
+        <v>0.292680877097852</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01711656609834422</v>
+        <v>0.02773552074992772</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1433749891146631</v>
+        <v>0.2949682350909803</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04037737151849394</v>
+        <v>0.07239785521053707</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1417905518483534</v>
+        <v>0.2958524305246705</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05750460477813502</v>
+        <v>0.1159450468552407</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1411662004305521</v>
+        <v>0.2949682350909803</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.008910323798092368</v>
+        <v>0.01578852104310122</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06349912189742962</v>
+        <v>0.2943068819706178</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01746202851141719</v>
+        <v>0.02754400693343381</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1441715168319668</v>
+        <v>0.2966069475081524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04062488380109067</v>
+        <v>0.07128202971318923</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1425782771363998</v>
+        <v>0.2974960551386965</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05741795725093962</v>
+        <v>0.1139105220891502</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1419504570996107</v>
+        <v>0.2966069475081524</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008628904505017417</v>
+        <v>0.01356516496463857</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06340903374867683</v>
+        <v>0.2959328868433836</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01751349967278235</v>
+        <v>0.02695087976219862</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1449680445492705</v>
+        <v>0.2982456599253245</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03977802702080327</v>
+        <v>0.07016200794424068</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1433660024244462</v>
+        <v>0.2991396797527224</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05813307523441746</v>
+        <v>0.1134692617541728</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1427347137686693</v>
+        <v>0.2982456599253245</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0083532840435609</v>
+        <v>0.01434088509680732</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06331894559992406</v>
+        <v>0.2975588917161495</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01737135253288806</v>
+        <v>0.02665611606454343</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1457645722665742</v>
+        <v>0.2998843723424967</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03993709972787335</v>
+        <v>0.06893772940753329</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1441537277124926</v>
+        <v>0.3007833043667484</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05725006835216145</v>
+        <v>0.1109211691112382</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1435189704377279</v>
+        <v>0.2998843723424967</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008083790847839986</v>
+        <v>0.01411566848522686</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06322885745117127</v>
+        <v>0.2991848965889153</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01753596004218276</v>
+        <v>0.02615969266878967</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1465610999838778</v>
+        <v>0.3015230847596688</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04040240047254237</v>
+        <v>0.06780913360690888</v>
       </c>
       <c r="M249" t="n">
-        <v>0.144941453000539</v>
+        <v>0.3024269289807743</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05736904622776473</v>
+        <v>0.1102661474212761</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1443032271067865</v>
+        <v>0.3015230847596688</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007820753351971931</v>
+        <v>0.01288950217551661</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06313876930241848</v>
+        <v>0.3008109014616812</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01760769515111482</v>
+        <v>0.02596158640325863</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1473576277011815</v>
+        <v>0.3031617971768409</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03977422780505199</v>
+        <v>0.06707616004620928</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1457291782885854</v>
+        <v>0.3040705535948003</v>
       </c>
       <c r="N250" t="n">
-        <v>0.0573901184848204</v>
+        <v>0.108504099945216</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1450874837758452</v>
+        <v>0.3031617971768409</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007564499990073886</v>
+        <v>0.01266237321329595</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06304868115366569</v>
+        <v>0.302436906334447</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01758693081013263</v>
+        <v>0.0256617740962717</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1481541554184852</v>
+        <v>0.304800509594013</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03975288027564366</v>
+        <v>0.0664387482292764</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1465169035766319</v>
+        <v>0.3057141782088262</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05751339474692152</v>
+        <v>0.1065349299439879</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1458717404449038</v>
+        <v>0.304800509594013</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.00731535919626311</v>
+        <v>0.01243426864418432</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06295859300491291</v>
+        <v>0.3040629112072128</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0176740399696846</v>
+        <v>0.02516023257615019</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1489506831357889</v>
+        <v>0.3064392220111851</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03953865643455906</v>
+        <v>0.06449683765995196</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1473046288646783</v>
+        <v>0.3073578028228521</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05753898463766116</v>
+        <v>0.1046585406785212</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1466559971139624</v>
+        <v>0.3064392220111851</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007073659404656776</v>
+        <v>0.01220517551380109</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06286850485616012</v>
+        <v>0.3056889160799787</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01796939558021911</v>
+        <v>0.02485693867121552</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1497472108530926</v>
+        <v>0.3080779344283572</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03903185483203966</v>
+        <v>0.0640503678420779</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1480923541527247</v>
+        <v>0.3090014274368781</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05736699778063248</v>
+        <v>0.1024748354097459</v>
       </c>
       <c r="O253" t="n">
-        <v>0.147440253783021</v>
+        <v>0.3080779344283572</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006839729049372051</v>
+        <v>0.01397508086776569</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06277841670740733</v>
+        <v>0.3073149209527446</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01797337059218455</v>
+        <v>0.02445186920978898</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1505437385703963</v>
+        <v>0.3097166468455294</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0393327740183271</v>
+        <v>0.06269927827949601</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1488800794407711</v>
+        <v>0.310645052050904</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05799754379942845</v>
+        <v>0.1007837173985915</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1482245104520797</v>
+        <v>0.3097166468455294</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006613896564526212</v>
+        <v>0.0127439717516975</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06268832855865454</v>
+        <v>0.3089409258255104</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01788633795602934</v>
+        <v>0.02404500102019194</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1513402662876999</v>
+        <v>0.3113553592627015</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03974171254366296</v>
+        <v>0.06204350847604806</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1496678047288175</v>
+        <v>0.31228867666493</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0578307323176423</v>
+        <v>0.1000850899059877</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1490087671211383</v>
+        <v>0.3113553592627015</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006396490384236418</v>
+        <v>0.01351183521121595</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06259824040990176</v>
+        <v>0.3105669306982762</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01800867062220185</v>
+        <v>0.02363631093074577</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1521367940050036</v>
+        <v>0.3129940716798736</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03885896895828872</v>
+        <v>0.06118299793557602</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1504555300168639</v>
+        <v>0.3139323012789559</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05896667295886687</v>
+        <v>0.09817885619286421</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1497930237901969</v>
+        <v>0.3129940716798736</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006187838942619844</v>
+        <v>0.01327865829194041</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06250815226114897</v>
+        <v>0.3121929355710421</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01814074154115047</v>
+        <v>0.02312577576977182</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1529333217223073</v>
+        <v>0.3146327840970457</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03908484181244595</v>
+        <v>0.05951768616192163</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1512432553049103</v>
+        <v>0.3155759258929819</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05860547534669547</v>
+        <v>0.09656491952015073</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1505772804592555</v>
+        <v>0.3146327840970457</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005988270673793754</v>
+        <v>0.01304442803949032</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06241806411239619</v>
+        <v>0.3138189404438079</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01848292366332359</v>
+        <v>0.02271337236559143</v>
       </c>
       <c r="K258" t="n">
-        <v>0.153729849439611</v>
+        <v>0.3162714965142178</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03881962965637625</v>
+        <v>0.05884751265892676</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1520309805929567</v>
+        <v>0.3172195505070078</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05854724910472109</v>
+        <v>0.09394318314877698</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1513615371283141</v>
+        <v>0.3162714965142178</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005798114011875313</v>
+        <v>0.01080913149948504</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06232797596364341</v>
+        <v>0.3154449453165738</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01863558993916964</v>
+        <v>0.02239907754652595</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1545263771569147</v>
+        <v>0.3179102089313899</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03896363104032122</v>
+        <v>0.05777241693043328</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1528187058810031</v>
+        <v>0.3188631751210338</v>
       </c>
       <c r="N259" t="n">
-        <v>0.0579921038565368</v>
+        <v>0.09311355033967261</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1521457937973728</v>
+        <v>0.3179102089313899</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005617697390981717</v>
+        <v>0.01257275571754404</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06223788781489061</v>
+        <v>0.3170709501893396</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01879911331913699</v>
+        <v>0.02198286814089677</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1553229048742184</v>
+        <v>0.319548921348562</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03921714451452235</v>
+        <v>0.05619233848028293</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1536064311690495</v>
+        <v>0.3205067997350597</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05774014922573573</v>
+        <v>0.09177592435376736</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1529300504664314</v>
+        <v>0.319548921348562</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005447349245230194</v>
+        <v>0.01133528773928667</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06214779966613784</v>
+        <v>0.3186969550621055</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01887386675367402</v>
+        <v>0.02156472097702521</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1561194325915221</v>
+        <v>0.3211876337657341</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03938046862922132</v>
+        <v>0.05510721681231767</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1543941564570959</v>
+        <v>0.3221504243490857</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05769149483591091</v>
+        <v>0.08883020845199086</v>
       </c>
       <c r="O261" t="n">
-        <v>0.15371430713549</v>
+        <v>0.3211876337657341</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005287398008737933</v>
+        <v>0.01209671461033233</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06205771151738505</v>
+        <v>0.3203229599348713</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01926022319322915</v>
+        <v>0.02114461288323259</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1569159603088257</v>
+        <v>0.3228263461829062</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03845390193465953</v>
+        <v>0.05451699143037925</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1551818817451423</v>
+        <v>0.3237940489631116</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0581462503106554</v>
+        <v>0.08807630589527288</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1544985638045486</v>
+        <v>0.3228263461829062</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005138172115622126</v>
+        <v>0.009857023376300469</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06196762336863226</v>
+        <v>0.3219489648076371</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01945855558825074</v>
+        <v>0.02042252068784034</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1577124880261294</v>
+        <v>0.3244650586000784</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03913774298107864</v>
+        <v>0.05322160183830954</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1559696070331888</v>
+        <v>0.3254376735771376</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05850452527356237</v>
+        <v>0.08501411994454294</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1552828204736073</v>
+        <v>0.3244650586000784</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01161620108281046</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06187753521987947</v>
+        <v>0.323574969680403</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01966923688918723</v>
+        <v>0.02009842121916977</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1585090157434331</v>
+        <v>0.3261037710172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03843229031872022</v>
+        <v>0.05222098753995039</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1567573323212351</v>
+        <v>0.3270812981911635</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05906642934822481</v>
+        <v>0.08474355386073101</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1560670771426658</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06186437732514263</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005599030407870596</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06186464585360665</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006194610741222101</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06186491438207066</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006786699630646154</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06186518291053469</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007375255706657154</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.0618654514389987</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.007960237599846889</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06186571996746271</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008541603940781267</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06186598849592673</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009119313360051333</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06186625702439075</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009693324488172707</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06186652555285477</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01026359595573656</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06186679408131878</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01083008639330881</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06186706260978279</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01139275443147983</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06186733113824682</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01195155870076655</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06186759966671083</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.0125064578317595</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06186786819517485</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01305741045502461</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06186813672363887</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01360437520115153</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06186840525210289</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01414731070065858</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06186867378056691</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01468617558413562</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06186894230903092</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01522092848214855</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06186921083749494</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01575152802528633</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06186947936595896</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01627793284406869</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06186974789442298</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01680010156908479</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06187001642288699</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01731799283090054</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.061870284951351</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01783156526010413</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06187055347981503</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01834077748721679</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06187082200827904</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.018845757068016</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06187109053674306</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01934747618420224</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06187135906520708</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.01984606239155218</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.0618716275936711</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02034147432058835</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06187189612213512</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02083367060189848</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06187216465059913</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02132260986604848</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06187243317906314</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02180825074362536</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06187270170752717</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02229055186515281</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06187297023599118</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02276947186121792</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0618732387644552</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02324496936238667</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06187350729291921</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02371700299924545</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06187377582138324</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02418553140231913</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06187404434984725</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02465051320219423</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06187431287831126</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.0251119070294367</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06187458140677529</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02556967151463232</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06187484993523931</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02602376528830719</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06187511846370333</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02647414698104724</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06187538699216734</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02692077522341842</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06187565552063135</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02736360864600585</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06187592404909538</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.0278026058793369</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06187619257755939</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.02823772555399689</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06187646110602341</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.02866892630055175</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06187672963448742</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02909616674958592</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06187699816295145</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.02951940553162814</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06187726669141546</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.02993860127726303</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06187753521987947</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.02993860127726305</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06186437732514263</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.0303657728696559</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06195500253082345</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03078877747576714</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06204562773650427</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.0312074883622507</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.0621362529421851</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.0316217787957603</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06222687814786591</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03203152204294987</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06231750335354673</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03243659137047322</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06240812855922755</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03283686004498416</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06249875376490838</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.0332322013331365</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06258937897058919</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03362248850158412</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06268000417627002</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03400759481698074</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06277062938195083</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03438739354598035</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06286125458763166</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03476175795523669</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06295187979331247</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03513056131140361</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06304250499899329</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03549367688113492</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06313313020467412</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03585097793108449</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06322375541035494</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03620233772790604</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06331438061603575</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03654762953825354</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06340500582171657</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03688672662878079</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.0634956310273974</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.03721950226614155</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06358625623307822</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03754582971698973</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06367688143875905</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.0378655822479791</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06376750664443986</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03817863312576347</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06385813185012068</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.03848485561699678</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.0639487570558015</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.03878412298833276</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06403938226148231</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.03907682600092214</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06413000746716314</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.03936594288839993</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06422063267284396</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.03965186441191678</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06431125787852479</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.0399344638381265</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06440188308420559</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04021361443368299</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06449250828988642</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04048918946524006</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06458313349556724</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04076106219945152</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06467375870124807</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.0410291059029712</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06476438390692889</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04129319384245295</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.0648550091126097</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04155319928455057</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06494563431829052</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04180899549591793</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06503625952397134</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04206045574320883</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06512688472965217</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04230745329307712</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06521750993533298</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.0425498614121766</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06530813514101382</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04278755336716113</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06539876034669463</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04302040242468453</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06548938555237545</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.0432482818514006</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06558001075805626</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04347106491396322</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06567063596373708</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.0436886248790262</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06576126116941791</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04390083501324337</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06585188637509873</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04410756858326855</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06594251158077956</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04430869885575556</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06603313678646036</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04450409909735829</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06612376199214119</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04469364257473053</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06621438719782201</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04487720255452609</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06630501240350284</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.03925146836968407</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06630501240350284</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04509592280243919</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06813689952868761</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04529808568498298</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06996878665387236</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04548434289831114</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07180067377905713</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.04565534613857735</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.0736325609042419</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.04581174710193529</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07546444802942667</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04595419748453861</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07729633515461143</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.046083348982541</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.0791282222797962</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04619985329209612</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.08096010940498095</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04630436210935766</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08279199653016574</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.04639752713047929</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.08462388365535051</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.04648000005161469</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08645577078053526</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.04655243256891751</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08828765790572003</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04661547637854143</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.0901195450309048</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04666978317664013</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09195143215608957</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04671600465936728</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09378331928127434</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04675479252287657</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.0956152064064591</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04678679846332167</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.09744709353164387</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04681267417685623</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09927898065682864</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04683307135963393</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1011108677820134</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.04684864170780844</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1029427549071982</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.04686003691753347</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1047746420323829</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.04686790868496265</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1066065291575677</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.04687290870624967</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1084384162827525</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.04687568867754822</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1102703034079372</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.04687690029501194</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.112102190533122</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.04687719525479452</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1139340776583068</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04686701367955911</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1157659647834915</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.04680539591403591</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1175978519086763</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04669136776170455</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.119429739033861</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.0465288380333193</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1212616261590458</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04632171553963436</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1230935132842306</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04607390909140396</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1249254004094154</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04578932749938235</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1267572875346001</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04547187957432377</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1285891746597849</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04512547412698243</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1304210617849697</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04475401996811256</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1322529489101544</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04436142590846839</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1340848360353392</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04395160075880416</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1359167231605239</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04352845332987409</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1377486102857087</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04309589243243243</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1395804974108935</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04265782687723339</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1414123845360783</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.0422181654750312</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1432442716612631</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04178081703658012</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1450761587864478</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04134969037263433</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1469080459116326</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04092869429394811</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1487399330368173</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04052173761127566</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04013272913537125</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1524037072871869</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.03976557767698905</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1542355944123716</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03942419204688333</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1560674815375564</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03911248105580831</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1578993686627412</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.0388234886794329</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1597312557879259</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03854132276717546</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1615631429131107</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03826522830975256</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1633950300382955</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03799465327920173</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1652269171634802</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03772904564756053</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.167058804288665</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03746785338686646</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1688906914138498</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03721052446915713</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1707225785390345</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03695650686647004</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1725544656642193</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03670524855084275</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1743863527894041</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.0364561974943128</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1762182399145888</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03620880166891772</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1780501270397736</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03596250904669508</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1798820141649584</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03571676759968238</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1817139012901431</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03547102529991721</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1835457884153279</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.0352247301194371</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1853776755405127</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03497733003027958</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1872095626656974</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.0347282730044822</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1890414497908822</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03447700701408252</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.190873336916067</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03422298003111807</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1927052240412517</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03396564002762639</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1945371111664365</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03370443497564504</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1963689982916212</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03343881284721151</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.198200885416806</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03316822161436341</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2000327725419908</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03289210924913828</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2018646596671756</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.0326099237235736</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2036965467923604</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03232116562877325</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2055284339175451</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03202768632911154</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2073603210427299</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03173067652238403</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2091922081679146</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03143019169502922</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2110240952930994</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03112628733348561</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2128559824182842</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03081901892419175</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2146878695434689</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03050844195358609</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2165197566686537</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.0301946119081072</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2183516437938385</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.02987758427419358</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2201835309190233</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.02955741453828373</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.222015418044208</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.02923415818681618</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2238473051693928</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02890787070622943</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2256791922945775</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.02857860758296201</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2275110794197623</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02824642430345243</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2293429665449471</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.0279113763541392</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2311748536701318</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02757351922146081</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2330067407953166</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.0272329083918558</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2348386279205013</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.0268895993517627</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2366705150456862</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.02654364758761999</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2385024021708709</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.02619510858586619</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2403342892960557</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02584403783293984</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2421661764212404</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.02549049081527941</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2439980635464252</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.02513452301932347</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.24582995067161</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.02477618993151048</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2476618377967947</v>
-      </c>
-    </row>
+        <v>0.3261037710172505</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1071.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001701316232353138</v>
+        <v>0.001175430607959563</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001626004872765844</v>
+        <v>0.0004917450622540661</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003496675738029996</v>
+        <v>0.003313144834505177</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001638712417172113</v>
+        <v>0.001564380491973173</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009843338127885431</v>
+        <v>0.009758956485323628</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001643624614025947</v>
+        <v>0.001560385371986171</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01791549722246316</v>
+        <v>0.01788953551643047</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001638712417172113</v>
+        <v>0.001548713093254856</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.002317001134421064</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002904253721050846</v>
+        <v>0.0009834901245081322</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9371,16 +9371,16 @@
         <v>0.003747187499999996</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01781526922664239</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.004073029891304345</v>
+        <v>0.003120770743972341</v>
       </c>
       <c r="N67" s="171" t="n">
         <v>0.03749999999999998</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003747187499999997</v>
+        <v>0.003568749999999998</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005843360516543564</v>
+        <v>0.003390851497886399</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004878014618297532</v>
+        <v>0.001475235186762198</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009274224557016701</v>
+        <v>0.0085490115285927</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004916137251516339</v>
+        <v>0.00469314147591952</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02586501918931686</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004930873842077843</v>
+        <v>0.00411778846153846</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04394039424912521</v>
+        <v>0.0429973391802011</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004916137251516339</v>
+        <v>0.004646139279764569</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008106153398238135</v>
+        <v>0.004363121616857507</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006504019491063377</v>
+        <v>0.001966980249016264</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01193360817339571</v>
+        <v>0.01064844016611093</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006554849668688452</v>
+        <v>0.006257521967892692</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0310154510883201</v>
+        <v>0.02881378658331243</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006574498456103789</v>
+        <v>0.006241541487944683</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05410401658296832</v>
+        <v>0.05269117263849193</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006554849668688452</v>
+        <v>0.006194852373019425</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.005812867092421008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01046316076635782</v>
+        <v>0.005199951409836305</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008712761163152538</v>
+        <v>0.00245872531127033</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01448513154094315</v>
+        <v>0.01215446682176915</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008193562085860565</v>
+        <v>0.007821902459865865</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03687990210504891</v>
+        <v>0.03319004657205071</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008218123070129736</v>
+        <v>0.007801926859930853</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06185912381506647</v>
+        <v>0.05955478540356751</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008193562085860565</v>
+        <v>0.007743565466274281</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01104315415843494</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009756029236595064</v>
+        <v>0.002904253721050846</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0164386435155956</v>
+        <v>0.01368282727917496</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009832274503032678</v>
+        <v>0.009386282951839039</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04107549513064843</v>
+        <v>0.03724204644882528</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009861747684155686</v>
+        <v>0.009362312231917025</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07037237292469389</v>
+        <v>0.06619036798901834</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009832274503032678</v>
+        <v>0.009292278559529138</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0119228358837602</v>
+        <v>0.006444671415754284</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01138203410936091</v>
+        <v>0.003442215435778462</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01828357162598611</v>
+        <v>0.01494925732193596</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01124156249999999</v>
+        <v>0.01095066344381221</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04730768108444461</v>
+        <v>0.04083375654432961</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01221908967391304</v>
+        <v>0.0109226976039032</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07633179054290307</v>
+        <v>0.07250011090843528</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01124156249999999</v>
+        <v>0.01084099165278399</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01076961084549066</v>
+        <v>0.006995340108026306</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01300803898212675</v>
+        <v>0.003933960498032529</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01998347027520653</v>
+        <v>0.01616949273365972</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0131096993373769</v>
+        <v>0.01251504393578538</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04856727550349488</v>
+        <v>0.04312914718925701</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01314899691220758</v>
+        <v>0.01248308297588937</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.08247027123402029</v>
+        <v>0.07633179054290307</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.0131096993373769</v>
+        <v>0.01210707011111046</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01357969858053829</v>
+        <v>0.007517602675893922</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0146340438548926</v>
+        <v>0.004425705560286594</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02160376145459722</v>
+        <v>0.01725926929795388</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01474841175454902</v>
+        <v>0.01407942442775856</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0523562896264293</v>
+        <v>0.04730768108444461</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01479262152623353</v>
+        <v>0.01442985357864202</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.08840310420293712</v>
+        <v>0.08047423201822645</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01474841175454902</v>
+        <v>0.01393841783929371</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01234931862581509</v>
+        <v>0.008008788142660865</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01626004872765844</v>
+        <v>0.004917450622540661</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02276223575133909</v>
+        <v>0.01828357162598611</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01638712417172113</v>
+        <v>0.01522488245605552</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05678337373933195</v>
+        <v>0.04885145257198176</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01643624614025947</v>
+        <v>0.01560385371986171</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.09407067817929854</v>
+        <v>0.08439306584721035</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01638712417172113</v>
+        <v>0.01548713093254856</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01407469051823304</v>
+        <v>0.008466225531630893</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01788605360042429</v>
+        <v>0.005409195684794726</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02415212418420047</v>
+        <v>0.01948520524170215</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01802583658889324</v>
+        <v>0.01720818541170491</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0597180850472302</v>
+        <v>0.05099217581514368</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01807987075428542</v>
+        <v>0.01716423909184788</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1000302667404663</v>
+        <v>0.08844954500540941</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01802583658889324</v>
+        <v>0.01703584402580342</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01575203379470413</v>
+        <v>0.008887243866107716</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01951205847319013</v>
+        <v>0.005900940747048793</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02556665777194971</v>
+        <v>0.02012738219072727</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01966454900606536</v>
+        <v>0.01877256590367808</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06362998075515158</v>
+        <v>0.05321690941751131</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01972349536831137</v>
+        <v>0.01872462446383405</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1067391434638021</v>
+        <v>0.09273744025067698</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01966454900606536</v>
+        <v>0.01858455711905828</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01637756799214034</v>
+        <v>0.009269172169395094</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02113806334595597</v>
+        <v>0.006392685809302859</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02699906753335514</v>
+        <v>0.02106239185604958</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02130326142323747</v>
+        <v>0.02033694639565125</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0671886180681234</v>
+        <v>0.0563205004227969</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02136711998233732</v>
+        <v>0.02028500983582022</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1108545819266673</v>
+        <v>0.09585052234086622</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02130326142323747</v>
+        <v>0.02013327021231313</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01494751264745366</v>
+        <v>0.009609339464796737</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02276406821872182</v>
+        <v>0.006884430871556924</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02814258448718512</v>
+        <v>0.02198822234307185</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02294197384040958</v>
+        <v>0.02190132688762443</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07016355419117315</v>
+        <v>0.05839779587471267</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02301074459636326</v>
+        <v>0.02184539520780639</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1159338557064238</v>
+        <v>0.09968256203383025</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02294197384040958</v>
+        <v>0.02168198330556799</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01745808729755609</v>
+        <v>0.009905074775616418</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02439007309148766</v>
+        <v>0.007376175933810992</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02909043965220799</v>
+        <v>0.02290286175719683</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02458068625758169</v>
+        <v>0.0234657073795976</v>
       </c>
       <c r="L80" t="n">
-        <v>0.07362434632932829</v>
+        <v>0.06044364281697093</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02465436921038921</v>
+        <v>0.02340578057979256</v>
       </c>
       <c r="N80" t="n">
-        <v>0.121134238380433</v>
+        <v>0.1037273300874224</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02458068625758169</v>
+        <v>0.02323069639882284</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0159055114793596</v>
+        <v>0.01015370712515785</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02601607796425351</v>
+        <v>0.007867920996065057</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02983586404719213</v>
+        <v>0.02400429820382727</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02621939867475381</v>
+        <v>0.02503008787157077</v>
       </c>
       <c r="L81" t="n">
-        <v>0.07614055168761621</v>
+        <v>0.06335288829328398</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02629799382441516</v>
+        <v>0.02496616595177873</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1251130035260568</v>
+        <v>0.1079785972594959</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02621939867475381</v>
+        <v>0.0247794094920777</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01728600472977616</v>
+        <v>0.01035256553672477</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02764208283701935</v>
+        <v>0.008359666058319122</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03067208869090583</v>
+        <v>0.02499051978836592</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02785811109192592</v>
+        <v>0.02659446836354394</v>
       </c>
       <c r="L82" t="n">
-        <v>0.07868172747106439</v>
+        <v>0.06522037934736405</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02794161843844111</v>
+        <v>0.0265265513237649</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1277274247206566</v>
+        <v>0.1116301343079038</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02785811109192592</v>
+        <v>0.02632812258533256</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01659578658571779</v>
+        <v>0.01046316076635782</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0292680877097852</v>
+        <v>0.008712761163152538</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03139234460211746</v>
+        <v>0.02575951461621549</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02949682350909803</v>
+        <v>0.02815884885551712</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08001743088470026</v>
+        <v>0.06794096302292338</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02958524305246706</v>
+        <v>0.02808693669575107</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1307347755415942</v>
+        <v>0.1145757119904996</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02949682350909803</v>
+        <v>0.02787683567858741</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01684874567788174</v>
+        <v>0.01063434226881176</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03089409258255104</v>
+        <v>0.009343156182827255</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03198986279959536</v>
+        <v>0.02670927079277881</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03113553592627015</v>
+        <v>0.02972322934749029</v>
       </c>
       <c r="L84" t="n">
-        <v>0.08201721913355117</v>
+        <v>0.06950948636367429</v>
       </c>
       <c r="M84" t="n">
-        <v>0.031228867666493</v>
+        <v>0.02964732206773724</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1337923295662312</v>
+        <v>0.1180091010651362</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03113553592627015</v>
+        <v>0.02942554877184227</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01909211590869263</v>
+        <v>0.01076573695177098</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03252009745531689</v>
+        <v>0.009834901245081322</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03266371904170234</v>
+        <v>0.02743777642345853</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03277424834344226</v>
+        <v>0.03128760983946346</v>
       </c>
       <c r="L85" t="n">
-        <v>0.08365064942264469</v>
+        <v>0.071320796413329</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03287249228051894</v>
+        <v>0.03120770743972341</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1360847262262065</v>
+        <v>0.1215240722896669</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03277424834344226</v>
+        <v>0.03097426186509713</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01832729039750694</v>
+        <v>0.01089526471688888</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03414610232808273</v>
+        <v>0.01032664630733539</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03299723458992551</v>
+        <v>0.02824301961365747</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03441296076061438</v>
+        <v>0.03285199033143664</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08470126589998278</v>
+        <v>0.07346974021559979</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0345161168945449</v>
+        <v>0.03276809281170958</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1378946033498333</v>
+        <v>0.1241143964219451</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03441296076061438</v>
+        <v>0.03252297495835198</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01755266500315728</v>
+        <v>0.01102293102040478</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03577210720084858</v>
+        <v>0.01081839136958945</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03361731749630169</v>
+        <v>0.02912298846877832</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03605167317778649</v>
+        <v>0.03441637082340981</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08641093765077268</v>
+        <v>0.07585116481419896</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03615974150857084</v>
+        <v>0.03432847818369576</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1398484007520097</v>
+        <v>0.1278738442198238</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03605167317778649</v>
+        <v>0.03407168805160684</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01976663558447619</v>
+        <v>0.011148741318558</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03739811207361442</v>
+        <v>0.01131013643184352</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03402109841147367</v>
+        <v>0.02977567109422387</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0376903855949586</v>
+        <v>0.03598075131538298</v>
       </c>
       <c r="L88" t="n">
-        <v>0.08668213846741607</v>
+        <v>0.07725991725283873</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03780336612259679</v>
+        <v>0.03588886355568192</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1413341392320299</v>
+        <v>0.1300961864411563</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0376903855949586</v>
+        <v>0.0356204011448617</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01896759800029623</v>
+        <v>0.01127270106758788</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03902411694638026</v>
+        <v>0.01180188149409759</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03430570798608429</v>
+        <v>0.03029905559539688</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03932909801213071</v>
+        <v>0.03754513180735616</v>
       </c>
       <c r="L89" t="n">
-        <v>0.08840737710962851</v>
+        <v>0.07919084457523143</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03944699073662274</v>
+        <v>0.0374492489276681</v>
       </c>
       <c r="N89" t="n">
-        <v>0.143639839589188</v>
+        <v>0.1326751938437958</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03932909801213071</v>
+        <v>0.03716911423811655</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01815394810944999</v>
+        <v>0.01139481572373371</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0406501218191461</v>
+        <v>0.01229362655635165</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03466827687077632</v>
+        <v>0.03119113007770002</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04096781042930282</v>
+        <v>0.03910951229932933</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08877916233712552</v>
+        <v>0.08173879382508931</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04109061535064868</v>
+        <v>0.03900963429965427</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1445535226227783</v>
+        <v>0.1355046371855955</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04096781042930282</v>
+        <v>0.03871782733137141</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02032408177077001</v>
+        <v>0.01151509074323484</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04227612669191195</v>
+        <v>0.01278537161860572</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03510593571619262</v>
+        <v>0.03174988264653611</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04260652284647494</v>
+        <v>0.0406738927913025</v>
       </c>
       <c r="L91" t="n">
-        <v>0.09039000290962268</v>
+        <v>0.08319861204612455</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04273423996467463</v>
+        <v>0.04057001967164044</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1455632091320947</v>
+        <v>0.1371782872244087</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04260652284647494</v>
+        <v>0.04026654042462627</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02047639484308886</v>
+        <v>0.01163353158233056</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04390213156467779</v>
+        <v>0.01327711668085979</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03541581517297596</v>
+        <v>0.03227330140730787</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04424523526364705</v>
+        <v>0.04223827328327567</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09113240758683558</v>
+        <v>0.08416514628204949</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04437786457870058</v>
+        <v>0.04213040504362661</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1477569199164317</v>
+        <v>0.1407899147180885</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04424523526364705</v>
+        <v>0.04181525351788112</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01960928318523913</v>
+        <v>0.01175014369726022</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04552813643744363</v>
+        <v>0.01376886174311385</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03549504589176918</v>
+        <v>0.03295937446541804</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04588394768081917</v>
+        <v>0.04380265377524886</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09129888512847978</v>
+        <v>0.08563324357657642</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04602148919272653</v>
+        <v>0.04369079041561278</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1482226757750831</v>
+        <v>0.1414332904244881</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04588394768081917</v>
+        <v>0.04336396661113597</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01872114265605336</v>
+        <v>0.01186493254426311</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04715414131020948</v>
+        <v>0.01426060680536792</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03564075852321505</v>
+        <v>0.03350608992626938</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04752266009799128</v>
+        <v>0.04536703426722202</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09248194429427081</v>
+        <v>0.08729775097341755</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04766511380675248</v>
+        <v>0.04525117578759895</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1493484975073433</v>
+        <v>0.1443021851014609</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04752266009799128</v>
+        <v>0.04491267970439083</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01981036911436413</v>
+        <v>0.01197790357957858</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04878014618297533</v>
+        <v>0.01475235186762198</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0361500837179564</v>
+        <v>0.03411143589526466</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04916137251516339</v>
+        <v>0.0469314147591952</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0930740938439242</v>
+        <v>0.08825351551628521</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04930873842077842</v>
+        <v>0.04681156115958512</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1506224059125063</v>
+        <v>0.1453903695068599</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04916137251516339</v>
+        <v>0.04646139279764569</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01987535841900401</v>
+        <v>0.01208906225944593</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05040615105574117</v>
+        <v>0.01524409692987605</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03612015212663604</v>
+        <v>0.03467340047780657</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0508000849323355</v>
+        <v>0.04849579525116837</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09306784253715561</v>
+        <v>0.08979538424889161</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05095236303480437</v>
+        <v>0.04837194653157129</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1515324217898664</v>
+        <v>0.1466916143985384</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0508000849323355</v>
+        <v>0.04801010589090055</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02092632153271563</v>
+        <v>0.01219841404010448</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05203215592850702</v>
+        <v>0.01573584199213011</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03634809439989679</v>
+        <v>0.03488997177929788</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05243879734950761</v>
+        <v>0.05006017574314154</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0933556991336805</v>
+        <v>0.09081820421494899</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05259598764883031</v>
+        <v>0.04993233190355746</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1515665659387175</v>
+        <v>0.1477996905343495</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05243879734950761</v>
+        <v>0.0495588189841554</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01992626656442531</v>
+        <v>0.01230596437779357</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05365816080127286</v>
+        <v>0.01622758705438418</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03656714325197222</v>
+        <v>0.03515913790514137</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05407750976667972</v>
+        <v>0.05162455623511471</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09373017239321452</v>
+        <v>0.09171682245816973</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05423961226285626</v>
+        <v>0.05149271727554363</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1526635810858061</v>
+        <v>0.1503083686721468</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05407750976667972</v>
+        <v>0.05110753207741026</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01891811445030631</v>
+        <v>0.01241171872875249</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0552841656740387</v>
+        <v>0.01671933211663824</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03636612314273283</v>
+        <v>0.03567888696073974</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05571622218385184</v>
+        <v>0.05318893672708789</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09461536216888919</v>
+        <v>0.09228608602226607</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05588323687688222</v>
+        <v>0.05305310264752981</v>
       </c>
       <c r="N99" t="n">
-        <v>0.15135932224807</v>
+        <v>0.151111419569783</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05571622218385184</v>
+        <v>0.05265624517066512</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02089671348138851</v>
+        <v>0.01251568254922059</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05691017054680454</v>
+        <v>0.01721107717889231</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03635922085625866</v>
+        <v>0.03584720705149577</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05735493460102395</v>
+        <v>0.05475331721906106</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09441228278938377</v>
+        <v>0.09262084195095016</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05752686149090815</v>
+        <v>0.05461348801951598</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1522305060027438</v>
+        <v>0.1512026139851116</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05735493460102395</v>
+        <v>0.05420495826391997</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01986290908632801</v>
+        <v>0.01261786129543717</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0585361754195704</v>
+        <v>0.01770282224114638</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03632786501100797</v>
+        <v>0.0361620862828122</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05899364701819607</v>
+        <v>0.05631769771103423</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09436086522290296</v>
+        <v>0.09321593728793437</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05917048610493411</v>
+        <v>0.05617387339150214</v>
       </c>
       <c r="N101" t="n">
-        <v>0.152099598986274</v>
+        <v>0.1516757226759858</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05899364701819607</v>
+        <v>0.05575367135717482</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02081754669378089</v>
+        <v>0.01271826042364156</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06016218029233623</v>
+        <v>0.01819456730340044</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03647408407879302</v>
+        <v>0.03612151276009176</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06063235943536818</v>
+        <v>0.05788207820300741</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09394915235261647</v>
+        <v>0.09366621907693098</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06081411071896006</v>
+        <v>0.05773425876348832</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1515750698331626</v>
+        <v>0.1526635810858061</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06063235943536818</v>
+        <v>0.05730238445042969</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.01976147173240329</v>
+        <v>0.01281688539007308</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06178818516510208</v>
+        <v>0.01868631236565451</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03609939028947247</v>
+        <v>0.03656714325197222</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06227107185254029</v>
+        <v>0.05944645869498057</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09368109227818949</v>
+        <v>0.09461536216888919</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06245773533298599</v>
+        <v>0.05929464413547449</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1510632319276425</v>
+        <v>0.1525532977643231</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06227107185254029</v>
+        <v>0.05885109754368454</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0186955296308513</v>
+        <v>0.01291374165097105</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06341419003786793</v>
+        <v>0.01917805742790858</v>
       </c>
       <c r="J104" t="n">
-        <v>0.036005295872905</v>
+        <v>0.03656595987415127</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0639097842697124</v>
+        <v>0.06101083918695375</v>
       </c>
       <c r="L104" t="n">
-        <v>0.0935606330992873</v>
+        <v>0.09451368608510702</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06410135994701195</v>
+        <v>0.06085502950746066</v>
       </c>
       <c r="N104" t="n">
-        <v>0.150870398653947</v>
+        <v>0.1510508542572466</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0639097842697124</v>
+        <v>0.0603998106369394</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01862056581778103</v>
+        <v>0.01300883466257477</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06504019491063377</v>
+        <v>0.01966980249016264</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03609331305894929</v>
+        <v>0.03625810367954783</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06554849668688452</v>
+        <v>0.06257521967892692</v>
       </c>
       <c r="L105" t="n">
-        <v>0.09339172291557526</v>
+        <v>0.0941632344001791</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06574498456103789</v>
+        <v>0.06241541487944682</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1505028833963086</v>
+        <v>0.1516493450837764</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06554849668688452</v>
+        <v>0.06194852373019425</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02053742572184857</v>
+        <v>0.01310216988112359</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0666661997833996</v>
+        <v>0.02016154755241671</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03586495407746405</v>
+        <v>0.03622342988541213</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06718720910405664</v>
+        <v>0.0641396001709001</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09327830982671864</v>
+        <v>0.09424879556760787</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06738860917506384</v>
+        <v>0.063975800251433</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1495669995389607</v>
+        <v>0.1516620799133143</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06718720910405664</v>
+        <v>0.0634972368234491</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02044695477171002</v>
+        <v>0.01319375276285682</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06829220465616546</v>
+        <v>0.02065329261467078</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03592173115830799</v>
+        <v>0.03616585097586875</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06882592152122875</v>
+        <v>0.06570398066287328</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09312434193238273</v>
+        <v>0.0935788063568091</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06903223378908979</v>
+        <v>0.06553618562341916</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1494690604661361</v>
+        <v>0.1504023684152621</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06882592152122875</v>
+        <v>0.06504594991670397</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02034999839602151</v>
+        <v>0.01328358876401377</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0699182095289313</v>
+        <v>0.02114503767692484</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03556515653133974</v>
+        <v>0.03618865272061844</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07046463393840086</v>
+        <v>0.06726836115484645</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09253376733223281</v>
+        <v>0.0933617035371985</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07067585840311573</v>
+        <v>0.06709657099540534</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1480153795620676</v>
+        <v>0.1507835202590217</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07046463393840086</v>
+        <v>0.06659466300995882</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01924740202343912</v>
+        <v>0.01337168334083378</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07154421440169716</v>
+        <v>0.02163678273917891</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03529674242641802</v>
+        <v>0.03609512088936198</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07210334635557297</v>
+        <v>0.06883274164681963</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09211053412593417</v>
+        <v>0.09320592387819182</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07231948301714168</v>
+        <v>0.06865695636739151</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1476122702109885</v>
+        <v>0.1503188451139947</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07210334635557297</v>
+        <v>0.06814337610321368</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02014001108261897</v>
+        <v>0.01345804194955615</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07317021927446299</v>
+        <v>0.02212852780143297</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03521800107340151</v>
+        <v>0.03618854125180015</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07374205877274508</v>
+        <v>0.07039712213879279</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09125859041315212</v>
+        <v>0.09351990414920475</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07396310763116763</v>
+        <v>0.07021734173937769</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1478660457971317</v>
+        <v>0.1502216526495831</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07374205877274508</v>
+        <v>0.06969208919646853</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01802867100221715</v>
+        <v>0.01354267004642021</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07479622414722883</v>
+        <v>0.02262027286368704</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0349304447021489</v>
+        <v>0.0357721995776337</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07538077118991719</v>
+        <v>0.07196150263076596</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0913818842935519</v>
+        <v>0.09231208111965306</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07560673224519358</v>
+        <v>0.07177772711136385</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1469830197047301</v>
+        <v>0.1494052525351885</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07538077118991719</v>
+        <v>0.07124080228972339</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01791422721088978</v>
+        <v>0.01362557308766528</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07642222901999468</v>
+        <v>0.0231120179259411</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03493558554251887</v>
+        <v>0.03564938163656339</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07701948360708931</v>
+        <v>0.07352588312273914</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09058436386679891</v>
+        <v>0.09209089155895253</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07725035685921952</v>
+        <v>0.07333811248335002</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1462695053180166</v>
+        <v>0.148682954440213</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07701948360708931</v>
+        <v>0.07278951538297825</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01979752513729295</v>
+        <v>0.01370675652953068</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07804823389276051</v>
+        <v>0.02360376298819517</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03453493582437012</v>
+        <v>0.03582337319829001</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07865819602426143</v>
+        <v>0.07509026361471231</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08966997723255832</v>
+        <v>0.09246477223651883</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07889398147324549</v>
+        <v>0.0748984978553362</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1452318160212244</v>
+        <v>0.1480680680340581</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07865819602426143</v>
+        <v>0.0743382284762331</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01867941021008276</v>
+        <v>0.01378622582825573</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07967423876552637</v>
+        <v>0.02409550805044924</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03453000777756132</v>
+        <v>0.03549746003251431</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08029690844143353</v>
+        <v>0.07665464410668549</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08904267249049549</v>
+        <v>0.09164215992176772</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08053760608727142</v>
+        <v>0.07645888322732236</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1432762651985862</v>
+        <v>0.1472739029861259</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08029690844143353</v>
+        <v>0.07588694156948796</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01956072785791534</v>
+        <v>0.01386398644007975</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08130024363829221</v>
+        <v>0.0245872531127033</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03422231363195116</v>
+        <v>0.03547492790893708</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08193562085860565</v>
+        <v>0.07821902459865866</v>
       </c>
       <c r="L115" t="n">
-        <v>0.0889063977402757</v>
+        <v>0.0915314913841149</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08218123070129736</v>
+        <v>0.07801926859930854</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1423091662343352</v>
+        <v>0.147113768965818</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08193562085860565</v>
+        <v>0.07743565466274281</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01944232350944677</v>
+        <v>0.01394004382124205</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08292624851105805</v>
+        <v>0.02507899817495737</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03391336561739834</v>
+        <v>0.03525906259725907</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08357433327577776</v>
+        <v>0.07978340509063182</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08816510108156422</v>
+        <v>0.09164120339297618</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08382485531532331</v>
+        <v>0.0795796539712947</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1419368325127043</v>
+        <v>0.1460009756425362</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08357433327577776</v>
+        <v>0.07898436775599767</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01932504259333316</v>
+        <v>0.01401440342798197</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0845522533838239</v>
+        <v>0.02557074323721143</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03370467596376155</v>
+        <v>0.03525314986718107</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08521304569294988</v>
+        <v>0.081347785582605</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08732273061402637</v>
+        <v>0.09087973271776725</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08546847992934926</v>
+        <v>0.08114003934328089</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1408655774179265</v>
+        <v>0.1467488326856825</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08521304569294988</v>
+        <v>0.08053308084925254</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01720397335284696</v>
+        <v>0.01408707071653882</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08617825825658974</v>
+        <v>0.0260624882994655</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03379775690089944</v>
+        <v>0.03496047548840384</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08685175811012198</v>
+        <v>0.08291216607457817</v>
       </c>
       <c r="L118" t="n">
-        <v>0.08758323443732743</v>
+        <v>0.09025551612790386</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08711210454337522</v>
+        <v>0.08270042471526705</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1402017143342347</v>
+        <v>0.1463706497646585</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08685175811012198</v>
+        <v>0.08208179394250739</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01806602602399951</v>
+        <v>0.01415805114315192</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08780426312935559</v>
+        <v>0.02655423336171957</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03338735640952398</v>
+        <v>0.03498432523062812</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0884904705272941</v>
+        <v>0.08447654656655135</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08674926713751513</v>
+        <v>0.09087699039280178</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08875572915740115</v>
+        <v>0.08426081008725322</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1395233166903648</v>
+        <v>0.1464797365488661</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0884904705272941</v>
+        <v>0.08363050703576225</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01691317142412933</v>
+        <v>0.01422735016406058</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08943026800212144</v>
+        <v>0.02704597842397363</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0330481718555526</v>
+        <v>0.03492798486355474</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09012918294446622</v>
+        <v>0.08604092705852452</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08626293886539896</v>
+        <v>0.09085259228187664</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0903993537714271</v>
+        <v>0.08582119545923939</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1380247489242675</v>
+        <v>0.1453819909145805</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09012918294446622</v>
+        <v>0.08517922012901709</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01774816406085655</v>
+        <v>0.01429497323550414</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09105627287488727</v>
+        <v>0.0275377234862277</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03308191623666147</v>
+        <v>0.03499474015688442</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09176789536163833</v>
+        <v>0.08760530755049771</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08550060928969325</v>
+        <v>0.09058785286249751</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09204297838545306</v>
+        <v>0.08738158083122556</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1380131626025236</v>
+        <v>0.1452116817293082</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09176789536163833</v>
+        <v>0.08672793322227194</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01757375844180122</v>
+        <v>0.01436092581372191</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09268227774765313</v>
+        <v>0.02802946854848177</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03259351657849492</v>
+        <v>0.03487673829760934</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09340660777881045</v>
+        <v>0.08916968804247087</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08477514179104453</v>
+        <v>0.09064354857315729</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09368660299947899</v>
+        <v>0.08894196620321172</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1360091274856363</v>
+        <v>0.1458496161443641</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09340660777881045</v>
+        <v>0.08827664631552681</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01639270907458345</v>
+        <v>0.0144252133549532</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09430828262041896</v>
+        <v>0.02852121361073583</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03218789990669736</v>
+        <v>0.03476088419251462</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09504532019598255</v>
+        <v>0.09073406853444405</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08369939975009935</v>
+        <v>0.09020446559645098</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09533022761350496</v>
+        <v>0.0905023515751979</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1348332133341082</v>
+        <v>0.1460950036026729</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09504532019598255</v>
+        <v>0.08982535940878167</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01820777046682334</v>
+        <v>0.01448784131543736</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09593428749318482</v>
+        <v>0.02901295867298989</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03196999324691302</v>
+        <v>0.03504693398705749</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09668403261315466</v>
+        <v>0.09229844902641722</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08338624654750415</v>
+        <v>0.09047010281191106</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0969738522275309</v>
+        <v>0.09206273694718407</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1328059899084423</v>
+        <v>0.1451470535471595</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09668403261315466</v>
+        <v>0.09137407250203652</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01702169712614096</v>
+        <v>0.01454881515141367</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09756029236595065</v>
+        <v>0.02950470373524397</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03164472362478631</v>
+        <v>0.03483469251572294</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09832274503032677</v>
+        <v>0.09386282951839039</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08274854556390551</v>
+        <v>0.09013995909907008</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09861747684155683</v>
+        <v>0.09362312231917025</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1315480269691412</v>
+        <v>0.1449049754207486</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09832274503032677</v>
+        <v>0.09292278559529138</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01583724356015641</v>
+        <v>0.01460814031912149</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0991862972387165</v>
+        <v>0.02999644879749803</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03121701806596155</v>
+        <v>0.03492396461299584</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09996145744749889</v>
+        <v>0.09542721001036357</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08109916017994984</v>
+        <v>0.08991353333746041</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1002611014555828</v>
+        <v>0.09518350769115641</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1307798942767079</v>
+        <v>0.1454679786663653</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09996145744749889</v>
+        <v>0.09447149868854623</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01565716427648979</v>
+        <v>0.01466582227480011</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1008123021114823</v>
+        <v>0.03048819385975209</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03089180359608308</v>
+        <v>0.03501455511336114</v>
       </c>
       <c r="K127" t="n">
-        <v>0.101600169864671</v>
+        <v>0.09699159050233674</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0804509537762837</v>
+        <v>0.08979032440661464</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1019047260696087</v>
+        <v>0.09674389306314259</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1289221615916452</v>
+        <v>0.1458352727269342</v>
       </c>
       <c r="O127" t="n">
-        <v>0.101600169864671</v>
+        <v>0.09602021178180109</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01648421378276118</v>
+        <v>0.01472186647468886</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1024383069842482</v>
+        <v>0.03097993892200616</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0308740072407952</v>
+        <v>0.03500626885130377</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1032388822818431</v>
+        <v>0.0985559709943099</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07961678973355354</v>
+        <v>0.09036983118606517</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1035483506836347</v>
+        <v>0.09830427843512875</v>
       </c>
       <c r="N128" t="n">
-        <v>0.128395398674456</v>
+        <v>0.1453060670453803</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1032388822818431</v>
+        <v>0.09756892487505595</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01731575388000028</v>
+        <v>0.01477627837502708</v>
       </c>
       <c r="G129" t="n">
-        <v>0.104064311857014</v>
+        <v>0.03147168398426023</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03036855602574229</v>
+        <v>0.03489891066130864</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1048775946990152</v>
+        <v>0.1001203514862831</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0788095314324059</v>
+        <v>0.08995155255534459</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1051919752976606</v>
+        <v>0.09986466380711492</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1268201752856432</v>
+        <v>0.1445795710646284</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1048775946990152</v>
+        <v>0.0991176379683108</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01513254519869607</v>
+        <v>0.01482906343205406</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1056903167297799</v>
+        <v>0.03196342904651429</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03017238338827972</v>
+        <v>0.03489228537786068</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1065163071161873</v>
+        <v>0.1016847319782563</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07784061269229067</v>
+        <v>0.08993498739398528</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1068355999116866</v>
+        <v>0.1014250491791011</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1249836888819035</v>
+        <v>0.1447549942276033</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1065163071161873</v>
+        <v>0.1006663510615657</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01593601908824106</v>
+        <v>0.01488022710200912</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1073163216025457</v>
+        <v>0.03245517410876836</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02985091595802092</v>
+        <v>0.03498619783544482</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1081550195333594</v>
+        <v>0.1032491124702294</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07733630757863028</v>
+        <v>0.09021963458151974</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1084792245257125</v>
+        <v>0.1029854345510873</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1246415996525756</v>
+        <v>0.1456315459772298</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1081550195333594</v>
+        <v>0.1022150641548205</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01473011862710037</v>
+        <v>0.01492977484113161</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1089423264753116</v>
+        <v>0.03294691917102242</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02930553630093108</v>
+        <v>0.03488045286854596</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1097937319505316</v>
+        <v>0.1048134929622026</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07626244014759356</v>
+        <v>0.08960499299748051</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1101228491397385</v>
+        <v>0.1045458199230734</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1230996796501789</v>
+        <v>0.144808435756433</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1097937319505316</v>
+        <v>0.1037637772480754</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01651878689373906</v>
+        <v>0.01497771210566082</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1105683313480774</v>
+        <v>0.03343866423327649</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02894329745566342</v>
+        <v>0.03477485531164907</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1114324443677037</v>
+        <v>0.1063778734541758</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07523742433234434</v>
+        <v>0.08999056152140009</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1117664737537644</v>
+        <v>0.1061062052950596</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1206873744928991</v>
+        <v>0.1456848730081373</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1114324443677037</v>
+        <v>0.1053124903413302</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01530596696662227</v>
+        <v>0.0150240443518361</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1121943362208433</v>
+        <v>0.03393040929553056</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02857125246087119</v>
+        <v>0.03496920999923904</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1130711567848758</v>
+        <v>0.107942253946149</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07457967406604649</v>
+        <v>0.09027583903281089</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1134100983677904</v>
+        <v>0.1076665906670458</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1197341297989218</v>
+        <v>0.1453600671752679</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1130711567848758</v>
+        <v>0.1068612034345851</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01609560192421506</v>
+        <v>0.01506877703589674</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1138203410936091</v>
+        <v>0.03442215435778462</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02829645435520764</v>
+        <v>0.03486332176580081</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1147098692020479</v>
+        <v>0.1095066344381221</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07320760328186371</v>
+        <v>0.0900603244112454</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1150537229818163</v>
+        <v>0.109226976039032</v>
       </c>
       <c r="N135" t="n">
-        <v>0.118069391186433</v>
+        <v>0.1450332277007495</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1147098692020479</v>
+        <v>0.1084099165278399</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01589163484498254</v>
+        <v>0.01511191561408207</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1154463459663749</v>
+        <v>0.03491389942003869</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02792595617732602</v>
+        <v>0.0348569954458193</v>
       </c>
       <c r="K136" t="n">
-        <v>0.11634858161922</v>
+        <v>0.1110710149300953</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07223962591295988</v>
+        <v>0.08994351653623617</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1166973475958423</v>
+        <v>0.1107873614110181</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1160226042736182</v>
+        <v>0.145603564027507</v>
       </c>
       <c r="O136" t="n">
-        <v>0.11634858161922</v>
+        <v>0.1099586296210948</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01569800880738982</v>
+        <v>0.01515346554263142</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1170723508391408</v>
+        <v>0.03540564448229275</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02746681096587959</v>
+        <v>0.03495003587377943</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1179872940363921</v>
+        <v>0.1126353954220685</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0717941558924988</v>
+        <v>0.09042491428731567</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1183409722098682</v>
+        <v>0.1123477467830043</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1156232146786633</v>
+        <v>0.1456702855984653</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1179872940363921</v>
+        <v>0.1115073427143496</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01351866688990197</v>
+        <v>0.01519343227778409</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1186983557119066</v>
+        <v>0.03589738954454682</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02722607175952156</v>
+        <v>0.03494224788416612</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1196260064535642</v>
+        <v>0.1141997759140417</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07088960715364426</v>
+        <v>0.09000401654401632</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1199845968238942</v>
+        <v>0.1139081321549904</v>
       </c>
       <c r="N138" t="n">
-        <v>0.114200668019754</v>
+        <v>0.144632601856549</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1196260064535642</v>
+        <v>0.1130560558076045</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01435755217098413</v>
+        <v>0.01523182127577943</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1203243605846725</v>
+        <v>0.03638913460680088</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02691079159690521</v>
+        <v>0.03483343631146429</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1212647188707364</v>
+        <v>0.1157641564060148</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0696443936295601</v>
+        <v>0.09018032218587069</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1216282214379201</v>
+        <v>0.1154685175269766</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1116844099150761</v>
+        <v>0.1452897222446831</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1212647188707364</v>
+        <v>0.1146047689008594</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01321860772910134</v>
+        <v>0.01526863799285674</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1219503654574383</v>
+        <v>0.03688087966905496</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02662802351668377</v>
+        <v>0.03462340599015891</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1229034312879085</v>
+        <v>0.117328536897988</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06957692925341008</v>
+        <v>0.09015333009241122</v>
       </c>
       <c r="M140" t="n">
-        <v>0.123271846051946</v>
+        <v>0.1170289028989628</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1113038859828153</v>
+        <v>0.1456408562057925</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1229034312879085</v>
+        <v>0.1161534819941142</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01410577664271873</v>
+        <v>0.01530388788525534</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1235763703302042</v>
+        <v>0.03737262473130902</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0264848205575105</v>
+        <v>0.03491196175473486</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1245421437050806</v>
+        <v>0.1188929173899611</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06890562795835803</v>
+        <v>0.0903225391431704</v>
       </c>
       <c r="M141" t="n">
-        <v>0.124915470665972</v>
+        <v>0.118589288270949</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1095885418411573</v>
+        <v>0.1448852131828018</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1245421437050806</v>
+        <v>0.1177021950873691</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01302300199030139</v>
+        <v>0.01533757640921456</v>
       </c>
       <c r="G142" t="n">
-        <v>0.12520237520297</v>
+        <v>0.03786436979356309</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02608823575803865</v>
+        <v>0.03469890843967706</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1261808561222527</v>
+        <v>0.1204572978819343</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06804890367756769</v>
+        <v>0.08968744821768071</v>
       </c>
       <c r="M142" t="n">
-        <v>0.126559095279998</v>
+        <v>0.1201496736429351</v>
       </c>
       <c r="N142" t="n">
-        <v>0.109467823108288</v>
+        <v>0.1448220026186362</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1261808561222527</v>
+        <v>0.1192509081806239</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01297422685031442</v>
+        <v>0.01536970902097371</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1268283800757359</v>
+        <v>0.03835611485581716</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02604532215692143</v>
+        <v>0.03458405087947049</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1278195685394248</v>
+        <v>0.1220216783739075</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06782517034420296</v>
+        <v>0.08954755619547464</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1282027198940239</v>
+        <v>0.1217100590149213</v>
       </c>
       <c r="N143" t="n">
-        <v>0.108971175402393</v>
+        <v>0.1454504339562204</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1278195685394248</v>
+        <v>0.1207996212738788</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01496247485380232</v>
+        <v>0.01540029117677211</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1284543849485017</v>
+        <v>0.03884785991807121</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02606313279281214</v>
+        <v>0.03466719390859999</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1294582809565969</v>
+        <v>0.1235860588658807</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06715284189142764</v>
+        <v>0.08950236195608471</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1298463445080499</v>
+        <v>0.1232704443869075</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1090280443416583</v>
+        <v>0.144549944025701</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1294582809565969</v>
+        <v>0.1223483343671337</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01396673774304974</v>
+        <v>0.01542932833284909</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1300803898212675</v>
+        <v>0.03933960498032529</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02594596931044922</v>
+        <v>0.03464607025800288</v>
       </c>
       <c r="K145" t="n">
-        <v>0.131096993373769</v>
+        <v>0.1251504393578538</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0675503322524055</v>
+        <v>0.08983459669150809</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1314899691220758</v>
+        <v>0.1248308297588936</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1090563887938521</v>
+        <v>0.1441451813153057</v>
       </c>
       <c r="O145" t="n">
-        <v>0.131096993373769</v>
+        <v>0.1238970474603885</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01397662136635118</v>
+        <v>0.01545682594544397</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1317063946940334</v>
+        <v>0.03983135004257935</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02585422522354798</v>
+        <v>0.03480165927864248</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1327357057909412</v>
+        <v>0.126714819849827</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06746197710148136</v>
+        <v>0.0894998129637837</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1331335937361017</v>
+        <v>0.1263912151308798</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1081908562733077</v>
+        <v>0.1439447438352901</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1327357057909412</v>
+        <v>0.1254457605536434</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01499183598773738</v>
+        <v>0.01548278947079605</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1333323995667992</v>
+        <v>0.04032309510483342</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02587241704598189</v>
+        <v>0.03473300167183153</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1343744182081133</v>
+        <v>0.1282792003418002</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06690025942555805</v>
+        <v>0.08900610655364349</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1347772183501277</v>
+        <v>0.127951600502866</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1077668050216172</v>
+        <v>0.1433668763513297</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1343744182081133</v>
+        <v>0.1269944736468982</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01301209187123906</v>
+        <v>0.01550722436514468</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1349584044395651</v>
+        <v>0.04081484016708749</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02620002652303995</v>
+        <v>0.0346446015387948</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1360131306252854</v>
+        <v>0.1298435808337734</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06776352881365369</v>
+        <v>0.08916504250274251</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1364208429641536</v>
+        <v>0.1295119858748522</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1086820713854822</v>
+        <v>0.1429298236291</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1360131306252854</v>
+        <v>0.1285431867401531</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01303709928088693</v>
+        <v>0.01553013608472917</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1365844093123309</v>
+        <v>0.04130658522934155</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02603653540001108</v>
+        <v>0.03454096298075705</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1376518430424575</v>
+        <v>0.1314079613257466</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06775043221666707</v>
+        <v>0.08898818585273602</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1380644675781796</v>
+        <v>0.1310723712468383</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1084344917116048</v>
+        <v>0.1421518304342763</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1376518430424575</v>
+        <v>0.1300918998334079</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01306656848071173</v>
+        <v>0.01555153008578882</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1382104141850967</v>
+        <v>0.04179833029159561</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02628142542218426</v>
+        <v>0.03422659009894305</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1392905554596296</v>
+        <v>0.1329723418177197</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06785961658549686</v>
+        <v>0.08848710164527904</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1397080921922055</v>
+        <v>0.1326327566188245</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1090219023466866</v>
+        <v>0.1423511415325341</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1392905554596296</v>
+        <v>0.1316406129266628</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01310020973474416</v>
+        <v>0.01557141182456297</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1398364190578626</v>
+        <v>0.04229007535384968</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02603417833484845</v>
+        <v>0.03400598699457763</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1409292678768017</v>
+        <v>0.1345367223096929</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06768972887104183</v>
+        <v>0.08837335492202675</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1413517168062315</v>
+        <v>0.1341931419908107</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1086421396374294</v>
+        <v>0.142246001689549</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1409292678768017</v>
+        <v>0.1331893260199176</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01313773330701496</v>
+        <v>0.01558978675729094</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1414624239306284</v>
+        <v>0.04278182041610375</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02609427588329258</v>
+        <v>0.03408365776888553</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1425679802939738</v>
+        <v>0.1361011028016661</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06793941602420073</v>
+        <v>0.0880585107246343</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1429953414202574</v>
+        <v>0.1357535273627969</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1090930399305351</v>
+        <v>0.1413546556709964</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1425679802939738</v>
+        <v>0.1347380391131725</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01417884946155486</v>
+        <v>0.01560666034021203</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1430884288033943</v>
+        <v>0.04327356547835781</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02636119981280559</v>
+        <v>0.03386410652309151</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1442066927111459</v>
+        <v>0.1376654832936393</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06800732499587223</v>
+        <v>0.0879541340947568</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1446389660342834</v>
+        <v>0.137313912734783</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1097724395727055</v>
+        <v>0.1412953482425517</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1442066927111459</v>
+        <v>0.1362867522064274</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01422326846239456</v>
+        <v>0.0156220380295656</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1447144336761601</v>
+        <v>0.04376531054061188</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02623443186867651</v>
+        <v>0.03395183735842038</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1458454051283181</v>
+        <v>0.1392298637856124</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06849210273695513</v>
+        <v>0.08727179007404934</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1462825906483093</v>
+        <v>0.1388742981067692</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1104781749106423</v>
+        <v>0.1405863241698905</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1458454051283181</v>
+        <v>0.1378354652996822</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01327070057356478</v>
+        <v>0.01563592528159093</v>
       </c>
       <c r="G155" t="n">
-        <v>0.146340438548926</v>
+        <v>0.04425705560286595</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02641345379619423</v>
+        <v>0.0335513543760969</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1474841175454902</v>
+        <v>0.1407942442775856</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06829239619834809</v>
+        <v>0.08722304370416714</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1479262152623353</v>
+        <v>0.1404346834787554</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1104080822910475</v>
+        <v>0.1408458282186881</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1474841175454902</v>
+        <v>0.1393841783929371</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01332133411619983</v>
+        <v>0.01564832755252737</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1479664434216918</v>
+        <v>0.04474880066512001</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02669774734064774</v>
+        <v>0.03356716167734583</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1491228299626623</v>
+        <v>0.1423586247695587</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06900685233094991</v>
+        <v>0.08671946002676534</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1495698398763612</v>
+        <v>0.1419950688507415</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1110599980606228</v>
+        <v>0.1398921051546199</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1491228299626623</v>
+        <v>0.1409328914861919</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01540495228496716</v>
+        <v>0.01565925029861422</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1495924482944577</v>
+        <v>0.04524054572737408</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02679081453704275</v>
+        <v>0.033403763363392</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1507615423798344</v>
+        <v>0.1439230052615319</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06883411808565931</v>
+        <v>0.08647260408349899</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1512134644903872</v>
+        <v>0.1435554542227277</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1118485428092616</v>
+        <v>0.1391433997433615</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1507615423798344</v>
+        <v>0.1424816045794468</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01353313319015102</v>
+        <v>0.01566869897609081</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1512184531672235</v>
+        <v>0.04573229078962814</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02695229702470231</v>
+        <v>0.0334656635354601</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1524002547970065</v>
+        <v>0.1454873857535051</v>
       </c>
       <c r="L158" t="n">
-        <v>0.068781380783625</v>
+        <v>0.0865940409160233</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1528570891044131</v>
+        <v>0.1451158395947139</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1115227134623772</v>
+        <v>0.1390143818944784</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1524002547970065</v>
+        <v>0.1440303176727016</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01569713040214163</v>
+        <v>0.01567667904119645</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1528444580399894</v>
+        <v>0.04622403585188221</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02689020769880493</v>
+        <v>0.03365682744857171</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1540389672141786</v>
+        <v>0.1470517662454783</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07014045939895275</v>
+        <v>0.08698891399756858</v>
       </c>
       <c r="M159" t="n">
-        <v>0.154500713718439</v>
+        <v>0.1466762249667</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1128159629277997</v>
+        <v>0.1393618333104713</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1540389672141786</v>
+        <v>0.1455790307659565</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01388819749132918</v>
+        <v>0.01568319595017047</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1544704629127552</v>
+        <v>0.04671578091413628</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02738890170047656</v>
+        <v>0.03366751473241453</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1556776796313507</v>
+        <v>0.1486161467374514</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0700705731765322</v>
+        <v>0.08662605047596306</v>
       </c>
       <c r="M160" t="n">
-        <v>0.156144338332465</v>
+        <v>0.1482366103386862</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1135629757346199</v>
+        <v>0.1406638576888649</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1556776796313507</v>
+        <v>0.1471277438592113</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01509758802810389</v>
+        <v>0.01568825515925219</v>
       </c>
       <c r="G161" t="n">
-        <v>0.156096467785521</v>
+        <v>0.04720752597639034</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02763273417084308</v>
+        <v>0.0336916053659861</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1573163920485229</v>
+        <v>0.1501805272294246</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07113087682969654</v>
+        <v>0.08719681826263895</v>
       </c>
       <c r="M161" t="n">
-        <v>0.157787962946491</v>
+        <v>0.1497969957106724</v>
       </c>
       <c r="N161" t="n">
-        <v>0.115598436411929</v>
+        <v>0.1400152877379219</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1573163920485229</v>
+        <v>0.1486764569524662</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01531655558285595</v>
+        <v>0.01569186212468092</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1577224726582869</v>
+        <v>0.04769927103864441</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02810606025103046</v>
+        <v>0.03372782369546576</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158955104465695</v>
+        <v>0.1517449077213978</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0724805250717788</v>
+        <v>0.08729794190066537</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1594315875605169</v>
+        <v>0.1513573810826586</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1172570294888179</v>
+        <v>0.1410109561659054</v>
       </c>
       <c r="O162" t="n">
-        <v>0.158955104465695</v>
+        <v>0.1502251700457211</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01453635372597555</v>
+        <v>0.01569402230269599</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1593484775310527</v>
+        <v>0.04819101610089847</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02839323508216463</v>
+        <v>0.03367489406703272</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1605938168828671</v>
+        <v>0.153309288213371</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07317867261611222</v>
+        <v>0.08732614593311144</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1610752121745428</v>
+        <v>0.1529177664546447</v>
       </c>
       <c r="N163" t="n">
-        <v>0.118773439494378</v>
+        <v>0.1407456956810782</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1605938168828671</v>
+        <v>0.1517738831389759</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0157482360278529</v>
+        <v>0.01569474114953672</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1609744824038186</v>
+        <v>0.04868276116315254</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02897861380537152</v>
+        <v>0.03383154082686633</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1622325293000392</v>
+        <v>0.1548736687053442</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07468447417602989</v>
+        <v>0.08737815490304623</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1627188367885688</v>
+        <v>0.1544781518266309</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1195823509577</v>
+        <v>0.140714338991703</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1622325293000392</v>
+        <v>0.1533225962322308</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01694345605887821</v>
+        <v>0.01569474114953671</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1626004872765844</v>
+        <v>0.04868276116315254</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02924655156177704</v>
+        <v>0.03369648832114583</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1638712417172113</v>
+        <v>0.1564380491973173</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07535708446486503</v>
+        <v>0.08775069335353886</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1643624614025947</v>
+        <v>0.1560385371986171</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1211184484078752</v>
+        <v>0.1404117188060428</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1638712417172113</v>
+        <v>0.1548713093254856</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01611333120453958</v>
+        <v>0.01530284978057964</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1642264921493503</v>
+        <v>0.04868249263468852</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02968140349250717</v>
+        <v>0.03366846089605052</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1655099541343834</v>
+        <v>0.1580024296892905</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07585565819595072</v>
+        <v>0.08794048582765845</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1660060860166207</v>
+        <v>0.1575989225706032</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1228164163739945</v>
+        <v>0.1421326678323604</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1655099541343834</v>
+        <v>0.1564200224187405</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01626747981872583</v>
+        <v>0.01491537575940731</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1658524970221161</v>
+        <v>0.0486822241062245</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02967003670975571</v>
+        <v>0.03384618289775963</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1671486665515555</v>
+        <v>0.1595668101812636</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07723936405000767</v>
+        <v>0.08774425686847406</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1676497106306466</v>
+        <v>0.1591593079425894</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1246214265729552</v>
+        <v>0.1412720187789188</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1671486665515555</v>
+        <v>0.1579687355119953</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01541782229880869</v>
+        <v>0.01453285975315433</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1674785018948819</v>
+        <v>0.04868195557776049</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03003981194652995</v>
+        <v>0.03412837867245253</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1687873789687276</v>
+        <v>0.1611311906732368</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07724470365260369</v>
+        <v>0.0880587310190549</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1692933352446726</v>
+        <v>0.1607196933145756</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1257477068910658</v>
+        <v>0.1413246043539807</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1687873789687276</v>
+        <v>0.1595174486052502</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01656463610786025</v>
+        <v>0.01415584242892182</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1691045067676478</v>
+        <v>0.04868168704929647</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03030295487878468</v>
+        <v>0.03421377256630843</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1704260913858998</v>
+        <v>0.16269557116521</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0781324077577408</v>
+        <v>0.08838063282246991</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1709369598586985</v>
+        <v>0.1622800786865618</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1270462981071915</v>
+        <v>0.142585257265809</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1704260913858998</v>
+        <v>0.1610661616985051</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01770819870895259</v>
+        <v>0.01378486445384395</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1707305116404136</v>
+        <v>0.04868141852083246</v>
       </c>
       <c r="J170" t="n">
-        <v>0.030459961808531</v>
+        <v>0.03420108892550662</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1720648038030718</v>
+        <v>0.1642599516571832</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07920377210084739</v>
+        <v>0.08800668682178833</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1725805844727245</v>
+        <v>0.1638404640585479</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1276192722246548</v>
+        <v>0.1423488102226665</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1720648038030718</v>
+        <v>0.1626148747917599</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01584878756515778</v>
+        <v>0.01342046649502233</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1723565165131795</v>
+        <v>0.04868114999236844</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03091132903778002</v>
+        <v>0.03408905209622642</v>
       </c>
       <c r="K171" t="n">
-        <v>0.173703516220244</v>
+        <v>0.1658243321491563</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07926009241735218</v>
+        <v>0.0884336175600792</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1742242090867504</v>
+        <v>0.1654008494305341</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1288687012467785</v>
+        <v>0.1426100959328162</v>
       </c>
       <c r="O171" t="n">
-        <v>0.173703516220244</v>
+        <v>0.1641635878850148</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01698668013954793</v>
+        <v>0.01306318921959061</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1739825213859453</v>
+        <v>0.04868088146390442</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03105755286854286</v>
+        <v>0.03417638642464707</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1753422286374161</v>
+        <v>0.1673887126411295</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08000266444268356</v>
+        <v>0.08875814958041162</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1758678337007764</v>
+        <v>0.1669612348025203</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1297966571768852</v>
+        <v>0.1427639471045209</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1753422286374161</v>
+        <v>0.1657123009782696</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0171221538951951</v>
+        <v>0.01271357329465098</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1756085262587112</v>
+        <v>0.0486806129354404</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03139912960283071</v>
+        <v>0.03446181625694786</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1769809410545882</v>
+        <v>0.1689530931331027</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08063278391227019</v>
+        <v>0.08877700742585473</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1775114583148023</v>
+        <v>0.1685216201745064</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1309052120182975</v>
+        <v>0.1431051964460434</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1769809410545882</v>
+        <v>0.1672610140715245</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01725548629517139</v>
+        <v>0.01237215938733641</v>
       </c>
       <c r="G174" t="n">
-        <v>0.177234531131477</v>
+        <v>0.04868034440697638</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03143655554265465</v>
+        <v>0.03464406593930809</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1786196534717603</v>
+        <v>0.1705174736250759</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08145174656154061</v>
+        <v>0.08958691563947765</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1791550829288283</v>
+        <v>0.1700820055464926</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1318964377743382</v>
+        <v>0.1446286766656467</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1786196534717603</v>
+        <v>0.1688097271647793</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01838695480254888</v>
+        <v>0.01203948816474983</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1788605360042429</v>
+        <v>0.04868007587851236</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03177032699002579</v>
+        <v>0.03442185981790702</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1802583658889324</v>
+        <v>0.172081854117049</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08186084812592329</v>
+        <v>0.08918459876434939</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1807987075428542</v>
+        <v>0.1716423909184788</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1320724064483298</v>
+        <v>0.1450292204715935</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1802583658889324</v>
+        <v>0.1703584402580342</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01851683688039964</v>
+        <v>0.01171610029402346</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1804865408770087</v>
+        <v>0.04867980735004835</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03200094024695528</v>
+        <v>0.03469392223892392</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1818970783061045</v>
+        <v>0.1736462346090222</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08296138434084685</v>
+        <v>0.08956678134353915</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1824423321568802</v>
+        <v>0.1732027762904649</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1334351900435953</v>
+        <v>0.1447016605721467</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1818970783061045</v>
+        <v>0.1719071533512891</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01864540999179578</v>
+        <v>0.011402536442261</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1821125457497745</v>
+        <v>0.04867953882158433</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03212889161545425</v>
+        <v>0.0346589775485381</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1835357907232767</v>
+        <v>0.1752106151009954</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08315465094173982</v>
+        <v>0.09013018792011604</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1840859567709061</v>
+        <v>0.1747631616624511</v>
       </c>
       <c r="N177" t="n">
-        <v>0.134786860563457</v>
+        <v>0.1452408296755693</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1835357907232767</v>
+        <v>0.1734558664445439</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01877588916789033</v>
+        <v>0.01109933727659385</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1837385506225404</v>
+        <v>0.04867927029312032</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03265470461442774</v>
+        <v>0.03461575009292885</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1851745031404488</v>
+        <v>0.1767749955929686</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08344194366403071</v>
+        <v>0.08987154303714906</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1857295813849321</v>
+        <v>0.1763235470344373</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1352296036386125</v>
+        <v>0.145941560490124</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1851745031404488</v>
+        <v>0.1750045795377988</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01691394936691427</v>
+        <v>0.01080704346412659</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1853645554953063</v>
+        <v>0.0486790017646563</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03278925610000932</v>
+        <v>0.03476296421827538</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1868132155576209</v>
+        <v>0.1783393760849417</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08484070877308514</v>
+        <v>0.09038757123770741</v>
       </c>
       <c r="M179" t="n">
-        <v>0.187373205998958</v>
+        <v>0.1778839324064234</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1372088288816441</v>
+        <v>0.1447986857240737</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1868132155576209</v>
+        <v>0.1765532926310536</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01905532358007967</v>
+        <v>0.01052619567198969</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1869905603680721</v>
+        <v>0.04867873323619228</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03293530900184427</v>
+        <v>0.03489934427075707</v>
       </c>
       <c r="K180" t="n">
-        <v>0.188451927974793</v>
+        <v>0.1799037565769149</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08487379113441923</v>
+        <v>0.09007499706486014</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1890168306129839</v>
+        <v>0.1794443177784096</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1383360712033053</v>
+        <v>0.1459070380856813</v>
       </c>
       <c r="O180" t="n">
-        <v>0.188451927974793</v>
+        <v>0.1781020057243085</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0191952454811776</v>
+        <v>0.0102573345672887</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1886165652408379</v>
+        <v>0.04867846470772826</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03328433772672329</v>
+        <v>0.03482361459655312</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1900906403919651</v>
+        <v>0.1814681370688881</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08582020737922186</v>
+        <v>0.0903305450616764</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1906604552270099</v>
+        <v>0.1810047031503958</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1383757372409637</v>
+        <v>0.1448614502832096</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1900906403919651</v>
+        <v>0.1796507188175633</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01732894874399916</v>
+        <v>0.01000100081715306</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1902425701136038</v>
+        <v>0.04867819617926425</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03352781668143716</v>
+        <v>0.03483449954184284</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1917293528091372</v>
+        <v>0.1830325175608613</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08685769905815574</v>
+        <v>0.09015093977122524</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1923040798410358</v>
+        <v>0.182565088522382</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1398922336319867</v>
+        <v>0.1457459079560148</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1917293528091372</v>
+        <v>0.1811994319108182</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0184516670423354</v>
+        <v>0.009757735088694562</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1918685749863696</v>
+        <v>0.04867792765080024</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03355722027277666</v>
+        <v>0.03492628569782061</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1933680652263093</v>
+        <v>0.1845968980528344</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08746400772188365</v>
+        <v>0.09051444746845766</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1939477044550618</v>
+        <v>0.1841254738943681</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1412499670137416</v>
+        <v>0.145311712618375</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1933680652263093</v>
+        <v>0.182748145004073</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0195586340499774</v>
+        <v>0.009528078049026077</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1934945798591355</v>
+        <v>0.04867765912233622</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03386402290753247</v>
+        <v>0.03468843051873415</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1950067776434815</v>
+        <v>0.1861612785448076</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08801687492106838</v>
+        <v>0.0896014124817664</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1955913290690877</v>
+        <v>0.1856858592663543</v>
       </c>
       <c r="N184" t="n">
-        <v>0.141213344023596</v>
+        <v>0.1457610728193029</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1950067776434815</v>
+        <v>0.1842968580973279</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01864508344071625</v>
+        <v>0.009312570365275379</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1951205847319013</v>
+        <v>0.0486773905938722</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03403969899249544</v>
+        <v>0.03472252010860119</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1966454900606535</v>
+        <v>0.1877256590367808</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08789404220637265</v>
+        <v>0.09011728095782151</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1972349536831137</v>
+        <v>0.1872462446383405</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1414467712989174</v>
+        <v>0.1443026490770552</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1966454900606535</v>
+        <v>0.1858455711905828</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01870664978044193</v>
+        <v>0.009111752704550842</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1967465896046671</v>
+        <v>0.04867712206540818</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03427572293445628</v>
+        <v>0.03473069249712196</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1982842024778257</v>
+        <v>0.189290039528754</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08857325112845932</v>
+        <v>0.08986754264947461</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1988785782971396</v>
+        <v>0.1888066300103267</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1431146554770731</v>
+        <v>0.1443451019098886</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1982842024778257</v>
+        <v>0.1873942842838376</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01875783210685717</v>
+        <v>0.008926165733978968</v>
       </c>
       <c r="G187" t="n">
-        <v>0.198372594477433</v>
+        <v>0.04867685353694416</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0341717072125861</v>
+        <v>0.0345150857139966</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1999229148949978</v>
+        <v>0.1908544200207271</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08863945912064455</v>
+        <v>0.08895768730957726</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2005222029111656</v>
+        <v>0.1903670153823128</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1430153787035571</v>
+        <v>0.1431970918360597</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1999229148949978</v>
+        <v>0.1889429973770925</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01880790511623555</v>
+        <v>0.008756350120669443</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1999985993501988</v>
+        <v>0.04867658500848014</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03436106145368505</v>
+        <v>0.0345778377889254</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2015616273121699</v>
+        <v>0.1924188005127003</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0884725188143381</v>
+        <v>0.08919320469098113</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2021658275251915</v>
+        <v>0.191927400754299</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1436884222945584</v>
+        <v>0.1436672793738256</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2015616273121699</v>
+        <v>0.1904917104703473</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01785685126785165</v>
+        <v>0.008602846531747421</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2016246042229647</v>
+        <v>0.04867631648001613</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03454843419018973</v>
+        <v>0.03432108675160844</v>
       </c>
       <c r="K189" t="n">
-        <v>0.203200339729342</v>
+        <v>0.1939831810046735</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08910043930191897</v>
+        <v>0.08877958454653787</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2038094521392175</v>
+        <v>0.1934877861262852</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1441531933337439</v>
+        <v>0.1425643250414426</v>
       </c>
       <c r="O189" t="n">
-        <v>0.203200339729342</v>
+        <v>0.1920404235636022</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01990465302098005</v>
+        <v>0.00846411180354649</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2032506090957305</v>
+        <v>0.04867604795155211</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03443379404676347</v>
+        <v>0.03424697063174602</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2048390521465141</v>
+        <v>0.1955475614966466</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08962313866928159</v>
+        <v>0.08772231662909902</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2054530767532434</v>
+        <v>0.1950481714982713</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1439095608327231</v>
+        <v>0.1413968893571677</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2048390521465141</v>
+        <v>0.193589136656857</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01895129283489533</v>
+        <v>0.00832813715854383</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2048766139684964</v>
+        <v>0.04867577942308809</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03461710964806958</v>
+        <v>0.03395762745903828</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2064777645636862</v>
+        <v>0.1971119419886198</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09004053500232048</v>
+        <v>0.08762689069151627</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2070967013672694</v>
+        <v>0.1966085568702575</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1439573938031048</v>
+        <v>0.1411736328392574</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2064777645636862</v>
+        <v>0.1951378497501119</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0199967531688721</v>
+        <v>0.008193260702007446</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2065026188412622</v>
+        <v>0.04867551089462407</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03469834961877141</v>
+        <v>0.03385519526318544</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2081164769808584</v>
+        <v>0.198676322480593</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0897525463869302</v>
+        <v>0.08659879648664121</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2087403259812953</v>
+        <v>0.1981689422422437</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1441965612564983</v>
+        <v>0.1399032160059686</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2081164769808584</v>
+        <v>0.1966865628433667</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02004101648218492</v>
+        <v>0.008059899207774127</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2081286237140281</v>
+        <v>0.04867524236616006</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03487748258353231</v>
+        <v>0.03344181207388769</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2097551893980305</v>
+        <v>0.2002407029725662</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08985909090900518</v>
+        <v>0.08664352376732548</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2103839505953213</v>
+        <v>0.1997293276142298</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1446269322045128</v>
+        <v>0.1386942993755579</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2097551893980305</v>
+        <v>0.1982352759366216</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01808406523410839</v>
+        <v>0.007928469449669018</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2097546285867939</v>
+        <v>0.04867497383769604</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03475447716701556</v>
+        <v>0.03331961592084523</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2113939018152026</v>
+        <v>0.2018050834645393</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09026008665443985</v>
+        <v>0.08626656228642071</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2120275752093472</v>
+        <v>0.201289712986216</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1450483756587572</v>
+        <v>0.1376555434662822</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2113939018152026</v>
+        <v>0.1997839890298765</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02012588188391708</v>
+        <v>0.00779938820152877</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2113806334595597</v>
+        <v>0.04867470530923203</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03482930199388454</v>
+        <v>0.03309074483375826</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2130326142323747</v>
+        <v>0.2033694639565125</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09065545170912881</v>
+        <v>0.08507340179677844</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2136711998233732</v>
+        <v>0.2028500983582022</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1465607606308408</v>
+        <v>0.136895608796398</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2130326142323747</v>
+        <v>0.2013327021231313</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01916644889088561</v>
+        <v>0.007673072237178703</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2130066383323256</v>
+        <v>0.04867443678076801</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03510192568880255</v>
+        <v>0.03265733684232699</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2146713266495468</v>
+        <v>0.2049338444484857</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09034510415896652</v>
+        <v>0.08516953205125039</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2153148244373991</v>
+        <v>0.2044104837301884</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1457639561323726</v>
+        <v>0.1367231558841622</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2146713266495468</v>
+        <v>0.2028814152163862</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01820574871428853</v>
+        <v>0.007549938330455259</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2146326432050914</v>
+        <v>0.04867416825230399</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03517231687643296</v>
+        <v>0.0324215299762516</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2163100390667189</v>
+        <v>0.2064982249404589</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09082896208984745</v>
+        <v>0.08406044280268812</v>
       </c>
       <c r="M197" t="n">
-        <v>0.216958449051425</v>
+        <v>0.2059708691021745</v>
       </c>
       <c r="N197" t="n">
-        <v>0.147157831174962</v>
+        <v>0.1354468452478313</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2163100390667189</v>
+        <v>0.204430128309641</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01924376381340046</v>
+        <v>0.007430403255186568</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2162586480778573</v>
+        <v>0.04867389972383997</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03524044418143907</v>
+        <v>0.03238546226523227</v>
       </c>
       <c r="K198" t="n">
-        <v>0.217948751483891</v>
+        <v>0.208062605432432</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09070694358766612</v>
+        <v>0.0834516238039433</v>
       </c>
       <c r="M198" t="n">
-        <v>0.218602073665451</v>
+        <v>0.2075312544741607</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1475422547702176</v>
+        <v>0.1335753374056621</v>
       </c>
       <c r="O198" t="n">
-        <v>0.217948751483891</v>
+        <v>0.2059788414028959</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02028047664749595</v>
+        <v>0.007314883785201093</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2178846529506231</v>
+        <v>0.04867363119537595</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03540627622848422</v>
+        <v>0.03205127173896924</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2195874639010632</v>
+        <v>0.2096269859244052</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09117896673831699</v>
+        <v>0.08244856480786752</v>
       </c>
       <c r="M199" t="n">
-        <v>0.220245698279477</v>
+        <v>0.2090916398461469</v>
       </c>
       <c r="N199" t="n">
-        <v>0.147117095929749</v>
+        <v>0.1332172928759114</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2195874639010632</v>
+        <v>0.2075275544961508</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01831586967584961</v>
+        <v>0.007203796694334789</v>
       </c>
       <c r="G200" t="n">
-        <v>0.219510657823389</v>
+        <v>0.04867336266691194</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03546978164223176</v>
+        <v>0.03182109642716267</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2212261763182353</v>
+        <v>0.2111913664163784</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09114494962769457</v>
+        <v>0.08195675556731244</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2218893228935029</v>
+        <v>0.210652025218133</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1474822236651652</v>
+        <v>0.133081372176836</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2212261763182353</v>
+        <v>0.2090762675894056</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01934992535773602</v>
+        <v>0.007097558756413769</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2211366626961548</v>
+        <v>0.04867309413844792</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03533092904734499</v>
+        <v>0.03179707435951282</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2228648887354074</v>
+        <v>0.2127557469083516</v>
       </c>
       <c r="L201" t="n">
-        <v>0.09110481034169335</v>
+        <v>0.08168168583512961</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2235329475075289</v>
+        <v>0.2122124105901192</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1479375069880752</v>
+        <v>0.1307762358266924</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2228648887354074</v>
+        <v>0.2106249806826605</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02038262615242975</v>
+        <v>0.006996586745273585</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2227626675689207</v>
+        <v>0.04867282560998391</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03528968706848727</v>
+        <v>0.03138134356571981</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2245036011525795</v>
+        <v>0.2143201274003247</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09135846696620781</v>
+        <v>0.08132884536417068</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2251765721215548</v>
+        <v>0.2137727959621054</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1471828149100882</v>
+        <v>0.1305105443437375</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2245036011525795</v>
+        <v>0.2121736937759153</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02041395451920542</v>
+        <v>0.006901297434740786</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2243886724416865</v>
+        <v>0.04867255708151989</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0355460243303219</v>
+        <v>0.03137604207548389</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2261423135697516</v>
+        <v>0.2158845078922979</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09140583758713244</v>
+        <v>0.08020372390728728</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2268201967355807</v>
+        <v>0.2153331813340915</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1482180164428134</v>
+        <v>0.1299929582462279</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2261423135697516</v>
+        <v>0.2137224068691702</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01944389291733759</v>
+        <v>0.006812107598650453</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2260146773144524</v>
+        <v>0.04867228855305587</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03559990945751225</v>
+        <v>0.03118330791850522</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2277810259869237</v>
+        <v>0.2174488883842711</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09144684029036179</v>
+        <v>0.07991181121733104</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2284638213496067</v>
+        <v>0.2168935667060777</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1489429805978599</v>
+        <v>0.1292321380524203</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2277810259869237</v>
+        <v>0.215271119962425</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02047242380610086</v>
+        <v>0.006729434010829649</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2276406821872182</v>
+        <v>0.04867202002459185</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03545131107472163</v>
+        <v>0.03070527912448404</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2294197384040958</v>
+        <v>0.2190132688762442</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09228139316179029</v>
+        <v>0.07975859704715357</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2301074459636326</v>
+        <v>0.2184539520780639</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1489575763868367</v>
+        <v>0.1287367442805716</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2294197384040958</v>
+        <v>0.2168198330556799</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0204995296447698</v>
+        <v>0.006653693445112893</v>
       </c>
       <c r="G206" t="n">
-        <v>0.229266687059984</v>
+        <v>0.04867175149612784</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03570019780661338</v>
+        <v>0.03074409372312052</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2310584508212679</v>
+        <v>0.2205776493682174</v>
       </c>
       <c r="L206" t="n">
-        <v>0.09250941428731246</v>
+        <v>0.07944957114960655</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2317510705776586</v>
+        <v>0.2200143374500501</v>
       </c>
       <c r="N206" t="n">
-        <v>0.148061672821353</v>
+        <v>0.1278154374489383</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2310584508212679</v>
+        <v>0.2183685461489347</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02052519289261902</v>
+        <v>0.006585302675327843</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2308926919327499</v>
+        <v>0.04867148296766382</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03554653827785083</v>
+        <v>0.03070188974411486</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2326971632384401</v>
+        <v>0.2221420298601906</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09263082175282275</v>
+        <v>0.07849022327754146</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2333946951916845</v>
+        <v>0.2215747228220362</v>
       </c>
       <c r="N207" t="n">
-        <v>0.149155138913018</v>
+        <v>0.1263768780757772</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2326971632384401</v>
+        <v>0.2199172592421896</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01854939600892308</v>
+        <v>0.006524678475308403</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2325186968055157</v>
+        <v>0.04867121443919981</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03569030111309728</v>
+        <v>0.03027986251114355</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2343358756556121</v>
+        <v>0.2237064103521638</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0927455336442157</v>
+        <v>0.07888020588484665</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2350383198057105</v>
+        <v>0.2231351081940224</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1488378436734407</v>
+        <v>0.1264907078662953</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2343358756556121</v>
+        <v>0.2214659723354445</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01957212145295657</v>
+        <v>0.006472237618882888</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2341447016782816</v>
+        <v>0.04867094591073579</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03583145493701612</v>
+        <v>0.0302609135176496</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2359745880727843</v>
+        <v>0.2252707908441369</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0927534680473858</v>
+        <v>0.07847193276759809</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2366819444197364</v>
+        <v>0.2246954935660086</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1500096561142303</v>
+        <v>0.1264917069130074</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2359745880727843</v>
+        <v>0.2230146854286993</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0205933516839941</v>
+        <v>0.006428396879884495</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2357707065510474</v>
+        <v>0.04867067738227177</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03586996837427066</v>
+        <v>0.03003908138026633</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2376133004899564</v>
+        <v>0.2268351713361101</v>
       </c>
       <c r="L210" t="n">
-        <v>0.0922545430482275</v>
+        <v>0.07825676760738823</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2383255690337624</v>
+        <v>0.2262558789379948</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1489704452469959</v>
+        <v>0.1252842119108605</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2376133004899564</v>
+        <v>0.2245633985219542</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01861306916131023</v>
+        <v>0.006393573032142261</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2373967114238132</v>
+        <v>0.04867040885380775</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03580581004952421</v>
+        <v>0.02991583154626548</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2392520129071285</v>
+        <v>0.2283995518280833</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09284867673263533</v>
+        <v>0.07723847318793239</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2399691936477883</v>
+        <v>0.2278162643099809</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1497200800833467</v>
+        <v>0.1256741589480441</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2392520129071285</v>
+        <v>0.226112111615209</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01963125634417957</v>
+        <v>0.006368182849488639</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2390227162965791</v>
+        <v>0.04867014032534373</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03593894858744014</v>
+        <v>0.03009262946291877</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2408907253243006</v>
+        <v>0.2299639323200565</v>
       </c>
       <c r="L212" t="n">
-        <v>0.09293578718650378</v>
+        <v>0.07752081229294613</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2416128182618143</v>
+        <v>0.2293766496819671</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1502584296348917</v>
+        <v>0.1243674841127471</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2408907253243006</v>
+        <v>0.2276608247084639</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02064789569187668</v>
+        <v>0.006352643105753474</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2406487211693449</v>
+        <v>0.04866987179687971</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03596935261268175</v>
+        <v>0.02997094057749797</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2425294377414727</v>
+        <v>0.2315283128120296</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09301579249572731</v>
+        <v>0.0766075477061447</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2432564428758402</v>
+        <v>0.2309370350539533</v>
       </c>
       <c r="N213" t="n">
-        <v>0.14958536291324</v>
+        <v>0.1245701234931584</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2425294377414727</v>
+        <v>0.2292095378017188</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01866296966367616</v>
+        <v>0.006347370574768356</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2422747260421108</v>
+        <v>0.0486696032684157</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03579699074991238</v>
+        <v>0.02955223033727483</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2441681501586448</v>
+        <v>0.2330926933040028</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09268861074620044</v>
+        <v>0.07720244221124364</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2449000674898661</v>
+        <v>0.2324974204259394</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1494007489300009</v>
+        <v>0.1238880131774674</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2441681501586448</v>
+        <v>0.2307582508949736</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0206764607188526</v>
+        <v>0.006347370574768356</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2439007309148767</v>
+        <v>0.0486696032684157</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03612183162379537</v>
+        <v>0.02943796418952105</v>
       </c>
       <c r="K215" t="n">
-        <v>0.245806862575817</v>
+        <v>0.234657073795976</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09295416002381765</v>
+        <v>0.07620925859195826</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2465436921038921</v>
+        <v>0.2340578057979256</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1496044566967835</v>
+        <v>0.123727089253863</v>
       </c>
       <c r="O215" t="n">
-        <v>0.245806862575817</v>
+        <v>0.2323069639882284</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02068835131668056</v>
+        <v>0.006141166167208036</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2455267357876425</v>
+        <v>0.04864883951269892</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03584384385899404</v>
+        <v>0.02962960758150844</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2474455749929891</v>
+        <v>0.2362214542879491</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09291235841447348</v>
+        <v>0.07583175963200406</v>
       </c>
       <c r="M216" t="n">
-        <v>0.248187316717918</v>
+        <v>0.2356181911699118</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1503963552251967</v>
+        <v>0.1229932878105343</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2474455749929891</v>
+        <v>0.2338556770814833</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02069862391643467</v>
+        <v>0.005940393207934699</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2471527406604083</v>
+        <v>0.04862807575698214</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03586299608017174</v>
+        <v>0.02922862596050872</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2490842874101612</v>
+        <v>0.2377858347799223</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09286312400406233</v>
+        <v>0.07557370811509639</v>
       </c>
       <c r="M217" t="n">
-        <v>0.249830941331944</v>
+        <v>0.2371785765418979</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1499763135268498</v>
+        <v>0.1216925449356701</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2490842874101612</v>
+        <v>0.2354043901747382</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02070726097738949</v>
+        <v>0.00574532655601042</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2487787455331741</v>
+        <v>0.04860731200126536</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03597925691199179</v>
+        <v>0.02943648477379364</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2507229998273333</v>
+        <v>0.2393502152718955</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09310637487847875</v>
+        <v>0.0755388668249507</v>
       </c>
       <c r="M218" t="n">
-        <v>0.25147456594597</v>
+        <v>0.2387389619138841</v>
       </c>
       <c r="N218" t="n">
-        <v>0.150444200613352</v>
+        <v>0.1213307967174599</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2507229998273333</v>
+        <v>0.236953103267993</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0197142449588196</v>
+        <v>0.005556241070497292</v>
       </c>
       <c r="G219" t="n">
-        <v>0.25040475040594</v>
+        <v>0.04858654824554859</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03609259497911751</v>
+        <v>0.02905464946863491</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2523617122445054</v>
+        <v>0.2409145957638687</v>
       </c>
       <c r="L219" t="n">
-        <v>0.09354202912361728</v>
+        <v>0.07583099854528236</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2531181905599959</v>
+        <v>0.2402993472858703</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1496998854963121</v>
+        <v>0.1217139792440925</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2523617122445054</v>
+        <v>0.2385018163612479</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0207195583199996</v>
+        <v>0.005373411610457374</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2520307552787059</v>
+        <v>0.04856578448983181</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03600297890621225</v>
+        <v>0.02908458549230433</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2540004246616775</v>
+        <v>0.2424789762558418</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09327000482537223</v>
+        <v>0.07505386605980677</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2547618151740219</v>
+        <v>0.2418597326578565</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1502432371873396</v>
+        <v>0.1211480286037571</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2540004246616775</v>
+        <v>0.2400505294545028</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02072318352020407</v>
+        <v>0.005197113034952773</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2536567601514717</v>
+        <v>0.04854502073411503</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03601037731793935</v>
+        <v>0.02912775829207365</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2556391370788496</v>
+        <v>0.244043356747815</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0927902200696383</v>
+        <v>0.07541123215223944</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2564054397880478</v>
+        <v>0.2434201180298426</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1500741246980435</v>
+        <v>0.1204388808846427</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2556391370788496</v>
+        <v>0.2415992425477576</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02072510301870759</v>
+        <v>0.005027620203045528</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2552827650242375</v>
+        <v>0.04852425697839825</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03601475883896213</v>
+        <v>0.02918563331521457</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2572778494960217</v>
+        <v>0.2456077372397882</v>
       </c>
       <c r="L222" t="n">
-        <v>0.09300259294230995</v>
+        <v>0.07510685960629568</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2580490644020738</v>
+        <v>0.2449805034018288</v>
       </c>
       <c r="N222" t="n">
-        <v>0.150592417040033</v>
+        <v>0.1205924721749383</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2572778494960217</v>
+        <v>0.2431479556410124</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01872138648564341</v>
+        <v>0.004865207973797706</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2569087698970034</v>
+        <v>0.04850349322268147</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03621589086782953</v>
+        <v>0.02895967600899883</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2589165619131938</v>
+        <v>0.2471721177317614</v>
       </c>
       <c r="L223" t="n">
-        <v>0.09310704152928156</v>
+        <v>0.07544451120569096</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2596926890160997</v>
+        <v>0.246540888773815</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1509971431292327</v>
+        <v>0.1206147385628331</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2589165619131938</v>
+        <v>0.2446966687342673</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01967512722286487</v>
+        <v>0.004710151206271461</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2585347747697692</v>
+        <v>0.04848272946696469</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03596279794545172</v>
+        <v>0.02885134054379086</v>
       </c>
       <c r="K224" t="n">
-        <v>0.260555274330366</v>
+        <v>0.2487364982237345</v>
       </c>
       <c r="L224" t="n">
-        <v>0.09349798557076952</v>
+        <v>0.07462768748862916</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2613363136301256</v>
+        <v>0.2481012741458012</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1501754863373785</v>
+        <v>0.1213078600440611</v>
       </c>
       <c r="O224" t="n">
-        <v>0.260555274330366</v>
+        <v>0.2462453818275222</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02058157655206747</v>
+        <v>0.004562724759528819</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2601607796425351</v>
+        <v>0.04846196571124791</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03592273627568665</v>
+        <v>0.02895702102287899</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2621939867475381</v>
+        <v>0.2503008787157077</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09305990344219334</v>
+        <v>0.07504498501602799</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2629799382441516</v>
+        <v>0.2496616595177873</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1490907451140388</v>
+        <v>0.1215477339168835</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2621939867475381</v>
+        <v>0.247794094920777</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01944620267832335</v>
+        <v>0.004423203492631873</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2617867845153009</v>
+        <v>0.04844120195553113</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03560548691211445</v>
+        <v>0.02917251979497849</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2638326991647102</v>
+        <v>0.2518652592076809</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09231792707052533</v>
+        <v>0.07538738052588673</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2646235628581775</v>
+        <v>0.2512220448897735</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1480837542232545</v>
+        <v>0.1217266797179847</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2638326991647102</v>
+        <v>0.2493428080140319</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02027447380670468</v>
+        <v>0.004291862264642697</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2634127893880668</v>
+        <v>0.04842043819981436</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03542083090831531</v>
+        <v>0.02909714770801303</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2654714115818823</v>
+        <v>0.253429639699654</v>
       </c>
       <c r="L227" t="n">
-        <v>0.09119759263609167</v>
+        <v>0.07495310450369586</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2662671874722035</v>
+        <v>0.2527824302617597</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1472953484290663</v>
+        <v>0.1207419058986143</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2654714115818823</v>
+        <v>0.2508915211072867</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01907185814228365</v>
+        <v>0.00416897593462337</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2650387942608326</v>
+        <v>0.04839967444409757</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03497854931786935</v>
+        <v>0.02923021560990627</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2671101239990544</v>
+        <v>0.2549940201916272</v>
       </c>
       <c r="L228" t="n">
-        <v>0.09052443631921839</v>
+        <v>0.07484038743494587</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2679108120862295</v>
+        <v>0.2543428156337458</v>
       </c>
       <c r="N228" t="n">
-        <v>0.145466362495515</v>
+        <v>0.1208906209100213</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2671101239990544</v>
+        <v>0.2524402342005416</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01784382389013241</v>
+        <v>0.004054819361635952</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2666647991335984</v>
+        <v>0.04837891068838079</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03448842319435677</v>
+        <v>0.02917103434858191</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2687488364162265</v>
+        <v>0.2565584006836004</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08952399430023181</v>
+        <v>0.07554745980512725</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2695544367002554</v>
+        <v>0.255903201005732</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1442376311866413</v>
+        <v>0.121270033203455</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2687488364162265</v>
+        <v>0.2539889472937964</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01859583925532314</v>
+        <v>0.003949667404742549</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2682908040063643</v>
+        <v>0.04835814693266402</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03416023359135767</v>
+        <v>0.02911891477196359</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2703875488333987</v>
+        <v>0.2581227811755736</v>
       </c>
       <c r="L230" t="n">
-        <v>0.08892180275945799</v>
+        <v>0.07537255209973065</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2711980613142813</v>
+        <v>0.2574635863777182</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1419499892664861</v>
+        <v>0.1221773512301647</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2703875488333987</v>
+        <v>0.2555376603870513</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01933337244292799</v>
+        <v>0.003853794923005228</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2699168088791301</v>
+        <v>0.04833738317694724</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03380376156245228</v>
+        <v>0.029173167727975</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2720262612505707</v>
+        <v>0.2596871616675467</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08754339787722307</v>
+        <v>0.07511389480424646</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2728416859283073</v>
+        <v>0.2590239717497043</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1415442714990899</v>
+        <v>0.1226097834413997</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2720262612505707</v>
+        <v>0.2570863734803062</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01706189165801914</v>
+        <v>0.003767476775486056</v>
       </c>
       <c r="G232" t="n">
-        <v>0.271542813751896</v>
+        <v>0.04831661942123047</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0333287881612207</v>
+        <v>0.02913310406453984</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2736649736677428</v>
+        <v>0.2612515421595199</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08661431583385323</v>
+        <v>0.07596971840416525</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2744853105423332</v>
+        <v>0.2605843571216905</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1393613126484938</v>
+        <v>0.122364538288409</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2736649736677428</v>
+        <v>0.258635086573561</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01778686510566875</v>
+        <v>0.003690987821247126</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2731688186246619</v>
+        <v>0.04829585566551368</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03294509444124312</v>
+        <v>0.02949803462958173</v>
       </c>
       <c r="K233" t="n">
-        <v>0.275303686084915</v>
+        <v>0.2628159226514931</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08536009280967466</v>
+        <v>0.07553825338497755</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2761289351563592</v>
+        <v>0.2621447424936766</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1374419474787382</v>
+        <v>0.122338824222442</v>
       </c>
       <c r="O233" t="n">
-        <v>0.275303686084915</v>
+        <v>0.2601837996668159</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01651376099094899</v>
+        <v>0.00362460291935051</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2747948234974277</v>
+        <v>0.0482750919097969</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03246246145609968</v>
+        <v>0.0292672702710244</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2769423985020871</v>
+        <v>0.2643803031434663</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08390626498501341</v>
+        <v>0.07651773023217381</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2777725597703851</v>
+        <v>0.2637051278656629</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1344270107538642</v>
+        <v>0.1230298496947481</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2769423985020871</v>
+        <v>0.2617325127600707</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01624804751893204</v>
+        <v>0.003568596928858289</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2764208283701935</v>
+        <v>0.04825432815408013</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03179067025937055</v>
+        <v>0.02964012183679149</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2785811109192592</v>
+        <v>0.2659446836354394</v>
       </c>
       <c r="L235" t="n">
-        <v>0.08287836854019576</v>
+        <v>0.07600637943124458</v>
       </c>
       <c r="M235" t="n">
-        <v>0.279416184384411</v>
+        <v>0.265265513237649</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1328573372379123</v>
+        <v>0.1224348231565762</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2785811109192592</v>
+        <v>0.2632812258533256</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01699519289469004</v>
+        <v>0.003523244708832543</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2780468332429594</v>
+        <v>0.04823356439836335</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03153950190463589</v>
+        <v>0.02971590017480669</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2802198233364313</v>
+        <v>0.2675090641274126</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08120193965554773</v>
+        <v>0.07660243146768042</v>
       </c>
       <c r="M236" t="n">
-        <v>0.281059808998437</v>
+        <v>0.2668258986096352</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1304737616949235</v>
+        <v>0.1231509530591758</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2802198233364313</v>
+        <v>0.2648299389465804</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01676066532329519</v>
+        <v>0.003488821118335338</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2796728381157252</v>
+        <v>0.04821280064264657</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03081873744547585</v>
+        <v>0.02969391613299366</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2818585357536034</v>
+        <v>0.2690734446193858</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07970251451139559</v>
+        <v>0.07690411682697176</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2827034336124629</v>
+        <v>0.2683862839816213</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1298171188889383</v>
+        <v>0.123775447853796</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2818585357536034</v>
+        <v>0.2663786520398353</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01754366777920413</v>
+        <v>0.003465601016428767</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2812988429884911</v>
+        <v>0.04819203688692979</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03043288995363438</v>
+        <v>0.02987348055927609</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2834972481707755</v>
+        <v>0.270637825111359</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07879621976443857</v>
+        <v>0.0773096659946092</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2843470582264889</v>
+        <v>0.2699466693536075</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1274062503709466</v>
+        <v>0.1243055159916862</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2834972481707755</v>
+        <v>0.2679273651330901</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01632723565798888</v>
+        <v>0.003453859262174896</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2829248478612569</v>
+        <v>0.04817127313121301</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0300520208133276</v>
+        <v>0.02995390430157766</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2851359605879477</v>
+        <v>0.2722022056033321</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07790807427586693</v>
+        <v>0.07721730945608321</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2859906828405149</v>
+        <v>0.2715070547255937</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1259161658930958</v>
+        <v>0.1245383659240955</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2851359605879477</v>
+        <v>0.269476078226345</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01510998338244977</v>
+        <v>0.003452748373465667</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2845508527340228</v>
+        <v>0.04815050937549623</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02976970052003002</v>
+        <v>0.03003449820782202</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2867746730051198</v>
+        <v>0.2737665860953053</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07761615598880178</v>
+        <v>0.07772527769688431</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2876343074545408</v>
+        <v>0.2730674400975799</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1245200230198503</v>
+        <v>0.123971206102273</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2867746730051198</v>
+        <v>0.2710247913195999</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01489189799820624</v>
+        <v>0.00345580916234222</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2861768576067886</v>
+        <v>0.04812974561977945</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02928590590206302</v>
+        <v>0.03011457312593285</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2884133854222919</v>
+        <v>0.2753309665872785</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07652040440708494</v>
+        <v>0.07723180120250298</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2892779320685667</v>
+        <v>0.274627825469566</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1234177250121397</v>
+        <v>0.1255012449774683</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2884133854222919</v>
+        <v>0.2725735044128547</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01467296655087768</v>
+        <v>0.003462194146696504</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2878028624795544</v>
+        <v>0.04810898186406267</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02900061378774793</v>
+        <v>0.03009343990383384</v>
       </c>
       <c r="K242" t="n">
-        <v>0.290052097839464</v>
+        <v>0.2768953470792517</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07552075903455818</v>
+        <v>0.07723511045842982</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2909215566825927</v>
+        <v>0.2761882108415522</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1208091751308939</v>
+        <v>0.1253256910009304</v>
       </c>
       <c r="O242" t="n">
-        <v>0.290052097839464</v>
+        <v>0.2741222175061095</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0144531760860835</v>
+        <v>0.003472178185590584</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2894288673523203</v>
+        <v>0.0480882181083459</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02881380100540612</v>
+        <v>0.02997053110874387</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2916908102566361</v>
+        <v>0.2784597275712248</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07411715937506341</v>
+        <v>0.07763394987308464</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2925651812966186</v>
+        <v>0.2777485962135384</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1198942766370422</v>
+        <v>0.1251439734718411</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2916908102566361</v>
+        <v>0.2756709305993644</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0162325136494431</v>
+        <v>0.00348603613808654</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2910548722250861</v>
+        <v>0.04806745435262912</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02812544438335893</v>
+        <v>0.0303495423561949</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2933295226738082</v>
+        <v>0.280024108063198</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07270954493244242</v>
+        <v>0.07803839253521744</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2942088059106446</v>
+        <v>0.2793089815855245</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1175729327915146</v>
+        <v>0.1255738408262057</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2933295226738082</v>
+        <v>0.2772196436926193</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01601096628657587</v>
+        <v>0.003504042863246445</v>
       </c>
       <c r="G245" t="n">
-        <v>0.292680877097852</v>
+        <v>0.04804669059691234</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02773552074992772</v>
+        <v>0.03033241408111448</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2949682350909803</v>
+        <v>0.2815884885551712</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07239785521053707</v>
+        <v>0.07815276052616893</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2958524305246705</v>
+        <v>0.2808693669575107</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1159450468552407</v>
+        <v>0.1259194262289202</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2949682350909803</v>
+        <v>0.2787683567858741</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01578852104310122</v>
+        <v>0.003526473220132387</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2943068819706178</v>
+        <v>0.04802592684119556</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02754400693343381</v>
+        <v>0.03051905137184309</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2966069475081524</v>
+        <v>0.2831528690471443</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07128202971318923</v>
+        <v>0.0789768101442013</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2974960551386965</v>
+        <v>0.2824297523294969</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1139105220891502</v>
+        <v>0.1267803452212653</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2966069475081524</v>
+        <v>0.280317069879129</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01356516496463857</v>
+        <v>0.003553602067806437</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2959328868433836</v>
+        <v>0.04800516308547878</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02695087976219862</v>
+        <v>0.03060935931672117</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2982456599253245</v>
+        <v>0.2847172495391175</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07016200794424068</v>
+        <v>0.07891029768757665</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2991396797527224</v>
+        <v>0.2839901377014831</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1134692617541728</v>
+        <v>0.1273562133445219</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2982456599253245</v>
+        <v>0.2818657829723838</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01434088509680732</v>
+        <v>0.003585704265330669</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2975588917161495</v>
+        <v>0.04798439932976201</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02665611606454343</v>
+        <v>0.0306032430040892</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2998843723424967</v>
+        <v>0.2862816300310907</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06893772940753329</v>
+        <v>0.07945297945455709</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3007833043667484</v>
+        <v>0.2855505230734692</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1109211691112382</v>
+        <v>0.1280466461399707</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2998843723424967</v>
+        <v>0.2834144960656387</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01411566848522686</v>
+        <v>0.003623054671767177</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2991848965889153</v>
+        <v>0.04796363557404523</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02615969266878967</v>
+        <v>0.03080060752228769</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3015230847596688</v>
+        <v>0.2878460105230639</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06780913360690888</v>
+        <v>0.07910461174340477</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3024269289807743</v>
+        <v>0.2871109084454554</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1102661474212761</v>
+        <v>0.1275512591488926</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3015230847596688</v>
+        <v>0.2849632091588936</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01288950217551661</v>
+        <v>0.003665928146178034</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3008109014616812</v>
+        <v>0.04794287181832844</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02596158640325863</v>
+        <v>0.03070135795965706</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3031617971768409</v>
+        <v>0.289410391015037</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06707616004620928</v>
+        <v>0.07916495085238182</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3040705535948003</v>
+        <v>0.2886712938174416</v>
       </c>
       <c r="N250" t="n">
-        <v>0.108504099945216</v>
+        <v>0.1280696679125683</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3031617971768409</v>
+        <v>0.2865119222521484</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01266237321329595</v>
+        <v>0.003714599547625305</v>
       </c>
       <c r="G251" t="n">
-        <v>0.302436906334447</v>
+        <v>0.04792210806261167</v>
       </c>
       <c r="J251" t="n">
-        <v>0.0256617740962717</v>
+        <v>0.0307053994045378</v>
       </c>
       <c r="K251" t="n">
-        <v>0.304800509594013</v>
+        <v>0.2909747715070102</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0664387482292764</v>
+        <v>0.08013375307975035</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3057141782088262</v>
+        <v>0.2902316791894278</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1065349299439879</v>
+        <v>0.1285014879722787</v>
       </c>
       <c r="O251" t="n">
-        <v>0.304800509594013</v>
+        <v>0.2880606353454033</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01243426864418432</v>
+        <v>0.003769343735171078</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3040629112072128</v>
+        <v>0.04790134430689489</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02516023257615019</v>
+        <v>0.03101263694527034</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3064392220111851</v>
+        <v>0.2925391519989834</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06449683765995196</v>
+        <v>0.08031077472377246</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3073578028228521</v>
+        <v>0.2917920645614139</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1046585406785212</v>
+        <v>0.1294463348693046</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3064392220111851</v>
+        <v>0.2896093484386581</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01220517551380109</v>
+        <v>0.00383043556787744</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3056889160799787</v>
+        <v>0.04788058055117811</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02485693867121552</v>
+        <v>0.0310229756701952</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3080779344283572</v>
+        <v>0.2941035324909566</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0640503678420779</v>
+        <v>0.08059577208271032</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3090014274368781</v>
+        <v>0.2933524499334001</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1024748354097459</v>
+        <v>0.1290038241449266</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3080779344283572</v>
+        <v>0.291158061531913</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01397508086776569</v>
+        <v>0.003898149904806442</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3073149209527446</v>
+        <v>0.04785981679546134</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02445186920978898</v>
+        <v>0.03133632066765284</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3097166468455294</v>
+        <v>0.2956679129829297</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06269927827949601</v>
+        <v>0.08068850145482603</v>
       </c>
       <c r="M254" t="n">
-        <v>0.310645052050904</v>
+        <v>0.2949128353053863</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1007837173985915</v>
+        <v>0.1301735713404258</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3097166468455294</v>
+        <v>0.2927067746251679</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0127439717516975</v>
+        <v>0.003972761605020199</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3089409258255104</v>
+        <v>0.04783905303974455</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02404500102019194</v>
+        <v>0.03145257702598368</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3113553592627015</v>
+        <v>0.2972322934749029</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06204350847604806</v>
+        <v>0.08128871913838173</v>
       </c>
       <c r="M255" t="n">
-        <v>0.31228867666493</v>
+        <v>0.2964732206773724</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1000850899059877</v>
+        <v>0.1304551919970828</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3113553592627015</v>
+        <v>0.2942554877184227</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01351183521121595</v>
+        <v>0.004054545527580784</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3105669306982762</v>
+        <v>0.04781828928402777</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02363631093074577</v>
+        <v>0.03157164983352824</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3129940716798736</v>
+        <v>0.2987966739668761</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06118299793557602</v>
+        <v>0.08079618143163952</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3139323012789559</v>
+        <v>0.2980336060493586</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09817885619286421</v>
+        <v>0.1318483016561785</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3129940716798736</v>
+        <v>0.2958042008116775</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01327865829194041</v>
+        <v>0.004143776531550236</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3121929355710421</v>
+        <v>0.04779752552831099</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02312577576977182</v>
+        <v>0.03139344417862697</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3146327840970457</v>
+        <v>0.3003610544588493</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05951768616192163</v>
+        <v>0.08131064463286153</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3155759258929819</v>
+        <v>0.2995939914213448</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09656491952015073</v>
+        <v>0.1316525158589936</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3146327840970457</v>
+        <v>0.2973529139049324</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01304442803949032</v>
+        <v>0.004240729475990669</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3138189404438079</v>
+        <v>0.04777676177259421</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02271337236559143</v>
+        <v>0.03151786514962034</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3162714965142178</v>
+        <v>0.3019254349508224</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05884751265892676</v>
+        <v>0.08163186504030986</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3172195505070078</v>
+        <v>0.301154376793331</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09394318314877698</v>
+        <v>0.1315674501468088</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3162714965142178</v>
+        <v>0.2989016269981873</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01080913149948504</v>
+        <v>0.004345679219964149</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3154449453165738</v>
+        <v>0.04775599801687744</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02239907754652595</v>
+        <v>0.03184481783484878</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3179102089313899</v>
+        <v>0.3034898154427956</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05777241693043328</v>
+        <v>0.08235959895224673</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3188631751210338</v>
+        <v>0.3027147621653171</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09311355033967261</v>
+        <v>0.1325927200609052</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3179102089313899</v>
+        <v>0.3004503400914421</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01257275571754404</v>
+        <v>0.004458900622532749</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3170709501893396</v>
+        <v>0.04773523426116066</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02198286814089677</v>
+        <v>0.03207420732265281</v>
       </c>
       <c r="K260" t="n">
-        <v>0.319548921348562</v>
+        <v>0.3050541959347688</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05619233848028293</v>
+        <v>0.08229360266693414</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3205067997350597</v>
+        <v>0.3042751475373033</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09177592435376736</v>
+        <v>0.1336279411425634</v>
       </c>
       <c r="O260" t="n">
-        <v>0.319548921348562</v>
+        <v>0.301999053184697</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01133528773928667</v>
+        <v>0.004580668542758549</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3186969550621055</v>
+        <v>0.04771447050544388</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02156472097702521</v>
+        <v>0.03210593870137288</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3211876337657341</v>
+        <v>0.306618576426742</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05510721681231767</v>
+        <v>0.08283363248263431</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3221504243490857</v>
+        <v>0.3058355329092894</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08883020845199086</v>
+        <v>0.1329727289330642</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3211876337657341</v>
+        <v>0.3035477662779518</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01209671461033233</v>
+        <v>0.00471125783970365</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3203229599348713</v>
+        <v>0.0476937067497271</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02114461288323259</v>
+        <v>0.03233991705934948</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3228263461829062</v>
+        <v>0.3081829569187151</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05451699143037925</v>
+        <v>0.0836794446976093</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3237940489631116</v>
+        <v>0.3073959182812757</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08807630589527288</v>
+        <v>0.1346266989736885</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3228263461829062</v>
+        <v>0.3050964793712067</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.009857023376300469</v>
+        <v>0.004850943372430097</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3219489648076371</v>
+        <v>0.04767294299401032</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02042252068784034</v>
+        <v>0.03217604748492303</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3244650586000784</v>
+        <v>0.3097473374106883</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05322160183830954</v>
+        <v>0.08353079561012122</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3254376735771376</v>
+        <v>0.3089563036532618</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08501411994454294</v>
+        <v>0.135289466805717</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3244650586000784</v>
+        <v>0.3066451924644616</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01161620108281046</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.323574969680403</v>
+        <v>0.04765217923829355</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02009842121916977</v>
+        <v>0.03251423506643403</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3261037710172505</v>
+        <v>0.3113117179026615</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05222098753995039</v>
+        <v>0.08378744151843232</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3270812981911635</v>
+        <v>0.310516689025248</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08474355386073101</v>
+        <v>0.1356606479704305</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3261037710172505</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.3081939055577164</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04763902134355671</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005268532928965314</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04763928987202072</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.00553442564802345</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04763955840048474</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005797596270514245</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04763982692894875</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006057962909800554</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04764009545741277</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.00631544367922246</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04764036398587679</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.00656995669214256</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04764063251434081</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006821420061901201</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04764090104280482</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007069751901860724</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04764116957126884</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007314870325361732</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04764143809973286</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007556693445766288</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04764170662819688</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.007795139376415287</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04764197515666089</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008030126230670502</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04764224368512491</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008261572121873111</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04764251221358893</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008489395163384615</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04764278074205295</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.008713513468546485</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04764304927051696</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.00893384515071987</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04764331779898098</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.00915030832324662</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.047643586327445</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009362821099482957</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04764385485590901</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009571301592784777</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04764412338437303</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.009775667916494431</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04764439191283704</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.009975838183972213</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04764466044130106</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01017173050856082</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04764492896976508</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01036326300362017</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0476451974982291</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01055035378249336</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04764546602669312</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01073325532902166</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04764573455515714</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01091389197943906</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04764600308362115</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01109251621758658</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04764627161208517</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01126904615680789</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04764654014054918</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01144339991046205</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.0476468086690132</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01161549559189289</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04764707719747722</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0117852513144593</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04764734572594124</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0119525851915053</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04764761425440525</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01211741533638602</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04764788278286926</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01227965986245637</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04764815131133329</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0124392368830607</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04764841983979731</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01259606451155736</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04764868836826133</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01275006086129091</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04764895689672534</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0129011440456195</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04764922542518936</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01304923217788792</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04764949395365337</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01319424337145404</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04764976248211739</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01333609573966295</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04765003101058141</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01347470739587225</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04765029953904543</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01360999645342727</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04765056806750944</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01374188102568533</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04765083659597346</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01387027922599211</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04765110512443747</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01399510916770458</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04765137365290149</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01411628896416872</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04765164218136551</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01423373672874122</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04765191070982953</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01434737057476836</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04765217923829355</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01434737057476836</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04763902134355671</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01443993941883676</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04766032215620152</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01452946602263284</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04768162296884633</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01461587952372861</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04770292378149114</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01469910905969603</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04772422459413596</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01477908376810707</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04774552540678077</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01485573278653372</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04776682621942558</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01492898525254795</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04778812703207039</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01499877030372173</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04780942784471521</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01506501707762706</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04783072865736002</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0151276547118359</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04785202947000483</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01518661234392023</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04787333028264965</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01524181911145203</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04789463109529446</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01529320415200328</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04791593190793927</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01534069660314595</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04793723272058409</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01538422560245202</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0479585335332289</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01542372028749348</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04797983434587371</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01545910979584227</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04800113515851853</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01549032326507042</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04802243597116334</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01551728983274986</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04804373678380815</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01553993863645259</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04806503759645296</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0155581988137506</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04808633840909778</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01557199950221584</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04810763922174259</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.0155812698394203</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.0481289400343874</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01558593896293595</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04815024084703221</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01558622536524921</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04817154165967703</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.0155837943134186</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04819284247232184</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01557886429993054</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04821414328496666</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01557136446235698</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04823544409761147</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01556122393826991</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04825674491025628</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01554837186524131</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04827804572290109</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01553273738084315</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04829934653554591</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01551424962264742</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04832064734819072</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01549283772822609</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04834194816083554</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01546843083515113</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04836324897348034</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01544095808099454</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04838454978612516</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01541034860332827</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04840585059876997</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01537653153972431</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04842715141141479</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01533943602775464</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0484484522240596</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01529899120499124</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04846975303670441</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01525512620900608</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04849105384934922</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01520777017737113</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04851235466199404</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01515685224765838</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04853365547463885</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01510230155743981</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04855495628728366</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01504404724428738</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04857625709992847</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01498201844577308</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04859755791257329</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01491614429946889</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0486188587252181</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01484635394294678</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04864015953786292</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01477257651377873</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04866146035050772</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01469474114953672</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04868276116315254</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01469474114953672</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04868276116315254</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01516721111056524</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05167353727877482</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01562371517300102</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0546643133943971</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.0160639066126816</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05765508951001939</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01648743870544448</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06064586562564167</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01689396472712721</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06363664174126396</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01728313795356728</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06662741785688624</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01765461166060224</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06961819397250851</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01800803912406961</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.0726089700881308</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01834307361980691</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07559974620375308</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01865936842365166</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07859052231937536</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01895657681144138</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08158129843499765</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01923435205901361</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08457207455061992</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01949234744220585</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08756285066624221</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01973021623685563</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09055362678186449</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0199476117188005</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09354440289748678</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02014418716387794</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09653517901310907</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0203195958479255</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09952595512873134</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0204734910467807</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1025167312443536</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02060552603628105</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1055075073599759</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02071535409226409</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1084982834755982</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02080262849056733</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1114890595912205</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02086700250702831</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1144798357068428</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02092632153271563</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.117470611822465</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02092566249777356</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1204613879380873</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02091928682468752</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1234521640537096</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02089040622314274</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1264429401693319</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02084187472811911</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1294337162849542</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02077657294155164</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1324244924005764</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02069738146537532</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1354152685161987</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02060718090152516</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.138406044631821</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02050885185193616</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1413968207474433</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02040527491854333</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1443875968630656</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02029933070328168</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1473783729786879</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.0201938998080862</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02009186283489191</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1533599252099324</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.01999610038563378</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1563507013255547</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.01990566352085476</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.159341477441177</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.01979770116593645</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1623322535567993</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.01967687226733256</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1653230296724215</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.01955406014170501</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1683138057880438</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.01944014810571573</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1713045819036661</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.01934601947602661</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1742953580192884</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0192825575692996</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1772861341349107</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0192606219684086</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.180276910250533</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.01927681241481655</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1832676863661552</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.01931900181174062</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1862584624817775</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.01938208911328203</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1892492385973998</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.01946097327354205</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1922400147130221</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.01955055324662191</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1952307908286444</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.01964572798662283</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1982215669442667</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.01974139644764608</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2012123430598889</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.01983245758379289</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2042031191755112</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.0199138103491645</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2071938952911335</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.01998035369786216</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2101846714067558</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02002698658398709</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2131754475223781</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02004860796164055</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2161662236380003</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02003099561116245</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2191569997536226</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.01995443627358341</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2221477758692449</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.01982642412642204</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2251385519848672</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.01965550865814965</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2281293281004895</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.01945023935723757</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2311201042161118</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.01921916571215709</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2341108803317341</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.01897083721137952</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2371016564473563</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.01871380334337615</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2400924325629786</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.01845661359661832</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2430832086786009</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.01820781745957732</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2460739847942232</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.01797596442072447</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2490647609098454</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.01776960396853106</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2520555370254677</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.01759728559146841</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2550463131410901</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.01746224835857103</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2580370892567123</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.0173291010092396</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2610278653723346</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.01719442812560885</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2640186414879569</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.01706408969388663</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2670094176035792</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.01694394570028075</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2700001937192014</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.01683985613099907</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2729909698348237</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.01675768097224942</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.275981745950446</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.01670328021023964</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2789725220660683</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.01668251383117756</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2819632981816906</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.01669201380180785</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2849540742973128</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.01672097091871304</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2879448504129351</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.01676660712374695</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2909356265285574</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.01682616665643957</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2939264026441797</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.01689689375632089</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.296917178759802</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.01697603266292089</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2999079548754243</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.01706082761576955</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3028987309910465</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.01714852285439685</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3058895071066688</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.01723636261833281</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3088802832222911</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.01732164103440603</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3118710593379134</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.01740988560104313</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3148618354535357</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.01750602975561723</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.317852611569158</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.01760969396825608</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3208433876847802</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.01772049870908744</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3238341638004025</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.01783806444823906</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3268249399160248</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.01796201165583874</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3298157160316471</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.0180919608020142</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3328064921472694</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.01822753235689319</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3357972682628916</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.01836834679060349</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3387880443785139</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.01851402457327288</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3417788204941362</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.01866418617502907</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3447695966097585</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
